--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\Gamelab1-Jaar2\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\KappaSquad\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="643">
   <si>
     <t>Arne</t>
   </si>
@@ -1943,6 +1943,18 @@
   </si>
   <si>
     <t>WEEK 43</t>
+  </si>
+  <si>
+    <t>AutoSavePoint.cs</t>
+  </si>
+  <si>
+    <t>DataManager.cs</t>
+  </si>
+  <si>
+    <t>XMLManager.cs</t>
+  </si>
+  <si>
+    <t>XMLFile.cs</t>
   </si>
 </sst>
 </file>
@@ -2082,7 +2094,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2108,6 +2120,7 @@
     <xf numFmtId="43" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -4419,10 +4432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J359"/>
+  <dimension ref="A1:J363"/>
   <sheetViews>
-    <sheetView topLeftCell="B243" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F287" sqref="F287"/>
+    <sheetView topLeftCell="B297" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C307" sqref="C307:C310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9544,21 +9557,30 @@
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="14"/>
       <c r="B307" s="14"/>
-      <c r="C307" s="4"/>
+      <c r="C307" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="G307" t="s">
+        <v>471</v>
+      </c>
+      <c r="H307" t="s">
+        <v>1</v>
+      </c>
+      <c r="J307" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="14"/>
-      <c r="B308" s="7" t="s">
-        <v>405</v>
-      </c>
+      <c r="B308" s="14"/>
       <c r="C308" s="4" t="s">
-        <v>370</v>
+        <v>640</v>
       </c>
       <c r="G308" t="s">
         <v>471</v>
       </c>
       <c r="H308" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J308" t="s">
         <v>3</v>
@@ -9568,13 +9590,13 @@
       <c r="A309" s="14"/>
       <c r="B309" s="14"/>
       <c r="C309" s="4" t="s">
-        <v>371</v>
+        <v>641</v>
       </c>
       <c r="G309" t="s">
         <v>471</v>
       </c>
       <c r="H309" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J309" t="s">
         <v>3</v>
@@ -9584,13 +9606,13 @@
       <c r="A310" s="14"/>
       <c r="B310" s="14"/>
       <c r="C310" s="4" t="s">
-        <v>409</v>
+        <v>642</v>
       </c>
       <c r="G310" t="s">
         <v>471</v>
       </c>
       <c r="H310" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J310" t="s">
         <v>3</v>
@@ -9599,30 +9621,21 @@
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="14"/>
       <c r="B311" s="14"/>
-      <c r="C311" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="G311" t="s">
-        <v>471</v>
-      </c>
-      <c r="H311" t="s">
-        <v>2</v>
-      </c>
-      <c r="J311" t="s">
-        <v>3</v>
-      </c>
+      <c r="C311" s="4"/>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="14"/>
-      <c r="B312" s="14"/>
+      <c r="B312" s="7" t="s">
+        <v>405</v>
+      </c>
       <c r="C312" s="4" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="G312" t="s">
         <v>471</v>
       </c>
       <c r="H312" t="s">
-        <v>410</v>
+        <v>2</v>
       </c>
       <c r="J312" t="s">
         <v>3</v>
@@ -9630,11 +9643,9 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="14"/>
-      <c r="B313" s="14" t="s">
-        <v>406</v>
-      </c>
+      <c r="B313" s="14"/>
       <c r="C313" s="4" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G313" t="s">
         <v>471</v>
@@ -9650,7 +9661,7 @@
       <c r="A314" s="14"/>
       <c r="B314" s="14"/>
       <c r="C314" s="4" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="G314" t="s">
         <v>471</v>
@@ -9665,21 +9676,30 @@
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="14"/>
       <c r="B315" s="14"/>
-      <c r="C315" s="4"/>
+      <c r="C315" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G315" t="s">
+        <v>471</v>
+      </c>
+      <c r="H315" t="s">
+        <v>2</v>
+      </c>
+      <c r="J315" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="14"/>
-      <c r="B316" s="16" t="s">
-        <v>406</v>
-      </c>
+      <c r="B316" s="14"/>
       <c r="C316" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G316" t="s">
         <v>471</v>
       </c>
       <c r="H316" t="s">
-        <v>1</v>
+        <v>410</v>
       </c>
       <c r="J316" t="s">
         <v>3</v>
@@ -9687,15 +9707,17 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="14"/>
-      <c r="B317" s="14"/>
+      <c r="B317" s="14" t="s">
+        <v>406</v>
+      </c>
       <c r="C317" s="4" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="G317" t="s">
         <v>471</v>
       </c>
       <c r="H317" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J317" t="s">
         <v>3</v>
@@ -9705,13 +9727,13 @@
       <c r="A318" s="14"/>
       <c r="B318" s="14"/>
       <c r="C318" s="4" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G318" t="s">
         <v>471</v>
       </c>
       <c r="H318" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J318" t="s">
         <v>3</v>
@@ -9720,39 +9742,37 @@
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="14"/>
       <c r="B319" s="14"/>
-      <c r="C319" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="G319" t="s">
-        <v>471</v>
-      </c>
-      <c r="H319" t="s">
-        <v>1</v>
-      </c>
-      <c r="J319" t="s">
-        <v>3</v>
-      </c>
+      <c r="C319" s="4"/>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="14"/>
-      <c r="B320" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C320" s="4"/>
+      <c r="B320" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G320" t="s">
+        <v>471</v>
+      </c>
+      <c r="H320" t="s">
+        <v>1</v>
+      </c>
+      <c r="J320" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="14"/>
-      <c r="B321" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="B321" s="14"/>
       <c r="C321" s="4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G321" t="s">
         <v>471</v>
       </c>
       <c r="H321" t="s">
-        <v>410</v>
+        <v>1</v>
       </c>
       <c r="J321" t="s">
         <v>3</v>
@@ -9762,13 +9782,13 @@
       <c r="A322" s="14"/>
       <c r="B322" s="14"/>
       <c r="C322" s="4" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G322" t="s">
         <v>471</v>
       </c>
       <c r="H322" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J322" t="s">
         <v>3</v>
@@ -9778,13 +9798,13 @@
       <c r="A323" s="14"/>
       <c r="B323" s="14"/>
       <c r="C323" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G323" t="s">
         <v>471</v>
       </c>
       <c r="H323" t="s">
-        <v>410</v>
+        <v>1</v>
       </c>
       <c r="J323" t="s">
         <v>3</v>
@@ -9792,25 +9812,18 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="14"/>
-      <c r="B324" s="14"/>
-      <c r="C324" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="G324" t="s">
-        <v>471</v>
-      </c>
-      <c r="H324" t="s">
-        <v>410</v>
-      </c>
-      <c r="J324" t="s">
-        <v>3</v>
-      </c>
+      <c r="B324" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C324" s="4"/>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="14"/>
-      <c r="B325" s="14"/>
+      <c r="B325" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="C325" s="4" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="G325" t="s">
         <v>471</v>
@@ -9826,13 +9839,13 @@
       <c r="A326" s="14"/>
       <c r="B326" s="14"/>
       <c r="C326" s="4" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="G326" t="s">
         <v>471</v>
       </c>
       <c r="H326" t="s">
-        <v>410</v>
+        <v>2</v>
       </c>
       <c r="J326" t="s">
         <v>3</v>
@@ -9842,13 +9855,13 @@
       <c r="A327" s="14"/>
       <c r="B327" s="14"/>
       <c r="C327" s="4" t="s">
-        <v>501</v>
+        <v>402</v>
       </c>
       <c r="G327" t="s">
         <v>471</v>
       </c>
       <c r="H327" t="s">
-        <v>2</v>
+        <v>410</v>
       </c>
       <c r="J327" t="s">
         <v>3</v>
@@ -9858,7 +9871,7 @@
       <c r="A328" s="14"/>
       <c r="B328" s="14"/>
       <c r="C328" s="4" t="s">
-        <v>527</v>
+        <v>403</v>
       </c>
       <c r="G328" t="s">
         <v>471</v>
@@ -9873,21 +9886,30 @@
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="14"/>
       <c r="B329" s="14"/>
-      <c r="C329" s="4"/>
+      <c r="C329" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G329" t="s">
+        <v>471</v>
+      </c>
+      <c r="H329" t="s">
+        <v>410</v>
+      </c>
+      <c r="J329" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="14"/>
-      <c r="B330" s="18" t="s">
-        <v>395</v>
-      </c>
+      <c r="B330" s="14"/>
       <c r="C330" s="4" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="G330" t="s">
         <v>471</v>
       </c>
       <c r="H330" t="s">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="J330" t="s">
         <v>3</v>
@@ -9895,15 +9917,15 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="14"/>
-      <c r="B331" s="15"/>
+      <c r="B331" s="14"/>
       <c r="C331" s="4" t="s">
-        <v>394</v>
+        <v>501</v>
       </c>
       <c r="G331" t="s">
         <v>471</v>
       </c>
       <c r="H331" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J331" t="s">
         <v>3</v>
@@ -9911,15 +9933,15 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="14"/>
-      <c r="B332" s="15"/>
+      <c r="B332" s="14"/>
       <c r="C332" s="4" t="s">
-        <v>393</v>
+        <v>527</v>
       </c>
       <c r="G332" t="s">
         <v>471</v>
       </c>
       <c r="H332" t="s">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="J332" t="s">
         <v>3</v>
@@ -9927,25 +9949,16 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="14"/>
-      <c r="B333" s="15"/>
-      <c r="C333" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="G333" t="s">
-        <v>471</v>
-      </c>
-      <c r="H333" t="s">
-        <v>0</v>
-      </c>
-      <c r="J333" t="s">
-        <v>3</v>
-      </c>
+      <c r="B333" s="14"/>
+      <c r="C333" s="4"/>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="14"/>
-      <c r="B334" s="15"/>
+      <c r="B334" s="18" t="s">
+        <v>395</v>
+      </c>
       <c r="C334" s="4" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G334" t="s">
         <v>471</v>
@@ -9961,7 +9974,7 @@
       <c r="A335" s="14"/>
       <c r="B335" s="15"/>
       <c r="C335" s="4" t="s">
-        <v>529</v>
+        <v>394</v>
       </c>
       <c r="G335" t="s">
         <v>471</v>
@@ -9973,190 +9986,215 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="11" t="s">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336" s="14"/>
+      <c r="B336" s="15"/>
+      <c r="C336" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="G336" t="s">
+        <v>471</v>
+      </c>
+      <c r="H336" t="s">
+        <v>0</v>
+      </c>
+      <c r="J336" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337" s="14"/>
+      <c r="B337" s="15"/>
+      <c r="C337" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="G337" t="s">
+        <v>471</v>
+      </c>
+      <c r="H337" t="s">
+        <v>0</v>
+      </c>
+      <c r="J337" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338" s="14"/>
+      <c r="B338" s="15"/>
+      <c r="C338" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G338" t="s">
+        <v>471</v>
+      </c>
+      <c r="H338" t="s">
+        <v>0</v>
+      </c>
+      <c r="J338" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339" s="14"/>
+      <c r="B339" s="15"/>
+      <c r="C339" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="G339" t="s">
+        <v>471</v>
+      </c>
+      <c r="H339" t="s">
+        <v>0</v>
+      </c>
+      <c r="J339" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B336" s="11" t="s">
+      <c r="B340" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337" s="14"/>
-      <c r="B337" s="7" t="s">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341" s="14"/>
+      <c r="B341" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C341" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A338" s="14"/>
-      <c r="B338" s="14"/>
-      <c r="C338" t="s">
-        <v>310</v>
-      </c>
-      <c r="D338" t="s">
-        <v>311</v>
-      </c>
-      <c r="E338" t="s">
-        <v>605</v>
-      </c>
-      <c r="G338" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A339" s="14"/>
-      <c r="B339" s="14"/>
-      <c r="C339" t="s">
-        <v>312</v>
-      </c>
-      <c r="D339" t="s">
-        <v>313</v>
-      </c>
-      <c r="G339" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A340" s="14"/>
-      <c r="B340" s="14"/>
-      <c r="C340" t="s">
-        <v>591</v>
-      </c>
-      <c r="D340" t="s">
-        <v>592</v>
-      </c>
-      <c r="G340" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A341" s="14"/>
-      <c r="B341" s="14"/>
-      <c r="C341" t="s">
-        <v>593</v>
-      </c>
-      <c r="D341" t="s">
-        <v>594</v>
-      </c>
-      <c r="G341" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="14"/>
       <c r="B342" s="14"/>
       <c r="C342" t="s">
-        <v>595</v>
+        <v>310</v>
       </c>
       <c r="D342" t="s">
-        <v>596</v>
+        <v>311</v>
+      </c>
+      <c r="E342" t="s">
+        <v>605</v>
       </c>
       <c r="G342" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="14"/>
       <c r="B343" s="14"/>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C343" t="s">
+        <v>312</v>
+      </c>
+      <c r="D343" t="s">
+        <v>313</v>
+      </c>
+      <c r="G343" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="14"/>
-      <c r="B344" s="7" t="s">
-        <v>405</v>
-      </c>
+      <c r="B344" s="14"/>
       <c r="C344" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+      <c r="D344" t="s">
+        <v>592</v>
+      </c>
+      <c r="G344" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="14"/>
       <c r="B345" s="14"/>
       <c r="C345" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D345" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="G345" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="14"/>
       <c r="B346" s="14"/>
       <c r="C346" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D346" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G346" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="14"/>
       <c r="B347" s="14"/>
-      <c r="C347" t="s">
-        <v>279</v>
-      </c>
-      <c r="D347" t="s">
-        <v>603</v>
-      </c>
-      <c r="G347" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="14"/>
-      <c r="B348" s="14"/>
+      <c r="B348" s="7" t="s">
+        <v>405</v>
+      </c>
       <c r="C348" t="s">
-        <v>599</v>
-      </c>
-      <c r="D348" t="s">
-        <v>604</v>
-      </c>
-      <c r="G348" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="14"/>
       <c r="B349" s="14"/>
       <c r="C349" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="D349" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G349" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="14"/>
       <c r="B350" s="14"/>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C350" t="s">
+        <v>598</v>
+      </c>
+      <c r="D350" t="s">
+        <v>602</v>
+      </c>
+      <c r="G350" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="14"/>
-      <c r="B351" t="s">
-        <v>582</v>
-      </c>
+      <c r="B351" s="14"/>
       <c r="C351" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="D351" t="s">
+        <v>603</v>
+      </c>
+      <c r="G351" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="14"/>
       <c r="B352" s="14"/>
       <c r="C352" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="D352" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="G352" t="s">
         <v>477</v>
@@ -10166,10 +10204,10 @@
       <c r="A353" s="14"/>
       <c r="B353" s="14"/>
       <c r="C353" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D353" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="G353" t="s">
         <v>477</v>
@@ -10178,40 +10216,37 @@
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="14"/>
       <c r="B354" s="14"/>
-      <c r="C354" t="s">
-        <v>589</v>
-      </c>
-      <c r="D354" t="s">
-        <v>590</v>
-      </c>
-      <c r="E354" t="s">
-        <v>588</v>
-      </c>
-      <c r="G354" t="s">
-        <v>477</v>
-      </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="14"/>
-      <c r="B355" s="14"/>
+      <c r="B355" t="s">
+        <v>582</v>
+      </c>
+      <c r="C355" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="14"/>
-      <c r="B356" t="s">
-        <v>42</v>
-      </c>
+      <c r="B356" s="14"/>
       <c r="C356" t="s">
-        <v>51</v>
+        <v>584</v>
+      </c>
+      <c r="D356" t="s">
+        <v>586</v>
+      </c>
+      <c r="G356" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="14"/>
       <c r="B357" s="14"/>
       <c r="C357" t="s">
-        <v>314</v>
+        <v>585</v>
       </c>
       <c r="D357" t="s">
-        <v>315</v>
+        <v>587</v>
       </c>
       <c r="G357" t="s">
         <v>477</v>
@@ -10220,10 +10255,52 @@
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="14"/>
       <c r="B358" s="14"/>
+      <c r="C358" t="s">
+        <v>589</v>
+      </c>
+      <c r="D358" t="s">
+        <v>590</v>
+      </c>
+      <c r="E358" t="s">
+        <v>588</v>
+      </c>
+      <c r="G358" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="14"/>
       <c r="B359" s="14"/>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" s="14"/>
+      <c r="B360" t="s">
+        <v>42</v>
+      </c>
+      <c r="C360" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" s="14"/>
+      <c r="B361" s="14"/>
+      <c r="C361" t="s">
+        <v>314</v>
+      </c>
+      <c r="D361" t="s">
+        <v>315</v>
+      </c>
+      <c r="G361" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" s="14"/>
+      <c r="B362" s="14"/>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" s="14"/>
+      <c r="B363" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10235,8 +10312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10388,6 +10465,12 @@
         <v>391</v>
       </c>
       <c r="D3" s="14"/>
+      <c r="E3" s="25" t="s">
+        <v>639</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>639</v>
+      </c>
       <c r="G3" s="14"/>
       <c r="J3" s="14"/>
       <c r="M3" s="23"/>
@@ -10405,6 +10488,12 @@
         <v>400</v>
       </c>
       <c r="D4" s="14"/>
+      <c r="E4" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>640</v>
+      </c>
       <c r="G4" s="14"/>
       <c r="J4" s="14"/>
       <c r="M4" s="23"/>
@@ -10422,6 +10511,12 @@
         <v>385</v>
       </c>
       <c r="D5" s="14"/>
+      <c r="E5" s="25" t="s">
+        <v>641</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>641</v>
+      </c>
       <c r="G5" s="14"/>
       <c r="J5" s="14"/>
       <c r="M5" s="23"/>
@@ -10439,6 +10534,12 @@
         <v>386</v>
       </c>
       <c r="D6" s="14"/>
+      <c r="E6" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>642</v>
+      </c>
       <c r="G6" s="14"/>
       <c r="J6" s="14"/>
       <c r="M6" s="23"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="643">
   <si>
     <t>Arne</t>
   </si>
@@ -10312,8 +10312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11156,7 +11156,7 @@
         <v>152</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>336</v>
+        <v>253</v>
       </c>
       <c r="M35" s="23"/>
       <c r="N35" s="8" t="s">
@@ -11175,6 +11175,9 @@
       <c r="S35" s="14"/>
       <c r="T35" s="8" t="s">
         <v>254</v>
+      </c>
+      <c r="U35" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="V35" s="14"/>
       <c r="Y35" s="14"/>
@@ -11206,7 +11209,7 @@
         <v>154</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>337</v>
+        <v>256</v>
       </c>
       <c r="M36" s="23"/>
       <c r="N36" s="8" t="s">
@@ -11225,6 +11228,9 @@
       <c r="S36" s="14"/>
       <c r="T36" s="8" t="s">
         <v>264</v>
+      </c>
+      <c r="U36" s="8" t="s">
+        <v>337</v>
       </c>
       <c r="V36" s="14"/>
       <c r="Y36" s="14"/>
@@ -11256,7 +11262,7 @@
         <v>504</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>339</v>
+        <v>266</v>
       </c>
       <c r="M37" s="23"/>
       <c r="N37" s="8" t="s">
@@ -11275,6 +11281,9 @@
       <c r="S37" s="14"/>
       <c r="T37" s="8" t="s">
         <v>475</v>
+      </c>
+      <c r="U37" s="8" t="s">
+        <v>339</v>
       </c>
       <c r="V37" s="14"/>
       <c r="Y37" s="14"/>
@@ -11306,7 +11315,7 @@
         <v>570</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>344</v>
+        <v>254</v>
       </c>
       <c r="M38" s="23"/>
       <c r="N38" s="8" t="s">
@@ -11325,6 +11334,9 @@
       <c r="S38" s="14"/>
       <c r="T38" s="8" t="s">
         <v>608</v>
+      </c>
+      <c r="U38" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="V38" s="14"/>
       <c r="Y38" s="14"/>
@@ -11345,12 +11357,15 @@
         <v>574</v>
       </c>
       <c r="G39" s="14"/>
+      <c r="I39" s="8" t="s">
+        <v>504</v>
+      </c>
       <c r="J39" s="14"/>
       <c r="K39" s="8" t="s">
         <v>506</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>345</v>
+        <v>264</v>
       </c>
       <c r="M39" s="23"/>
       <c r="N39" s="8" t="s">
@@ -11367,6 +11382,12 @@
         <v>291</v>
       </c>
       <c r="S39" s="14"/>
+      <c r="T39" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="U39" s="8" t="s">
+        <v>345</v>
+      </c>
       <c r="V39" s="14"/>
       <c r="Y39" s="14"/>
     </row>
@@ -11380,13 +11401,13 @@
       </c>
       <c r="D40" s="14"/>
       <c r="G40" s="14"/>
+      <c r="I40" s="5" t="s">
+        <v>570</v>
+      </c>
       <c r="J40" s="14"/>
       <c r="K40" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="L40" s="8" t="s">
-        <v>350</v>
-      </c>
       <c r="M40" s="23"/>
       <c r="N40" s="8" t="s">
         <v>164</v>
@@ -11399,6 +11420,12 @@
         <v>293</v>
       </c>
       <c r="S40" s="14"/>
+      <c r="T40" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="U40" s="8" t="s">
+        <v>350</v>
+      </c>
       <c r="V40" s="14"/>
       <c r="Y40" s="14"/>
     </row>
@@ -11412,13 +11439,13 @@
       </c>
       <c r="D41" s="14"/>
       <c r="G41" s="14"/>
+      <c r="I41" s="8" t="s">
+        <v>506</v>
+      </c>
       <c r="J41" s="14"/>
       <c r="K41" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="L41" s="8" t="s">
-        <v>351</v>
-      </c>
       <c r="M41" s="23"/>
       <c r="N41" s="8" t="s">
         <v>237</v>
@@ -11431,6 +11458,12 @@
         <v>258</v>
       </c>
       <c r="S41" s="14"/>
+      <c r="T41" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="U41" s="8" t="s">
+        <v>351</v>
+      </c>
       <c r="V41" s="14"/>
       <c r="Y41" s="14"/>
     </row>
@@ -11444,13 +11477,13 @@
       </c>
       <c r="D42" s="14"/>
       <c r="G42" s="14"/>
+      <c r="I42" s="8" t="s">
+        <v>376</v>
+      </c>
       <c r="J42" s="14"/>
       <c r="K42" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="L42" s="8" t="s">
-        <v>356</v>
-      </c>
       <c r="M42" s="23"/>
       <c r="N42" s="8" t="s">
         <v>238</v>
@@ -11463,6 +11496,12 @@
         <v>259</v>
       </c>
       <c r="S42" s="14"/>
+      <c r="T42" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="U42" s="8" t="s">
+        <v>356</v>
+      </c>
       <c r="V42" s="14"/>
       <c r="Y42" s="14"/>
     </row>
@@ -11476,10 +11515,10 @@
       </c>
       <c r="D43" s="22"/>
       <c r="G43" s="14"/>
+      <c r="I43" s="8" t="s">
+        <v>377</v>
+      </c>
       <c r="J43" s="14"/>
-      <c r="L43" s="8" t="s">
-        <v>355</v>
-      </c>
       <c r="M43" s="23"/>
       <c r="N43" s="8" t="s">
         <v>239</v>
@@ -11489,6 +11528,12 @@
         <v>260</v>
       </c>
       <c r="S43" s="14"/>
+      <c r="T43" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="U43" s="8" t="s">
+        <v>355</v>
+      </c>
       <c r="V43" s="14"/>
       <c r="Y43" s="14"/>
     </row>
@@ -11500,10 +11545,16 @@
       <c r="C44" s="21"/>
       <c r="D44" s="22"/>
       <c r="G44" s="14"/>
+      <c r="I44" s="8" t="s">
+        <v>375</v>
+      </c>
       <c r="J44" s="14"/>
       <c r="M44" s="23"/>
       <c r="P44" s="14"/>
       <c r="S44" s="14"/>
+      <c r="T44" s="8" t="s">
+        <v>375</v>
+      </c>
       <c r="V44" s="14"/>
       <c r="Y44" s="14"/>
     </row>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="643">
   <si>
     <t>Arne</t>
   </si>
@@ -10312,8 +10312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11170,11 +11170,11 @@
         <v>79</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="S35" s="14"/>
       <c r="T35" s="8" t="s">
-        <v>254</v>
+        <v>475</v>
       </c>
       <c r="U35" s="8" t="s">
         <v>336</v>
@@ -11223,11 +11223,11 @@
         <v>77</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="S36" s="14"/>
       <c r="T36" s="8" t="s">
-        <v>264</v>
+        <v>608</v>
       </c>
       <c r="U36" s="8" t="s">
         <v>337</v>
@@ -11276,11 +11276,11 @@
         <v>78</v>
       </c>
       <c r="R37" s="8" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="S37" s="14"/>
       <c r="T37" s="8" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="U37" s="8" t="s">
         <v>339</v>
@@ -11329,11 +11329,11 @@
         <v>186</v>
       </c>
       <c r="R38" s="8" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="S38" s="14"/>
-      <c r="T38" s="8" t="s">
-        <v>608</v>
+      <c r="T38" s="5" t="s">
+        <v>570</v>
       </c>
       <c r="U38" s="8" t="s">
         <v>344</v>
@@ -11379,11 +11379,11 @@
         <v>210</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="S39" s="14"/>
       <c r="T39" s="8" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="U39" s="8" t="s">
         <v>345</v>
@@ -11417,11 +11417,11 @@
         <v>208</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="S40" s="14"/>
-      <c r="T40" s="5" t="s">
-        <v>570</v>
+      <c r="T40" s="8" t="s">
+        <v>376</v>
       </c>
       <c r="U40" s="8" t="s">
         <v>350</v>
@@ -11454,12 +11454,9 @@
       <c r="Q41" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="R41" s="8" t="s">
-        <v>258</v>
-      </c>
       <c r="S41" s="14"/>
       <c r="T41" s="8" t="s">
-        <v>506</v>
+        <v>377</v>
       </c>
       <c r="U41" s="8" t="s">
         <v>351</v>
@@ -11492,12 +11489,9 @@
       <c r="Q42" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="R42" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="S42" s="14"/>
       <c r="T42" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U42" s="8" t="s">
         <v>356</v>
@@ -11524,13 +11518,7 @@
         <v>239</v>
       </c>
       <c r="P43" s="14"/>
-      <c r="R43" s="8" t="s">
-        <v>260</v>
-      </c>
       <c r="S43" s="14"/>
-      <c r="T43" s="8" t="s">
-        <v>377</v>
-      </c>
       <c r="U43" s="8" t="s">
         <v>355</v>
       </c>
@@ -11552,9 +11540,6 @@
       <c r="M44" s="23"/>
       <c r="P44" s="14"/>
       <c r="S44" s="14"/>
-      <c r="T44" s="8" t="s">
-        <v>375</v>
-      </c>
       <c r="V44" s="14"/>
       <c r="Y44" s="14"/>
     </row>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\KappaSquad\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\OneDrive\Documenten\KappaSquad\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="643">
   <si>
     <t>Arne</t>
   </si>
@@ -4434,8 +4434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J363"/>
   <sheetViews>
-    <sheetView topLeftCell="B297" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C307" sqref="C307:C310"/>
+    <sheetView topLeftCell="B27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10312,8 +10312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10603,12 +10603,15 @@
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="I11" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="J11" s="14"/>
+      <c r="K11" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="J11" s="14"/>
       <c r="M11" s="23"/>
       <c r="P11" s="14"/>
       <c r="S11" s="14"/>
@@ -10623,9 +10626,6 @@
       <c r="D12" s="14"/>
       <c r="E12" s="20" t="s">
         <v>393</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>394</v>
       </c>
       <c r="G12" s="14"/>
       <c r="J12" s="14"/>
@@ -10962,15 +10962,12 @@
         <v>527</v>
       </c>
       <c r="D28" s="14"/>
-      <c r="E28" s="20" t="s">
-        <v>188</v>
-      </c>
       <c r="G28" s="14"/>
       <c r="H28" s="20" t="s">
-        <v>229</v>
+        <v>633</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>189</v>
+        <v>634</v>
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="20" t="s">
@@ -10988,10 +10985,10 @@
       </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="20" t="s">
-        <v>633</v>
+        <v>188</v>
       </c>
       <c r="R28" s="20" t="s">
-        <v>634</v>
+        <v>189</v>
       </c>
       <c r="S28" s="14"/>
       <c r="T28" s="20" t="s">
@@ -11019,6 +11016,9 @@
       <c r="J29" s="14"/>
       <c r="M29" s="23"/>
       <c r="P29" s="14"/>
+      <c r="R29" s="20" t="s">
+        <v>229</v>
+      </c>
       <c r="S29" s="14"/>
       <c r="V29" s="14"/>
       <c r="W29" s="20" t="s">
@@ -11279,9 +11279,6 @@
         <v>293</v>
       </c>
       <c r="S37" s="14"/>
-      <c r="T37" s="8" t="s">
-        <v>504</v>
-      </c>
       <c r="U37" s="8" t="s">
         <v>339</v>
       </c>
@@ -11311,7 +11308,7 @@
         <v>357</v>
       </c>
       <c r="J38" s="14"/>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="8" t="s">
         <v>570</v>
       </c>
       <c r="L38" s="8" t="s">
@@ -11332,9 +11329,6 @@
         <v>258</v>
       </c>
       <c r="S38" s="14"/>
-      <c r="T38" s="5" t="s">
-        <v>570</v>
-      </c>
       <c r="U38" s="8" t="s">
         <v>344</v>
       </c>
@@ -11382,9 +11376,6 @@
         <v>259</v>
       </c>
       <c r="S39" s="14"/>
-      <c r="T39" s="8" t="s">
-        <v>506</v>
-      </c>
       <c r="U39" s="8" t="s">
         <v>345</v>
       </c>
@@ -11401,7 +11392,7 @@
       </c>
       <c r="D40" s="14"/>
       <c r="G40" s="14"/>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="8" t="s">
         <v>570</v>
       </c>
       <c r="J40" s="14"/>
@@ -11420,9 +11411,6 @@
         <v>260</v>
       </c>
       <c r="S40" s="14"/>
-      <c r="T40" s="8" t="s">
-        <v>376</v>
-      </c>
       <c r="U40" s="8" t="s">
         <v>350</v>
       </c>
@@ -11455,9 +11443,6 @@
         <v>206</v>
       </c>
       <c r="S41" s="14"/>
-      <c r="T41" s="8" t="s">
-        <v>377</v>
-      </c>
       <c r="U41" s="8" t="s">
         <v>351</v>
       </c>
@@ -11490,9 +11475,6 @@
         <v>230</v>
       </c>
       <c r="S42" s="14"/>
-      <c r="T42" s="8" t="s">
-        <v>375</v>
-      </c>
       <c r="U42" s="8" t="s">
         <v>356</v>
       </c>
@@ -11571,7 +11553,7 @@
         <v>250</v>
       </c>
       <c r="J46" s="14"/>
-      <c r="K46" s="5" t="s">
+      <c r="K46" s="8" t="s">
         <v>563</v>
       </c>
       <c r="L46" s="8" t="s">
@@ -11588,7 +11570,7 @@
       <c r="Q46" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="R46" s="5" t="s">
+      <c r="R46" s="8" t="s">
         <v>567</v>
       </c>
       <c r="S46" s="14"/>
@@ -11624,7 +11606,7 @@
         <v>249</v>
       </c>
       <c r="J47" s="14"/>
-      <c r="K47" s="5" t="s">
+      <c r="K47" s="8" t="s">
         <v>564</v>
       </c>
       <c r="L47" s="8" t="s">
@@ -11641,7 +11623,7 @@
       <c r="Q47" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="R47" s="5" t="s">
+      <c r="R47" s="8" t="s">
         <v>568</v>
       </c>
       <c r="S47" s="14"/>
@@ -11674,7 +11656,7 @@
         <v>248</v>
       </c>
       <c r="J48" s="14"/>
-      <c r="K48" s="5" t="s">
+      <c r="K48" s="8" t="s">
         <v>565</v>
       </c>
       <c r="L48" s="8" t="s">
@@ -11691,7 +11673,7 @@
       <c r="Q48" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="R48" s="5" t="s">
+      <c r="R48" s="8" t="s">
         <v>569</v>
       </c>
       <c r="S48" s="14"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="643">
   <si>
     <t>Arne</t>
   </si>
@@ -10312,8 +10312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11245,10 +11245,10 @@
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="8" t="s">
-        <v>453</v>
+        <v>574</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>453</v>
+        <v>574</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="8" t="s">
@@ -11344,13 +11344,10 @@
         <v>234</v>
       </c>
       <c r="D39" s="14"/>
-      <c r="E39" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>574</v>
-      </c>
       <c r="G39" s="14"/>
+      <c r="H39" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="I39" s="8" t="s">
         <v>504</v>
       </c>
@@ -11392,6 +11389,9 @@
       </c>
       <c r="D40" s="14"/>
       <c r="G40" s="14"/>
+      <c r="H40" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="I40" s="8" t="s">
         <v>570</v>
       </c>
@@ -11427,6 +11427,9 @@
       </c>
       <c r="D41" s="14"/>
       <c r="G41" s="14"/>
+      <c r="H41" s="8" t="s">
+        <v>577</v>
+      </c>
       <c r="I41" s="8" t="s">
         <v>506</v>
       </c>
@@ -11459,6 +11462,9 @@
       </c>
       <c r="D42" s="14"/>
       <c r="G42" s="14"/>
+      <c r="H42" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="I42" s="8" t="s">
         <v>376</v>
       </c>
@@ -12061,9 +12067,6 @@
       <c r="H59" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="I59" s="8" t="s">
-        <v>157</v>
-      </c>
       <c r="J59" s="14"/>
       <c r="L59" s="8" t="s">
         <v>309</v>
@@ -12105,9 +12108,6 @@
       <c r="H60" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="I60" s="8" t="s">
-        <v>159</v>
-      </c>
       <c r="J60" s="14"/>
       <c r="M60" s="23"/>
       <c r="N60" s="8" t="s">
@@ -12139,9 +12139,6 @@
       <c r="G61" s="14"/>
       <c r="H61" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>577</v>
       </c>
       <c r="J61" s="14"/>
       <c r="M61" s="23"/>
@@ -12200,7 +12197,7 @@
       <c r="A64" s="7"/>
       <c r="D64" s="14"/>
       <c r="F64" s="8" t="s">
-        <v>136</v>
+        <v>453</v>
       </c>
       <c r="G64" s="14"/>
       <c r="J64" s="14"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="646">
   <si>
     <t>Arne</t>
   </si>
@@ -1955,6 +1955,15 @@
   </si>
   <si>
     <t>XMLFile.cs</t>
+  </si>
+  <si>
+    <t>Sascha en Alieke</t>
+  </si>
+  <si>
+    <t>SFX_SPIRIT</t>
+  </si>
+  <si>
+    <t>SFX_GROWL2</t>
   </si>
 </sst>
 </file>
@@ -2416,15 +2425,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="88" max="88" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="88" max="88" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.25">
@@ -4434,21 +4443,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J363"/>
   <sheetViews>
-    <sheetView topLeftCell="B27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="B255" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H286" sqref="H286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
-    <col min="5" max="5" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9279,7 +9288,7 @@
         <v>477</v>
       </c>
       <c r="H286" t="s">
-        <v>410</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
@@ -9331,7 +9340,7 @@
         <v>477</v>
       </c>
       <c r="H290" t="s">
-        <v>410</v>
+        <v>643</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -10312,36 +10321,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="3.25" style="14" customWidth="1"/>
-    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.25" style="23" customWidth="1"/>
-    <col min="14" max="14" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" style="14" customWidth="1"/>
-    <col min="17" max="17" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" style="14" customWidth="1"/>
-    <col min="20" max="20" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4" style="14" customWidth="1"/>
-    <col min="23" max="24" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.25" style="14" customWidth="1"/>
+    <col min="23" max="24" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.28515625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -10472,6 +10481,9 @@
         <v>639</v>
       </c>
       <c r="G3" s="14"/>
+      <c r="H3" s="20" t="s">
+        <v>644</v>
+      </c>
       <c r="J3" s="14"/>
       <c r="M3" s="23"/>
       <c r="P3" s="14"/>
@@ -10495,6 +10507,9 @@
         <v>640</v>
       </c>
       <c r="G4" s="14"/>
+      <c r="H4" s="20" t="s">
+        <v>645</v>
+      </c>
       <c r="J4" s="14"/>
       <c r="M4" s="23"/>
       <c r="P4" s="14"/>
@@ -11013,6 +11028,9 @@
       </c>
       <c r="D29" s="14"/>
       <c r="G29" s="14"/>
+      <c r="H29" s="20" t="s">
+        <v>644</v>
+      </c>
       <c r="J29" s="14"/>
       <c r="M29" s="23"/>
       <c r="P29" s="14"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="646">
   <si>
     <t>Arne</t>
   </si>
@@ -1969,7 +1969,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2230,6 +2230,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2265,6 +2282,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -4443,8 +4477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J363"/>
   <sheetViews>
-    <sheetView topLeftCell="B255" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H286" sqref="H286"/>
+    <sheetView topLeftCell="B327" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D351" sqref="D351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10322,7 +10356,7 @@
   <dimension ref="A1:Y89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10484,6 +10518,9 @@
       <c r="H3" s="20" t="s">
         <v>644</v>
       </c>
+      <c r="I3" s="20" t="s">
+        <v>603</v>
+      </c>
       <c r="J3" s="14"/>
       <c r="M3" s="23"/>
       <c r="P3" s="14"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="651">
   <si>
     <t>Arne</t>
   </si>
@@ -1964,6 +1964,21 @@
   </si>
   <si>
     <t>SFX_GROWL2</t>
+  </si>
+  <si>
+    <t>MC Slash</t>
+  </si>
+  <si>
+    <t>6A_CHAR_MCSLASH</t>
+  </si>
+  <si>
+    <t>MC Get Hit</t>
+  </si>
+  <si>
+    <t>6A_CHAR_MCGETHiT</t>
+  </si>
+  <si>
+    <t>6A_CHAR_MCGETHIT</t>
   </si>
 </sst>
 </file>
@@ -4475,10 +4490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J363"/>
+  <dimension ref="A1:J365"/>
   <sheetViews>
-    <sheetView topLeftCell="B327" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D351" sqref="D351"/>
+    <sheetView topLeftCell="B217" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H232" sqref="H232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8553,51 +8568,45 @@
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" t="s">
-        <v>332</v>
+        <v>646</v>
       </c>
       <c r="D231" t="s">
-        <v>335</v>
-      </c>
-      <c r="E231" t="s">
-        <v>507</v>
+        <v>647</v>
       </c>
       <c r="G231" t="s">
         <v>471</v>
       </c>
       <c r="H231" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="14"/>
       <c r="B232" s="14"/>
       <c r="C232" t="s">
-        <v>333</v>
+        <v>648</v>
       </c>
       <c r="D232" t="s">
-        <v>336</v>
-      </c>
-      <c r="E232" t="s">
-        <v>508</v>
+        <v>649</v>
       </c>
       <c r="G232" t="s">
         <v>471</v>
       </c>
       <c r="H232" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="14"/>
       <c r="B233" s="14"/>
       <c r="C233" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D233" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E233" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G233" t="s">
         <v>471</v>
@@ -8610,13 +8619,13 @@
       <c r="A234" s="14"/>
       <c r="B234" s="14"/>
       <c r="C234" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D234" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E234" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G234" t="s">
         <v>471</v>
@@ -8629,13 +8638,13 @@
       <c r="A235" s="14"/>
       <c r="B235" s="14"/>
       <c r="C235" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D235" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E235" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G235" t="s">
         <v>471</v>
@@ -8648,13 +8657,13 @@
       <c r="A236" s="14"/>
       <c r="B236" s="14"/>
       <c r="C236" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D236" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E236" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G236" t="s">
         <v>471</v>
@@ -8667,13 +8676,13 @@
       <c r="A237" s="14"/>
       <c r="B237" s="14"/>
       <c r="C237" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D237" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E237" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G237" t="s">
         <v>471</v>
@@ -8686,13 +8695,13 @@
       <c r="A238" s="14"/>
       <c r="B238" s="14"/>
       <c r="C238" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D238" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E238" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G238" t="s">
         <v>471</v>
@@ -8705,13 +8714,13 @@
       <c r="A239" s="14"/>
       <c r="B239" s="14"/>
       <c r="C239" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D239" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E239" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G239" t="s">
         <v>471</v>
@@ -8724,13 +8733,13 @@
       <c r="A240" s="14"/>
       <c r="B240" s="14"/>
       <c r="C240" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D240" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E240" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G240" t="s">
         <v>471</v>
@@ -8743,13 +8752,13 @@
       <c r="A241" s="14"/>
       <c r="B241" s="14"/>
       <c r="C241" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D241" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E241" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G241" t="s">
         <v>471</v>
@@ -8762,13 +8771,13 @@
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
       <c r="C242" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D242" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E242" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G242" t="s">
         <v>471</v>
@@ -8781,13 +8790,13 @@
       <c r="A243" s="14"/>
       <c r="B243" s="14"/>
       <c r="C243" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D243" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E243" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G243" t="s">
         <v>471</v>
@@ -8799,87 +8808,99 @@
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="14"/>
       <c r="B244" s="14"/>
-    </row>
-    <row r="245" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B245" s="10" t="s">
-        <v>36</v>
+      <c r="C244" t="s">
+        <v>353</v>
+      </c>
+      <c r="D244" t="s">
+        <v>356</v>
+      </c>
+      <c r="E244" t="s">
+        <v>508</v>
+      </c>
+      <c r="G244" t="s">
+        <v>471</v>
+      </c>
+      <c r="H244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="14"/>
+      <c r="B245" s="14"/>
+      <c r="C245" t="s">
+        <v>354</v>
+      </c>
+      <c r="D245" t="s">
+        <v>355</v>
+      </c>
+      <c r="E245" t="s">
+        <v>509</v>
+      </c>
+      <c r="G245" t="s">
+        <v>471</v>
+      </c>
+      <c r="H245" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="14"/>
-      <c r="B246" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="C246" t="s">
-        <v>411</v>
-      </c>
-      <c r="E246" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="14"/>
-      <c r="B247" s="14"/>
-      <c r="C247" t="s">
-        <v>412</v>
-      </c>
-      <c r="G247" t="s">
-        <v>471</v>
-      </c>
-      <c r="H247" t="s">
-        <v>2</v>
+      <c r="B246" s="14"/>
+    </row>
+    <row r="247" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="14"/>
-      <c r="B248" s="14"/>
+      <c r="B248" s="7" t="s">
+        <v>411</v>
+      </c>
       <c r="C248" t="s">
-        <v>364</v>
-      </c>
-      <c r="G248" t="s">
-        <v>471</v>
-      </c>
-      <c r="H248" t="s">
-        <v>2</v>
+        <v>411</v>
+      </c>
+      <c r="E248" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="14"/>
       <c r="B249" s="14"/>
       <c r="C249" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G249" t="s">
         <v>471</v>
       </c>
       <c r="H249" t="s">
-        <v>410</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="14"/>
       <c r="B250" s="14"/>
       <c r="C250" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="G250" t="s">
         <v>471</v>
       </c>
       <c r="H250" t="s">
-        <v>410</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="14"/>
       <c r="B251" s="14"/>
       <c r="C251" t="s">
-        <v>512</v>
+        <v>413</v>
       </c>
       <c r="G251" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H251" t="s">
         <v>410</v>
@@ -8889,110 +8910,110 @@
       <c r="A252" s="14"/>
       <c r="B252" s="14"/>
       <c r="C252" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G252" t="s">
         <v>471</v>
       </c>
       <c r="H252" t="s">
-        <v>2</v>
+        <v>410</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="14"/>
       <c r="B253" s="14"/>
       <c r="C253" t="s">
-        <v>416</v>
+        <v>512</v>
       </c>
       <c r="G253" t="s">
         <v>477</v>
       </c>
       <c r="H253" t="s">
-        <v>511</v>
+        <v>410</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="14"/>
       <c r="B254" s="14"/>
       <c r="C254" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G254" t="s">
         <v>471</v>
       </c>
       <c r="H254" t="s">
-        <v>511</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="14"/>
       <c r="B255" s="14"/>
       <c r="C255" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
       <c r="G255" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="H255" t="s">
-        <v>2</v>
+        <v>511</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="14"/>
       <c r="B256" s="14"/>
+      <c r="C256" t="s">
+        <v>417</v>
+      </c>
+      <c r="G256" t="s">
+        <v>471</v>
+      </c>
+      <c r="H256" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="14"/>
-      <c r="B257" s="16" t="s">
-        <v>419</v>
-      </c>
+      <c r="B257" s="14"/>
       <c r="C257" t="s">
-        <v>418</v>
-      </c>
-      <c r="E257" t="s">
-        <v>450</v>
+        <v>363</v>
       </c>
       <c r="G257" t="s">
         <v>471</v>
       </c>
       <c r="H257" t="s">
-        <v>410</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
-      <c r="C258" t="s">
-        <v>420</v>
-      </c>
-      <c r="G258" t="s">
-        <v>471</v>
-      </c>
-      <c r="H258" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="14"/>
-      <c r="B259" s="14"/>
+      <c r="B259" s="16" t="s">
+        <v>419</v>
+      </c>
       <c r="C259" t="s">
-        <v>421</v>
+        <v>418</v>
+      </c>
+      <c r="E259" t="s">
+        <v>450</v>
       </c>
       <c r="G259" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H259" t="s">
-        <v>2</v>
+        <v>410</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G260" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H260" t="s">
         <v>2</v>
@@ -9002,10 +9023,10 @@
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G261" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="H261" t="s">
         <v>2</v>
@@ -9015,62 +9036,62 @@
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
       <c r="C262" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G262" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="H262" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="14"/>
       <c r="B263" s="14"/>
       <c r="C263" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G263" t="s">
         <v>471</v>
       </c>
       <c r="H263" t="s">
-        <v>410</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G264" t="s">
         <v>471</v>
       </c>
       <c r="H264" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G265" t="s">
         <v>471</v>
       </c>
       <c r="H265" t="s">
-        <v>2</v>
+        <v>410</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G266" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H266" t="s">
         <v>2</v>
@@ -9080,7 +9101,7 @@
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G267" t="s">
         <v>471</v>
@@ -9093,10 +9114,10 @@
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G268" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="H268" t="s">
         <v>2</v>
@@ -9106,10 +9127,10 @@
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G269" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H269" t="s">
         <v>2</v>
@@ -9119,7 +9140,7 @@
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G270" t="s">
         <v>471</v>
@@ -9132,33 +9153,33 @@
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G271" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="H271" t="s">
-        <v>410</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G272" t="s">
         <v>471</v>
       </c>
       <c r="H272" t="s">
-        <v>410</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="G273" t="s">
         <v>471</v>
@@ -9170,40 +9191,40 @@
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
+      <c r="C274" t="s">
+        <v>447</v>
+      </c>
+      <c r="G274" t="s">
+        <v>471</v>
+      </c>
+      <c r="H274" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="14"/>
-      <c r="B275" s="7" t="s">
-        <v>486</v>
-      </c>
+      <c r="B275" s="14"/>
       <c r="C275" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="G275" t="s">
         <v>471</v>
       </c>
       <c r="H275" t="s">
-        <v>2</v>
+        <v>410</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
-      <c r="C276" t="s">
-        <v>480</v>
-      </c>
-      <c r="G276" t="s">
-        <v>471</v>
-      </c>
-      <c r="H276" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="14"/>
-      <c r="B277" s="14"/>
+      <c r="B277" s="7" t="s">
+        <v>486</v>
+      </c>
       <c r="C277" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G277" t="s">
         <v>471</v>
@@ -9216,7 +9237,7 @@
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
       <c r="C278" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G278" t="s">
         <v>471</v>
@@ -9229,7 +9250,7 @@
       <c r="A279" s="14"/>
       <c r="B279" s="14"/>
       <c r="C279" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G279" t="s">
         <v>471</v>
@@ -9242,7 +9263,7 @@
       <c r="A280" s="14"/>
       <c r="B280" s="14"/>
       <c r="C280" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G280" t="s">
         <v>471</v>
@@ -9255,20 +9276,20 @@
       <c r="A281" s="14"/>
       <c r="B281" s="14"/>
       <c r="C281" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G281" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="H281" t="s">
-        <v>410</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G282" t="s">
         <v>471</v>
@@ -9281,55 +9302,55 @@
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G283" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="H283" t="s">
-        <v>2</v>
+        <v>410</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="14"/>
       <c r="B284" s="14"/>
+      <c r="C284" t="s">
+        <v>487</v>
+      </c>
+      <c r="G284" t="s">
+        <v>471</v>
+      </c>
+      <c r="H284" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="14"/>
-      <c r="B285" s="16" t="s">
-        <v>432</v>
-      </c>
+      <c r="B285" s="14"/>
       <c r="C285" t="s">
-        <v>433</v>
-      </c>
-      <c r="E285" t="s">
-        <v>450</v>
+        <v>488</v>
       </c>
       <c r="G285" t="s">
         <v>471</v>
       </c>
       <c r="H285" t="s">
-        <v>410</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="14"/>
       <c r="B286" s="14"/>
-      <c r="C286" t="s">
-        <v>434</v>
-      </c>
-      <c r="G286" t="s">
-        <v>477</v>
-      </c>
-      <c r="H286" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="14"/>
-      <c r="B287" s="14"/>
+      <c r="B287" s="16" t="s">
+        <v>432</v>
+      </c>
       <c r="C287" t="s">
-        <v>435</v>
+        <v>433</v>
+      </c>
+      <c r="E287" t="s">
+        <v>450</v>
       </c>
       <c r="G287" t="s">
         <v>471</v>
@@ -9342,71 +9363,75 @@
       <c r="A288" s="14"/>
       <c r="B288" s="14"/>
       <c r="C288" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G288" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="H288" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="14"/>
       <c r="B289" s="14"/>
       <c r="C289" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G289" t="s">
         <v>471</v>
       </c>
       <c r="H289" t="s">
-        <v>5</v>
+        <v>410</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="14"/>
       <c r="B290" s="14"/>
       <c r="C290" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G290" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H290" t="s">
-        <v>643</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="14"/>
       <c r="B291" s="14"/>
       <c r="C291" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G291" t="s">
         <v>471</v>
       </c>
       <c r="H291" t="s">
-        <v>410</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="14"/>
       <c r="B292" s="14"/>
+      <c r="C292" t="s">
+        <v>439</v>
+      </c>
+      <c r="G292" t="s">
+        <v>477</v>
+      </c>
+      <c r="H292" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="14"/>
-      <c r="B293" s="16" t="s">
-        <v>442</v>
-      </c>
+      <c r="B293" s="14"/>
       <c r="C293" t="s">
-        <v>443</v>
-      </c>
-      <c r="E293" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="G293" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H293" t="s">
         <v>410</v>
@@ -9415,21 +9440,17 @@
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="14"/>
       <c r="B294" s="14"/>
-      <c r="C294" t="s">
-        <v>444</v>
-      </c>
-      <c r="G294" t="s">
-        <v>477</v>
-      </c>
-      <c r="H294" t="s">
-        <v>410</v>
-      </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="14"/>
-      <c r="B295" s="14"/>
+      <c r="B295" s="16" t="s">
+        <v>442</v>
+      </c>
       <c r="C295" t="s">
-        <v>445</v>
+        <v>443</v>
+      </c>
+      <c r="E295" t="s">
+        <v>449</v>
       </c>
       <c r="G295" t="s">
         <v>477</v>
@@ -9442,7 +9463,7 @@
       <c r="A296" s="14"/>
       <c r="B296" s="14"/>
       <c r="C296" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G296" t="s">
         <v>477</v>
@@ -9454,56 +9475,48 @@
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="14"/>
       <c r="B297" s="14"/>
-    </row>
-    <row r="298" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B298" s="13" t="s">
-        <v>37</v>
+      <c r="C297" t="s">
+        <v>445</v>
+      </c>
+      <c r="G297" t="s">
+        <v>477</v>
+      </c>
+      <c r="H297" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A298" s="14"/>
+      <c r="B298" s="14"/>
+      <c r="C298" t="s">
+        <v>446</v>
+      </c>
+      <c r="G298" t="s">
+        <v>477</v>
+      </c>
+      <c r="H298" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="14"/>
-      <c r="B299" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C299" t="s">
-        <v>372</v>
-      </c>
-      <c r="G299" t="s">
-        <v>471</v>
-      </c>
-      <c r="H299" t="s">
-        <v>2</v>
-      </c>
-      <c r="J299" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A300" s="14"/>
-      <c r="B300" s="14"/>
-      <c r="C300" t="s">
-        <v>407</v>
-      </c>
-      <c r="G300" t="s">
-        <v>471</v>
-      </c>
-      <c r="H300" t="s">
-        <v>2</v>
-      </c>
-      <c r="J300" t="s">
-        <v>3</v>
+      <c r="B299" s="14"/>
+    </row>
+    <row r="300" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B300" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="14"/>
-      <c r="B301" s="14" t="s">
-        <v>405</v>
+      <c r="B301" s="7" t="s">
+        <v>404</v>
       </c>
       <c r="C301" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="G301" t="s">
         <v>471</v>
@@ -9515,11 +9528,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="14"/>
       <c r="B302" s="14"/>
       <c r="C302" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="G302" t="s">
         <v>471</v>
@@ -9531,11 +9544,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="14"/>
-      <c r="B303" s="14"/>
+      <c r="B303" s="14" t="s">
+        <v>405</v>
+      </c>
       <c r="C303" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G303" t="s">
         <v>471</v>
@@ -9547,11 +9562,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="14"/>
       <c r="B304" s="14"/>
       <c r="C304" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="G304" t="s">
         <v>471</v>
@@ -9563,13 +9578,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="14"/>
-      <c r="B305" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="C305" s="4" t="s">
-        <v>397</v>
+      <c r="B305" s="14"/>
+      <c r="C305" t="s">
+        <v>392</v>
       </c>
       <c r="G305" t="s">
         <v>471</v>
@@ -9584,8 +9597,8 @@
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="14"/>
       <c r="B306" s="14"/>
-      <c r="C306" s="4" t="s">
-        <v>408</v>
+      <c r="C306" t="s">
+        <v>401</v>
       </c>
       <c r="G306" t="s">
         <v>471</v>
@@ -9599,15 +9612,17 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="14"/>
-      <c r="B307" s="14"/>
+      <c r="B307" s="14" t="s">
+        <v>395</v>
+      </c>
       <c r="C307" s="4" t="s">
-        <v>639</v>
+        <v>397</v>
       </c>
       <c r="G307" t="s">
         <v>471</v>
       </c>
       <c r="H307" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J307" t="s">
         <v>3</v>
@@ -9617,13 +9632,13 @@
       <c r="A308" s="14"/>
       <c r="B308" s="14"/>
       <c r="C308" s="4" t="s">
-        <v>640</v>
+        <v>408</v>
       </c>
       <c r="G308" t="s">
         <v>471</v>
       </c>
       <c r="H308" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J308" t="s">
         <v>3</v>
@@ -9633,7 +9648,7 @@
       <c r="A309" s="14"/>
       <c r="B309" s="14"/>
       <c r="C309" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G309" t="s">
         <v>471</v>
@@ -9649,7 +9664,7 @@
       <c r="A310" s="14"/>
       <c r="B310" s="14"/>
       <c r="C310" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G310" t="s">
         <v>471</v>
@@ -9664,21 +9679,30 @@
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="14"/>
       <c r="B311" s="14"/>
-      <c r="C311" s="4"/>
+      <c r="C311" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="G311" t="s">
+        <v>471</v>
+      </c>
+      <c r="H311" t="s">
+        <v>1</v>
+      </c>
+      <c r="J311" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="14"/>
-      <c r="B312" s="7" t="s">
-        <v>405</v>
-      </c>
+      <c r="B312" s="14"/>
       <c r="C312" s="4" t="s">
-        <v>370</v>
+        <v>642</v>
       </c>
       <c r="G312" t="s">
         <v>471</v>
       </c>
       <c r="H312" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J312" t="s">
         <v>3</v>
@@ -9687,24 +9711,15 @@
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="14"/>
       <c r="B313" s="14"/>
-      <c r="C313" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="G313" t="s">
-        <v>471</v>
-      </c>
-      <c r="H313" t="s">
-        <v>2</v>
-      </c>
-      <c r="J313" t="s">
-        <v>3</v>
-      </c>
+      <c r="C313" s="4"/>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="14"/>
-      <c r="B314" s="14"/>
+      <c r="B314" s="7" t="s">
+        <v>405</v>
+      </c>
       <c r="C314" s="4" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="G314" t="s">
         <v>471</v>
@@ -9720,7 +9735,7 @@
       <c r="A315" s="14"/>
       <c r="B315" s="14"/>
       <c r="C315" s="4" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G315" t="s">
         <v>471</v>
@@ -9736,13 +9751,13 @@
       <c r="A316" s="14"/>
       <c r="B316" s="14"/>
       <c r="C316" s="4" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="G316" t="s">
         <v>471</v>
       </c>
       <c r="H316" t="s">
-        <v>410</v>
+        <v>2</v>
       </c>
       <c r="J316" t="s">
         <v>3</v>
@@ -9750,11 +9765,9 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="14"/>
-      <c r="B317" s="14" t="s">
-        <v>406</v>
-      </c>
+      <c r="B317" s="14"/>
       <c r="C317" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G317" t="s">
         <v>471</v>
@@ -9770,13 +9783,13 @@
       <c r="A318" s="14"/>
       <c r="B318" s="14"/>
       <c r="C318" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G318" t="s">
         <v>471</v>
       </c>
       <c r="H318" t="s">
-        <v>2</v>
+        <v>410</v>
       </c>
       <c r="J318" t="s">
         <v>3</v>
@@ -9784,22 +9797,33 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="14"/>
-      <c r="B319" s="14"/>
-      <c r="C319" s="4"/>
+      <c r="B319" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G319" t="s">
+        <v>471</v>
+      </c>
+      <c r="H319" t="s">
+        <v>2</v>
+      </c>
+      <c r="J319" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="14"/>
-      <c r="B320" s="16" t="s">
-        <v>406</v>
-      </c>
+      <c r="B320" s="14"/>
       <c r="C320" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G320" t="s">
         <v>471</v>
       </c>
       <c r="H320" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J320" t="s">
         <v>3</v>
@@ -9808,24 +9832,15 @@
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="14"/>
       <c r="B321" s="14"/>
-      <c r="C321" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="G321" t="s">
-        <v>471</v>
-      </c>
-      <c r="H321" t="s">
-        <v>1</v>
-      </c>
-      <c r="J321" t="s">
-        <v>3</v>
-      </c>
+      <c r="C321" s="4"/>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="14"/>
-      <c r="B322" s="14"/>
+      <c r="B322" s="16" t="s">
+        <v>406</v>
+      </c>
       <c r="C322" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G322" t="s">
         <v>471</v>
@@ -9841,7 +9856,7 @@
       <c r="A323" s="14"/>
       <c r="B323" s="14"/>
       <c r="C323" s="4" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G323" t="s">
         <v>471</v>
@@ -9855,24 +9870,31 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="14"/>
-      <c r="B324" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C324" s="4"/>
+      <c r="B324" s="14"/>
+      <c r="C324" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G324" t="s">
+        <v>471</v>
+      </c>
+      <c r="H324" t="s">
+        <v>1</v>
+      </c>
+      <c r="J324" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="14"/>
-      <c r="B325" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="B325" s="14"/>
       <c r="C325" s="4" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="G325" t="s">
         <v>471</v>
       </c>
       <c r="H325" t="s">
-        <v>410</v>
+        <v>1</v>
       </c>
       <c r="J325" t="s">
         <v>3</v>
@@ -9880,25 +9902,18 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="14"/>
-      <c r="B326" s="14"/>
-      <c r="C326" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="G326" t="s">
-        <v>471</v>
-      </c>
-      <c r="H326" t="s">
-        <v>2</v>
-      </c>
-      <c r="J326" t="s">
-        <v>3</v>
-      </c>
+      <c r="B326" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C326" s="4"/>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="14"/>
-      <c r="B327" s="14"/>
+      <c r="B327" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="C327" s="4" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="G327" t="s">
         <v>471</v>
@@ -9914,13 +9929,13 @@
       <c r="A328" s="14"/>
       <c r="B328" s="14"/>
       <c r="C328" s="4" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="G328" t="s">
         <v>471</v>
       </c>
       <c r="H328" t="s">
-        <v>410</v>
+        <v>2</v>
       </c>
       <c r="J328" t="s">
         <v>3</v>
@@ -9930,7 +9945,7 @@
       <c r="A329" s="14"/>
       <c r="B329" s="14"/>
       <c r="C329" s="4" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G329" t="s">
         <v>471</v>
@@ -9946,7 +9961,7 @@
       <c r="A330" s="14"/>
       <c r="B330" s="14"/>
       <c r="C330" s="4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G330" t="s">
         <v>471</v>
@@ -9962,13 +9977,13 @@
       <c r="A331" s="14"/>
       <c r="B331" s="14"/>
       <c r="C331" s="4" t="s">
-        <v>501</v>
+        <v>398</v>
       </c>
       <c r="G331" t="s">
         <v>471</v>
       </c>
       <c r="H331" t="s">
-        <v>2</v>
+        <v>410</v>
       </c>
       <c r="J331" t="s">
         <v>3</v>
@@ -9978,7 +9993,7 @@
       <c r="A332" s="14"/>
       <c r="B332" s="14"/>
       <c r="C332" s="4" t="s">
-        <v>527</v>
+        <v>399</v>
       </c>
       <c r="G332" t="s">
         <v>471</v>
@@ -9993,21 +10008,30 @@
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="14"/>
       <c r="B333" s="14"/>
-      <c r="C333" s="4"/>
+      <c r="C333" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="G333" t="s">
+        <v>471</v>
+      </c>
+      <c r="H333" t="s">
+        <v>2</v>
+      </c>
+      <c r="J333" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="14"/>
-      <c r="B334" s="18" t="s">
-        <v>395</v>
-      </c>
+      <c r="B334" s="14"/>
       <c r="C334" s="4" t="s">
-        <v>387</v>
+        <v>527</v>
       </c>
       <c r="G334" t="s">
         <v>471</v>
       </c>
       <c r="H334" t="s">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="J334" t="s">
         <v>3</v>
@@ -10015,25 +10039,16 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="14"/>
-      <c r="B335" s="15"/>
-      <c r="C335" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="G335" t="s">
-        <v>471</v>
-      </c>
-      <c r="H335" t="s">
-        <v>0</v>
-      </c>
-      <c r="J335" t="s">
-        <v>3</v>
-      </c>
+      <c r="B335" s="14"/>
+      <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="14"/>
-      <c r="B336" s="15"/>
+      <c r="B336" s="18" t="s">
+        <v>395</v>
+      </c>
       <c r="C336" s="4" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G336" t="s">
         <v>471</v>
@@ -10049,7 +10064,7 @@
       <c r="A337" s="14"/>
       <c r="B337" s="15"/>
       <c r="C337" s="4" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="G337" t="s">
         <v>471</v>
@@ -10065,7 +10080,7 @@
       <c r="A338" s="14"/>
       <c r="B338" s="15"/>
       <c r="C338" s="4" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="G338" t="s">
         <v>471</v>
@@ -10081,7 +10096,7 @@
       <c r="A339" s="14"/>
       <c r="B339" s="15"/>
       <c r="C339" s="4" t="s">
-        <v>529</v>
+        <v>384</v>
       </c>
       <c r="G339" t="s">
         <v>471</v>
@@ -10093,60 +10108,66 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B340" s="11" t="s">
-        <v>38</v>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A340" s="14"/>
+      <c r="B340" s="15"/>
+      <c r="C340" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G340" t="s">
+        <v>471</v>
+      </c>
+      <c r="H340" t="s">
+        <v>0</v>
+      </c>
+      <c r="J340" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="14"/>
-      <c r="B341" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C341" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A342" s="14"/>
-      <c r="B342" s="14"/>
-      <c r="C342" t="s">
-        <v>310</v>
-      </c>
-      <c r="D342" t="s">
-        <v>311</v>
-      </c>
-      <c r="E342" t="s">
-        <v>605</v>
-      </c>
-      <c r="G342" t="s">
-        <v>477</v>
+      <c r="B341" s="15"/>
+      <c r="C341" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="G341" t="s">
+        <v>471</v>
+      </c>
+      <c r="H341" t="s">
+        <v>0</v>
+      </c>
+      <c r="J341" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B342" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="14"/>
-      <c r="B343" s="14"/>
+      <c r="B343" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C343" t="s">
-        <v>312</v>
-      </c>
-      <c r="D343" t="s">
-        <v>313</v>
-      </c>
-      <c r="G343" t="s">
-        <v>477</v>
+        <v>50</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="14"/>
       <c r="B344" s="14"/>
       <c r="C344" t="s">
-        <v>591</v>
+        <v>310</v>
       </c>
       <c r="D344" t="s">
-        <v>592</v>
+        <v>311</v>
+      </c>
+      <c r="E344" t="s">
+        <v>605</v>
       </c>
       <c r="G344" t="s">
         <v>477</v>
@@ -10156,10 +10177,10 @@
       <c r="A345" s="14"/>
       <c r="B345" s="14"/>
       <c r="C345" t="s">
-        <v>593</v>
+        <v>312</v>
       </c>
       <c r="D345" t="s">
-        <v>594</v>
+        <v>313</v>
       </c>
       <c r="G345" t="s">
         <v>477</v>
@@ -10169,10 +10190,10 @@
       <c r="A346" s="14"/>
       <c r="B346" s="14"/>
       <c r="C346" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D346" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G346" t="s">
         <v>477</v>
@@ -10181,50 +10202,50 @@
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="14"/>
       <c r="B347" s="14"/>
+      <c r="C347" t="s">
+        <v>593</v>
+      </c>
+      <c r="D347" t="s">
+        <v>594</v>
+      </c>
+      <c r="G347" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="14"/>
-      <c r="B348" s="7" t="s">
-        <v>405</v>
-      </c>
+      <c r="B348" s="14"/>
       <c r="C348" t="s">
-        <v>581</v>
+        <v>595</v>
+      </c>
+      <c r="D348" t="s">
+        <v>596</v>
+      </c>
+      <c r="G348" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="14"/>
       <c r="B349" s="14"/>
-      <c r="C349" t="s">
-        <v>597</v>
-      </c>
-      <c r="D349" t="s">
-        <v>601</v>
-      </c>
-      <c r="G349" t="s">
-        <v>477</v>
-      </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="14"/>
-      <c r="B350" s="14"/>
+      <c r="B350" s="7" t="s">
+        <v>405</v>
+      </c>
       <c r="C350" t="s">
-        <v>598</v>
-      </c>
-      <c r="D350" t="s">
-        <v>602</v>
-      </c>
-      <c r="G350" t="s">
-        <v>477</v>
+        <v>581</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="14"/>
       <c r="B351" s="14"/>
       <c r="C351" t="s">
-        <v>279</v>
+        <v>597</v>
       </c>
       <c r="D351" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G351" t="s">
         <v>477</v>
@@ -10234,10 +10255,10 @@
       <c r="A352" s="14"/>
       <c r="B352" s="14"/>
       <c r="C352" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D352" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G352" t="s">
         <v>477</v>
@@ -10247,10 +10268,10 @@
       <c r="A353" s="14"/>
       <c r="B353" s="14"/>
       <c r="C353" t="s">
-        <v>584</v>
+        <v>279</v>
       </c>
       <c r="D353" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="G353" t="s">
         <v>477</v>
@@ -10259,53 +10280,50 @@
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="14"/>
       <c r="B354" s="14"/>
+      <c r="C354" t="s">
+        <v>599</v>
+      </c>
+      <c r="D354" t="s">
+        <v>604</v>
+      </c>
+      <c r="G354" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="14"/>
-      <c r="B355" t="s">
-        <v>582</v>
-      </c>
+      <c r="B355" s="14"/>
       <c r="C355" t="s">
-        <v>583</v>
+        <v>584</v>
+      </c>
+      <c r="D355" t="s">
+        <v>600</v>
+      </c>
+      <c r="G355" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="14"/>
       <c r="B356" s="14"/>
-      <c r="C356" t="s">
-        <v>584</v>
-      </c>
-      <c r="D356" t="s">
-        <v>586</v>
-      </c>
-      <c r="G356" t="s">
-        <v>477</v>
-      </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="14"/>
-      <c r="B357" s="14"/>
+      <c r="B357" t="s">
+        <v>582</v>
+      </c>
       <c r="C357" t="s">
-        <v>585</v>
-      </c>
-      <c r="D357" t="s">
-        <v>587</v>
-      </c>
-      <c r="G357" t="s">
-        <v>477</v>
+        <v>583</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="14"/>
       <c r="B358" s="14"/>
       <c r="C358" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D358" t="s">
-        <v>590</v>
-      </c>
-      <c r="E358" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G358" t="s">
         <v>477</v>
@@ -10314,36 +10332,65 @@
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="14"/>
       <c r="B359" s="14"/>
+      <c r="C359" t="s">
+        <v>585</v>
+      </c>
+      <c r="D359" t="s">
+        <v>587</v>
+      </c>
+      <c r="G359" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="14"/>
-      <c r="B360" t="s">
-        <v>42</v>
-      </c>
+      <c r="B360" s="14"/>
       <c r="C360" t="s">
-        <v>51</v>
+        <v>589</v>
+      </c>
+      <c r="D360" t="s">
+        <v>590</v>
+      </c>
+      <c r="E360" t="s">
+        <v>588</v>
+      </c>
+      <c r="G360" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="14"/>
       <c r="B361" s="14"/>
-      <c r="C361" t="s">
-        <v>314</v>
-      </c>
-      <c r="D361" t="s">
-        <v>315</v>
-      </c>
-      <c r="G361" t="s">
-        <v>477</v>
-      </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="14"/>
-      <c r="B362" s="14"/>
+      <c r="B362" t="s">
+        <v>42</v>
+      </c>
+      <c r="C362" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="14"/>
       <c r="B363" s="14"/>
+      <c r="C363" t="s">
+        <v>314</v>
+      </c>
+      <c r="D363" t="s">
+        <v>315</v>
+      </c>
+      <c r="G363" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" s="14"/>
+      <c r="B364" s="14"/>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365" s="14"/>
+      <c r="B365" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10355,8 +10402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="H21" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10372,7 +10419,7 @@
     <col min="9" max="9" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.42578125" style="14" customWidth="1"/>
     <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.28515625" style="23" customWidth="1"/>
     <col min="14" max="14" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="31.5703125" bestFit="1" customWidth="1"/>
@@ -10662,6 +10709,9 @@
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="L11" s="20" t="s">
         <v>387</v>
       </c>
       <c r="M11" s="23"/>
@@ -11314,7 +11364,7 @@
       </c>
       <c r="J37" s="14"/>
       <c r="K37" s="8" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="L37" s="8" t="s">
         <v>266</v>
@@ -11363,9 +11413,6 @@
         <v>357</v>
       </c>
       <c r="J38" s="14"/>
-      <c r="K38" s="8" t="s">
-        <v>570</v>
-      </c>
       <c r="L38" s="8" t="s">
         <v>254</v>
       </c>
@@ -11407,9 +11454,6 @@
         <v>504</v>
       </c>
       <c r="J39" s="14"/>
-      <c r="K39" s="8" t="s">
-        <v>506</v>
-      </c>
       <c r="L39" s="8" t="s">
         <v>264</v>
       </c>
@@ -11451,9 +11495,6 @@
         <v>570</v>
       </c>
       <c r="J40" s="14"/>
-      <c r="K40" s="8" t="s">
-        <v>376</v>
-      </c>
       <c r="M40" s="23"/>
       <c r="N40" s="8" t="s">
         <v>164</v>
@@ -11489,9 +11530,6 @@
         <v>506</v>
       </c>
       <c r="J41" s="14"/>
-      <c r="K41" s="8" t="s">
-        <v>377</v>
-      </c>
       <c r="M41" s="23"/>
       <c r="N41" s="8" t="s">
         <v>237</v>
@@ -11524,9 +11562,6 @@
         <v>376</v>
       </c>
       <c r="J42" s="14"/>
-      <c r="K42" s="8" t="s">
-        <v>375</v>
-      </c>
       <c r="M42" s="23"/>
       <c r="N42" s="8" t="s">
         <v>238</v>
@@ -11552,6 +11587,9 @@
       </c>
       <c r="D43" s="22"/>
       <c r="G43" s="14"/>
+      <c r="H43" s="8" t="s">
+        <v>361</v>
+      </c>
       <c r="I43" s="8" t="s">
         <v>377</v>
       </c>
@@ -11622,7 +11660,7 @@
       </c>
       <c r="M46" s="23"/>
       <c r="N46" s="8" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="O46" s="8" t="s">
         <v>327</v>
@@ -11671,11 +11709,11 @@
         <v>564</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="M47" s="23"/>
       <c r="N47" s="8" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="O47" s="8" t="s">
         <v>328</v>
@@ -11721,11 +11759,11 @@
         <v>565</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="M48" s="23"/>
       <c r="N48" s="8" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="O48" s="8" t="s">
         <v>330</v>
@@ -11768,10 +11806,10 @@
       </c>
       <c r="J49" s="14"/>
       <c r="K49" s="8" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="M49" s="23"/>
       <c r="N49" s="8" t="s">
@@ -11806,14 +11844,17 @@
       </c>
       <c r="J50" s="14"/>
       <c r="K50" s="8" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>361</v>
+        <v>647</v>
       </c>
       <c r="M50" s="23"/>
       <c r="N50" s="8" t="s">
         <v>170</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="P50" s="14"/>
       <c r="Q50" s="8" t="s">
@@ -11840,12 +11881,15 @@
         <v>148</v>
       </c>
       <c r="J51" s="14"/>
-      <c r="K51" s="8" t="s">
-        <v>282</v>
+      <c r="L51" s="8" t="s">
+        <v>650</v>
       </c>
       <c r="M51" s="23"/>
       <c r="N51" s="8" t="s">
         <v>171</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="P51" s="14"/>
       <c r="Q51" s="8" t="s">
@@ -11872,12 +11916,12 @@
         <v>476</v>
       </c>
       <c r="J52" s="14"/>
-      <c r="K52" s="8" t="s">
-        <v>262</v>
-      </c>
       <c r="M52" s="23"/>
       <c r="N52" s="8" t="s">
         <v>172</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>282</v>
       </c>
       <c r="P52" s="14"/>
       <c r="Q52" s="8" t="s">
@@ -11904,9 +11948,6 @@
         <v>553</v>
       </c>
       <c r="J53" s="14"/>
-      <c r="K53" s="8" t="s">
-        <v>308</v>
-      </c>
       <c r="M53" s="23"/>
       <c r="P53" s="14"/>
       <c r="Q53" s="8" t="s">

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\OneDrive\Documenten\KappaSquad\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\KappaSquad\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="651">
   <si>
     <t>Arne</t>
   </si>
@@ -1984,7 +1984,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2245,23 +2245,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2297,23 +2280,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -4492,7 +4458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J365"/>
   <sheetViews>
-    <sheetView topLeftCell="B217" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B128" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H232" sqref="H232"/>
     </sheetView>
   </sheetViews>
@@ -10402,8 +10368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H21" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="J25" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12018,7 +11984,7 @@
         <v>217</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="M56" s="23"/>
       <c r="N56" s="8" t="s">
@@ -12071,7 +12037,7 @@
         <v>218</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>296</v>
+        <v>218</v>
       </c>
       <c r="M57" s="23"/>
       <c r="N57" s="8" t="s">
@@ -12124,7 +12090,7 @@
         <v>219</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="M58" s="23"/>
       <c r="N58" s="8" t="s">
@@ -12164,9 +12130,6 @@
         <v>191</v>
       </c>
       <c r="J59" s="14"/>
-      <c r="L59" s="8" t="s">
-        <v>309</v>
-      </c>
       <c r="M59" s="23"/>
       <c r="N59" s="8" t="s">
         <v>123</v>
@@ -12271,7 +12234,13 @@
       <c r="Q62" s="8" t="s">
         <v>103</v>
       </c>
+      <c r="R62" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="S62" s="14"/>
+      <c r="T62" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="V62" s="14"/>
       <c r="Y62" s="14"/>
     </row>
@@ -12285,7 +12254,16 @@
       <c r="J63" s="14"/>
       <c r="M63" s="23"/>
       <c r="P63" s="14"/>
+      <c r="Q63" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="R63" s="8" t="s">
+        <v>296</v>
+      </c>
       <c r="S63" s="14"/>
+      <c r="T63" s="8" t="s">
+        <v>296</v>
+      </c>
       <c r="V63" s="14"/>
       <c r="Y63" s="14"/>
     </row>
@@ -12299,7 +12277,13 @@
       <c r="J64" s="14"/>
       <c r="M64" s="23"/>
       <c r="P64" s="14"/>
+      <c r="R64" s="8" t="s">
+        <v>297</v>
+      </c>
       <c r="S64" s="14"/>
+      <c r="T64" s="8" t="s">
+        <v>297</v>
+      </c>
       <c r="V64" s="14"/>
       <c r="Y64" s="14"/>
     </row>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="651">
   <si>
     <t>Arne</t>
   </si>
@@ -10368,8 +10368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J25" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11085,6 +11085,12 @@
         <v>644</v>
       </c>
       <c r="J29" s="14"/>
+      <c r="K29" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>253</v>
+      </c>
       <c r="M29" s="23"/>
       <c r="P29" s="14"/>
       <c r="R29" s="20" t="s">
@@ -11108,6 +11114,9 @@
       <c r="D30" s="14"/>
       <c r="G30" s="14"/>
       <c r="J30" s="14"/>
+      <c r="L30" s="20" t="s">
+        <v>256</v>
+      </c>
       <c r="M30" s="23"/>
       <c r="P30" s="14"/>
       <c r="S30" s="14"/>
@@ -11119,6 +11128,9 @@
       <c r="D31" s="14"/>
       <c r="G31" s="14"/>
       <c r="J31" s="14"/>
+      <c r="L31" s="20" t="s">
+        <v>266</v>
+      </c>
       <c r="M31" s="23"/>
       <c r="P31" s="14"/>
       <c r="S31" s="14"/>
@@ -11130,6 +11142,9 @@
       <c r="D32" s="14"/>
       <c r="G32" s="14"/>
       <c r="J32" s="14"/>
+      <c r="L32" s="20" t="s">
+        <v>254</v>
+      </c>
       <c r="M32" s="23"/>
       <c r="P32" s="14"/>
       <c r="S32" s="14"/>
@@ -11162,8 +11177,8 @@
       <c r="K33" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="L33" s="8" t="s">
-        <v>212</v>
+      <c r="L33" s="20" t="s">
+        <v>264</v>
       </c>
       <c r="M33" s="23"/>
       <c r="N33" s="8" t="s">
@@ -11227,7 +11242,7 @@
         <v>152</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>253</v>
+        <v>65</v>
       </c>
       <c r="M35" s="23"/>
       <c r="N35" s="8" t="s">
@@ -11280,7 +11295,7 @@
         <v>154</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>256</v>
+        <v>63</v>
       </c>
       <c r="M36" s="23"/>
       <c r="N36" s="8" t="s">
@@ -11333,7 +11348,7 @@
         <v>570</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="M37" s="23"/>
       <c r="N37" s="8" t="s">
@@ -11380,7 +11395,7 @@
       </c>
       <c r="J38" s="14"/>
       <c r="L38" s="8" t="s">
-        <v>254</v>
+        <v>66</v>
       </c>
       <c r="M38" s="23"/>
       <c r="N38" s="8" t="s">
@@ -11421,7 +11436,7 @@
       </c>
       <c r="J39" s="14"/>
       <c r="L39" s="8" t="s">
-        <v>264</v>
+        <v>62</v>
       </c>
       <c r="M39" s="23"/>
       <c r="N39" s="8" t="s">
@@ -11461,6 +11476,9 @@
         <v>570</v>
       </c>
       <c r="J40" s="14"/>
+      <c r="L40" s="8" t="s">
+        <v>566</v>
+      </c>
       <c r="M40" s="23"/>
       <c r="N40" s="8" t="s">
         <v>164</v>
@@ -11767,9 +11785,6 @@
       <c r="H49" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="I49" s="8" t="s">
-        <v>268</v>
-      </c>
       <c r="J49" s="14"/>
       <c r="K49" s="8" t="s">
         <v>262</v>
@@ -11785,9 +11800,6 @@
         <v>331</v>
       </c>
       <c r="P49" s="14"/>
-      <c r="Q49" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="R49" s="8" t="s">
         <v>167</v>
       </c>
@@ -11823,9 +11835,6 @@
         <v>280</v>
       </c>
       <c r="P50" s="14"/>
-      <c r="Q50" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="R50" s="8" t="s">
         <v>166</v>
       </c>
@@ -11858,9 +11867,6 @@
         <v>281</v>
       </c>
       <c r="P51" s="14"/>
-      <c r="Q51" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="R51" s="8" t="s">
         <v>168</v>
       </c>
@@ -11890,9 +11896,6 @@
         <v>282</v>
       </c>
       <c r="P52" s="14"/>
-      <c r="Q52" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="R52" s="8" t="s">
         <v>64</v>
       </c>
@@ -11916,9 +11919,6 @@
       <c r="J53" s="14"/>
       <c r="M53" s="23"/>
       <c r="P53" s="14"/>
-      <c r="Q53" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="R53" s="8" t="s">
         <v>67</v>
       </c>
@@ -11942,9 +11942,6 @@
       <c r="J54" s="14"/>
       <c r="M54" s="23"/>
       <c r="P54" s="14"/>
-      <c r="Q54" s="8" t="s">
-        <v>566</v>
-      </c>
       <c r="R54" s="8" t="s">
         <v>68</v>
       </c>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\KappaSquad\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\OneDrive\Documenten\KappaSquad\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="647">
   <si>
     <t>Arne</t>
   </si>
@@ -533,18 +533,6 @@
   </si>
   <si>
     <t>4U_PRP_WDUMMY</t>
-  </si>
-  <si>
-    <t>Mats</t>
-  </si>
-  <si>
-    <t>2D_TXT_MATS</t>
-  </si>
-  <si>
-    <t>3D_PRP_MATS</t>
-  </si>
-  <si>
-    <t>4U_PRP_MATS</t>
   </si>
   <si>
     <t>Roof Crack</t>
@@ -1984,7 +1972,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2245,6 +2233,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2280,6 +2285,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -2471,7 +2493,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H1" s="1"/>
       <c r="J1" s="3">
@@ -2921,13 +2943,13 @@
         <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="CJ2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="EU2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.25">
@@ -2938,7 +2960,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -2950,18 +2972,18 @@
         <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="CJ3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="EU3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B4" s="2">
         <v>0.61458333333333337</v>
@@ -2979,13 +3001,13 @@
         <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="CJ4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="EU4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.25">
@@ -2996,7 +3018,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -3008,22 +3030,22 @@
         <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="CJ5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="EU5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="CJ6" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="EU6" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.25">
@@ -3031,10 +3053,10 @@
         <v>4</v>
       </c>
       <c r="CJ7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="EU7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:151" x14ac:dyDescent="0.25">
@@ -3057,13 +3079,13 @@
         <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="CJ8" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="EU8" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.25">
@@ -3086,13 +3108,13 @@
         <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="CJ9" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="EU9" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.25">
@@ -3103,7 +3125,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -3115,13 +3137,13 @@
         <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="CJ10" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="EU10" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:151" x14ac:dyDescent="0.25">
@@ -3144,7 +3166,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J11" s="3">
         <v>42618</v>
@@ -3593,7 +3615,7 @@
         <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>11</v>
@@ -3624,7 +3646,7 @@
         <v>11</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>11</v>
@@ -3696,7 +3718,7 @@
         <v>11</v>
       </c>
       <c r="CJ12" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="CN12" s="1" t="s">
         <v>11</v>
@@ -3783,7 +3805,7 @@
         <v>11</v>
       </c>
       <c r="EU12" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:151" x14ac:dyDescent="0.25">
@@ -3794,7 +3816,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -3806,7 +3828,7 @@
         <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>12</v>
@@ -3815,18 +3837,18 @@
         <v>13</v>
       </c>
       <c r="CJ13" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="ES13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="EU13" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B14" s="2">
         <v>0.61458333333333337</v>
@@ -3844,58 +3866,58 @@
         <v>105</v>
       </c>
       <c r="G14" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="X14" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>453</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>454</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>455</v>
+      </c>
+      <c r="AZ14" t="s">
         <v>456</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="BN14" t="s">
         <v>457</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="BU14" t="s">
         <v>458</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="CB14" t="s">
         <v>459</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="CI14" t="s">
         <v>460</v>
       </c>
-      <c r="BN14" t="s">
+      <c r="CJ14" t="s">
+        <v>528</v>
+      </c>
+      <c r="CP14" t="s">
         <v>461</v>
       </c>
-      <c r="BU14" t="s">
+      <c r="CW14" t="s">
         <v>462</v>
       </c>
-      <c r="CB14" t="s">
+      <c r="DD14" t="s">
         <v>463</v>
       </c>
-      <c r="CI14" t="s">
+      <c r="DK14" t="s">
         <v>464</v>
       </c>
-      <c r="CJ14" t="s">
-        <v>532</v>
-      </c>
-      <c r="CP14" t="s">
+      <c r="EF14" t="s">
         <v>465</v>
       </c>
-      <c r="CW14" t="s">
+      <c r="EM14" t="s">
         <v>466</v>
       </c>
-      <c r="DD14" t="s">
-        <v>467</v>
-      </c>
-      <c r="DK14" t="s">
-        <v>468</v>
-      </c>
-      <c r="EF14" t="s">
-        <v>469</v>
-      </c>
-      <c r="EM14" t="s">
-        <v>470</v>
-      </c>
       <c r="EU14" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:151" x14ac:dyDescent="0.25">
@@ -3906,7 +3928,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -3918,433 +3940,433 @@
         <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="J15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="K15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="M15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="N15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="O15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="P15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="Q15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="R15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="S15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="T15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="U15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="V15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="W15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="X15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="Y15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="Z15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AA15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AB15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AC15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AD15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AE15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AF15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AG15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AH15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AI15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AJ15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AK15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AL15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AM15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AN15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AO15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AP15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AQ15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AR15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AS15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AT15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AU15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AV15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AW15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AX15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AY15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AZ15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BA15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BB15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BC15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BD15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BE15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BF15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BG15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BH15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BI15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BJ15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BK15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BL15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BM15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BN15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BO15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BP15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BQ15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BR15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BS15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BT15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BU15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BV15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BW15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BX15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BY15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="BZ15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CA15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CB15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CC15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CD15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CE15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CF15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CG15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CH15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CI15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CJ15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CK15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CL15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CM15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CN15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CO15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CP15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CQ15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CR15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CS15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CT15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CU15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CV15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CW15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CX15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CY15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="CZ15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DA15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DB15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DC15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DD15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DE15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DF15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DG15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DH15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DI15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DJ15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DK15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DL15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DM15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DN15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DO15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DP15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DQ15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DR15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DS15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DT15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DU15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DV15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DW15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DX15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DY15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="DZ15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="EA15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="EB15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="EC15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="ED15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="EE15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="EF15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="EG15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="EH15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="EI15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="EJ15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="EK15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="EL15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="EM15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="EN15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="EO15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="EP15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="EQ15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="ER15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="ES15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="ET15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="EU15" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:151" x14ac:dyDescent="0.25">
@@ -4359,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="AE16" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -4396,7 +4418,7 @@
         <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="Q18" t="s">
         <v>7</v>
@@ -4422,7 +4444,7 @@
         <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -4433,7 +4455,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -4445,7 +4467,7 @@
         <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -4456,10 +4478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J365"/>
+  <dimension ref="A1:J362"/>
   <sheetViews>
-    <sheetView topLeftCell="B128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H232" sqref="H232"/>
+    <sheetView topLeftCell="B81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4489,16 +4511,16 @@
         <v>91</v>
       </c>
       <c r="G1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="I1" t="s">
         <v>92</v>
       </c>
       <c r="J1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4525,7 +4547,7 @@
         <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -4541,10 +4563,10 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
@@ -4563,7 +4585,7 @@
         <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
@@ -4582,7 +4604,7 @@
         <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
@@ -4601,7 +4623,7 @@
         <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
@@ -4617,10 +4639,10 @@
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G9" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H9" t="s">
         <v>5</v>
@@ -4639,7 +4661,7 @@
         <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H10" t="s">
         <v>5</v>
@@ -4658,7 +4680,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H11" t="s">
         <v>7</v>
@@ -4677,7 +4699,7 @@
         <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H12" t="s">
         <v>5</v>
@@ -4696,7 +4718,7 @@
         <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H13" t="s">
         <v>7</v>
@@ -4715,7 +4737,7 @@
         <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H14" t="s">
         <v>6</v>
@@ -4734,7 +4756,7 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H15" t="s">
         <v>6</v>
@@ -4753,7 +4775,7 @@
         <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H16" t="s">
         <v>6</v>
@@ -4772,7 +4794,7 @@
         <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H17" t="s">
         <v>6</v>
@@ -4791,7 +4813,7 @@
         <v>113</v>
       </c>
       <c r="G18" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H18" t="s">
         <v>6</v>
@@ -4810,7 +4832,7 @@
         <v>119</v>
       </c>
       <c r="G19" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H19" t="s">
         <v>6</v>
@@ -4829,7 +4851,7 @@
         <v>123</v>
       </c>
       <c r="G20" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H20" t="s">
         <v>6</v>
@@ -4848,7 +4870,7 @@
         <v>127</v>
       </c>
       <c r="G21" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H21" t="s">
         <v>6</v>
@@ -4867,7 +4889,7 @@
         <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H22" t="s">
         <v>6</v>
@@ -4886,7 +4908,7 @@
         <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H23" t="s">
         <v>6</v>
@@ -4902,10 +4924,10 @@
         <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G24" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H24" t="s">
         <v>7</v>
@@ -4921,10 +4943,10 @@
         <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G25" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H25" t="s">
         <v>7</v>
@@ -4943,7 +4965,7 @@
         <v>148</v>
       </c>
       <c r="G26" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H26" t="s">
         <v>5</v>
@@ -4962,7 +4984,7 @@
         <v>152</v>
       </c>
       <c r="G27" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H27" t="s">
         <v>7</v>
@@ -4981,7 +5003,7 @@
         <v>154</v>
       </c>
       <c r="G28" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H28" t="s">
         <v>7</v>
@@ -4994,16 +5016,16 @@
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" t="s">
+        <v>369</v>
+      </c>
+      <c r="D29" t="s">
         <v>373</v>
       </c>
-      <c r="D29" t="s">
-        <v>377</v>
-      </c>
       <c r="E29" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G29" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H29" t="s">
         <v>7</v>
@@ -5022,7 +5044,7 @@
         <v>157</v>
       </c>
       <c r="G30" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H30" t="s">
         <v>6</v>
@@ -5041,7 +5063,7 @@
         <v>158</v>
       </c>
       <c r="G31" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H31" t="s">
         <v>6</v>
@@ -5060,7 +5082,7 @@
         <v>162</v>
       </c>
       <c r="G32" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H32" t="s">
         <v>7</v>
@@ -5079,7 +5101,7 @@
         <v>166</v>
       </c>
       <c r="G33" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H33" t="s">
         <v>5</v>
@@ -5098,7 +5120,7 @@
         <v>170</v>
       </c>
       <c r="G34" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H34" t="s">
         <v>5</v>
@@ -5117,10 +5139,10 @@
         <v>174</v>
       </c>
       <c r="G35" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J35" t="s">
         <v>3</v>
@@ -5133,13 +5155,13 @@
         <v>177</v>
       </c>
       <c r="D36" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G36" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J36" t="s">
         <v>3</v>
@@ -5149,13 +5171,13 @@
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" t="s">
         <v>181</v>
       </c>
-      <c r="D37" t="s">
-        <v>184</v>
-      </c>
       <c r="G37" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H37" t="s">
         <v>7</v>
@@ -5168,13 +5190,13 @@
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" t="s">
         <v>182</v>
       </c>
-      <c r="D38" t="s">
-        <v>185</v>
-      </c>
       <c r="G38" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H38" t="s">
         <v>7</v>
@@ -5187,16 +5209,16 @@
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G39" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="H39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J39" t="s">
         <v>3</v>
@@ -5206,13 +5228,13 @@
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D40" t="s">
         <v>191</v>
       </c>
       <c r="G40" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H40" t="s">
         <v>6</v>
@@ -5225,13 +5247,13 @@
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G41" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H41" t="s">
         <v>6</v>
@@ -5244,16 +5266,16 @@
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D42" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G42" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="H42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J42" t="s">
         <v>3</v>
@@ -5263,13 +5285,13 @@
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D43" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G43" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H43" t="s">
         <v>7</v>
@@ -5282,16 +5304,16 @@
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D44" t="s">
-        <v>210</v>
+        <v>559</v>
       </c>
       <c r="G44" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="H44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J44" t="s">
         <v>3</v>
@@ -5301,13 +5323,13 @@
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D45" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G45" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H45" t="s">
         <v>5</v>
@@ -5320,13 +5342,13 @@
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D46" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G46" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H46" t="s">
         <v>5</v>
@@ -5339,16 +5361,16 @@
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D47" t="s">
-        <v>565</v>
+        <v>213</v>
       </c>
       <c r="G47" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J47" t="s">
         <v>3</v>
@@ -5364,7 +5386,7 @@
         <v>217</v>
       </c>
       <c r="G48" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H48" t="s">
         <v>6</v>
@@ -5383,10 +5405,10 @@
         <v>221</v>
       </c>
       <c r="G49" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J49" t="s">
         <v>3</v>
@@ -5399,10 +5421,10 @@
         <v>224</v>
       </c>
       <c r="D50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G50" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H50" t="s">
         <v>7</v>
@@ -5415,13 +5437,13 @@
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="G51" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="H51" t="s">
         <v>7</v>
@@ -5434,13 +5456,13 @@
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="D52" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="G52" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H52" t="s">
         <v>7</v>
@@ -5453,13 +5475,13 @@
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D53" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G53" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H53" t="s">
         <v>7</v>
@@ -5472,16 +5494,16 @@
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D54" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G54" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J54" t="s">
         <v>3</v>
@@ -5494,10 +5516,10 @@
         <v>243</v>
       </c>
       <c r="D55" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G55" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H55" t="s">
         <v>5</v>
@@ -5513,13 +5535,13 @@
         <v>247</v>
       </c>
       <c r="D56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G56" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J56" t="s">
         <v>3</v>
@@ -5529,13 +5551,13 @@
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D57" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G57" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H57" t="s">
         <v>7</v>
@@ -5548,13 +5570,13 @@
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" t="s">
+        <v>251</v>
+      </c>
+      <c r="D58" t="s">
         <v>252</v>
       </c>
-      <c r="D58" t="s">
-        <v>254</v>
-      </c>
       <c r="G58" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H58" t="s">
         <v>7</v>
@@ -5567,13 +5589,13 @@
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D59" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G59" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H59" t="s">
         <v>7</v>
@@ -5592,10 +5614,10 @@
         <v>258</v>
       </c>
       <c r="G60" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="H60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J60" t="s">
         <v>3</v>
@@ -5605,16 +5627,16 @@
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D61" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G61" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J61" t="s">
         <v>3</v>
@@ -5624,13 +5646,13 @@
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G62" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H62" t="s">
         <v>7</v>
@@ -5643,16 +5665,16 @@
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D63" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G63" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J63" t="s">
         <v>3</v>
@@ -5662,16 +5684,16 @@
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D64" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G64" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J64" t="s">
         <v>3</v>
@@ -5681,13 +5703,13 @@
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D65" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G65" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H65" t="s">
         <v>6</v>
@@ -5706,10 +5728,10 @@
         <v>272</v>
       </c>
       <c r="G66" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J66" t="s">
         <v>3</v>
@@ -5725,7 +5747,7 @@
         <v>276</v>
       </c>
       <c r="G67" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H67" t="s">
         <v>5</v>
@@ -5741,13 +5763,16 @@
         <v>279</v>
       </c>
       <c r="D68" t="s">
-        <v>280</v>
+        <v>285</v>
+      </c>
+      <c r="E68" t="s">
+        <v>286</v>
       </c>
       <c r="G68" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H68" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J68" t="s">
         <v>3</v>
@@ -5757,19 +5782,16 @@
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D69" t="s">
-        <v>289</v>
-      </c>
-      <c r="E69" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G69" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J69" t="s">
         <v>3</v>
@@ -5782,13 +5804,13 @@
         <v>294</v>
       </c>
       <c r="D70" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G70" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J70" t="s">
         <v>3</v>
@@ -5798,13 +5820,13 @@
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D71" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G71" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H71" t="s">
         <v>5</v>
@@ -5817,13 +5839,13 @@
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D72" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G72" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H72" t="s">
         <v>5</v>
@@ -5836,13 +5858,13 @@
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D73" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G73" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H73" t="s">
         <v>5</v>
@@ -5855,13 +5877,13 @@
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D74" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G74" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H74" t="s">
         <v>5</v>
@@ -5874,53 +5896,53 @@
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D75" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G75" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J75" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
+      <c r="A76" s="14" t="s">
+        <v>356</v>
+      </c>
       <c r="B76" s="14"/>
       <c r="C76" t="s">
-        <v>303</v>
+        <v>358</v>
       </c>
       <c r="D76" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="G76" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J76" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
-        <v>360</v>
-      </c>
+      <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" t="s">
+        <v>361</v>
+      </c>
+      <c r="D77" t="s">
         <v>362</v>
       </c>
-      <c r="D77" t="s">
-        <v>361</v>
-      </c>
       <c r="G77" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H77" t="s">
         <v>5</v>
@@ -5933,16 +5955,16 @@
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" t="s">
-        <v>365</v>
+        <v>468</v>
       </c>
       <c r="D78" t="s">
-        <v>366</v>
+        <v>471</v>
       </c>
       <c r="G78" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H78" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J78" t="s">
         <v>3</v>
@@ -5952,16 +5974,16 @@
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D79" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G79" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J79" t="s">
         <v>3</v>
@@ -5971,16 +5993,16 @@
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" t="s">
-        <v>473</v>
+        <v>151</v>
       </c>
       <c r="D80" t="s">
-        <v>474</v>
+        <v>152</v>
       </c>
       <c r="G80" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="H80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J80" t="s">
         <v>3</v>
@@ -5990,13 +6012,13 @@
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D81" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G81" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H81" t="s">
         <v>7</v>
@@ -6009,60 +6031,60 @@
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" t="s">
-        <v>153</v>
+        <v>602</v>
       </c>
       <c r="D82" t="s">
-        <v>154</v>
-      </c>
-      <c r="G82" t="s">
-        <v>471</v>
-      </c>
-      <c r="H82" t="s">
-        <v>7</v>
-      </c>
-      <c r="J82" t="s">
-        <v>3</v>
+        <v>564</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
-      <c r="C83" t="s">
-        <v>606</v>
-      </c>
-      <c r="D83" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-    </row>
-    <row r="85" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+    </row>
+    <row r="84" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="14"/>
+      <c r="B85" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
-      <c r="B86" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="B86" s="14"/>
       <c r="C86" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="D86" t="s">
+        <v>65</v>
+      </c>
+      <c r="G86" t="s">
+        <v>473</v>
+      </c>
+      <c r="H86" t="s">
+        <v>5</v>
+      </c>
+      <c r="J86" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G87" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H87" t="s">
         <v>5</v>
@@ -6075,13 +6097,13 @@
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D88" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G88" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H88" t="s">
         <v>5</v>
@@ -6094,16 +6116,16 @@
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D89" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G89" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J89" t="s">
         <v>3</v>
@@ -6113,13 +6135,13 @@
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D90" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G90" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="H90" t="s">
         <v>7</v>
@@ -6132,16 +6154,16 @@
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D91" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G91" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J91" t="s">
         <v>3</v>
@@ -6151,13 +6173,13 @@
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D92" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G92" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H92" t="s">
         <v>6</v>
@@ -6170,13 +6192,13 @@
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D93" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G93" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H93" t="s">
         <v>6</v>
@@ -6189,13 +6211,13 @@
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D94" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G94" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H94" t="s">
         <v>6</v>
@@ -6208,13 +6230,13 @@
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D95" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G95" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H95" t="s">
         <v>6</v>
@@ -6227,13 +6249,13 @@
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D96" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G96" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H96" t="s">
         <v>6</v>
@@ -6246,13 +6268,13 @@
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D97" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G97" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H97" t="s">
         <v>6</v>
@@ -6265,16 +6287,16 @@
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D98" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="G98" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H98" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J98" t="s">
         <v>3</v>
@@ -6284,13 +6306,13 @@
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="D99" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="G99" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H99" t="s">
         <v>7</v>
@@ -6303,16 +6325,16 @@
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D100" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G100" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J100" t="s">
         <v>3</v>
@@ -6322,13 +6344,13 @@
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" t="s">
-        <v>165</v>
+        <v>602</v>
       </c>
       <c r="D101" t="s">
-        <v>167</v>
+        <v>563</v>
       </c>
       <c r="G101" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H101" t="s">
         <v>5</v>
@@ -6340,65 +6362,65 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
-      <c r="C102" t="s">
-        <v>169</v>
-      </c>
-      <c r="D102" t="s">
-        <v>171</v>
-      </c>
-      <c r="G102" t="s">
-        <v>477</v>
-      </c>
-      <c r="H102" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
+      <c r="B103" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C103" t="s">
-        <v>606</v>
-      </c>
-      <c r="D103" t="s">
-        <v>567</v>
-      </c>
-      <c r="G103" t="s">
-        <v>477</v>
-      </c>
-      <c r="H103" t="s">
-        <v>5</v>
-      </c>
-      <c r="J103" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
+      <c r="C104" t="s">
+        <v>60</v>
+      </c>
+      <c r="D104" t="s">
+        <v>490</v>
+      </c>
+      <c r="G104" t="s">
+        <v>467</v>
+      </c>
+      <c r="H104" t="s">
+        <v>5</v>
+      </c>
+      <c r="J104" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
-      <c r="B105" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B105" s="14"/>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>52</v>
+      </c>
+      <c r="D105" t="s">
+        <v>54</v>
+      </c>
+      <c r="G105" t="s">
+        <v>467</v>
+      </c>
+      <c r="H105" t="s">
+        <v>5</v>
+      </c>
+      <c r="J105" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D106" t="s">
-        <v>494</v>
+        <v>72</v>
       </c>
       <c r="G106" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H106" t="s">
         <v>5</v>
@@ -6411,13 +6433,13 @@
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D107" t="s">
-        <v>54</v>
+        <v>492</v>
       </c>
       <c r="G107" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H107" t="s">
         <v>5</v>
@@ -6430,13 +6452,13 @@
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D108" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G108" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H108" t="s">
         <v>5</v>
@@ -6449,16 +6471,16 @@
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="D109" t="s">
-        <v>496</v>
+        <v>96</v>
       </c>
       <c r="G109" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J109" t="s">
         <v>3</v>
@@ -6468,13 +6490,13 @@
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="D110" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="G110" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H110" t="s">
         <v>5</v>
@@ -6487,16 +6509,16 @@
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="D111" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="G111" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J111" t="s">
         <v>3</v>
@@ -6506,13 +6528,13 @@
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="D112" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="G112" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H112" t="s">
         <v>5</v>
@@ -6525,16 +6547,16 @@
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="D113" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="G113" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H113" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J113" t="s">
         <v>3</v>
@@ -6544,16 +6566,16 @@
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D114" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G114" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H114" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J114" t="s">
         <v>3</v>
@@ -6563,13 +6585,13 @@
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D115" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G115" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H115" t="s">
         <v>7</v>
@@ -6582,16 +6604,16 @@
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D116" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G116" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="H116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J116" t="s">
         <v>3</v>
@@ -6601,16 +6623,16 @@
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="D117" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G117" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="H117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J117" t="s">
         <v>3</v>
@@ -6620,13 +6642,13 @@
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D118" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G118" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H118" t="s">
         <v>6</v>
@@ -6639,16 +6661,19 @@
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D119" t="s">
-        <v>199</v>
+        <v>203</v>
+      </c>
+      <c r="E119" t="s">
+        <v>498</v>
       </c>
       <c r="G119" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J119" t="s">
         <v>3</v>
@@ -6658,16 +6683,19 @@
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D120" t="s">
-        <v>200</v>
+        <v>204</v>
+      </c>
+      <c r="E120" t="s">
+        <v>499</v>
       </c>
       <c r="G120" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H120" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J120" t="s">
         <v>3</v>
@@ -6677,19 +6705,16 @@
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D121" t="s">
-        <v>207</v>
-      </c>
-      <c r="E121" t="s">
-        <v>502</v>
+        <v>208</v>
       </c>
       <c r="G121" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H121" t="s">
-        <v>7</v>
+        <v>406</v>
       </c>
       <c r="J121" t="s">
         <v>3</v>
@@ -6699,19 +6724,16 @@
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D122" t="s">
-        <v>208</v>
-      </c>
-      <c r="E122" t="s">
-        <v>503</v>
+        <v>214</v>
       </c>
       <c r="G122" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="H122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J122" t="s">
         <v>3</v>
@@ -6721,16 +6743,16 @@
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D123" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G123" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H123" t="s">
-        <v>410</v>
+        <v>6</v>
       </c>
       <c r="J123" t="s">
         <v>3</v>
@@ -6740,16 +6762,16 @@
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D124" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G124" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H124" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J124" t="s">
         <v>3</v>
@@ -6759,16 +6781,16 @@
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D125" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G125" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H125" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J125" t="s">
         <v>3</v>
@@ -6778,13 +6800,13 @@
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="D126" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="G126" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H126" t="s">
         <v>7</v>
@@ -6797,16 +6819,16 @@
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D127" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="G127" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="H127" t="s">
-        <v>7</v>
+        <v>406</v>
       </c>
       <c r="J127" t="s">
         <v>3</v>
@@ -6816,16 +6838,16 @@
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="D128" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="G128" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J128" t="s">
         <v>3</v>
@@ -6835,16 +6857,16 @@
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D129" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G129" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H129" t="s">
-        <v>410</v>
+        <v>5</v>
       </c>
       <c r="J129" t="s">
         <v>3</v>
@@ -6854,16 +6876,16 @@
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D130" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="G130" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H130" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J130" t="s">
         <v>3</v>
@@ -6873,16 +6895,16 @@
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="D131" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="G131" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H131" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J131" t="s">
         <v>3</v>
@@ -6892,13 +6914,16 @@
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="D132" t="s">
-        <v>259</v>
+        <v>287</v>
+      </c>
+      <c r="E132" t="s">
+        <v>286</v>
       </c>
       <c r="G132" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H132" t="s">
         <v>7</v>
@@ -6911,13 +6936,13 @@
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D133" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="G133" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H133" t="s">
         <v>6</v>
@@ -6929,71 +6954,71 @@
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
-      <c r="C134" t="s">
-        <v>283</v>
-      </c>
-      <c r="D134" t="s">
-        <v>291</v>
-      </c>
-      <c r="E134" t="s">
-        <v>290</v>
-      </c>
-      <c r="G134" t="s">
-        <v>477</v>
-      </c>
-      <c r="H134" t="s">
-        <v>7</v>
-      </c>
-      <c r="J134" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
-      <c r="B135" s="14"/>
+      <c r="B135" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C135" t="s">
-        <v>294</v>
-      </c>
-      <c r="D135" t="s">
-        <v>296</v>
-      </c>
-      <c r="G135" t="s">
-        <v>471</v>
-      </c>
-      <c r="H135" t="s">
-        <v>6</v>
-      </c>
-      <c r="J135" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
+      <c r="C136" t="s">
+        <v>153</v>
+      </c>
+      <c r="D136" t="s">
+        <v>500</v>
+      </c>
+      <c r="G136" t="s">
+        <v>467</v>
+      </c>
+      <c r="H136" t="s">
+        <v>7</v>
+      </c>
+      <c r="J136" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
-      <c r="B137" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B137" s="14"/>
       <c r="C137" t="s">
-        <v>43</v>
+        <v>369</v>
+      </c>
+      <c r="D137" t="s">
+        <v>372</v>
+      </c>
+      <c r="E137" t="s">
+        <v>370</v>
+      </c>
+      <c r="G137" t="s">
+        <v>467</v>
+      </c>
+      <c r="H137" t="s">
+        <v>7</v>
+      </c>
+      <c r="J137" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D138" t="s">
-        <v>504</v>
+        <v>159</v>
       </c>
       <c r="G138" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J138" t="s">
         <v>3</v>
@@ -7003,19 +7028,16 @@
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" t="s">
-        <v>373</v>
+        <v>156</v>
       </c>
       <c r="D139" t="s">
-        <v>376</v>
-      </c>
-      <c r="E139" t="s">
-        <v>374</v>
+        <v>160</v>
       </c>
       <c r="G139" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J139" t="s">
         <v>3</v>
@@ -7025,13 +7047,13 @@
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D140" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="G140" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H140" t="s">
         <v>6</v>
@@ -7044,16 +7066,16 @@
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="D141" t="s">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="G141" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="H141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J141" t="s">
         <v>3</v>
@@ -7063,16 +7085,16 @@
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" t="s">
-        <v>177</v>
+        <v>271</v>
       </c>
       <c r="D142" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="G142" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J142" t="s">
         <v>3</v>
@@ -7082,16 +7104,16 @@
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="D143" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="G143" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H143" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J143" t="s">
         <v>3</v>
@@ -7100,68 +7122,68 @@
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
-      <c r="C144" t="s">
-        <v>275</v>
-      </c>
-      <c r="D144" t="s">
-        <v>277</v>
-      </c>
-      <c r="G144" t="s">
-        <v>477</v>
-      </c>
-      <c r="H144" t="s">
-        <v>5</v>
-      </c>
-      <c r="J144" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
-      <c r="B145" s="14"/>
+      <c r="B145" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C145" t="s">
-        <v>279</v>
-      </c>
-      <c r="D145" t="s">
-        <v>281</v>
-      </c>
-      <c r="G145" t="s">
-        <v>471</v>
-      </c>
-      <c r="H145" t="s">
-        <v>5</v>
-      </c>
-      <c r="J145" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
+      <c r="C146" t="s">
+        <v>128</v>
+      </c>
+      <c r="D146" t="s">
+        <v>133</v>
+      </c>
+      <c r="G146" t="s">
+        <v>467</v>
+      </c>
+      <c r="H146" t="s">
+        <v>6</v>
+      </c>
+      <c r="J146" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
-      <c r="B147" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B147" s="14"/>
       <c r="C147" t="s">
-        <v>140</v>
+        <v>129</v>
+      </c>
+      <c r="D147" t="s">
+        <v>448</v>
+      </c>
+      <c r="G147" t="s">
+        <v>467</v>
+      </c>
+      <c r="H147" t="s">
+        <v>6</v>
+      </c>
+      <c r="J147" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D148" t="s">
-        <v>133</v>
+        <v>447</v>
       </c>
       <c r="G148" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J148" t="s">
         <v>3</v>
@@ -7171,16 +7193,16 @@
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="D149" t="s">
-        <v>452</v>
+        <v>234</v>
       </c>
       <c r="G149" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H149" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J149" t="s">
         <v>3</v>
@@ -7190,16 +7212,16 @@
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" t="s">
-        <v>130</v>
+        <v>361</v>
       </c>
       <c r="D150" t="s">
-        <v>451</v>
+        <v>363</v>
       </c>
       <c r="G150" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H150" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J150" t="s">
         <v>3</v>
@@ -7208,76 +7230,76 @@
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
-      <c r="C151" t="s">
-        <v>236</v>
-      </c>
-      <c r="D151" t="s">
-        <v>238</v>
-      </c>
-      <c r="G151" t="s">
-        <v>471</v>
-      </c>
-      <c r="H151" t="s">
-        <v>7</v>
-      </c>
-      <c r="J151" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="14"/>
-      <c r="B152" s="14"/>
-      <c r="C152" t="s">
-        <v>365</v>
-      </c>
-      <c r="D152" t="s">
-        <v>367</v>
-      </c>
-      <c r="G152" t="s">
-        <v>471</v>
-      </c>
-      <c r="H152" t="s">
-        <v>5</v>
-      </c>
-      <c r="J152" t="s">
-        <v>3</v>
+    </row>
+    <row r="152" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="14"/>
-      <c r="B153" s="14"/>
-    </row>
-    <row r="154" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>39</v>
+      <c r="B153" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C153" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="14"/>
+      <c r="B154" s="14"/>
+      <c r="C154" t="s">
+        <v>56</v>
+      </c>
+      <c r="D154" t="s">
+        <v>68</v>
+      </c>
+      <c r="G154" t="s">
+        <v>474</v>
+      </c>
+      <c r="H154" t="s">
+        <v>5</v>
+      </c>
+      <c r="J154" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
-      <c r="B155" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="B155" s="14"/>
       <c r="C155" t="s">
-        <v>47</v>
+        <v>76</v>
+      </c>
+      <c r="D155" t="s">
+        <v>78</v>
+      </c>
+      <c r="G155" t="s">
+        <v>474</v>
+      </c>
+      <c r="H155" t="s">
+        <v>7</v>
+      </c>
+      <c r="J155" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="D156" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G156" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="H156" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J156" t="s">
         <v>3</v>
@@ -7287,16 +7309,16 @@
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D157" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G157" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H157" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J157" t="s">
         <v>3</v>
@@ -7306,16 +7328,16 @@
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D158" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G158" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J158" t="s">
         <v>3</v>
@@ -7325,16 +7347,16 @@
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="D159" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="G159" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H159" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J159" t="s">
         <v>3</v>
@@ -7344,13 +7366,13 @@
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D160" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G160" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H160" t="s">
         <v>6</v>
@@ -7363,13 +7385,13 @@
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D161" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G161" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H161" t="s">
         <v>6</v>
@@ -7382,13 +7404,13 @@
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D162" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G162" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H162" t="s">
         <v>6</v>
@@ -7401,13 +7423,13 @@
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D163" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G163" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H163" t="s">
         <v>6</v>
@@ -7420,13 +7442,13 @@
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D164" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G164" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H164" t="s">
         <v>6</v>
@@ -7439,16 +7461,16 @@
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D165" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="G165" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H165" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J165" t="s">
         <v>3</v>
@@ -7458,16 +7480,16 @@
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="D166" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="G166" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J166" t="s">
         <v>3</v>
@@ -7477,16 +7499,16 @@
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="D167" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="G167" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J167" t="s">
         <v>3</v>
@@ -7496,16 +7518,16 @@
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" t="s">
-        <v>161</v>
+        <v>602</v>
       </c>
       <c r="D168" t="s">
-        <v>164</v>
+        <v>565</v>
       </c>
       <c r="G168" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H168" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J168" t="s">
         <v>3</v>
@@ -7514,52 +7536,27 @@
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
-      <c r="C169" t="s">
-        <v>165</v>
-      </c>
-      <c r="D169" t="s">
-        <v>168</v>
-      </c>
-      <c r="G169" t="s">
-        <v>477</v>
-      </c>
-      <c r="H169" t="s">
-        <v>5</v>
-      </c>
-      <c r="J169" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
-      <c r="B170" s="14"/>
+      <c r="B170" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C170" t="s">
-        <v>169</v>
-      </c>
-      <c r="D170" t="s">
-        <v>172</v>
-      </c>
-      <c r="G170" t="s">
-        <v>477</v>
-      </c>
-      <c r="H170" t="s">
-        <v>5</v>
-      </c>
-      <c r="J170" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
       <c r="C171" t="s">
-        <v>606</v>
+        <v>60</v>
       </c>
       <c r="D171" t="s">
-        <v>569</v>
+        <v>491</v>
       </c>
       <c r="G171" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H171" t="s">
         <v>5</v>
@@ -7571,27 +7568,52 @@
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>52</v>
+      </c>
+      <c r="D172" t="s">
+        <v>70</v>
+      </c>
+      <c r="G172" t="s">
+        <v>467</v>
+      </c>
+      <c r="H172" t="s">
+        <v>5</v>
+      </c>
+      <c r="J172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="14"/>
-      <c r="B173" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B173" s="14"/>
       <c r="C173" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D173" t="s">
+        <v>493</v>
+      </c>
+      <c r="G173" t="s">
+        <v>467</v>
+      </c>
+      <c r="H173" t="s">
+        <v>5</v>
+      </c>
+      <c r="J173" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D174" t="s">
-        <v>495</v>
+        <v>74</v>
       </c>
       <c r="G174" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H174" t="s">
         <v>5</v>
@@ -7600,17 +7622,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D175" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G175" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H175" t="s">
         <v>5</v>
@@ -7623,13 +7645,13 @@
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D176" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G176" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H176" t="s">
         <v>5</v>
@@ -7642,16 +7664,16 @@
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D177" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="G177" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J177" t="s">
         <v>3</v>
@@ -7661,13 +7683,13 @@
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="D178" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="G178" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H178" t="s">
         <v>5</v>
@@ -7680,13 +7702,13 @@
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="D179" t="s">
-        <v>498</v>
+        <v>172</v>
       </c>
       <c r="G179" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H179" t="s">
         <v>5</v>
@@ -7699,13 +7721,13 @@
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="D180" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="G180" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H180" t="s">
         <v>6</v>
@@ -7718,16 +7740,16 @@
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="D181" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="G181" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J181" t="s">
         <v>3</v>
@@ -7737,16 +7759,16 @@
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="D182" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="G182" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H182" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J182" t="s">
         <v>3</v>
@@ -7756,16 +7778,16 @@
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D183" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="G183" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H183" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J183" t="s">
         <v>3</v>
@@ -7775,16 +7797,16 @@
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D184" t="s">
         <v>202</v>
       </c>
       <c r="G184" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J184" t="s">
         <v>3</v>
@@ -7794,13 +7816,13 @@
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="D185" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="G185" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="H185" t="s">
         <v>6</v>
@@ -7813,16 +7835,16 @@
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D186" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="G186" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J186" t="s">
         <v>3</v>
@@ -7832,13 +7854,13 @@
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="D187" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="G187" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="H187" t="s">
         <v>7</v>
@@ -7851,16 +7873,16 @@
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="D188" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="G188" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J188" t="s">
         <v>3</v>
@@ -7870,16 +7892,16 @@
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="D189" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="G189" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J189" t="s">
         <v>3</v>
@@ -7889,13 +7911,13 @@
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="D190" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="G190" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H190" t="s">
         <v>7</v>
@@ -7908,16 +7930,16 @@
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="D191" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="G191" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H191" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J191" t="s">
         <v>3</v>
@@ -7927,16 +7949,19 @@
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="D192" t="s">
-        <v>248</v>
+        <v>289</v>
+      </c>
+      <c r="E192" t="s">
+        <v>286</v>
       </c>
       <c r="G192" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H192" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J192" t="s">
         <v>3</v>
@@ -7946,16 +7971,16 @@
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="D193" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="G193" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="H193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J193" t="s">
         <v>3</v>
@@ -7964,58 +7989,30 @@
     <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
-      <c r="C194" t="s">
-        <v>271</v>
-      </c>
-      <c r="D194" t="s">
-        <v>274</v>
-      </c>
-      <c r="G194" t="s">
-        <v>471</v>
-      </c>
-      <c r="H194" t="s">
-        <v>6</v>
-      </c>
-      <c r="J194" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="14"/>
-      <c r="B195" s="14"/>
+      <c r="B195" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C195" t="s">
-        <v>292</v>
-      </c>
-      <c r="D195" t="s">
-        <v>293</v>
-      </c>
-      <c r="E195" t="s">
-        <v>290</v>
-      </c>
-      <c r="G195" t="s">
-        <v>477</v>
-      </c>
-      <c r="H195" t="s">
-        <v>7</v>
-      </c>
-      <c r="J195" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" t="s">
-        <v>294</v>
+        <v>501</v>
       </c>
       <c r="D196" t="s">
-        <v>297</v>
+        <v>502</v>
       </c>
       <c r="G196" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H196" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J196" t="s">
         <v>3</v>
@@ -8024,27 +8021,55 @@
     <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
+      <c r="C197" t="s">
+        <v>369</v>
+      </c>
+      <c r="D197" t="s">
+        <v>371</v>
+      </c>
+      <c r="E197" t="s">
+        <v>370</v>
+      </c>
+      <c r="G197" t="s">
+        <v>467</v>
+      </c>
+      <c r="H197" t="s">
+        <v>7</v>
+      </c>
+      <c r="J197" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="14"/>
-      <c r="B198" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B198" s="14"/>
       <c r="C198" t="s">
-        <v>49</v>
+        <v>173</v>
+      </c>
+      <c r="D198" t="s">
+        <v>176</v>
+      </c>
+      <c r="G198" t="s">
+        <v>473</v>
+      </c>
+      <c r="H198" t="s">
+        <v>6</v>
+      </c>
+      <c r="J198" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" t="s">
-        <v>505</v>
+        <v>227</v>
       </c>
       <c r="D199" t="s">
-        <v>506</v>
+        <v>231</v>
       </c>
       <c r="G199" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H199" t="s">
         <v>7</v>
@@ -8057,19 +8082,16 @@
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" t="s">
-        <v>373</v>
+        <v>271</v>
       </c>
       <c r="D200" t="s">
-        <v>375</v>
-      </c>
-      <c r="E200" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="G200" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H200" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J200" t="s">
         <v>3</v>
@@ -8079,16 +8101,16 @@
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" t="s">
-        <v>177</v>
+        <v>275</v>
       </c>
       <c r="D201" t="s">
-        <v>180</v>
+        <v>278</v>
       </c>
       <c r="G201" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H201" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J201" t="s">
         <v>3</v>
@@ -8096,37 +8118,24 @@
     </row>
     <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="14"/>
-      <c r="B202" s="14"/>
-      <c r="C202" t="s">
-        <v>231</v>
-      </c>
-      <c r="D202" t="s">
-        <v>235</v>
-      </c>
-      <c r="G202" t="s">
-        <v>471</v>
-      </c>
-      <c r="H202" t="s">
-        <v>7</v>
-      </c>
-      <c r="J202" t="s">
-        <v>3</v>
+      <c r="B202" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="14"/>
       <c r="B203" s="14"/>
       <c r="C203" t="s">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="D203" t="s">
-        <v>278</v>
+        <v>134</v>
       </c>
       <c r="G203" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J203" t="s">
         <v>3</v>
@@ -8136,16 +8145,16 @@
       <c r="A204" s="14"/>
       <c r="B204" s="14"/>
       <c r="C204" t="s">
-        <v>279</v>
+        <v>129</v>
       </c>
       <c r="D204" t="s">
-        <v>282</v>
+        <v>135</v>
       </c>
       <c r="G204" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J204" t="s">
         <v>3</v>
@@ -8153,24 +8162,37 @@
     </row>
     <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="14"/>
-      <c r="B205" s="7" t="s">
-        <v>57</v>
+      <c r="B205" s="14"/>
+      <c r="C205" t="s">
+        <v>130</v>
+      </c>
+      <c r="D205" t="s">
+        <v>496</v>
+      </c>
+      <c r="G205" t="s">
+        <v>467</v>
+      </c>
+      <c r="H205" t="s">
+        <v>7</v>
+      </c>
+      <c r="J205" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="14"/>
       <c r="B206" s="14"/>
       <c r="C206" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="D206" t="s">
-        <v>134</v>
+        <v>235</v>
       </c>
       <c r="G206" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J206" t="s">
         <v>3</v>
@@ -8180,16 +8202,16 @@
       <c r="A207" s="14"/>
       <c r="B207" s="14"/>
       <c r="C207" t="s">
-        <v>129</v>
+        <v>361</v>
       </c>
       <c r="D207" t="s">
-        <v>135</v>
+        <v>364</v>
       </c>
       <c r="G207" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J207" t="s">
         <v>3</v>
@@ -8198,114 +8220,111 @@
     <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="14"/>
       <c r="B208" s="14"/>
-      <c r="C208" t="s">
-        <v>130</v>
-      </c>
-      <c r="D208" t="s">
-        <v>500</v>
-      </c>
-      <c r="G208" t="s">
-        <v>471</v>
-      </c>
-      <c r="H208" t="s">
-        <v>7</v>
-      </c>
-      <c r="J208" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="14"/>
-      <c r="B209" s="14"/>
-      <c r="C209" t="s">
-        <v>236</v>
-      </c>
-      <c r="D209" t="s">
-        <v>239</v>
-      </c>
-      <c r="G209" t="s">
-        <v>471</v>
-      </c>
-      <c r="H209" t="s">
-        <v>7</v>
-      </c>
-      <c r="J209" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="14"/>
-      <c r="B210" s="14"/>
+      <c r="B210" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C210" t="s">
-        <v>365</v>
-      </c>
-      <c r="D210" t="s">
-        <v>368</v>
-      </c>
-      <c r="G210" t="s">
-        <v>471</v>
-      </c>
-      <c r="H210" t="s">
-        <v>5</v>
-      </c>
-      <c r="J210" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="14"/>
       <c r="B211" s="14"/>
-    </row>
-    <row r="212" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>35</v>
+      <c r="C211" t="s">
+        <v>129</v>
+      </c>
+      <c r="D211" t="s">
+        <v>136</v>
+      </c>
+      <c r="G211" t="s">
+        <v>467</v>
+      </c>
+      <c r="H211" t="s">
+        <v>6</v>
+      </c>
+      <c r="J211" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="14"/>
+      <c r="B212" s="14"/>
+      <c r="C212" t="s">
+        <v>130</v>
+      </c>
+      <c r="D212" t="s">
+        <v>137</v>
+      </c>
+      <c r="G212" t="s">
+        <v>467</v>
+      </c>
+      <c r="H212" t="s">
+        <v>7</v>
+      </c>
+      <c r="J212" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="14"/>
-      <c r="B213" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B213" s="14"/>
       <c r="C213" t="s">
-        <v>58</v>
+        <v>128</v>
+      </c>
+      <c r="D213" t="s">
+        <v>138</v>
+      </c>
+      <c r="G213" t="s">
+        <v>467</v>
+      </c>
+      <c r="H213" t="s">
+        <v>6</v>
+      </c>
+      <c r="J213" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="14"/>
       <c r="B214" s="14"/>
       <c r="C214" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="D214" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="G214" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H214" t="s">
-        <v>6</v>
-      </c>
-      <c r="J214" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="14"/>
       <c r="B215" s="14"/>
       <c r="C215" t="s">
-        <v>130</v>
+        <v>361</v>
       </c>
       <c r="D215" t="s">
-        <v>137</v>
+        <v>365</v>
       </c>
       <c r="G215" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H215" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J215" t="s">
         <v>3</v>
@@ -8314,89 +8333,83 @@
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="14"/>
       <c r="B216" s="14"/>
-      <c r="C216" t="s">
-        <v>128</v>
-      </c>
-      <c r="D216" t="s">
-        <v>138</v>
-      </c>
-      <c r="G216" t="s">
-        <v>471</v>
-      </c>
-      <c r="H216" t="s">
-        <v>6</v>
-      </c>
-      <c r="J216" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A217" s="14"/>
-      <c r="B217" s="14"/>
-      <c r="C217" t="s">
-        <v>236</v>
-      </c>
-      <c r="D217" t="s">
-        <v>240</v>
-      </c>
-      <c r="G217" t="s">
-        <v>471</v>
-      </c>
-      <c r="H217" t="s">
-        <v>7</v>
+    </row>
+    <row r="217" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B217" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="14"/>
-      <c r="B218" s="14"/>
+      <c r="B218" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C218" t="s">
-        <v>365</v>
-      </c>
-      <c r="D218" t="s">
-        <v>369</v>
-      </c>
-      <c r="G218" t="s">
-        <v>471</v>
-      </c>
-      <c r="H218" t="s">
-        <v>5</v>
-      </c>
-      <c r="J218" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="14"/>
       <c r="B219" s="14"/>
-    </row>
-    <row r="220" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B220" s="12" t="s">
-        <v>46</v>
+      <c r="C219" t="s">
+        <v>312</v>
+      </c>
+      <c r="D219" t="s">
+        <v>320</v>
+      </c>
+      <c r="G219" t="s">
+        <v>467</v>
+      </c>
+      <c r="H219" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="14"/>
+      <c r="B220" s="14"/>
+      <c r="C220" t="s">
+        <v>313</v>
+      </c>
+      <c r="D220" t="s">
+        <v>321</v>
+      </c>
+      <c r="G220" t="s">
+        <v>467</v>
+      </c>
+      <c r="H220" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="14"/>
-      <c r="B221" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B221" s="14"/>
       <c r="C221" t="s">
-        <v>139</v>
+        <v>314</v>
+      </c>
+      <c r="D221" t="s">
+        <v>325</v>
+      </c>
+      <c r="G221" t="s">
+        <v>467</v>
+      </c>
+      <c r="H221" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="14"/>
       <c r="B222" s="14"/>
       <c r="C222" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D222" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G222" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H222" t="s">
         <v>5</v>
@@ -8406,13 +8419,13 @@
       <c r="A223" s="14"/>
       <c r="B223" s="14"/>
       <c r="C223" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D223" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G223" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H223" t="s">
         <v>5</v>
@@ -8422,13 +8435,13 @@
       <c r="A224" s="14"/>
       <c r="B224" s="14"/>
       <c r="C224" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D224" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G224" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H224" t="s">
         <v>5</v>
@@ -8438,13 +8451,13 @@
       <c r="A225" s="14"/>
       <c r="B225" s="14"/>
       <c r="C225" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D225" t="s">
         <v>326</v>
       </c>
       <c r="G225" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H225" t="s">
         <v>5</v>
@@ -8454,13 +8467,13 @@
       <c r="A226" s="14"/>
       <c r="B226" s="14"/>
       <c r="C226" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D226" t="s">
         <v>327</v>
       </c>
       <c r="G226" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H226" t="s">
         <v>5</v>
@@ -8470,13 +8483,13 @@
       <c r="A227" s="14"/>
       <c r="B227" s="14"/>
       <c r="C227" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="D227" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="G227" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H227" t="s">
         <v>5</v>
@@ -8486,13 +8499,13 @@
       <c r="A228" s="14"/>
       <c r="B228" s="14"/>
       <c r="C228" t="s">
-        <v>322</v>
+        <v>642</v>
       </c>
       <c r="D228" t="s">
-        <v>330</v>
+        <v>643</v>
       </c>
       <c r="G228" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H228" t="s">
         <v>5</v>
@@ -8502,13 +8515,13 @@
       <c r="A229" s="14"/>
       <c r="B229" s="14"/>
       <c r="C229" t="s">
-        <v>323</v>
+        <v>644</v>
       </c>
       <c r="D229" t="s">
-        <v>331</v>
+        <v>645</v>
       </c>
       <c r="G229" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H229" t="s">
         <v>5</v>
@@ -8518,64 +8531,73 @@
       <c r="A230" s="14"/>
       <c r="B230" s="14"/>
       <c r="C230" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="D230" t="s">
-        <v>359</v>
+        <v>331</v>
+      </c>
+      <c r="E230" t="s">
+        <v>503</v>
       </c>
       <c r="G230" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H230" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" t="s">
-        <v>646</v>
+        <v>329</v>
       </c>
       <c r="D231" t="s">
-        <v>647</v>
+        <v>332</v>
+      </c>
+      <c r="E231" t="s">
+        <v>504</v>
       </c>
       <c r="G231" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="14"/>
       <c r="B232" s="14"/>
       <c r="C232" t="s">
-        <v>648</v>
+        <v>330</v>
       </c>
       <c r="D232" t="s">
-        <v>649</v>
+        <v>333</v>
+      </c>
+      <c r="E232" t="s">
+        <v>505</v>
       </c>
       <c r="G232" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H232" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="14"/>
       <c r="B233" s="14"/>
       <c r="C233" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D233" t="s">
         <v>335</v>
       </c>
       <c r="E233" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G233" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H233" t="s">
         <v>7</v>
@@ -8585,16 +8607,16 @@
       <c r="A234" s="14"/>
       <c r="B234" s="14"/>
       <c r="C234" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D234" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E234" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G234" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H234" t="s">
         <v>7</v>
@@ -8604,16 +8626,16 @@
       <c r="A235" s="14"/>
       <c r="B235" s="14"/>
       <c r="C235" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D235" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E235" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="G235" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H235" t="s">
         <v>7</v>
@@ -8626,13 +8648,13 @@
         <v>338</v>
       </c>
       <c r="D236" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E236" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G236" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H236" t="s">
         <v>7</v>
@@ -8642,16 +8664,16 @@
       <c r="A237" s="14"/>
       <c r="B237" s="14"/>
       <c r="C237" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D237" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E237" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G237" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H237" t="s">
         <v>7</v>
@@ -8661,16 +8683,16 @@
       <c r="A238" s="14"/>
       <c r="B238" s="14"/>
       <c r="C238" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D238" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E238" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G238" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H238" t="s">
         <v>7</v>
@@ -8680,16 +8702,16 @@
       <c r="A239" s="14"/>
       <c r="B239" s="14"/>
       <c r="C239" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D239" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E239" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G239" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H239" t="s">
         <v>7</v>
@@ -8699,16 +8721,16 @@
       <c r="A240" s="14"/>
       <c r="B240" s="14"/>
       <c r="C240" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D240" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E240" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G240" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H240" t="s">
         <v>7</v>
@@ -8718,16 +8740,16 @@
       <c r="A241" s="14"/>
       <c r="B241" s="14"/>
       <c r="C241" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D241" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E241" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G241" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H241" t="s">
         <v>7</v>
@@ -8737,16 +8759,16 @@
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
       <c r="C242" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D242" t="s">
         <v>351</v>
       </c>
       <c r="E242" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G242" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H242" t="s">
         <v>7</v>
@@ -8755,157 +8777,139 @@
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="14"/>
       <c r="B243" s="14"/>
-      <c r="C243" t="s">
-        <v>352</v>
-      </c>
-      <c r="D243" t="s">
-        <v>357</v>
-      </c>
-      <c r="E243" t="s">
-        <v>507</v>
-      </c>
-      <c r="G243" t="s">
-        <v>471</v>
-      </c>
-      <c r="H243" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="14"/>
-      <c r="B244" s="14"/>
-      <c r="C244" t="s">
-        <v>353</v>
-      </c>
-      <c r="D244" t="s">
-        <v>356</v>
-      </c>
-      <c r="E244" t="s">
-        <v>508</v>
-      </c>
-      <c r="G244" t="s">
-        <v>471</v>
-      </c>
-      <c r="H244" t="s">
-        <v>7</v>
+    </row>
+    <row r="244" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="14"/>
-      <c r="B245" s="14"/>
+      <c r="B245" s="7" t="s">
+        <v>407</v>
+      </c>
       <c r="C245" t="s">
-        <v>354</v>
-      </c>
-      <c r="D245" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="E245" t="s">
-        <v>509</v>
-      </c>
-      <c r="G245" t="s">
-        <v>471</v>
-      </c>
-      <c r="H245" t="s">
-        <v>7</v>
+        <v>445</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="14"/>
       <c r="B246" s="14"/>
-    </row>
-    <row r="247" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B247" s="10" t="s">
-        <v>36</v>
+      <c r="C246" t="s">
+        <v>408</v>
+      </c>
+      <c r="G246" t="s">
+        <v>467</v>
+      </c>
+      <c r="H246" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="14"/>
+      <c r="B247" s="14"/>
+      <c r="C247" t="s">
+        <v>360</v>
+      </c>
+      <c r="G247" t="s">
+        <v>467</v>
+      </c>
+      <c r="H247" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="14"/>
-      <c r="B248" s="7" t="s">
-        <v>411</v>
-      </c>
+      <c r="B248" s="14"/>
       <c r="C248" t="s">
-        <v>411</v>
-      </c>
-      <c r="E248" t="s">
-        <v>449</v>
+        <v>409</v>
+      </c>
+      <c r="G248" t="s">
+        <v>467</v>
+      </c>
+      <c r="H248" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="14"/>
       <c r="B249" s="14"/>
       <c r="C249" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G249" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H249" t="s">
-        <v>2</v>
+        <v>406</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="14"/>
       <c r="B250" s="14"/>
       <c r="C250" t="s">
-        <v>364</v>
+        <v>508</v>
       </c>
       <c r="G250" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H250" t="s">
-        <v>2</v>
+        <v>406</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="14"/>
       <c r="B251" s="14"/>
       <c r="C251" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G251" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H251" t="s">
-        <v>410</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="14"/>
       <c r="B252" s="14"/>
       <c r="C252" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G252" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H252" t="s">
-        <v>410</v>
+        <v>507</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="14"/>
       <c r="B253" s="14"/>
       <c r="C253" t="s">
-        <v>512</v>
+        <v>413</v>
       </c>
       <c r="G253" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H253" t="s">
-        <v>410</v>
+        <v>507</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="14"/>
       <c r="B254" s="14"/>
       <c r="C254" t="s">
-        <v>415</v>
+        <v>359</v>
       </c>
       <c r="G254" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H254" t="s">
         <v>2</v>
@@ -8914,37 +8918,33 @@
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="14"/>
       <c r="B255" s="14"/>
-      <c r="C255" t="s">
-        <v>416</v>
-      </c>
-      <c r="G255" t="s">
-        <v>477</v>
-      </c>
-      <c r="H255" t="s">
-        <v>511</v>
-      </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="14"/>
-      <c r="B256" s="14"/>
+      <c r="B256" s="16" t="s">
+        <v>415</v>
+      </c>
       <c r="C256" t="s">
-        <v>417</v>
+        <v>414</v>
+      </c>
+      <c r="E256" t="s">
+        <v>446</v>
       </c>
       <c r="G256" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H256" t="s">
-        <v>511</v>
+        <v>406</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="14"/>
       <c r="B257" s="14"/>
       <c r="C257" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
       <c r="G257" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H257" t="s">
         <v>2</v>
@@ -8953,33 +8953,37 @@
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
+      <c r="C258" t="s">
+        <v>417</v>
+      </c>
+      <c r="G258" t="s">
+        <v>473</v>
+      </c>
+      <c r="H258" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="14"/>
-      <c r="B259" s="16" t="s">
-        <v>419</v>
-      </c>
+      <c r="B259" s="14"/>
       <c r="C259" t="s">
         <v>418</v>
       </c>
-      <c r="E259" t="s">
-        <v>450</v>
-      </c>
       <c r="G259" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H259" t="s">
-        <v>410</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G260" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H260" t="s">
         <v>2</v>
@@ -8989,36 +8993,36 @@
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G261" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H261" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
       <c r="C262" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G262" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H262" t="s">
-        <v>2</v>
+        <v>406</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="14"/>
       <c r="B263" s="14"/>
       <c r="C263" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G263" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H263" t="s">
         <v>2</v>
@@ -9028,36 +9032,36 @@
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G264" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H264" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G265" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H265" t="s">
-        <v>410</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G266" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H266" t="s">
         <v>2</v>
@@ -9067,10 +9071,10 @@
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G267" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H267" t="s">
         <v>2</v>
@@ -9080,10 +9084,10 @@
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G268" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H268" t="s">
         <v>2</v>
@@ -9093,10 +9097,10 @@
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G269" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H269" t="s">
         <v>2</v>
@@ -9106,94 +9110,94 @@
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G270" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H270" t="s">
-        <v>2</v>
+        <v>406</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="G271" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H271" t="s">
-        <v>2</v>
+        <v>406</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="G272" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H272" t="s">
-        <v>2</v>
+        <v>406</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
-      <c r="C273" t="s">
-        <v>436</v>
-      </c>
-      <c r="G273" t="s">
-        <v>471</v>
-      </c>
-      <c r="H273" t="s">
-        <v>410</v>
-      </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="14"/>
-      <c r="B274" s="14"/>
+      <c r="B274" s="7" t="s">
+        <v>482</v>
+      </c>
       <c r="C274" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="G274" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H274" t="s">
-        <v>410</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="14"/>
       <c r="B275" s="14"/>
       <c r="C275" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="G275" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H275" t="s">
-        <v>410</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
+      <c r="C276" t="s">
+        <v>477</v>
+      </c>
+      <c r="G276" t="s">
+        <v>467</v>
+      </c>
+      <c r="H276" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="14"/>
-      <c r="B277" s="7" t="s">
-        <v>486</v>
-      </c>
+      <c r="B277" s="14"/>
       <c r="C277" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G277" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H277" t="s">
         <v>2</v>
@@ -9203,10 +9207,10 @@
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
       <c r="C278" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G278" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H278" t="s">
         <v>2</v>
@@ -9216,10 +9220,10 @@
       <c r="A279" s="14"/>
       <c r="B279" s="14"/>
       <c r="C279" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G279" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H279" t="s">
         <v>2</v>
@@ -9229,13 +9233,13 @@
       <c r="A280" s="14"/>
       <c r="B280" s="14"/>
       <c r="C280" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G280" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H280" t="s">
-        <v>2</v>
+        <v>406</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
@@ -9245,7 +9249,7 @@
         <v>483</v>
       </c>
       <c r="G281" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H281" t="s">
         <v>2</v>
@@ -9258,7 +9262,7 @@
         <v>484</v>
       </c>
       <c r="G282" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H282" t="s">
         <v>2</v>
@@ -9267,62 +9271,62 @@
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
-      <c r="C283" t="s">
-        <v>485</v>
-      </c>
-      <c r="G283" t="s">
-        <v>478</v>
-      </c>
-      <c r="H283" t="s">
-        <v>410</v>
-      </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="14"/>
-      <c r="B284" s="14"/>
+      <c r="B284" s="16" t="s">
+        <v>428</v>
+      </c>
       <c r="C284" t="s">
-        <v>487</v>
+        <v>429</v>
+      </c>
+      <c r="E284" t="s">
+        <v>446</v>
       </c>
       <c r="G284" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H284" t="s">
-        <v>2</v>
+        <v>406</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="14"/>
       <c r="B285" s="14"/>
       <c r="C285" t="s">
-        <v>488</v>
+        <v>430</v>
       </c>
       <c r="G285" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H285" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="14"/>
       <c r="B286" s="14"/>
+      <c r="C286" t="s">
+        <v>431</v>
+      </c>
+      <c r="G286" t="s">
+        <v>467</v>
+      </c>
+      <c r="H286" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="14"/>
-      <c r="B287" s="16" t="s">
-        <v>432</v>
-      </c>
+      <c r="B287" s="14"/>
       <c r="C287" t="s">
-        <v>433</v>
-      </c>
-      <c r="E287" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="G287" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H287" t="s">
-        <v>410</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
@@ -9332,10 +9336,10 @@
         <v>434</v>
       </c>
       <c r="G288" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H288" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -9345,49 +9349,45 @@
         <v>435</v>
       </c>
       <c r="G289" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H289" t="s">
-        <v>410</v>
+        <v>639</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="14"/>
       <c r="B290" s="14"/>
       <c r="C290" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G290" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H290" t="s">
-        <v>7</v>
+        <v>406</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="14"/>
       <c r="B291" s="14"/>
-      <c r="C291" t="s">
-        <v>438</v>
-      </c>
-      <c r="G291" t="s">
-        <v>471</v>
-      </c>
-      <c r="H291" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="14"/>
-      <c r="B292" s="14"/>
+      <c r="B292" s="16" t="s">
+        <v>438</v>
+      </c>
       <c r="C292" t="s">
         <v>439</v>
       </c>
+      <c r="E292" t="s">
+        <v>445</v>
+      </c>
       <c r="G292" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H292" t="s">
-        <v>643</v>
+        <v>406</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -9397,95 +9397,110 @@
         <v>440</v>
       </c>
       <c r="G293" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H293" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="14"/>
       <c r="B294" s="14"/>
+      <c r="C294" t="s">
+        <v>441</v>
+      </c>
+      <c r="G294" t="s">
+        <v>473</v>
+      </c>
+      <c r="H294" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="14"/>
-      <c r="B295" s="16" t="s">
+      <c r="B295" s="14"/>
+      <c r="C295" t="s">
         <v>442</v>
       </c>
-      <c r="C295" t="s">
-        <v>443</v>
-      </c>
-      <c r="E295" t="s">
-        <v>449</v>
-      </c>
       <c r="G295" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H295" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="14"/>
       <c r="B296" s="14"/>
-      <c r="C296" t="s">
-        <v>444</v>
-      </c>
-      <c r="G296" t="s">
-        <v>477</v>
-      </c>
-      <c r="H296" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A297" s="14"/>
-      <c r="B297" s="14"/>
-      <c r="C297" t="s">
-        <v>445</v>
-      </c>
-      <c r="G297" t="s">
-        <v>477</v>
-      </c>
-      <c r="H297" t="s">
-        <v>410</v>
+    </row>
+    <row r="297" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B297" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="14"/>
-      <c r="B298" s="14"/>
+      <c r="B298" s="7" t="s">
+        <v>400</v>
+      </c>
       <c r="C298" t="s">
-        <v>446</v>
+        <v>368</v>
       </c>
       <c r="G298" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H298" t="s">
-        <v>410</v>
+        <v>2</v>
+      </c>
+      <c r="J298" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="14"/>
       <c r="B299" s="14"/>
-    </row>
-    <row r="300" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B300" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C299" t="s">
+        <v>403</v>
+      </c>
+      <c r="G299" t="s">
+        <v>467</v>
+      </c>
+      <c r="H299" t="s">
+        <v>2</v>
+      </c>
+      <c r="J299" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A300" s="14"/>
+      <c r="B300" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C300" t="s">
+        <v>385</v>
+      </c>
+      <c r="G300" t="s">
+        <v>467</v>
+      </c>
+      <c r="H300" t="s">
+        <v>2</v>
+      </c>
+      <c r="J300" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="14"/>
-      <c r="B301" s="7" t="s">
-        <v>404</v>
-      </c>
+      <c r="B301" s="14"/>
       <c r="C301" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="G301" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H301" t="s">
         <v>2</v>
@@ -9494,14 +9509,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="14"/>
       <c r="B302" s="14"/>
       <c r="C302" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="G302" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H302" t="s">
         <v>2</v>
@@ -9512,14 +9527,12 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="14"/>
-      <c r="B303" s="14" t="s">
-        <v>405</v>
-      </c>
+      <c r="B303" s="14"/>
       <c r="C303" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="G303" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H303" t="s">
         <v>2</v>
@@ -9528,14 +9541,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="14"/>
-      <c r="B304" s="14"/>
-      <c r="C304" t="s">
-        <v>390</v>
+      <c r="B304" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="G304" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H304" t="s">
         <v>2</v>
@@ -9544,14 +9559,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="14"/>
       <c r="B305" s="14"/>
-      <c r="C305" t="s">
-        <v>392</v>
+      <c r="C305" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="G305" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H305" t="s">
         <v>2</v>
@@ -9563,14 +9578,14 @@
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="14"/>
       <c r="B306" s="14"/>
-      <c r="C306" t="s">
-        <v>401</v>
+      <c r="C306" s="4" t="s">
+        <v>635</v>
       </c>
       <c r="G306" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H306" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J306" t="s">
         <v>3</v>
@@ -9578,17 +9593,15 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="14"/>
-      <c r="B307" s="14" t="s">
-        <v>395</v>
-      </c>
+      <c r="B307" s="14"/>
       <c r="C307" s="4" t="s">
-        <v>397</v>
+        <v>636</v>
       </c>
       <c r="G307" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H307" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J307" t="s">
         <v>3</v>
@@ -9598,13 +9611,13 @@
       <c r="A308" s="14"/>
       <c r="B308" s="14"/>
       <c r="C308" s="4" t="s">
-        <v>408</v>
+        <v>637</v>
       </c>
       <c r="G308" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H308" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J308" t="s">
         <v>3</v>
@@ -9614,10 +9627,10 @@
       <c r="A309" s="14"/>
       <c r="B309" s="14"/>
       <c r="C309" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G309" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H309" t="s">
         <v>1</v>
@@ -9629,30 +9642,21 @@
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="14"/>
       <c r="B310" s="14"/>
-      <c r="C310" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="G310" t="s">
-        <v>471</v>
-      </c>
-      <c r="H310" t="s">
-        <v>1</v>
-      </c>
-      <c r="J310" t="s">
-        <v>3</v>
-      </c>
+      <c r="C310" s="4"/>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="14"/>
-      <c r="B311" s="14"/>
+      <c r="B311" s="7" t="s">
+        <v>401</v>
+      </c>
       <c r="C311" s="4" t="s">
-        <v>641</v>
+        <v>366</v>
       </c>
       <c r="G311" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H311" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J311" t="s">
         <v>3</v>
@@ -9662,13 +9666,13 @@
       <c r="A312" s="14"/>
       <c r="B312" s="14"/>
       <c r="C312" s="4" t="s">
-        <v>642</v>
+        <v>367</v>
       </c>
       <c r="G312" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H312" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J312" t="s">
         <v>3</v>
@@ -9677,18 +9681,27 @@
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="14"/>
       <c r="B313" s="14"/>
-      <c r="C313" s="4"/>
+      <c r="C313" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G313" t="s">
+        <v>467</v>
+      </c>
+      <c r="H313" t="s">
+        <v>2</v>
+      </c>
+      <c r="J313" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="14"/>
-      <c r="B314" s="7" t="s">
-        <v>405</v>
-      </c>
+      <c r="B314" s="14"/>
       <c r="C314" s="4" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="G314" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H314" t="s">
         <v>2</v>
@@ -9701,13 +9714,13 @@
       <c r="A315" s="14"/>
       <c r="B315" s="14"/>
       <c r="C315" s="4" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G315" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H315" t="s">
-        <v>2</v>
+        <v>406</v>
       </c>
       <c r="J315" t="s">
         <v>3</v>
@@ -9715,12 +9728,14 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="14"/>
-      <c r="B316" s="14"/>
+      <c r="B316" s="14" t="s">
+        <v>402</v>
+      </c>
       <c r="C316" s="4" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="G316" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H316" t="s">
         <v>2</v>
@@ -9733,10 +9748,10 @@
       <c r="A317" s="14"/>
       <c r="B317" s="14"/>
       <c r="C317" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G317" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H317" t="s">
         <v>2</v>
@@ -9748,32 +9763,21 @@
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="14"/>
       <c r="B318" s="14"/>
-      <c r="C318" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="G318" t="s">
-        <v>471</v>
-      </c>
-      <c r="H318" t="s">
-        <v>410</v>
-      </c>
-      <c r="J318" t="s">
-        <v>3</v>
-      </c>
+      <c r="C318" s="4"/>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="14"/>
-      <c r="B319" s="14" t="s">
-        <v>406</v>
+      <c r="B319" s="16" t="s">
+        <v>402</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G319" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H319" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J319" t="s">
         <v>3</v>
@@ -9783,13 +9787,13 @@
       <c r="A320" s="14"/>
       <c r="B320" s="14"/>
       <c r="C320" s="4" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G320" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H320" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J320" t="s">
         <v>3</v>
@@ -9798,18 +9802,27 @@
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="14"/>
       <c r="B321" s="14"/>
-      <c r="C321" s="4"/>
+      <c r="C321" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G321" t="s">
+        <v>467</v>
+      </c>
+      <c r="H321" t="s">
+        <v>1</v>
+      </c>
+      <c r="J321" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="14"/>
-      <c r="B322" s="16" t="s">
-        <v>406</v>
-      </c>
+      <c r="B322" s="14"/>
       <c r="C322" s="4" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="G322" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H322" t="s">
         <v>1</v>
@@ -9820,31 +9833,24 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="14"/>
-      <c r="B323" s="14"/>
-      <c r="C323" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="G323" t="s">
-        <v>471</v>
-      </c>
-      <c r="H323" t="s">
-        <v>1</v>
-      </c>
-      <c r="J323" t="s">
-        <v>3</v>
-      </c>
+      <c r="B323" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C323" s="4"/>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="14"/>
-      <c r="B324" s="14"/>
+      <c r="B324" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="C324" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G324" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H324" t="s">
-        <v>1</v>
+        <v>406</v>
       </c>
       <c r="J324" t="s">
         <v>3</v>
@@ -9854,13 +9860,13 @@
       <c r="A325" s="14"/>
       <c r="B325" s="14"/>
       <c r="C325" s="4" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="G325" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H325" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J325" t="s">
         <v>3</v>
@@ -9868,24 +9874,31 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="14"/>
-      <c r="B326" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C326" s="4"/>
+      <c r="B326" s="14"/>
+      <c r="C326" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G326" t="s">
+        <v>467</v>
+      </c>
+      <c r="H326" t="s">
+        <v>406</v>
+      </c>
+      <c r="J326" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="14"/>
-      <c r="B327" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="B327" s="14"/>
       <c r="C327" s="4" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="G327" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H327" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="J327" t="s">
         <v>3</v>
@@ -9895,13 +9908,13 @@
       <c r="A328" s="14"/>
       <c r="B328" s="14"/>
       <c r="C328" s="4" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="G328" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H328" t="s">
-        <v>2</v>
+        <v>406</v>
       </c>
       <c r="J328" t="s">
         <v>3</v>
@@ -9911,13 +9924,13 @@
       <c r="A329" s="14"/>
       <c r="B329" s="14"/>
       <c r="C329" s="4" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G329" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H329" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="J329" t="s">
         <v>3</v>
@@ -9927,13 +9940,13 @@
       <c r="A330" s="14"/>
       <c r="B330" s="14"/>
       <c r="C330" s="4" t="s">
-        <v>403</v>
+        <v>497</v>
       </c>
       <c r="G330" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H330" t="s">
-        <v>410</v>
+        <v>2</v>
       </c>
       <c r="J330" t="s">
         <v>3</v>
@@ -9943,13 +9956,13 @@
       <c r="A331" s="14"/>
       <c r="B331" s="14"/>
       <c r="C331" s="4" t="s">
-        <v>398</v>
+        <v>523</v>
       </c>
       <c r="G331" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H331" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="J331" t="s">
         <v>3</v>
@@ -9958,30 +9971,21 @@
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="14"/>
       <c r="B332" s="14"/>
-      <c r="C332" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="G332" t="s">
-        <v>471</v>
-      </c>
-      <c r="H332" t="s">
-        <v>410</v>
-      </c>
-      <c r="J332" t="s">
-        <v>3</v>
-      </c>
+      <c r="C332" s="4"/>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="14"/>
-      <c r="B333" s="14"/>
+      <c r="B333" s="18" t="s">
+        <v>391</v>
+      </c>
       <c r="C333" s="4" t="s">
-        <v>501</v>
+        <v>383</v>
       </c>
       <c r="G333" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H333" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J333" t="s">
         <v>3</v>
@@ -9989,15 +9993,15 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="14"/>
-      <c r="B334" s="14"/>
+      <c r="B334" s="15"/>
       <c r="C334" s="4" t="s">
-        <v>527</v>
+        <v>390</v>
       </c>
       <c r="G334" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H334" t="s">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="J334" t="s">
         <v>3</v>
@@ -10005,19 +10009,28 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="14"/>
-      <c r="B335" s="14"/>
-      <c r="C335" s="4"/>
+      <c r="B335" s="15"/>
+      <c r="C335" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G335" t="s">
+        <v>467</v>
+      </c>
+      <c r="H335" t="s">
+        <v>0</v>
+      </c>
+      <c r="J335" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="14"/>
-      <c r="B336" s="18" t="s">
-        <v>395</v>
-      </c>
+      <c r="B336" s="15"/>
       <c r="C336" s="4" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="G336" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H336" t="s">
         <v>0</v>
@@ -10030,10 +10043,10 @@
       <c r="A337" s="14"/>
       <c r="B337" s="15"/>
       <c r="C337" s="4" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="G337" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H337" t="s">
         <v>0</v>
@@ -10046,10 +10059,10 @@
       <c r="A338" s="14"/>
       <c r="B338" s="15"/>
       <c r="C338" s="4" t="s">
-        <v>393</v>
+        <v>525</v>
       </c>
       <c r="G338" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H338" t="s">
         <v>0</v>
@@ -10058,270 +10071,248 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A339" s="14"/>
-      <c r="B339" s="15"/>
-      <c r="C339" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="G339" t="s">
-        <v>471</v>
-      </c>
-      <c r="H339" t="s">
-        <v>0</v>
-      </c>
-      <c r="J339" t="s">
-        <v>3</v>
+    <row r="339" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B339" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="14"/>
-      <c r="B340" s="15"/>
-      <c r="C340" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="G340" t="s">
-        <v>471</v>
-      </c>
-      <c r="H340" t="s">
-        <v>0</v>
-      </c>
-      <c r="J340" t="s">
-        <v>3</v>
+      <c r="B340" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C340" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="14"/>
-      <c r="B341" s="15"/>
-      <c r="C341" s="4" t="s">
-        <v>529</v>
+      <c r="B341" s="14"/>
+      <c r="C341" t="s">
+        <v>306</v>
+      </c>
+      <c r="D341" t="s">
+        <v>307</v>
+      </c>
+      <c r="E341" t="s">
+        <v>601</v>
       </c>
       <c r="G341" t="s">
-        <v>471</v>
-      </c>
-      <c r="H341" t="s">
-        <v>0</v>
-      </c>
-      <c r="J341" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="342" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B342" s="11" t="s">
-        <v>38</v>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342" s="14"/>
+      <c r="B342" s="14"/>
+      <c r="C342" t="s">
+        <v>308</v>
+      </c>
+      <c r="D342" t="s">
+        <v>309</v>
+      </c>
+      <c r="G342" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="14"/>
-      <c r="B343" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B343" s="14"/>
       <c r="C343" t="s">
-        <v>50</v>
+        <v>587</v>
+      </c>
+      <c r="D343" t="s">
+        <v>588</v>
+      </c>
+      <c r="G343" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="14"/>
       <c r="B344" s="14"/>
       <c r="C344" t="s">
-        <v>310</v>
+        <v>589</v>
       </c>
       <c r="D344" t="s">
-        <v>311</v>
-      </c>
-      <c r="E344" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="G344" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="14"/>
       <c r="B345" s="14"/>
       <c r="C345" t="s">
-        <v>312</v>
+        <v>591</v>
       </c>
       <c r="D345" t="s">
-        <v>313</v>
+        <v>592</v>
       </c>
       <c r="G345" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="14"/>
       <c r="B346" s="14"/>
-      <c r="C346" t="s">
-        <v>591</v>
-      </c>
-      <c r="D346" t="s">
-        <v>592</v>
-      </c>
-      <c r="G346" t="s">
-        <v>477</v>
-      </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="14"/>
-      <c r="B347" s="14"/>
+      <c r="B347" s="7" t="s">
+        <v>401</v>
+      </c>
       <c r="C347" t="s">
-        <v>593</v>
-      </c>
-      <c r="D347" t="s">
-        <v>594</v>
-      </c>
-      <c r="G347" t="s">
-        <v>477</v>
+        <v>577</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="14"/>
       <c r="B348" s="14"/>
       <c r="C348" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D348" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G348" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="14"/>
       <c r="B349" s="14"/>
+      <c r="C349" t="s">
+        <v>594</v>
+      </c>
+      <c r="D349" t="s">
+        <v>598</v>
+      </c>
+      <c r="G349" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="14"/>
-      <c r="B350" s="7" t="s">
-        <v>405</v>
-      </c>
+      <c r="B350" s="14"/>
       <c r="C350" t="s">
-        <v>581</v>
+        <v>275</v>
+      </c>
+      <c r="D350" t="s">
+        <v>599</v>
+      </c>
+      <c r="G350" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="14"/>
       <c r="B351" s="14"/>
       <c r="C351" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D351" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G351" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="14"/>
       <c r="B352" s="14"/>
       <c r="C352" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="D352" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G352" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="14"/>
       <c r="B353" s="14"/>
-      <c r="C353" t="s">
-        <v>279</v>
-      </c>
-      <c r="D353" t="s">
-        <v>603</v>
-      </c>
-      <c r="G353" t="s">
-        <v>477</v>
-      </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="14"/>
-      <c r="B354" s="14"/>
+      <c r="B354" t="s">
+        <v>578</v>
+      </c>
       <c r="C354" t="s">
-        <v>599</v>
-      </c>
-      <c r="D354" t="s">
-        <v>604</v>
-      </c>
-      <c r="G354" t="s">
-        <v>477</v>
+        <v>579</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="14"/>
       <c r="B355" s="14"/>
       <c r="C355" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D355" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="G355" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="14"/>
       <c r="B356" s="14"/>
+      <c r="C356" t="s">
+        <v>581</v>
+      </c>
+      <c r="D356" t="s">
+        <v>583</v>
+      </c>
+      <c r="G356" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="14"/>
-      <c r="B357" t="s">
-        <v>582</v>
-      </c>
+      <c r="B357" s="14"/>
       <c r="C357" t="s">
-        <v>583</v>
+        <v>585</v>
+      </c>
+      <c r="D357" t="s">
+        <v>586</v>
+      </c>
+      <c r="E357" t="s">
+        <v>584</v>
+      </c>
+      <c r="G357" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="14"/>
       <c r="B358" s="14"/>
-      <c r="C358" t="s">
-        <v>584</v>
-      </c>
-      <c r="D358" t="s">
-        <v>586</v>
-      </c>
-      <c r="G358" t="s">
-        <v>477</v>
-      </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="14"/>
-      <c r="B359" s="14"/>
+      <c r="B359" t="s">
+        <v>42</v>
+      </c>
       <c r="C359" t="s">
-        <v>585</v>
-      </c>
-      <c r="D359" t="s">
-        <v>587</v>
-      </c>
-      <c r="G359" t="s">
-        <v>477</v>
+        <v>51</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="14"/>
       <c r="B360" s="14"/>
       <c r="C360" t="s">
-        <v>589</v>
+        <v>310</v>
       </c>
       <c r="D360" t="s">
-        <v>590</v>
-      </c>
-      <c r="E360" t="s">
-        <v>588</v>
+        <v>311</v>
       </c>
       <c r="G360" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
@@ -10330,33 +10321,7 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="14"/>
-      <c r="B362" t="s">
-        <v>42</v>
-      </c>
-      <c r="C362" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A363" s="14"/>
-      <c r="B363" s="14"/>
-      <c r="C363" t="s">
-        <v>314</v>
-      </c>
-      <c r="D363" t="s">
-        <v>315</v>
-      </c>
-      <c r="G363" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A364" s="14"/>
-      <c r="B364" s="14"/>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A365" s="14"/>
-      <c r="B365" s="14"/>
+      <c r="B362" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10368,8 +10333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52"/>
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10402,112 +10367,112 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H1" t="s">
         <v>456</v>
       </c>
-      <c r="C1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>457</v>
+      </c>
+      <c r="K1" t="s">
         <v>458</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>459</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="N1" t="s">
         <v>460</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>461</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>462</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>463</v>
       </c>
-      <c r="M1" s="23" t="s">
-        <v>575</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>464</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>465</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>466</v>
       </c>
-      <c r="R1" t="s">
-        <v>467</v>
-      </c>
-      <c r="T1" t="s">
-        <v>468</v>
-      </c>
-      <c r="U1" t="s">
-        <v>469</v>
-      </c>
-      <c r="W1" t="s">
-        <v>470</v>
-      </c>
       <c r="X1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="19" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="19" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="P2" s="19"/>
       <c r="Q2" s="19" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="S2" s="19"/>
       <c r="T2" s="19" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="V2" s="19"/>
       <c r="W2" s="19" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="X2" s="19" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -10515,24 +10480,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="25" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="20" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="J3" s="14"/>
       <c r="M3" s="23"/>
@@ -10544,21 +10509,21 @@
     <row r="4" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="25" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="20" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="J4" s="14"/>
       <c r="M4" s="23"/>
@@ -10570,17 +10535,17 @@
     <row r="5" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="20" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="25" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="G5" s="14"/>
       <c r="J5" s="14"/>
@@ -10593,17 +10558,17 @@
     <row r="6" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="20" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="25" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G6" s="14"/>
       <c r="J6" s="14"/>
@@ -10654,31 +10619,31 @@
         <v>0</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="20" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="20" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="20" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M11" s="23"/>
       <c r="P11" s="14"/>
@@ -10689,11 +10654,11 @@
     <row r="12" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="20" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="20" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G12" s="14"/>
       <c r="J12" s="14"/>
@@ -10707,7 +10672,7 @@
       <c r="A13" s="7"/>
       <c r="D13" s="14"/>
       <c r="E13" s="20" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G13" s="14"/>
       <c r="J13" s="14"/>
@@ -10769,52 +10734,52 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="20" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="20" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="20" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="M19" s="23"/>
       <c r="N19" s="20" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="P19" s="14"/>
       <c r="Q19" s="20" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="R19" s="20" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="S19" s="14"/>
       <c r="T19" s="20" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="U19" s="20" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="V19" s="14"/>
       <c r="Y19" s="14"/>
@@ -10822,52 +10787,52 @@
     <row r="20" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="20" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="20" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="20" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="20" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="20" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="P20" s="14"/>
       <c r="Q20" s="20" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="R20" s="20" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="S20" s="14"/>
       <c r="T20" s="20" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="U20" s="20" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="V20" s="14"/>
       <c r="Y20" s="14"/>
@@ -10875,22 +10840,22 @@
     <row r="21" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="20" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D21" s="14"/>
       <c r="F21" s="20" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="20" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M21" s="23"/>
       <c r="P21" s="14"/>
@@ -10901,7 +10866,7 @@
     <row r="22" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="20" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D22" s="14"/>
       <c r="G22" s="14"/>
@@ -10915,7 +10880,7 @@
     <row r="23" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="20" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D23" s="14"/>
       <c r="G23" s="14"/>
@@ -10929,7 +10894,7 @@
     <row r="24" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="20" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D24" s="14"/>
       <c r="G24" s="14"/>
@@ -10943,10 +10908,10 @@
     <row r="25" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="20" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D25" s="14"/>
       <c r="G25" s="14"/>
@@ -10962,160 +10927,160 @@
     </row>
     <row r="27" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="20" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="20" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="20" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M27" s="23"/>
       <c r="N27" s="20" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P27" s="14"/>
       <c r="Q27" s="20" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="R27" s="20" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="S27" s="14"/>
       <c r="T27" s="20" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="U27" s="20" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="V27" s="14"/>
       <c r="W27" s="20" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="X27" s="20" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="Y27" s="14"/>
     </row>
     <row r="28" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="20" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="20" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="20" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="M28" s="23"/>
       <c r="N28" s="20" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="R28" s="20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="S28" s="14"/>
       <c r="T28" s="20" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="U28" s="20" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="V28" s="14"/>
       <c r="W28" s="20" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="Y28" s="14"/>
     </row>
     <row r="29" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="20" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="J29" s="14"/>
       <c r="K29" s="20" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M29" s="23"/>
       <c r="P29" s="14"/>
       <c r="R29" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="S29" s="14"/>
       <c r="V29" s="14"/>
       <c r="W29" s="20" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="Y29" s="14"/>
     </row>
     <row r="30" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D30" s="14"/>
       <c r="G30" s="14"/>
       <c r="J30" s="14"/>
       <c r="L30" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M30" s="23"/>
       <c r="P30" s="14"/>
@@ -11129,7 +11094,7 @@
       <c r="G31" s="14"/>
       <c r="J31" s="14"/>
       <c r="L31" s="20" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M31" s="23"/>
       <c r="P31" s="14"/>
@@ -11143,7 +11108,7 @@
       <c r="G32" s="14"/>
       <c r="J32" s="14"/>
       <c r="L32" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M32" s="23"/>
       <c r="P32" s="14"/>
@@ -11154,59 +11119,59 @@
     <row r="33" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J33" s="14"/>
       <c r="K33" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M33" s="23"/>
       <c r="N33" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="S33" s="14"/>
       <c r="T33" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="U33" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="V33" s="14"/>
       <c r="W33" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="X33" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Y33" s="14"/>
     </row>
@@ -11218,24 +11183,24 @@
         <v>7</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="8" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="J35" s="14"/>
       <c r="K35" s="8" t="s">
@@ -11246,24 +11211,24 @@
       </c>
       <c r="M35" s="23"/>
       <c r="N35" s="8" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P35" s="14"/>
       <c r="Q35" s="8" t="s">
         <v>79</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="S35" s="14"/>
       <c r="T35" s="8" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="U35" s="8" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="V35" s="14"/>
       <c r="Y35" s="14"/>
@@ -11271,24 +11236,24 @@
     <row r="36" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="8" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="J36" s="14"/>
       <c r="K36" s="8" t="s">
@@ -11299,24 +11264,24 @@
       </c>
       <c r="M36" s="23"/>
       <c r="N36" s="8" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P36" s="14"/>
       <c r="Q36" s="8" t="s">
         <v>77</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="S36" s="14"/>
       <c r="T36" s="8" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="U36" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="V36" s="14"/>
       <c r="Y36" s="14"/>
@@ -11324,49 +11289,49 @@
     <row r="37" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="J37" s="14"/>
       <c r="K37" s="8" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="L37" s="8" t="s">
         <v>69</v>
       </c>
       <c r="M37" s="23"/>
       <c r="N37" s="8" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="8" t="s">
         <v>78</v>
       </c>
       <c r="R37" s="8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="S37" s="14"/>
       <c r="U37" s="8" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="V37" s="14"/>
       <c r="Y37" s="14"/>
@@ -11374,10 +11339,10 @@
     <row r="38" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="8" t="s">
@@ -11388,10 +11353,10 @@
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J38" s="14"/>
       <c r="L38" s="8" t="s">
@@ -11402,18 +11367,18 @@
         <v>162</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="R38" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="S38" s="14"/>
       <c r="U38" s="8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="V38" s="14"/>
       <c r="Y38" s="14"/>
@@ -11421,10 +11386,10 @@
     <row r="39" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D39" s="14"/>
       <c r="G39" s="14"/>
@@ -11432,7 +11397,7 @@
         <v>157</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J39" s="14"/>
       <c r="L39" s="8" t="s">
@@ -11443,18 +11408,18 @@
         <v>163</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P39" s="14"/>
       <c r="Q39" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="S39" s="14"/>
       <c r="U39" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="V39" s="14"/>
       <c r="Y39" s="14"/>
@@ -11462,10 +11427,10 @@
     <row r="40" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D40" s="14"/>
       <c r="G40" s="14"/>
@@ -11473,11 +11438,11 @@
         <v>159</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="J40" s="14"/>
       <c r="L40" s="8" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M40" s="23"/>
       <c r="N40" s="8" t="s">
@@ -11485,14 +11450,14 @@
       </c>
       <c r="P40" s="14"/>
       <c r="Q40" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="S40" s="14"/>
       <c r="U40" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="V40" s="14"/>
       <c r="Y40" s="14"/>
@@ -11500,31 +11465,31 @@
     <row r="41" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="8" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J41" s="14"/>
       <c r="M41" s="23"/>
       <c r="N41" s="8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P41" s="14"/>
       <c r="Q41" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="S41" s="14"/>
       <c r="U41" s="8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="V41" s="14"/>
       <c r="Y41" s="14"/>
@@ -11532,10 +11497,10 @@
     <row r="42" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="8" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D42" s="14"/>
       <c r="G42" s="14"/>
@@ -11543,20 +11508,20 @@
         <v>136</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J42" s="14"/>
       <c r="M42" s="23"/>
       <c r="N42" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P42" s="14"/>
       <c r="Q42" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="S42" s="14"/>
       <c r="U42" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="V42" s="14"/>
       <c r="Y42" s="14"/>
@@ -11564,28 +11529,28 @@
     <row r="43" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="8" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D43" s="22"/>
       <c r="G43" s="14"/>
       <c r="H43" s="8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J43" s="14"/>
       <c r="M43" s="23"/>
       <c r="N43" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P43" s="14"/>
       <c r="S43" s="14"/>
       <c r="U43" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="V43" s="14"/>
       <c r="Y43" s="14"/>
@@ -11593,13 +11558,13 @@
     <row r="44" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="22"/>
       <c r="G44" s="14"/>
       <c r="I44" s="8" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="J44" s="14"/>
       <c r="M44" s="23"/>
@@ -11616,52 +11581,52 @@
         <v>5</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>54</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J46" s="14"/>
       <c r="K46" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M46" s="23"/>
       <c r="N46" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P46" s="14"/>
       <c r="Q46" s="8" t="s">
         <v>72</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="S46" s="14"/>
       <c r="T46" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="U46" s="8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="V46" s="14"/>
       <c r="Y46" s="14"/>
@@ -11669,52 +11634,52 @@
     <row r="47" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="8" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>53</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="I47" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>249</v>
       </c>
       <c r="J47" s="14"/>
       <c r="K47" s="8" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M47" s="23"/>
       <c r="N47" s="8" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P47" s="14"/>
       <c r="Q47" s="8" t="s">
         <v>75</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="S47" s="14"/>
       <c r="T47" s="8" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="U47" s="8" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="V47" s="14"/>
       <c r="Y47" s="14"/>
@@ -11722,49 +11687,49 @@
     <row r="48" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="C48" s="8" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="8" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>70</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J48" s="14"/>
       <c r="K48" s="8" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M48" s="23"/>
       <c r="N48" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P48" s="14"/>
       <c r="Q48" s="8" t="s">
         <v>74</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="S48" s="14"/>
       <c r="T48" s="8" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="U48" s="8" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="V48" s="14"/>
       <c r="Y48" s="14"/>
@@ -11772,34 +11737,37 @@
     <row r="49" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="C49" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="8" t="s">
         <v>145</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="8" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J49" s="14"/>
       <c r="K49" s="8" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M49" s="23"/>
       <c r="N49" s="8" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P49" s="14"/>
+      <c r="Q49" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="R49" s="8" t="s">
         <v>167</v>
       </c>
@@ -11811,30 +11779,30 @@
       <c r="A50" s="7"/>
       <c r="D50" s="14"/>
       <c r="E50" s="8" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="8" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="J50" s="14"/>
       <c r="K50" s="8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M50" s="23"/>
-      <c r="N50" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="O50" s="8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P50" s="14"/>
+      <c r="Q50" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="R50" s="8" t="s">
         <v>166</v>
       </c>
@@ -11846,10 +11814,10 @@
       <c r="A51" s="7"/>
       <c r="D51" s="14"/>
       <c r="E51" s="8" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="8" t="s">
@@ -11857,16 +11825,16 @@
       </c>
       <c r="J51" s="14"/>
       <c r="L51" s="8" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="M51" s="23"/>
-      <c r="N51" s="8" t="s">
-        <v>171</v>
-      </c>
       <c r="O51" s="8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P51" s="14"/>
+      <c r="Q51" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="R51" s="8" t="s">
         <v>168</v>
       </c>
@@ -11881,24 +11849,18 @@
         <v>149</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="8" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="J52" s="14"/>
       <c r="M52" s="23"/>
-      <c r="N52" s="8" t="s">
-        <v>172</v>
-      </c>
       <c r="O52" s="8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P52" s="14"/>
-      <c r="R52" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="S52" s="14"/>
       <c r="V52" s="14"/>
       <c r="Y52" s="14"/>
@@ -11907,21 +11869,18 @@
       <c r="A53" s="7"/>
       <c r="D53" s="14"/>
       <c r="E53" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="8" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="J53" s="14"/>
       <c r="M53" s="23"/>
       <c r="P53" s="14"/>
-      <c r="R53" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="S53" s="14"/>
       <c r="V53" s="14"/>
       <c r="Y53" s="14"/>
@@ -11933,18 +11892,15 @@
         <v>150</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J54" s="14"/>
       <c r="M54" s="23"/>
       <c r="P54" s="14"/>
-      <c r="R54" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="S54" s="14"/>
       <c r="V54" s="14"/>
       <c r="Y54" s="14"/>
@@ -11974,25 +11930,25 @@
         <v>95</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J56" s="14"/>
       <c r="K56" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M56" s="23"/>
       <c r="N56" s="8" t="s">
         <v>119</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P56" s="14"/>
       <c r="Q56" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="R56" s="8" t="s">
         <v>109</v>
@@ -12002,7 +11958,7 @@
         <v>127</v>
       </c>
       <c r="U56" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="V56" s="14"/>
       <c r="Y56" s="14"/>
@@ -12027,21 +11983,21 @@
         <v>96</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J57" s="14"/>
       <c r="K57" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M57" s="23"/>
       <c r="N57" s="8" t="s">
         <v>115</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P57" s="14"/>
       <c r="Q57" s="8" t="s">
@@ -12055,7 +12011,7 @@
         <v>125</v>
       </c>
       <c r="U57" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="V57" s="14"/>
       <c r="Y57" s="14"/>
@@ -12070,7 +12026,7 @@
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="8" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>146</v>
@@ -12080,21 +12036,21 @@
         <v>146</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J58" s="14"/>
       <c r="K58" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M58" s="23"/>
       <c r="N58" s="8" t="s">
         <v>117</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P58" s="14"/>
       <c r="Q58" s="8" t="s">
@@ -12108,7 +12064,7 @@
         <v>126</v>
       </c>
       <c r="U58" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="V58" s="14"/>
       <c r="Y58" s="14"/>
@@ -12120,11 +12076,11 @@
         <v>135</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J59" s="14"/>
       <c r="M59" s="23"/>
@@ -12132,7 +12088,7 @@
         <v>123</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P59" s="14"/>
       <c r="Q59" s="8" t="s">
@@ -12143,10 +12099,10 @@
       </c>
       <c r="S59" s="14"/>
       <c r="T59" s="8" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="U59" s="8" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="V59" s="14"/>
       <c r="Y59" s="14"/>
@@ -12158,11 +12114,11 @@
         <v>136</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J60" s="14"/>
       <c r="M60" s="23"/>
@@ -12170,7 +12126,7 @@
         <v>121</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P60" s="14"/>
       <c r="Q60" s="8" t="s">
@@ -12190,11 +12146,11 @@
       <c r="A61" s="7"/>
       <c r="D61" s="14"/>
       <c r="F61" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J61" s="14"/>
       <c r="M61" s="23"/>
@@ -12202,7 +12158,7 @@
         <v>122</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P61" s="14"/>
       <c r="Q61" s="8" t="s">
@@ -12213,7 +12169,7 @@
       </c>
       <c r="S61" s="14"/>
       <c r="T61" s="8" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="V61" s="14"/>
       <c r="Y61" s="14"/>
@@ -12222,7 +12178,7 @@
       <c r="A62" s="7"/>
       <c r="D62" s="14"/>
       <c r="F62" s="8" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G62" s="14"/>
       <c r="J62" s="14"/>
@@ -12232,11 +12188,11 @@
         <v>103</v>
       </c>
       <c r="R62" s="8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="S62" s="14"/>
       <c r="T62" s="8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="V62" s="14"/>
       <c r="Y62" s="14"/>
@@ -12252,14 +12208,14 @@
       <c r="M63" s="23"/>
       <c r="P63" s="14"/>
       <c r="Q63" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="S63" s="14"/>
       <c r="T63" s="8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="V63" s="14"/>
       <c r="Y63" s="14"/>
@@ -12268,18 +12224,18 @@
       <c r="A64" s="7"/>
       <c r="D64" s="14"/>
       <c r="F64" s="8" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G64" s="14"/>
       <c r="J64" s="14"/>
       <c r="M64" s="23"/>
       <c r="P64" s="14"/>
       <c r="R64" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="S64" s="14"/>
       <c r="T64" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="V64" s="14"/>
       <c r="Y64" s="14"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\OneDrive\Documenten\KappaSquad\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\KappaSquad\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1972,7 +1972,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2233,23 +2233,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2285,23 +2268,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -10333,8 +10299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="H19" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10858,7 +10824,13 @@
         <v>375</v>
       </c>
       <c r="M21" s="23"/>
+      <c r="N21" s="20" t="s">
+        <v>470</v>
+      </c>
       <c r="P21" s="14"/>
+      <c r="Q21" s="20" t="s">
+        <v>471</v>
+      </c>
       <c r="S21" s="14"/>
       <c r="V21" s="14"/>
       <c r="Y21" s="14"/>
@@ -11225,7 +11197,7 @@
       </c>
       <c r="S35" s="14"/>
       <c r="T35" s="8" t="s">
-        <v>471</v>
+        <v>604</v>
       </c>
       <c r="U35" s="8" t="s">
         <v>332</v>
@@ -11277,9 +11249,6 @@
         <v>287</v>
       </c>
       <c r="S36" s="14"/>
-      <c r="T36" s="8" t="s">
-        <v>604</v>
-      </c>
       <c r="U36" s="8" t="s">
         <v>333</v>
       </c>
@@ -11728,9 +11697,6 @@
       <c r="T48" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="U48" s="8" t="s">
-        <v>470</v>
-      </c>
       <c r="V48" s="14"/>
       <c r="Y48" s="14"/>
     </row>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\KappaSquad\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\OneDrive\Documenten\KappaSquad\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="648">
   <si>
     <t>Arne</t>
   </si>
@@ -1967,12 +1967,15 @@
   </si>
   <si>
     <t>6A_CHAR_MCGETHIT</t>
+  </si>
+  <si>
+    <t>Bugfixing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2233,6 +2236,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2268,6 +2288,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -10299,8 +10336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H19" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10466,6 +10503,12 @@
         <v>599</v>
       </c>
       <c r="J3" s="14"/>
+      <c r="K3" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>647</v>
+      </c>
       <c r="M3" s="23"/>
       <c r="P3" s="14"/>
       <c r="S3" s="14"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="661">
   <si>
     <t>Arne</t>
   </si>
@@ -1270,9 +1270,6 @@
     <t>BGM_MainMenu</t>
   </si>
   <si>
-    <t>SFX_Step</t>
-  </si>
-  <si>
     <t>SFX_Player</t>
   </si>
   <si>
@@ -1970,6 +1967,48 @@
   </si>
   <si>
     <t>Bugfixing</t>
+  </si>
+  <si>
+    <t>SFX_GrapplingHook</t>
+  </si>
+  <si>
+    <t>SFX_StepInside</t>
+  </si>
+  <si>
+    <t>SFX_StepOutside</t>
+  </si>
+  <si>
+    <t>SFX_StepCave</t>
+  </si>
+  <si>
+    <t>SFX_StepGrass</t>
+  </si>
+  <si>
+    <t>SFX_StepBaby</t>
+  </si>
+  <si>
+    <t>SFX_StepKappa</t>
+  </si>
+  <si>
+    <t>SFX_StepBoss</t>
+  </si>
+  <si>
+    <t>Grappling hook hit</t>
+  </si>
+  <si>
+    <t>9P_INT_HOOKHIT</t>
+  </si>
+  <si>
+    <t>Shuriken Hit</t>
+  </si>
+  <si>
+    <t>9P_PLYR_SHURIKENHIT</t>
+  </si>
+  <si>
+    <t>Sakura blossom</t>
+  </si>
+  <si>
+    <t>9P_ENV_SAKURABLOSSOM</t>
   </si>
 </sst>
 </file>
@@ -2496,7 +2535,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1" s="1"/>
       <c r="J1" s="3">
@@ -2946,13 +2985,13 @@
         <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="CJ2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="EU2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.25">
@@ -2963,7 +3002,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -2975,13 +3014,13 @@
         <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="CJ3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="EU3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:151" x14ac:dyDescent="0.25">
@@ -3004,13 +3043,13 @@
         <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="CJ4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="EU4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.25">
@@ -3021,7 +3060,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -3033,22 +3072,22 @@
         <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="CJ5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="EU5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="CJ6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="EU6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.25">
@@ -3056,10 +3095,10 @@
         <v>4</v>
       </c>
       <c r="CJ7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="EU7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:151" x14ac:dyDescent="0.25">
@@ -3082,13 +3121,13 @@
         <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="CJ8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="EU8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.25">
@@ -3111,13 +3150,13 @@
         <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="CJ9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="EU9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.25">
@@ -3128,7 +3167,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -3140,13 +3179,13 @@
         <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="CJ10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="EU10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:151" x14ac:dyDescent="0.25">
@@ -3169,7 +3208,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J11" s="3">
         <v>42618</v>
@@ -3618,7 +3657,7 @@
         <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>11</v>
@@ -3721,7 +3760,7 @@
         <v>11</v>
       </c>
       <c r="CJ12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="CN12" s="1" t="s">
         <v>11</v>
@@ -3808,7 +3847,7 @@
         <v>11</v>
       </c>
       <c r="EU12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:151" x14ac:dyDescent="0.25">
@@ -3819,7 +3858,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -3831,7 +3870,7 @@
         <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>12</v>
@@ -3840,13 +3879,13 @@
         <v>13</v>
       </c>
       <c r="CJ13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="ES13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="EU13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:151" x14ac:dyDescent="0.25">
@@ -3869,58 +3908,58 @@
         <v>105</v>
       </c>
       <c r="G14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="X14" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE14" t="s">
         <v>452</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AL14" t="s">
         <v>453</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AS14" t="s">
         <v>454</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AZ14" t="s">
         <v>455</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="BN14" t="s">
         <v>456</v>
       </c>
-      <c r="BN14" t="s">
+      <c r="BU14" t="s">
         <v>457</v>
       </c>
-      <c r="BU14" t="s">
+      <c r="CB14" t="s">
         <v>458</v>
       </c>
-      <c r="CB14" t="s">
+      <c r="CI14" t="s">
         <v>459</v>
       </c>
-      <c r="CI14" t="s">
+      <c r="CJ14" t="s">
+        <v>527</v>
+      </c>
+      <c r="CP14" t="s">
         <v>460</v>
       </c>
-      <c r="CJ14" t="s">
-        <v>528</v>
-      </c>
-      <c r="CP14" t="s">
+      <c r="CW14" t="s">
         <v>461</v>
       </c>
-      <c r="CW14" t="s">
+      <c r="DD14" t="s">
         <v>462</v>
       </c>
-      <c r="DD14" t="s">
+      <c r="DK14" t="s">
         <v>463</v>
       </c>
-      <c r="DK14" t="s">
+      <c r="EF14" t="s">
         <v>464</v>
       </c>
-      <c r="EF14" t="s">
+      <c r="EM14" t="s">
         <v>465</v>
       </c>
-      <c r="EM14" t="s">
-        <v>466</v>
-      </c>
       <c r="EU14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:151" x14ac:dyDescent="0.25">
@@ -3931,7 +3970,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -3943,433 +3982,433 @@
         <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="R15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="S15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="T15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="U15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="V15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="W15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="X15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Y15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Z15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AA15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AB15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AC15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AD15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AE15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AF15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AH15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AI15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AJ15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AK15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AL15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AM15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AN15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AO15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AP15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AQ15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AR15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AS15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AT15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AU15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AV15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AW15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AX15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AY15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AZ15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BA15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BB15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BC15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BD15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BE15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BF15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BG15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BH15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BI15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BJ15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BK15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BL15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BM15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BN15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BO15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BP15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BQ15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BR15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BS15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BT15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BU15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BV15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BW15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BX15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BY15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BZ15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CA15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CB15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CC15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CD15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CE15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CF15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CG15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CH15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CI15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CJ15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CK15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CL15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CM15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CN15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CO15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CP15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CQ15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CR15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CS15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CT15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CU15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CV15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CW15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CX15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CY15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="CZ15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DA15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DB15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DC15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DD15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DE15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DF15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DG15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DH15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DI15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DJ15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DK15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DL15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DM15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DN15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DO15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DP15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DQ15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DR15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DS15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DT15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DU15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DV15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DW15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DX15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DY15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DZ15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="EA15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="EB15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="EC15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="ED15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="EE15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="EF15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="EG15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="EH15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="EI15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="EJ15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="EK15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="EL15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="EM15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="EN15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="EO15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="EP15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="EQ15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="ER15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="ES15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="ET15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="EU15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:151" x14ac:dyDescent="0.25">
@@ -4421,7 +4460,7 @@
         <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q18" t="s">
         <v>7</v>
@@ -4447,7 +4486,7 @@
         <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -4458,7 +4497,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -4470,7 +4509,7 @@
         <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -4481,10 +4520,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J362"/>
+  <dimension ref="A1:J373"/>
   <sheetViews>
-    <sheetView topLeftCell="B81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="B346" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E364" sqref="E364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4514,16 +4553,16 @@
         <v>91</v>
       </c>
       <c r="G1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H1" t="s">
         <v>450</v>
-      </c>
-      <c r="H1" t="s">
-        <v>451</v>
       </c>
       <c r="I1" t="s">
         <v>92</v>
       </c>
       <c r="J1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4550,7 +4589,7 @@
         <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -4566,10 +4605,10 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
@@ -4588,7 +4627,7 @@
         <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
@@ -4607,7 +4646,7 @@
         <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
@@ -4626,7 +4665,7 @@
         <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
@@ -4642,10 +4681,10 @@
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H9" t="s">
         <v>5</v>
@@ -4664,7 +4703,7 @@
         <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H10" t="s">
         <v>5</v>
@@ -4683,7 +4722,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H11" t="s">
         <v>7</v>
@@ -4702,7 +4741,7 @@
         <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H12" t="s">
         <v>5</v>
@@ -4721,7 +4760,7 @@
         <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H13" t="s">
         <v>7</v>
@@ -4740,7 +4779,7 @@
         <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H14" t="s">
         <v>6</v>
@@ -4759,7 +4798,7 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H15" t="s">
         <v>6</v>
@@ -4778,7 +4817,7 @@
         <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H16" t="s">
         <v>6</v>
@@ -4797,7 +4836,7 @@
         <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H17" t="s">
         <v>6</v>
@@ -4816,7 +4855,7 @@
         <v>113</v>
       </c>
       <c r="G18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H18" t="s">
         <v>6</v>
@@ -4835,7 +4874,7 @@
         <v>119</v>
       </c>
       <c r="G19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H19" t="s">
         <v>6</v>
@@ -4854,7 +4893,7 @@
         <v>123</v>
       </c>
       <c r="G20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H20" t="s">
         <v>6</v>
@@ -4873,7 +4912,7 @@
         <v>127</v>
       </c>
       <c r="G21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H21" t="s">
         <v>6</v>
@@ -4892,7 +4931,7 @@
         <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H22" t="s">
         <v>6</v>
@@ -4911,7 +4950,7 @@
         <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H23" t="s">
         <v>6</v>
@@ -4927,10 +4966,10 @@
         <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G24" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H24" t="s">
         <v>7</v>
@@ -4946,10 +4985,10 @@
         <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H25" t="s">
         <v>7</v>
@@ -4968,7 +5007,7 @@
         <v>148</v>
       </c>
       <c r="G26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H26" t="s">
         <v>5</v>
@@ -4987,7 +5026,7 @@
         <v>152</v>
       </c>
       <c r="G27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H27" t="s">
         <v>7</v>
@@ -5006,7 +5045,7 @@
         <v>154</v>
       </c>
       <c r="G28" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H28" t="s">
         <v>7</v>
@@ -5028,7 +5067,7 @@
         <v>370</v>
       </c>
       <c r="G29" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H29" t="s">
         <v>7</v>
@@ -5047,7 +5086,7 @@
         <v>157</v>
       </c>
       <c r="G30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H30" t="s">
         <v>6</v>
@@ -5066,7 +5105,7 @@
         <v>158</v>
       </c>
       <c r="G31" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H31" t="s">
         <v>6</v>
@@ -5085,7 +5124,7 @@
         <v>162</v>
       </c>
       <c r="G32" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H32" t="s">
         <v>7</v>
@@ -5104,7 +5143,7 @@
         <v>166</v>
       </c>
       <c r="G33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H33" t="s">
         <v>5</v>
@@ -5123,7 +5162,7 @@
         <v>170</v>
       </c>
       <c r="G34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H34" t="s">
         <v>5</v>
@@ -5142,7 +5181,7 @@
         <v>174</v>
       </c>
       <c r="G35" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H35" t="s">
         <v>6</v>
@@ -5161,7 +5200,7 @@
         <v>180</v>
       </c>
       <c r="G36" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H36" t="s">
         <v>7</v>
@@ -5180,7 +5219,7 @@
         <v>181</v>
       </c>
       <c r="G37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H37" t="s">
         <v>7</v>
@@ -5199,7 +5238,7 @@
         <v>182</v>
       </c>
       <c r="G38" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H38" t="s">
         <v>7</v>
@@ -5218,7 +5257,7 @@
         <v>187</v>
       </c>
       <c r="G39" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H39" t="s">
         <v>6</v>
@@ -5237,7 +5276,7 @@
         <v>191</v>
       </c>
       <c r="G40" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H40" t="s">
         <v>6</v>
@@ -5256,7 +5295,7 @@
         <v>194</v>
       </c>
       <c r="G41" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H41" t="s">
         <v>6</v>
@@ -5275,7 +5314,7 @@
         <v>205</v>
       </c>
       <c r="G42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H42" t="s">
         <v>7</v>
@@ -5294,7 +5333,7 @@
         <v>206</v>
       </c>
       <c r="G43" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H43" t="s">
         <v>7</v>
@@ -5310,10 +5349,10 @@
         <v>209</v>
       </c>
       <c r="D44" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G44" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H44" t="s">
         <v>5</v>
@@ -5329,10 +5368,10 @@
         <v>210</v>
       </c>
       <c r="D45" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H45" t="s">
         <v>5</v>
@@ -5348,10 +5387,10 @@
         <v>211</v>
       </c>
       <c r="D46" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G46" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H46" t="s">
         <v>5</v>
@@ -5370,7 +5409,7 @@
         <v>213</v>
       </c>
       <c r="G47" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H47" t="s">
         <v>6</v>
@@ -5389,7 +5428,7 @@
         <v>217</v>
       </c>
       <c r="G48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H48" t="s">
         <v>6</v>
@@ -5408,7 +5447,7 @@
         <v>221</v>
       </c>
       <c r="G49" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H49" t="s">
         <v>7</v>
@@ -5427,7 +5466,7 @@
         <v>226</v>
       </c>
       <c r="G50" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H50" t="s">
         <v>7</v>
@@ -5446,7 +5485,7 @@
         <v>281</v>
       </c>
       <c r="G51" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H51" t="s">
         <v>7</v>
@@ -5465,7 +5504,7 @@
         <v>228</v>
       </c>
       <c r="G52" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H52" t="s">
         <v>7</v>
@@ -5484,7 +5523,7 @@
         <v>233</v>
       </c>
       <c r="G53" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H53" t="s">
         <v>7</v>
@@ -5503,7 +5542,7 @@
         <v>240</v>
       </c>
       <c r="G54" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H54" t="s">
         <v>5</v>
@@ -5522,7 +5561,7 @@
         <v>246</v>
       </c>
       <c r="G55" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H55" t="s">
         <v>5</v>
@@ -5541,7 +5580,7 @@
         <v>249</v>
       </c>
       <c r="G56" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H56" t="s">
         <v>7</v>
@@ -5560,7 +5599,7 @@
         <v>250</v>
       </c>
       <c r="G57" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H57" t="s">
         <v>7</v>
@@ -5579,7 +5618,7 @@
         <v>252</v>
       </c>
       <c r="G58" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H58" t="s">
         <v>7</v>
@@ -5598,7 +5637,7 @@
         <v>254</v>
       </c>
       <c r="G59" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H59" t="s">
         <v>7</v>
@@ -5617,7 +5656,7 @@
         <v>258</v>
       </c>
       <c r="G60" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H60" t="s">
         <v>5</v>
@@ -5636,7 +5675,7 @@
         <v>260</v>
       </c>
       <c r="G61" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H61" t="s">
         <v>7</v>
@@ -5655,7 +5694,7 @@
         <v>262</v>
       </c>
       <c r="G62" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H62" t="s">
         <v>7</v>
@@ -5674,7 +5713,7 @@
         <v>264</v>
       </c>
       <c r="G63" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H63" t="s">
         <v>5</v>
@@ -5693,7 +5732,7 @@
         <v>266</v>
       </c>
       <c r="G64" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H64" t="s">
         <v>6</v>
@@ -5712,7 +5751,7 @@
         <v>268</v>
       </c>
       <c r="G65" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H65" t="s">
         <v>6</v>
@@ -5731,7 +5770,7 @@
         <v>272</v>
       </c>
       <c r="G66" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H66" t="s">
         <v>5</v>
@@ -5750,7 +5789,7 @@
         <v>276</v>
       </c>
       <c r="G67" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H67" t="s">
         <v>5</v>
@@ -5772,7 +5811,7 @@
         <v>286</v>
       </c>
       <c r="G68" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H68" t="s">
         <v>7</v>
@@ -5791,7 +5830,7 @@
         <v>291</v>
       </c>
       <c r="G69" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H69" t="s">
         <v>6</v>
@@ -5810,7 +5849,7 @@
         <v>300</v>
       </c>
       <c r="G70" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H70" t="s">
         <v>5</v>
@@ -5829,7 +5868,7 @@
         <v>301</v>
       </c>
       <c r="G71" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H71" t="s">
         <v>5</v>
@@ -5848,7 +5887,7 @@
         <v>302</v>
       </c>
       <c r="G72" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H72" t="s">
         <v>5</v>
@@ -5867,7 +5906,7 @@
         <v>303</v>
       </c>
       <c r="G73" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H73" t="s">
         <v>5</v>
@@ -5886,7 +5925,7 @@
         <v>304</v>
       </c>
       <c r="G74" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H74" t="s">
         <v>5</v>
@@ -5905,7 +5944,7 @@
         <v>305</v>
       </c>
       <c r="G75" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H75" t="s">
         <v>6</v>
@@ -5926,7 +5965,7 @@
         <v>357</v>
       </c>
       <c r="G76" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H76" t="s">
         <v>5</v>
@@ -5945,7 +5984,7 @@
         <v>362</v>
       </c>
       <c r="G77" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H77" t="s">
         <v>5</v>
@@ -5958,13 +5997,13 @@
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D78" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G78" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H78" t="s">
         <v>7</v>
@@ -5977,13 +6016,13 @@
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" t="s">
+        <v>468</v>
+      </c>
+      <c r="D79" t="s">
         <v>469</v>
       </c>
-      <c r="D79" t="s">
-        <v>470</v>
-      </c>
       <c r="G79" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H79" t="s">
         <v>5</v>
@@ -6002,7 +6041,7 @@
         <v>152</v>
       </c>
       <c r="G80" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H80" t="s">
         <v>7</v>
@@ -6021,7 +6060,7 @@
         <v>154</v>
       </c>
       <c r="G81" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H81" t="s">
         <v>7</v>
@@ -6034,10 +6073,10 @@
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D82" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -6068,7 +6107,7 @@
         <v>65</v>
       </c>
       <c r="G86" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H86" t="s">
         <v>5</v>
@@ -6087,7 +6126,7 @@
         <v>66</v>
       </c>
       <c r="G87" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H87" t="s">
         <v>5</v>
@@ -6106,7 +6145,7 @@
         <v>67</v>
       </c>
       <c r="G88" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H88" t="s">
         <v>5</v>
@@ -6125,7 +6164,7 @@
         <v>77</v>
       </c>
       <c r="G89" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H89" t="s">
         <v>7</v>
@@ -6144,7 +6183,7 @@
         <v>87</v>
       </c>
       <c r="G90" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H90" t="s">
         <v>7</v>
@@ -6163,7 +6202,7 @@
         <v>98</v>
       </c>
       <c r="G91" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H91" t="s">
         <v>6</v>
@@ -6182,7 +6221,7 @@
         <v>102</v>
       </c>
       <c r="G92" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H92" t="s">
         <v>6</v>
@@ -6201,7 +6240,7 @@
         <v>106</v>
       </c>
       <c r="G93" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H93" t="s">
         <v>6</v>
@@ -6220,7 +6259,7 @@
         <v>111</v>
       </c>
       <c r="G94" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H94" t="s">
         <v>6</v>
@@ -6239,7 +6278,7 @@
         <v>115</v>
       </c>
       <c r="G95" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H95" t="s">
         <v>6</v>
@@ -6258,7 +6297,7 @@
         <v>121</v>
       </c>
       <c r="G96" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H96" t="s">
         <v>6</v>
@@ -6277,7 +6316,7 @@
         <v>125</v>
       </c>
       <c r="G97" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H97" t="s">
         <v>6</v>
@@ -6296,7 +6335,7 @@
         <v>142</v>
       </c>
       <c r="G98" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H98" t="s">
         <v>7</v>
@@ -6315,7 +6354,7 @@
         <v>163</v>
       </c>
       <c r="G99" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H99" t="s">
         <v>7</v>
@@ -6334,7 +6373,7 @@
         <v>167</v>
       </c>
       <c r="G100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H100" t="s">
         <v>5</v>
@@ -6347,13 +6386,13 @@
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D101" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G101" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H101" t="s">
         <v>5</v>
@@ -6382,10 +6421,10 @@
         <v>60</v>
       </c>
       <c r="D104" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G104" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H104" t="s">
         <v>5</v>
@@ -6404,7 +6443,7 @@
         <v>54</v>
       </c>
       <c r="G105" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H105" t="s">
         <v>5</v>
@@ -6423,7 +6462,7 @@
         <v>72</v>
       </c>
       <c r="G106" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H106" t="s">
         <v>5</v>
@@ -6439,10 +6478,10 @@
         <v>59</v>
       </c>
       <c r="D107" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G107" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H107" t="s">
         <v>5</v>
@@ -6461,7 +6500,7 @@
         <v>81</v>
       </c>
       <c r="G108" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H108" t="s">
         <v>5</v>
@@ -6480,7 +6519,7 @@
         <v>96</v>
       </c>
       <c r="G109" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H109" t="s">
         <v>6</v>
@@ -6499,7 +6538,7 @@
         <v>145</v>
       </c>
       <c r="G110" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H110" t="s">
         <v>5</v>
@@ -6518,7 +6557,7 @@
         <v>149</v>
       </c>
       <c r="G111" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H111" t="s">
         <v>5</v>
@@ -6537,7 +6576,7 @@
         <v>171</v>
       </c>
       <c r="G112" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H112" t="s">
         <v>5</v>
@@ -6556,7 +6595,7 @@
         <v>183</v>
       </c>
       <c r="G113" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H113" t="s">
         <v>7</v>
@@ -6575,7 +6614,7 @@
         <v>184</v>
       </c>
       <c r="G114" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H114" t="s">
         <v>7</v>
@@ -6594,7 +6633,7 @@
         <v>185</v>
       </c>
       <c r="G115" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H115" t="s">
         <v>7</v>
@@ -6613,7 +6652,7 @@
         <v>189</v>
       </c>
       <c r="G116" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H116" t="s">
         <v>6</v>
@@ -6632,7 +6671,7 @@
         <v>195</v>
       </c>
       <c r="G117" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H117" t="s">
         <v>6</v>
@@ -6651,7 +6690,7 @@
         <v>196</v>
       </c>
       <c r="G118" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H118" t="s">
         <v>6</v>
@@ -6670,10 +6709,10 @@
         <v>203</v>
       </c>
       <c r="E119" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G119" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H119" t="s">
         <v>7</v>
@@ -6692,10 +6731,10 @@
         <v>204</v>
       </c>
       <c r="E120" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G120" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H120" t="s">
         <v>7</v>
@@ -6714,7 +6753,7 @@
         <v>208</v>
       </c>
       <c r="G121" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H121" t="s">
         <v>406</v>
@@ -6733,7 +6772,7 @@
         <v>214</v>
       </c>
       <c r="G122" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H122" t="s">
         <v>6</v>
@@ -6752,7 +6791,7 @@
         <v>218</v>
       </c>
       <c r="G123" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H123" t="s">
         <v>6</v>
@@ -6771,7 +6810,7 @@
         <v>223</v>
       </c>
       <c r="G124" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H124" t="s">
         <v>7</v>
@@ -6790,7 +6829,7 @@
         <v>225</v>
       </c>
       <c r="G125" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H125" t="s">
         <v>7</v>
@@ -6809,7 +6848,7 @@
         <v>282</v>
       </c>
       <c r="G126" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H126" t="s">
         <v>7</v>
@@ -6828,7 +6867,7 @@
         <v>238</v>
       </c>
       <c r="G127" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H127" t="s">
         <v>406</v>
@@ -6847,7 +6886,7 @@
         <v>241</v>
       </c>
       <c r="G128" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H128" t="s">
         <v>5</v>
@@ -6866,7 +6905,7 @@
         <v>245</v>
       </c>
       <c r="G129" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H129" t="s">
         <v>5</v>
@@ -6885,7 +6924,7 @@
         <v>255</v>
       </c>
       <c r="G130" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H130" t="s">
         <v>7</v>
@@ -6904,7 +6943,7 @@
         <v>269</v>
       </c>
       <c r="G131" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H131" t="s">
         <v>6</v>
@@ -6926,7 +6965,7 @@
         <v>286</v>
       </c>
       <c r="G132" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H132" t="s">
         <v>7</v>
@@ -6945,7 +6984,7 @@
         <v>292</v>
       </c>
       <c r="G133" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H133" t="s">
         <v>6</v>
@@ -6974,10 +7013,10 @@
         <v>153</v>
       </c>
       <c r="D136" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G136" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H136" t="s">
         <v>7</v>
@@ -6999,7 +7038,7 @@
         <v>370</v>
       </c>
       <c r="G137" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H137" t="s">
         <v>7</v>
@@ -7018,7 +7057,7 @@
         <v>159</v>
       </c>
       <c r="G138" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H138" t="s">
         <v>6</v>
@@ -7037,7 +7076,7 @@
         <v>160</v>
       </c>
       <c r="G139" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H139" t="s">
         <v>6</v>
@@ -7056,7 +7095,7 @@
         <v>175</v>
       </c>
       <c r="G140" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H140" t="s">
         <v>6</v>
@@ -7075,7 +7114,7 @@
         <v>230</v>
       </c>
       <c r="G141" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H141" t="s">
         <v>7</v>
@@ -7094,7 +7133,7 @@
         <v>273</v>
       </c>
       <c r="G142" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H142" t="s">
         <v>5</v>
@@ -7113,7 +7152,7 @@
         <v>277</v>
       </c>
       <c r="G143" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H143" t="s">
         <v>5</v>
@@ -7145,7 +7184,7 @@
         <v>133</v>
       </c>
       <c r="G146" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H146" t="s">
         <v>6</v>
@@ -7161,10 +7200,10 @@
         <v>129</v>
       </c>
       <c r="D147" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G147" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H147" t="s">
         <v>6</v>
@@ -7180,10 +7219,10 @@
         <v>130</v>
       </c>
       <c r="D148" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G148" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H148" t="s">
         <v>7</v>
@@ -7202,7 +7241,7 @@
         <v>234</v>
       </c>
       <c r="G149" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H149" t="s">
         <v>7</v>
@@ -7221,7 +7260,7 @@
         <v>363</v>
       </c>
       <c r="G150" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H150" t="s">
         <v>5</v>
@@ -7261,7 +7300,7 @@
         <v>68</v>
       </c>
       <c r="G154" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H154" t="s">
         <v>5</v>
@@ -7280,7 +7319,7 @@
         <v>78</v>
       </c>
       <c r="G155" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H155" t="s">
         <v>7</v>
@@ -7299,7 +7338,7 @@
         <v>93</v>
       </c>
       <c r="G156" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H156" t="s">
         <v>7</v>
@@ -7318,7 +7357,7 @@
         <v>69</v>
       </c>
       <c r="G157" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H157" t="s">
         <v>5</v>
@@ -7337,7 +7376,7 @@
         <v>99</v>
       </c>
       <c r="G158" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H158" t="s">
         <v>6</v>
@@ -7356,7 +7395,7 @@
         <v>103</v>
       </c>
       <c r="G159" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H159" t="s">
         <v>6</v>
@@ -7375,7 +7414,7 @@
         <v>107</v>
       </c>
       <c r="G160" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H160" t="s">
         <v>6</v>
@@ -7394,7 +7433,7 @@
         <v>112</v>
       </c>
       <c r="G161" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H161" t="s">
         <v>6</v>
@@ -7413,7 +7452,7 @@
         <v>117</v>
       </c>
       <c r="G162" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H162" t="s">
         <v>6</v>
@@ -7432,7 +7471,7 @@
         <v>122</v>
       </c>
       <c r="G163" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H163" t="s">
         <v>6</v>
@@ -7451,7 +7490,7 @@
         <v>126</v>
       </c>
       <c r="G164" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H164" t="s">
         <v>6</v>
@@ -7470,7 +7509,7 @@
         <v>143</v>
       </c>
       <c r="G165" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H165" t="s">
         <v>7</v>
@@ -7489,7 +7528,7 @@
         <v>164</v>
       </c>
       <c r="G166" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H166" t="s">
         <v>7</v>
@@ -7508,7 +7547,7 @@
         <v>168</v>
       </c>
       <c r="G167" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H167" t="s">
         <v>5</v>
@@ -7521,13 +7560,13 @@
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D168" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G168" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H168" t="s">
         <v>5</v>
@@ -7556,10 +7595,10 @@
         <v>60</v>
       </c>
       <c r="D171" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G171" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H171" t="s">
         <v>5</v>
@@ -7578,7 +7617,7 @@
         <v>70</v>
       </c>
       <c r="G172" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H172" t="s">
         <v>5</v>
@@ -7594,10 +7633,10 @@
         <v>59</v>
       </c>
       <c r="D173" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G173" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H173" t="s">
         <v>5</v>
@@ -7616,7 +7655,7 @@
         <v>74</v>
       </c>
       <c r="G174" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H174" t="s">
         <v>5</v>
@@ -7635,7 +7674,7 @@
         <v>82</v>
       </c>
       <c r="G175" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H175" t="s">
         <v>5</v>
@@ -7651,10 +7690,10 @@
         <v>144</v>
       </c>
       <c r="D176" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G176" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H176" t="s">
         <v>5</v>
@@ -7673,7 +7712,7 @@
         <v>146</v>
       </c>
       <c r="G177" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H177" t="s">
         <v>6</v>
@@ -7692,7 +7731,7 @@
         <v>150</v>
       </c>
       <c r="G178" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H178" t="s">
         <v>5</v>
@@ -7711,7 +7750,7 @@
         <v>172</v>
       </c>
       <c r="G179" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H179" t="s">
         <v>5</v>
@@ -7730,7 +7769,7 @@
         <v>190</v>
       </c>
       <c r="G180" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H180" t="s">
         <v>6</v>
@@ -7749,7 +7788,7 @@
         <v>198</v>
       </c>
       <c r="G181" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H181" t="s">
         <v>6</v>
@@ -7768,7 +7807,7 @@
         <v>197</v>
       </c>
       <c r="G182" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H182" t="s">
         <v>6</v>
@@ -7787,7 +7826,7 @@
         <v>201</v>
       </c>
       <c r="G183" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H183" t="s">
         <v>7</v>
@@ -7806,7 +7845,7 @@
         <v>202</v>
       </c>
       <c r="G184" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H184" t="s">
         <v>7</v>
@@ -7825,7 +7864,7 @@
         <v>215</v>
       </c>
       <c r="G185" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H185" t="s">
         <v>6</v>
@@ -7844,7 +7883,7 @@
         <v>219</v>
       </c>
       <c r="G186" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H186" t="s">
         <v>6</v>
@@ -7863,7 +7902,7 @@
         <v>284</v>
       </c>
       <c r="G187" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H187" t="s">
         <v>7</v>
@@ -7882,7 +7921,7 @@
         <v>242</v>
       </c>
       <c r="G188" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H188" t="s">
         <v>5</v>
@@ -7901,7 +7940,7 @@
         <v>244</v>
       </c>
       <c r="G189" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H189" t="s">
         <v>5</v>
@@ -7920,7 +7959,7 @@
         <v>256</v>
       </c>
       <c r="G190" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H190" t="s">
         <v>7</v>
@@ -7939,7 +7978,7 @@
         <v>270</v>
       </c>
       <c r="G191" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H191" t="s">
         <v>6</v>
@@ -7961,7 +8000,7 @@
         <v>286</v>
       </c>
       <c r="G192" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H192" t="s">
         <v>7</v>
@@ -7980,7 +8019,7 @@
         <v>293</v>
       </c>
       <c r="G193" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H193" t="s">
         <v>6</v>
@@ -8006,13 +8045,13 @@
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" t="s">
+        <v>500</v>
+      </c>
+      <c r="D196" t="s">
         <v>501</v>
       </c>
-      <c r="D196" t="s">
-        <v>502</v>
-      </c>
       <c r="G196" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H196" t="s">
         <v>7</v>
@@ -8034,7 +8073,7 @@
         <v>370</v>
       </c>
       <c r="G197" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H197" t="s">
         <v>7</v>
@@ -8053,7 +8092,7 @@
         <v>176</v>
       </c>
       <c r="G198" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H198" t="s">
         <v>6</v>
@@ -8072,7 +8111,7 @@
         <v>231</v>
       </c>
       <c r="G199" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H199" t="s">
         <v>7</v>
@@ -8091,7 +8130,7 @@
         <v>274</v>
       </c>
       <c r="G200" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H200" t="s">
         <v>5</v>
@@ -8110,7 +8149,7 @@
         <v>278</v>
       </c>
       <c r="G201" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H201" t="s">
         <v>5</v>
@@ -8135,7 +8174,7 @@
         <v>134</v>
       </c>
       <c r="G203" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H203" t="s">
         <v>6</v>
@@ -8154,7 +8193,7 @@
         <v>135</v>
       </c>
       <c r="G204" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H204" t="s">
         <v>6</v>
@@ -8170,10 +8209,10 @@
         <v>130</v>
       </c>
       <c r="D205" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G205" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H205" t="s">
         <v>7</v>
@@ -8192,7 +8231,7 @@
         <v>235</v>
       </c>
       <c r="G206" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H206" t="s">
         <v>7</v>
@@ -8211,7 +8250,7 @@
         <v>364</v>
       </c>
       <c r="G207" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H207" t="s">
         <v>5</v>
@@ -8251,7 +8290,7 @@
         <v>136</v>
       </c>
       <c r="G211" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H211" t="s">
         <v>6</v>
@@ -8270,7 +8309,7 @@
         <v>137</v>
       </c>
       <c r="G212" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H212" t="s">
         <v>7</v>
@@ -8289,7 +8328,7 @@
         <v>138</v>
       </c>
       <c r="G213" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H213" t="s">
         <v>6</v>
@@ -8308,7 +8347,7 @@
         <v>236</v>
       </c>
       <c r="G214" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H214" t="s">
         <v>7</v>
@@ -8324,7 +8363,7 @@
         <v>365</v>
       </c>
       <c r="G215" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H215" t="s">
         <v>5</v>
@@ -8364,7 +8403,7 @@
         <v>320</v>
       </c>
       <c r="G219" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H219" t="s">
         <v>5</v>
@@ -8380,7 +8419,7 @@
         <v>321</v>
       </c>
       <c r="G220" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H220" t="s">
         <v>5</v>
@@ -8396,7 +8435,7 @@
         <v>325</v>
       </c>
       <c r="G221" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H221" t="s">
         <v>5</v>
@@ -8412,7 +8451,7 @@
         <v>322</v>
       </c>
       <c r="G222" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H222" t="s">
         <v>5</v>
@@ -8428,7 +8467,7 @@
         <v>323</v>
       </c>
       <c r="G223" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H223" t="s">
         <v>5</v>
@@ -8444,7 +8483,7 @@
         <v>324</v>
       </c>
       <c r="G224" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H224" t="s">
         <v>5</v>
@@ -8460,7 +8499,7 @@
         <v>326</v>
       </c>
       <c r="G225" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H225" t="s">
         <v>5</v>
@@ -8476,7 +8515,7 @@
         <v>327</v>
       </c>
       <c r="G226" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H226" t="s">
         <v>5</v>
@@ -8492,7 +8531,7 @@
         <v>355</v>
       </c>
       <c r="G227" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H227" t="s">
         <v>5</v>
@@ -8502,13 +8541,13 @@
       <c r="A228" s="14"/>
       <c r="B228" s="14"/>
       <c r="C228" t="s">
+        <v>641</v>
+      </c>
+      <c r="D228" t="s">
         <v>642</v>
       </c>
-      <c r="D228" t="s">
-        <v>643</v>
-      </c>
       <c r="G228" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H228" t="s">
         <v>5</v>
@@ -8518,13 +8557,13 @@
       <c r="A229" s="14"/>
       <c r="B229" s="14"/>
       <c r="C229" t="s">
+        <v>643</v>
+      </c>
+      <c r="D229" t="s">
         <v>644</v>
       </c>
-      <c r="D229" t="s">
-        <v>645</v>
-      </c>
       <c r="G229" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H229" t="s">
         <v>5</v>
@@ -8540,10 +8579,10 @@
         <v>331</v>
       </c>
       <c r="E230" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G230" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H230" t="s">
         <v>7</v>
@@ -8559,10 +8598,10 @@
         <v>332</v>
       </c>
       <c r="E231" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G231" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H231" t="s">
         <v>7</v>
@@ -8578,10 +8617,10 @@
         <v>333</v>
       </c>
       <c r="E232" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G232" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H232" t="s">
         <v>7</v>
@@ -8597,10 +8636,10 @@
         <v>335</v>
       </c>
       <c r="E233" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G233" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H233" t="s">
         <v>7</v>
@@ -8616,10 +8655,10 @@
         <v>339</v>
       </c>
       <c r="E234" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G234" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H234" t="s">
         <v>7</v>
@@ -8635,10 +8674,10 @@
         <v>340</v>
       </c>
       <c r="E235" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G235" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H235" t="s">
         <v>7</v>
@@ -8654,10 +8693,10 @@
         <v>341</v>
       </c>
       <c r="E236" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G236" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H236" t="s">
         <v>7</v>
@@ -8673,10 +8712,10 @@
         <v>345</v>
       </c>
       <c r="E237" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G237" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H237" t="s">
         <v>7</v>
@@ -8692,10 +8731,10 @@
         <v>346</v>
       </c>
       <c r="E238" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G238" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H238" t="s">
         <v>7</v>
@@ -8711,10 +8750,10 @@
         <v>347</v>
       </c>
       <c r="E239" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G239" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H239" t="s">
         <v>7</v>
@@ -8730,10 +8769,10 @@
         <v>353</v>
       </c>
       <c r="E240" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G240" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H240" t="s">
         <v>7</v>
@@ -8749,10 +8788,10 @@
         <v>352</v>
       </c>
       <c r="E241" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G241" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H241" t="s">
         <v>7</v>
@@ -8768,10 +8807,10 @@
         <v>351</v>
       </c>
       <c r="E242" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G242" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H242" t="s">
         <v>7</v>
@@ -8798,7 +8837,7 @@
         <v>407</v>
       </c>
       <c r="E245" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -8808,7 +8847,7 @@
         <v>408</v>
       </c>
       <c r="G246" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H246" t="s">
         <v>2</v>
@@ -8821,7 +8860,7 @@
         <v>360</v>
       </c>
       <c r="G247" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H247" t="s">
         <v>2</v>
@@ -8834,7 +8873,7 @@
         <v>409</v>
       </c>
       <c r="G248" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H248" t="s">
         <v>406</v>
@@ -8847,7 +8886,7 @@
         <v>410</v>
       </c>
       <c r="G249" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H249" t="s">
         <v>406</v>
@@ -8857,10 +8896,10 @@
       <c r="A250" s="14"/>
       <c r="B250" s="14"/>
       <c r="C250" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G250" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H250" t="s">
         <v>406</v>
@@ -8873,7 +8912,7 @@
         <v>411</v>
       </c>
       <c r="G251" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H251" t="s">
         <v>2</v>
@@ -8886,10 +8925,10 @@
         <v>412</v>
       </c>
       <c r="G252" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H252" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -8899,10 +8938,10 @@
         <v>413</v>
       </c>
       <c r="G253" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H253" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -8912,7 +8951,7 @@
         <v>359</v>
       </c>
       <c r="G254" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H254" t="s">
         <v>2</v>
@@ -8925,16 +8964,16 @@
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="14"/>
       <c r="B256" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C256" t="s">
-        <v>414</v>
+        <v>648</v>
       </c>
       <c r="E256" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G256" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H256" t="s">
         <v>406</v>
@@ -8944,49 +8983,31 @@
       <c r="A257" s="14"/>
       <c r="B257" s="14"/>
       <c r="C257" t="s">
-        <v>416</v>
-      </c>
-      <c r="G257" t="s">
-        <v>467</v>
-      </c>
-      <c r="H257" t="s">
-        <v>2</v>
+        <v>649</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
       <c r="C258" t="s">
-        <v>417</v>
-      </c>
-      <c r="G258" t="s">
-        <v>473</v>
-      </c>
-      <c r="H258" t="s">
-        <v>2</v>
+        <v>650</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" t="s">
-        <v>418</v>
-      </c>
-      <c r="G259" t="s">
-        <v>473</v>
-      </c>
-      <c r="H259" t="s">
-        <v>2</v>
+        <v>651</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G260" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H260" t="s">
         <v>2</v>
@@ -8996,36 +9017,36 @@
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G261" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="H261" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
       <c r="C262" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G262" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="H262" t="s">
-        <v>406</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="14"/>
       <c r="B263" s="14"/>
       <c r="C263" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G263" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H263" t="s">
         <v>2</v>
@@ -9035,36 +9056,36 @@
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G264" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H264" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G265" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="H265" t="s">
-        <v>2</v>
+        <v>406</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G266" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H266" t="s">
         <v>2</v>
@@ -9074,10 +9095,10 @@
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G267" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H267" t="s">
         <v>2</v>
@@ -9087,10 +9108,10 @@
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G268" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H268" t="s">
         <v>2</v>
@@ -9100,10 +9121,10 @@
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="G269" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H269" t="s">
         <v>2</v>
@@ -9113,120 +9134,105 @@
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G270" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H270" t="s">
-        <v>406</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="G271" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="H271" t="s">
-        <v>406</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="G272" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H272" t="s">
-        <v>406</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
+      <c r="C273" t="s">
+        <v>431</v>
+      </c>
+      <c r="G273" t="s">
+        <v>466</v>
+      </c>
+      <c r="H273" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="14"/>
-      <c r="B274" s="7" t="s">
-        <v>482</v>
-      </c>
+      <c r="B274" s="14"/>
       <c r="C274" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="G274" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H274" t="s">
-        <v>2</v>
+        <v>406</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="14"/>
       <c r="B275" s="14"/>
       <c r="C275" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="G275" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H275" t="s">
-        <v>2</v>
+        <v>406</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
       <c r="C276" t="s">
-        <v>477</v>
-      </c>
-      <c r="G276" t="s">
-        <v>467</v>
-      </c>
-      <c r="H276" t="s">
-        <v>2</v>
+        <v>647</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="14"/>
       <c r="B277" s="14"/>
-      <c r="C277" t="s">
-        <v>478</v>
-      </c>
-      <c r="G277" t="s">
-        <v>467</v>
-      </c>
-      <c r="H277" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
-      <c r="C278" t="s">
-        <v>479</v>
-      </c>
-      <c r="G278" t="s">
-        <v>467</v>
-      </c>
-      <c r="H278" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="14"/>
-      <c r="B279" s="14"/>
+      <c r="B279" s="7" t="s">
+        <v>481</v>
+      </c>
       <c r="C279" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G279" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H279" t="s">
         <v>2</v>
@@ -9236,23 +9242,23 @@
       <c r="A280" s="14"/>
       <c r="B280" s="14"/>
       <c r="C280" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G280" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="H280" t="s">
-        <v>406</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="14"/>
       <c r="B281" s="14"/>
       <c r="C281" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="G281" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H281" t="s">
         <v>2</v>
@@ -9262,10 +9268,10 @@
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G282" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H282" t="s">
         <v>2</v>
@@ -9274,337 +9280,279 @@
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
+      <c r="C283" t="s">
+        <v>478</v>
+      </c>
+      <c r="G283" t="s">
+        <v>466</v>
+      </c>
+      <c r="H283" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="14"/>
-      <c r="B284" s="16" t="s">
-        <v>428</v>
-      </c>
+      <c r="B284" s="14"/>
       <c r="C284" t="s">
-        <v>429</v>
-      </c>
-      <c r="E284" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="G284" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H284" t="s">
-        <v>406</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="14"/>
       <c r="B285" s="14"/>
       <c r="C285" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="G285" t="s">
         <v>473</v>
       </c>
       <c r="H285" t="s">
-        <v>1</v>
+        <v>406</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="14"/>
       <c r="B286" s="14"/>
       <c r="C286" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="G286" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H286" t="s">
-        <v>406</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="14"/>
       <c r="B287" s="14"/>
       <c r="C287" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="G287" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H287" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="14"/>
       <c r="B288" s="14"/>
-      <c r="C288" t="s">
-        <v>434</v>
-      </c>
-      <c r="G288" t="s">
-        <v>467</v>
-      </c>
-      <c r="H288" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="14"/>
-      <c r="B289" s="14"/>
+      <c r="B289" s="16" t="s">
+        <v>427</v>
+      </c>
       <c r="C289" t="s">
-        <v>435</v>
+        <v>428</v>
+      </c>
+      <c r="E289" t="s">
+        <v>445</v>
       </c>
       <c r="G289" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="H289" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="14"/>
       <c r="B290" s="14"/>
       <c r="C290" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G290" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="H290" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="14"/>
       <c r="B291" s="14"/>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C291" t="s">
+        <v>430</v>
+      </c>
+      <c r="G291" t="s">
+        <v>466</v>
+      </c>
+      <c r="H291" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="14"/>
-      <c r="B292" s="16" t="s">
-        <v>438</v>
-      </c>
+      <c r="B292" s="14"/>
       <c r="C292" t="s">
-        <v>439</v>
-      </c>
-      <c r="E292" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="G292" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="H292" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="14"/>
       <c r="B293" s="14"/>
       <c r="C293" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G293" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="H293" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="14"/>
       <c r="B294" s="14"/>
       <c r="C294" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G294" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H294" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="14"/>
       <c r="B295" s="14"/>
       <c r="C295" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G295" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="H295" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="14"/>
       <c r="B296" s="14"/>
-    </row>
-    <row r="297" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B297" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C296" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" s="14"/>
+      <c r="B297" s="14"/>
+      <c r="C297" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="14"/>
-      <c r="B298" s="7" t="s">
-        <v>400</v>
-      </c>
+      <c r="B298" s="14"/>
       <c r="C298" t="s">
-        <v>368</v>
-      </c>
-      <c r="G298" t="s">
-        <v>467</v>
-      </c>
-      <c r="H298" t="s">
-        <v>2</v>
-      </c>
-      <c r="J298" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="14"/>
       <c r="B299" s="14"/>
-      <c r="C299" t="s">
-        <v>403</v>
-      </c>
-      <c r="G299" t="s">
-        <v>467</v>
-      </c>
-      <c r="H299" t="s">
-        <v>2</v>
-      </c>
-      <c r="J299" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="14"/>
-      <c r="B300" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="C300" t="s">
-        <v>385</v>
-      </c>
-      <c r="G300" t="s">
-        <v>467</v>
-      </c>
-      <c r="H300" t="s">
-        <v>2</v>
-      </c>
-      <c r="J300" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B300" s="14"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="14"/>
-      <c r="B301" s="14"/>
+      <c r="B301" s="16" t="s">
+        <v>437</v>
+      </c>
       <c r="C301" t="s">
-        <v>386</v>
+        <v>438</v>
+      </c>
+      <c r="E301" t="s">
+        <v>444</v>
       </c>
       <c r="G301" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="H301" t="s">
-        <v>2</v>
-      </c>
-      <c r="J301" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="14"/>
       <c r="B302" s="14"/>
       <c r="C302" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="G302" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="H302" t="s">
-        <v>2</v>
-      </c>
-      <c r="J302" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="14"/>
       <c r="B303" s="14"/>
       <c r="C303" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="G303" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="H303" t="s">
-        <v>2</v>
-      </c>
-      <c r="J303" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="14"/>
-      <c r="B304" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>393</v>
+      <c r="B304" s="14"/>
+      <c r="C304" t="s">
+        <v>441</v>
       </c>
       <c r="G304" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="H304" t="s">
-        <v>2</v>
-      </c>
-      <c r="J304" t="s">
-        <v>3</v>
+        <v>406</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="14"/>
       <c r="B305" s="14"/>
-      <c r="C305" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="G305" t="s">
-        <v>467</v>
-      </c>
-      <c r="H305" t="s">
-        <v>2</v>
-      </c>
-      <c r="J305" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A306" s="14"/>
-      <c r="B306" s="14"/>
-      <c r="C306" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="G306" t="s">
-        <v>467</v>
-      </c>
-      <c r="H306" t="s">
-        <v>1</v>
-      </c>
-      <c r="J306" t="s">
-        <v>3</v>
+    </row>
+    <row r="306" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B306" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="14"/>
-      <c r="B307" s="14"/>
-      <c r="C307" s="4" t="s">
-        <v>636</v>
+      <c r="B307" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C307" t="s">
+        <v>368</v>
       </c>
       <c r="G307" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H307" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J307" t="s">
         <v>3</v>
@@ -9613,14 +9561,14 @@
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="14"/>
       <c r="B308" s="14"/>
-      <c r="C308" s="4" t="s">
-        <v>637</v>
+      <c r="C308" t="s">
+        <v>403</v>
       </c>
       <c r="G308" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H308" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J308" t="s">
         <v>3</v>
@@ -9628,35 +9576,46 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="14"/>
-      <c r="B309" s="14"/>
-      <c r="C309" s="4" t="s">
-        <v>638</v>
+      <c r="B309" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C309" t="s">
+        <v>385</v>
       </c>
       <c r="G309" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H309" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J309" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="14"/>
       <c r="B310" s="14"/>
-      <c r="C310" s="4"/>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C310" t="s">
+        <v>386</v>
+      </c>
+      <c r="G310" t="s">
+        <v>466</v>
+      </c>
+      <c r="H310" t="s">
+        <v>2</v>
+      </c>
+      <c r="J310" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="14"/>
-      <c r="B311" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C311" s="4" t="s">
-        <v>366</v>
+      <c r="B311" s="14"/>
+      <c r="C311" t="s">
+        <v>388</v>
       </c>
       <c r="G311" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H311" t="s">
         <v>2</v>
@@ -9668,11 +9627,11 @@
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="14"/>
       <c r="B312" s="14"/>
-      <c r="C312" s="4" t="s">
-        <v>367</v>
+      <c r="C312" t="s">
+        <v>397</v>
       </c>
       <c r="G312" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H312" t="s">
         <v>2</v>
@@ -9683,12 +9642,14 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="14"/>
-      <c r="B313" s="14"/>
+      <c r="B313" s="14" t="s">
+        <v>391</v>
+      </c>
       <c r="C313" s="4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="G313" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H313" t="s">
         <v>2</v>
@@ -9701,10 +9662,10 @@
       <c r="A314" s="14"/>
       <c r="B314" s="14"/>
       <c r="C314" s="4" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="G314" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H314" t="s">
         <v>2</v>
@@ -9717,13 +9678,13 @@
       <c r="A315" s="14"/>
       <c r="B315" s="14"/>
       <c r="C315" s="4" t="s">
-        <v>375</v>
+        <v>634</v>
       </c>
       <c r="G315" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H315" t="s">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="J315" t="s">
         <v>3</v>
@@ -9731,17 +9692,15 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="14"/>
-      <c r="B316" s="14" t="s">
-        <v>402</v>
-      </c>
+      <c r="B316" s="14"/>
       <c r="C316" s="4" t="s">
-        <v>374</v>
+        <v>635</v>
       </c>
       <c r="G316" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H316" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J316" t="s">
         <v>3</v>
@@ -9751,13 +9710,13 @@
       <c r="A317" s="14"/>
       <c r="B317" s="14"/>
       <c r="C317" s="4" t="s">
-        <v>377</v>
+        <v>636</v>
       </c>
       <c r="G317" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H317" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J317" t="s">
         <v>3</v>
@@ -9766,37 +9725,37 @@
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="14"/>
       <c r="B318" s="14"/>
-      <c r="C318" s="4"/>
+      <c r="C318" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="G318" t="s">
+        <v>466</v>
+      </c>
+      <c r="H318" t="s">
+        <v>1</v>
+      </c>
+      <c r="J318" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="14"/>
-      <c r="B319" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="C319" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="G319" t="s">
-        <v>467</v>
-      </c>
-      <c r="H319" t="s">
-        <v>1</v>
-      </c>
-      <c r="J319" t="s">
-        <v>3</v>
-      </c>
+      <c r="B319" s="14"/>
+      <c r="C319" s="4"/>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="14"/>
-      <c r="B320" s="14"/>
+      <c r="B320" s="7" t="s">
+        <v>401</v>
+      </c>
       <c r="C320" s="4" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="G320" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H320" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J320" t="s">
         <v>3</v>
@@ -9806,13 +9765,13 @@
       <c r="A321" s="14"/>
       <c r="B321" s="14"/>
       <c r="C321" s="4" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="G321" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H321" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J321" t="s">
         <v>3</v>
@@ -9822,13 +9781,13 @@
       <c r="A322" s="14"/>
       <c r="B322" s="14"/>
       <c r="C322" s="4" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="G322" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H322" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J322" t="s">
         <v>3</v>
@@ -9836,21 +9795,28 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="14"/>
-      <c r="B323" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C323" s="4"/>
+      <c r="B323" s="14"/>
+      <c r="C323" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G323" t="s">
+        <v>466</v>
+      </c>
+      <c r="H323" t="s">
+        <v>2</v>
+      </c>
+      <c r="J323" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="14"/>
-      <c r="B324" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="B324" s="14"/>
       <c r="C324" s="4" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G324" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H324" t="s">
         <v>406</v>
@@ -9861,12 +9827,14 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="14"/>
-      <c r="B325" s="14"/>
+      <c r="B325" s="14" t="s">
+        <v>402</v>
+      </c>
       <c r="C325" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G325" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H325" t="s">
         <v>2</v>
@@ -9879,13 +9847,13 @@
       <c r="A326" s="14"/>
       <c r="B326" s="14"/>
       <c r="C326" s="4" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="G326" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H326" t="s">
-        <v>406</v>
+        <v>2</v>
       </c>
       <c r="J326" t="s">
         <v>3</v>
@@ -9894,30 +9862,21 @@
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="14"/>
       <c r="B327" s="14"/>
-      <c r="C327" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="G327" t="s">
-        <v>467</v>
-      </c>
-      <c r="H327" t="s">
-        <v>406</v>
-      </c>
-      <c r="J327" t="s">
-        <v>3</v>
-      </c>
+      <c r="C327" s="4"/>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="14"/>
-      <c r="B328" s="14"/>
+      <c r="B328" s="16" t="s">
+        <v>402</v>
+      </c>
       <c r="C328" s="4" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="G328" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H328" t="s">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="J328" t="s">
         <v>3</v>
@@ -9927,13 +9886,13 @@
       <c r="A329" s="14"/>
       <c r="B329" s="14"/>
       <c r="C329" s="4" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G329" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H329" t="s">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="J329" t="s">
         <v>3</v>
@@ -9943,13 +9902,13 @@
       <c r="A330" s="14"/>
       <c r="B330" s="14"/>
       <c r="C330" s="4" t="s">
-        <v>497</v>
+        <v>382</v>
       </c>
       <c r="G330" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H330" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J330" t="s">
         <v>3</v>
@@ -9959,13 +9918,13 @@
       <c r="A331" s="14"/>
       <c r="B331" s="14"/>
       <c r="C331" s="4" t="s">
-        <v>523</v>
+        <v>396</v>
       </c>
       <c r="G331" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H331" t="s">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="J331" t="s">
         <v>3</v>
@@ -9973,22 +9932,24 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="14"/>
-      <c r="B332" s="14"/>
+      <c r="B332" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="C332" s="4"/>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="14"/>
-      <c r="B333" s="18" t="s">
-        <v>391</v>
+      <c r="B333" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G333" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H333" t="s">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="J333" t="s">
         <v>3</v>
@@ -9996,15 +9957,15 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="14"/>
-      <c r="B334" s="15"/>
+      <c r="B334" s="14"/>
       <c r="C334" s="4" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="G334" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H334" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J334" t="s">
         <v>3</v>
@@ -10012,15 +9973,15 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="14"/>
-      <c r="B335" s="15"/>
+      <c r="B335" s="14"/>
       <c r="C335" s="4" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="G335" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H335" t="s">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="J335" t="s">
         <v>3</v>
@@ -10028,15 +9989,15 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="14"/>
-      <c r="B336" s="15"/>
+      <c r="B336" s="14"/>
       <c r="C336" s="4" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="G336" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H336" t="s">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="J336" t="s">
         <v>3</v>
@@ -10044,15 +10005,15 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="14"/>
-      <c r="B337" s="15"/>
+      <c r="B337" s="14"/>
       <c r="C337" s="4" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="G337" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H337" t="s">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="J337" t="s">
         <v>3</v>
@@ -10060,271 +10021,432 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="14"/>
-      <c r="B338" s="15"/>
+      <c r="B338" s="14"/>
       <c r="C338" s="4" t="s">
-        <v>525</v>
+        <v>395</v>
       </c>
       <c r="G338" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H338" t="s">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="J338" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B339" s="11" t="s">
-        <v>38</v>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339" s="14"/>
+      <c r="B339" s="14"/>
+      <c r="C339" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="G339" t="s">
+        <v>466</v>
+      </c>
+      <c r="H339" t="s">
+        <v>2</v>
+      </c>
+      <c r="J339" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="14"/>
-      <c r="B340" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C340" t="s">
-        <v>50</v>
+      <c r="B340" s="14"/>
+      <c r="C340" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="G340" t="s">
+        <v>466</v>
+      </c>
+      <c r="H340" t="s">
+        <v>406</v>
+      </c>
+      <c r="J340" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="14"/>
       <c r="B341" s="14"/>
-      <c r="C341" t="s">
-        <v>306</v>
-      </c>
-      <c r="D341" t="s">
-        <v>307</v>
-      </c>
-      <c r="E341" t="s">
-        <v>601</v>
-      </c>
-      <c r="G341" t="s">
-        <v>473</v>
-      </c>
+      <c r="C341" s="4"/>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="14"/>
-      <c r="B342" s="14"/>
-      <c r="C342" t="s">
-        <v>308</v>
-      </c>
-      <c r="D342" t="s">
-        <v>309</v>
+      <c r="B342" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="G342" t="s">
-        <v>473</v>
+        <v>466</v>
+      </c>
+      <c r="H342" t="s">
+        <v>0</v>
+      </c>
+      <c r="J342" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="14"/>
-      <c r="B343" s="14"/>
-      <c r="C343" t="s">
-        <v>587</v>
-      </c>
-      <c r="D343" t="s">
-        <v>588</v>
+      <c r="B343" s="15"/>
+      <c r="C343" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="G343" t="s">
-        <v>473</v>
+        <v>466</v>
+      </c>
+      <c r="H343" t="s">
+        <v>0</v>
+      </c>
+      <c r="J343" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="14"/>
-      <c r="B344" s="14"/>
-      <c r="C344" t="s">
-        <v>589</v>
-      </c>
-      <c r="D344" t="s">
-        <v>590</v>
+      <c r="B344" s="15"/>
+      <c r="C344" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="G344" t="s">
-        <v>473</v>
+        <v>466</v>
+      </c>
+      <c r="H344" t="s">
+        <v>0</v>
+      </c>
+      <c r="J344" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="14"/>
-      <c r="B345" s="14"/>
-      <c r="C345" t="s">
-        <v>591</v>
-      </c>
-      <c r="D345" t="s">
-        <v>592</v>
+      <c r="B345" s="15"/>
+      <c r="C345" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="G345" t="s">
-        <v>473</v>
+        <v>466</v>
+      </c>
+      <c r="H345" t="s">
+        <v>0</v>
+      </c>
+      <c r="J345" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="14"/>
-      <c r="B346" s="14"/>
+      <c r="B346" s="15"/>
+      <c r="C346" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G346" t="s">
+        <v>466</v>
+      </c>
+      <c r="H346" t="s">
+        <v>0</v>
+      </c>
+      <c r="J346" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="14"/>
-      <c r="B347" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C347" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A348" s="14"/>
-      <c r="B348" s="14"/>
-      <c r="C348" t="s">
-        <v>593</v>
-      </c>
-      <c r="D348" t="s">
-        <v>597</v>
-      </c>
-      <c r="G348" t="s">
-        <v>473</v>
+      <c r="B347" s="15"/>
+      <c r="C347" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="G347" t="s">
+        <v>466</v>
+      </c>
+      <c r="H347" t="s">
+        <v>0</v>
+      </c>
+      <c r="J347" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B348" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="14"/>
-      <c r="B349" s="14"/>
+      <c r="B349" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C349" t="s">
-        <v>594</v>
-      </c>
-      <c r="D349" t="s">
-        <v>598</v>
-      </c>
-      <c r="G349" t="s">
-        <v>473</v>
+        <v>50</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="14"/>
       <c r="B350" s="14"/>
       <c r="C350" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="D350" t="s">
-        <v>599</v>
+        <v>307</v>
+      </c>
+      <c r="E350" t="s">
+        <v>600</v>
       </c>
       <c r="G350" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="14"/>
       <c r="B351" s="14"/>
       <c r="C351" t="s">
-        <v>595</v>
+        <v>308</v>
       </c>
       <c r="D351" t="s">
-        <v>600</v>
+        <v>309</v>
       </c>
       <c r="G351" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="14"/>
       <c r="B352" s="14"/>
       <c r="C352" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="D352" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G352" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="14"/>
       <c r="B353" s="14"/>
+      <c r="C353" t="s">
+        <v>588</v>
+      </c>
+      <c r="D353" t="s">
+        <v>589</v>
+      </c>
+      <c r="G353" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="14"/>
-      <c r="B354" t="s">
-        <v>578</v>
-      </c>
+      <c r="B354" s="14"/>
       <c r="C354" t="s">
-        <v>579</v>
+        <v>590</v>
+      </c>
+      <c r="D354" t="s">
+        <v>591</v>
+      </c>
+      <c r="G354" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="14"/>
       <c r="B355" s="14"/>
       <c r="C355" t="s">
-        <v>580</v>
+        <v>659</v>
       </c>
       <c r="D355" t="s">
-        <v>582</v>
-      </c>
-      <c r="G355" t="s">
-        <v>473</v>
+        <v>660</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="14"/>
       <c r="B356" s="14"/>
-      <c r="C356" t="s">
-        <v>581</v>
-      </c>
-      <c r="D356" t="s">
-        <v>583</v>
-      </c>
-      <c r="G356" t="s">
-        <v>473</v>
-      </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="14"/>
-      <c r="B357" s="14"/>
+      <c r="B357" s="7" t="s">
+        <v>401</v>
+      </c>
       <c r="C357" t="s">
-        <v>585</v>
-      </c>
-      <c r="D357" t="s">
-        <v>586</v>
-      </c>
-      <c r="E357" t="s">
-        <v>584</v>
-      </c>
-      <c r="G357" t="s">
-        <v>473</v>
+        <v>576</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="14"/>
       <c r="B358" s="14"/>
+      <c r="C358" t="s">
+        <v>592</v>
+      </c>
+      <c r="D358" t="s">
+        <v>596</v>
+      </c>
+      <c r="G358" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="14"/>
-      <c r="B359" t="s">
-        <v>42</v>
-      </c>
+      <c r="B359" s="14"/>
       <c r="C359" t="s">
-        <v>51</v>
+        <v>593</v>
+      </c>
+      <c r="D359" t="s">
+        <v>597</v>
+      </c>
+      <c r="G359" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="14"/>
       <c r="B360" s="14"/>
       <c r="C360" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="D360" t="s">
-        <v>311</v>
+        <v>598</v>
       </c>
       <c r="G360" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="14"/>
       <c r="B361" s="14"/>
+      <c r="C361" t="s">
+        <v>594</v>
+      </c>
+      <c r="D361" t="s">
+        <v>599</v>
+      </c>
+      <c r="G361" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="14"/>
       <c r="B362" s="14"/>
+      <c r="C362" t="s">
+        <v>579</v>
+      </c>
+      <c r="D362" t="s">
+        <v>595</v>
+      </c>
+      <c r="G362" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" s="14"/>
+      <c r="B363" s="14"/>
+      <c r="C363" t="s">
+        <v>657</v>
+      </c>
+      <c r="D363" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" s="14"/>
+      <c r="B364" s="14"/>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365" s="14"/>
+      <c r="B365" t="s">
+        <v>577</v>
+      </c>
+      <c r="C365" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366" s="14"/>
+      <c r="B366" s="14"/>
+      <c r="C366" t="s">
+        <v>579</v>
+      </c>
+      <c r="D366" t="s">
+        <v>581</v>
+      </c>
+      <c r="G366" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367" s="14"/>
+      <c r="B367" s="14"/>
+      <c r="C367" t="s">
+        <v>580</v>
+      </c>
+      <c r="D367" t="s">
+        <v>582</v>
+      </c>
+      <c r="G367" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" s="14"/>
+      <c r="B368" s="14"/>
+      <c r="C368" t="s">
+        <v>584</v>
+      </c>
+      <c r="D368" t="s">
+        <v>585</v>
+      </c>
+      <c r="E368" t="s">
+        <v>583</v>
+      </c>
+      <c r="G368" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369" s="14"/>
+      <c r="B369" s="14"/>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370" s="14"/>
+      <c r="B370" t="s">
+        <v>42</v>
+      </c>
+      <c r="C370" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371" s="14"/>
+      <c r="B371" s="14"/>
+      <c r="C371" t="s">
+        <v>310</v>
+      </c>
+      <c r="D371" t="s">
+        <v>311</v>
+      </c>
+      <c r="G371" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" s="14"/>
+      <c r="B372" s="14"/>
+      <c r="C372" t="s">
+        <v>655</v>
+      </c>
+      <c r="D372" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373" s="14"/>
+      <c r="B373" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10336,8 +10458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="F11" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10370,112 +10492,112 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F1" t="s">
         <v>454</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>455</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>456</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>457</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>458</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="N1" t="s">
         <v>459</v>
       </c>
-      <c r="M1" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>460</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>461</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>462</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>463</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>464</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>465</v>
       </c>
-      <c r="W1" t="s">
-        <v>466</v>
-      </c>
       <c r="X1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>510</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>511</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>512</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>513</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>515</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>516</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="O2" s="19" t="s">
         <v>517</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>518</v>
       </c>
       <c r="P2" s="19"/>
       <c r="Q2" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="S2" s="19"/>
       <c r="T2" s="19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="V2" s="19"/>
       <c r="W2" s="19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="X2" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -10490,24 +10612,24 @@
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="20" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="20" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M3" s="23"/>
       <c r="P3" s="14"/>
@@ -10525,14 +10647,14 @@
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="25" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="20" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J4" s="14"/>
       <c r="M4" s="23"/>
@@ -10551,10 +10673,10 @@
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="25" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G5" s="14"/>
       <c r="J5" s="14"/>
@@ -10574,10 +10696,10 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="25" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G6" s="14"/>
       <c r="J6" s="14"/>
@@ -10645,11 +10767,11 @@
         <v>390</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L11" s="20" t="s">
         <v>383</v>
@@ -10743,52 +10865,52 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="20" t="s">
         <v>367</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="20" t="s">
         <v>376</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="20" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M19" s="23"/>
       <c r="N19" s="20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O19" s="20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="P19" s="14"/>
       <c r="Q19" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="R19" s="20" t="s">
         <v>621</v>
-      </c>
-      <c r="R19" s="20" t="s">
-        <v>622</v>
       </c>
       <c r="S19" s="14"/>
       <c r="T19" s="20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="U19" s="20" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="V19" s="14"/>
       <c r="Y19" s="14"/>
@@ -10796,52 +10918,52 @@
     <row r="20" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>377</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="20" t="s">
+        <v>631</v>
+      </c>
+      <c r="I20" s="20" t="s">
         <v>632</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>633</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="20" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O20" s="20" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P20" s="14"/>
       <c r="Q20" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="R20" s="20" t="s">
         <v>623</v>
-      </c>
-      <c r="R20" s="20" t="s">
-        <v>624</v>
       </c>
       <c r="S20" s="14"/>
       <c r="T20" s="20" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="U20" s="20" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="V20" s="14"/>
       <c r="Y20" s="14"/>
@@ -10849,14 +10971,14 @@
     <row r="21" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D21" s="14"/>
       <c r="F21" s="20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G21" s="14"/>
       <c r="J21" s="14"/>
@@ -10868,11 +10990,11 @@
       </c>
       <c r="M21" s="23"/>
       <c r="N21" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P21" s="14"/>
       <c r="Q21" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S21" s="14"/>
       <c r="V21" s="14"/>
@@ -10881,7 +11003,7 @@
     <row r="22" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D22" s="14"/>
       <c r="G22" s="14"/>
@@ -10895,7 +11017,7 @@
     <row r="23" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D23" s="14"/>
       <c r="G23" s="14"/>
@@ -10909,7 +11031,7 @@
     <row r="24" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D24" s="14"/>
       <c r="G24" s="14"/>
@@ -10923,7 +11045,7 @@
     <row r="25" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>367</v>
@@ -10945,24 +11067,24 @@
         <v>406</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="20" t="s">
@@ -10980,10 +11102,10 @@
       </c>
       <c r="P27" s="14"/>
       <c r="Q27" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R27" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S27" s="14"/>
       <c r="T27" s="20" t="s">
@@ -10994,42 +11116,42 @@
       </c>
       <c r="V27" s="14"/>
       <c r="W27" s="20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="X27" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="Y27" s="14"/>
     </row>
     <row r="28" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="I28" s="20" t="s">
         <v>629</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>630</v>
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="20" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M28" s="23"/>
       <c r="N28" s="20" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O28" s="20" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="20" t="s">
@@ -11040,14 +11162,14 @@
       </c>
       <c r="S28" s="14"/>
       <c r="T28" s="20" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="U28" s="20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="V28" s="14"/>
       <c r="W28" s="20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="Y28" s="14"/>
     </row>
@@ -11062,7 +11184,7 @@
       <c r="D29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="20" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J29" s="14"/>
       <c r="K29" s="20" t="s">
@@ -11079,7 +11201,7 @@
       <c r="S29" s="14"/>
       <c r="V29" s="14"/>
       <c r="W29" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="Y29" s="14"/>
     </row>
@@ -11089,7 +11211,7 @@
         <v>238</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D30" s="14"/>
       <c r="G30" s="14"/>
@@ -11198,17 +11320,17 @@
         <v>7</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>221</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="8" t="s">
@@ -11226,7 +11348,7 @@
       </c>
       <c r="M35" s="23"/>
       <c r="N35" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="O35" s="8" t="s">
         <v>233</v>
@@ -11240,7 +11362,7 @@
       </c>
       <c r="S35" s="14"/>
       <c r="T35" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="U35" s="8" t="s">
         <v>332</v>
@@ -11251,17 +11373,17 @@
     <row r="36" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>223</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="8" t="s">
@@ -11279,7 +11401,7 @@
       </c>
       <c r="M36" s="23"/>
       <c r="N36" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="O36" s="8" t="s">
         <v>234</v>
@@ -11301,17 +11423,17 @@
     <row r="37" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>231</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="8" t="s">
@@ -11322,14 +11444,14 @@
       </c>
       <c r="J37" s="14"/>
       <c r="K37" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L37" s="8" t="s">
         <v>69</v>
       </c>
       <c r="M37" s="23"/>
       <c r="N37" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>235</v>
@@ -11398,7 +11520,7 @@
     <row r="39" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>230</v>
@@ -11409,7 +11531,7 @@
         <v>157</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J39" s="14"/>
       <c r="L39" s="8" t="s">
@@ -11439,10 +11561,10 @@
     <row r="40" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D40" s="14"/>
       <c r="G40" s="14"/>
@@ -11450,11 +11572,11 @@
         <v>159</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J40" s="14"/>
       <c r="L40" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M40" s="23"/>
       <c r="N40" s="8" t="s">
@@ -11480,15 +11602,15 @@
         <v>284</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J41" s="14"/>
       <c r="M41" s="23"/>
@@ -11509,10 +11631,10 @@
     <row r="42" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D42" s="14"/>
       <c r="G42" s="14"/>
@@ -11541,10 +11663,10 @@
     <row r="43" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D43" s="22"/>
       <c r="G43" s="14"/>
@@ -11570,7 +11692,7 @@
     <row r="44" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="22"/>
@@ -11593,7 +11715,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>363</v>
@@ -11614,7 +11736,7 @@
       </c>
       <c r="J46" s="14"/>
       <c r="K46" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L46" s="8" t="s">
         <v>355</v>
@@ -11631,7 +11753,7 @@
         <v>72</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S46" s="14"/>
       <c r="T46" s="8" t="s">
@@ -11646,7 +11768,7 @@
     <row r="47" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>362</v>
@@ -11667,7 +11789,7 @@
       </c>
       <c r="J47" s="14"/>
       <c r="K47" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>320</v>
@@ -11684,7 +11806,7 @@
         <v>75</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="S47" s="14"/>
       <c r="T47" s="8" t="s">
@@ -11717,7 +11839,7 @@
       </c>
       <c r="J48" s="14"/>
       <c r="K48" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L48" s="8" t="s">
         <v>321</v>
@@ -11734,11 +11856,11 @@
         <v>74</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="S48" s="14"/>
       <c r="T48" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="V48" s="14"/>
       <c r="Y48" s="14"/>
@@ -11746,14 +11868,14 @@
     <row r="49" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="C49" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="8" t="s">
         <v>145</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="8" t="s">
@@ -11788,21 +11910,21 @@
       <c r="A50" s="7"/>
       <c r="D50" s="14"/>
       <c r="E50" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J50" s="14"/>
       <c r="K50" s="8" t="s">
         <v>304</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M50" s="23"/>
       <c r="O50" s="8" t="s">
@@ -11823,10 +11945,10 @@
       <c r="A51" s="7"/>
       <c r="D51" s="14"/>
       <c r="E51" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="8" t="s">
@@ -11834,7 +11956,7 @@
       </c>
       <c r="J51" s="14"/>
       <c r="L51" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M51" s="23"/>
       <c r="O51" s="8" t="s">
@@ -11862,7 +11984,7 @@
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J52" s="14"/>
       <c r="M52" s="23"/>
@@ -11878,14 +12000,14 @@
       <c r="A53" s="7"/>
       <c r="D53" s="14"/>
       <c r="E53" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J53" s="14"/>
       <c r="M53" s="23"/>
@@ -12035,7 +12157,7 @@
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>146</v>
@@ -12108,10 +12230,10 @@
       </c>
       <c r="S59" s="14"/>
       <c r="T59" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="U59" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="V59" s="14"/>
       <c r="Y59" s="14"/>
@@ -12178,7 +12300,7 @@
       </c>
       <c r="S61" s="14"/>
       <c r="T61" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="V61" s="14"/>
       <c r="Y61" s="14"/>
@@ -12187,7 +12309,7 @@
       <c r="A62" s="7"/>
       <c r="D62" s="14"/>
       <c r="F62" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G62" s="14"/>
       <c r="J62" s="14"/>
@@ -12233,7 +12355,7 @@
       <c r="A64" s="7"/>
       <c r="D64" s="14"/>
       <c r="F64" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G64" s="14"/>
       <c r="J64" s="14"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -4522,7 +4522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B346" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B276" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E364" sqref="E364"/>
     </sheetView>
   </sheetViews>
@@ -10458,7 +10458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView topLeftCell="F11" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="659">
   <si>
     <t>Arne</t>
   </si>
@@ -655,15 +655,6 @@
     <t>3D_ENV_TERRAIN</t>
   </si>
   <si>
-    <t>Background 1</t>
-  </si>
-  <si>
-    <t>Background 2</t>
-  </si>
-  <si>
-    <t>Background 3</t>
-  </si>
-  <si>
     <t>Cabin</t>
   </si>
   <si>
@@ -2009,6 +2000,9 @@
   </si>
   <si>
     <t>9P_ENV_SAKURABLOSSOM</t>
+  </si>
+  <si>
+    <t>Background</t>
   </si>
 </sst>
 </file>
@@ -2535,7 +2529,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H1" s="1"/>
       <c r="J1" s="3">
@@ -2985,13 +2979,13 @@
         <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="CJ2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="EU2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:151" x14ac:dyDescent="0.25">
@@ -3002,7 +2996,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -3014,18 +3008,18 @@
         <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="CJ3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="EU3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B4" s="2">
         <v>0.61458333333333337</v>
@@ -3043,13 +3037,13 @@
         <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="CJ4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="EU4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:151" x14ac:dyDescent="0.25">
@@ -3060,7 +3054,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -3072,22 +3066,22 @@
         <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="CJ5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="EU5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="CJ6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="EU6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:151" x14ac:dyDescent="0.25">
@@ -3095,10 +3089,10 @@
         <v>4</v>
       </c>
       <c r="CJ7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="EU7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:151" x14ac:dyDescent="0.25">
@@ -3121,13 +3115,13 @@
         <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="CJ8" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="EU8" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:151" x14ac:dyDescent="0.25">
@@ -3150,13 +3144,13 @@
         <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="CJ9" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="EU9" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:151" x14ac:dyDescent="0.25">
@@ -3167,7 +3161,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -3179,13 +3173,13 @@
         <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="CJ10" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="EU10" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:151" x14ac:dyDescent="0.25">
@@ -3208,7 +3202,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J11" s="3">
         <v>42618</v>
@@ -3657,7 +3651,7 @@
         <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>11</v>
@@ -3688,7 +3682,7 @@
         <v>11</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>11</v>
@@ -3760,7 +3754,7 @@
         <v>11</v>
       </c>
       <c r="CJ12" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="CN12" s="1" t="s">
         <v>11</v>
@@ -3847,7 +3841,7 @@
         <v>11</v>
       </c>
       <c r="EU12" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:151" x14ac:dyDescent="0.25">
@@ -3858,7 +3852,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -3870,7 +3864,7 @@
         <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>12</v>
@@ -3879,18 +3873,18 @@
         <v>13</v>
       </c>
       <c r="CJ13" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="ES13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="EU13" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:151" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B14" s="2">
         <v>0.61458333333333337</v>
@@ -3908,58 +3902,58 @@
         <v>105</v>
       </c>
       <c r="G14" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="X14" t="s">
+        <v>448</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>450</v>
+      </c>
+      <c r="AS14" t="s">
         <v>451</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AZ14" t="s">
         <v>452</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="BN14" t="s">
         <v>453</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="BU14" t="s">
         <v>454</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="CB14" t="s">
         <v>455</v>
       </c>
-      <c r="BN14" t="s">
+      <c r="CI14" t="s">
         <v>456</v>
       </c>
-      <c r="BU14" t="s">
+      <c r="CJ14" t="s">
+        <v>524</v>
+      </c>
+      <c r="CP14" t="s">
         <v>457</v>
       </c>
-      <c r="CB14" t="s">
+      <c r="CW14" t="s">
         <v>458</v>
       </c>
-      <c r="CI14" t="s">
+      <c r="DD14" t="s">
         <v>459</v>
       </c>
-      <c r="CJ14" t="s">
-        <v>527</v>
-      </c>
-      <c r="CP14" t="s">
+      <c r="DK14" t="s">
         <v>460</v>
       </c>
-      <c r="CW14" t="s">
+      <c r="EF14" t="s">
         <v>461</v>
       </c>
-      <c r="DD14" t="s">
+      <c r="EM14" t="s">
         <v>462</v>
       </c>
-      <c r="DK14" t="s">
-        <v>463</v>
-      </c>
-      <c r="EF14" t="s">
-        <v>464</v>
-      </c>
-      <c r="EM14" t="s">
-        <v>465</v>
-      </c>
       <c r="EU14" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:151" x14ac:dyDescent="0.25">
@@ -3970,7 +3964,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -3982,433 +3976,433 @@
         <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="L15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="M15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="N15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="O15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="P15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Q15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="R15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="S15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="T15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="U15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="V15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="W15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="X15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Y15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Z15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AA15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AB15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AC15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AD15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AE15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AF15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AG15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AH15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AI15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AJ15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AK15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AL15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AM15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AN15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AO15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AP15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AQ15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AR15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AS15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AT15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AU15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AV15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AW15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AX15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AY15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AZ15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BA15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BB15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BC15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BD15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BE15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BF15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BG15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BH15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BI15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BJ15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BK15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BL15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BM15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BN15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BO15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BP15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BQ15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BR15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BS15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BT15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BU15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BV15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BW15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BX15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BY15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BZ15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CA15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CB15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CC15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CD15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CE15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CF15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CG15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CH15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CI15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CJ15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CK15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CL15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CM15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CN15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CO15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CP15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CQ15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CR15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CS15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CT15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CU15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CV15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CW15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CX15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CY15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="CZ15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DA15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DB15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DC15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DD15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DE15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DF15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DG15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DH15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DI15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DJ15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DK15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DL15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DM15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DN15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DO15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DP15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DQ15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DR15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DS15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DT15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DU15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DV15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DW15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DX15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DY15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="DZ15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="EA15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="EB15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="EC15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="ED15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="EE15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="EF15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="EG15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="EH15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="EI15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="EJ15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="EK15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="EL15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="EM15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="EN15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="EO15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="EP15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="EQ15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="ER15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="ES15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="ET15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="EU15" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:151" x14ac:dyDescent="0.25">
@@ -4423,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="AE16" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -4460,7 +4454,7 @@
         <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q18" t="s">
         <v>7</v>
@@ -4486,7 +4480,7 @@
         <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -4497,7 +4491,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -4509,7 +4503,7 @@
         <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -4520,10 +4514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J373"/>
+  <dimension ref="A1:J371"/>
   <sheetViews>
-    <sheetView topLeftCell="B276" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E364" sqref="E364"/>
+    <sheetView topLeftCell="B36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4553,16 +4547,16 @@
         <v>91</v>
       </c>
       <c r="G1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I1" t="s">
         <v>92</v>
       </c>
       <c r="J1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4589,7 +4583,7 @@
         <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
@@ -4605,10 +4599,10 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
@@ -4627,7 +4621,7 @@
         <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H6" t="s">
         <v>5</v>
@@ -4646,7 +4640,7 @@
         <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H7" t="s">
         <v>5</v>
@@ -4665,7 +4659,7 @@
         <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
@@ -4681,10 +4675,10 @@
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G9" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H9" t="s">
         <v>5</v>
@@ -4703,7 +4697,7 @@
         <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H10" t="s">
         <v>5</v>
@@ -4722,7 +4716,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H11" t="s">
         <v>7</v>
@@ -4741,7 +4735,7 @@
         <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H12" t="s">
         <v>5</v>
@@ -4760,7 +4754,7 @@
         <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H13" t="s">
         <v>7</v>
@@ -4779,7 +4773,7 @@
         <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H14" t="s">
         <v>6</v>
@@ -4798,7 +4792,7 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H15" t="s">
         <v>6</v>
@@ -4817,7 +4811,7 @@
         <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H16" t="s">
         <v>6</v>
@@ -4836,7 +4830,7 @@
         <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H17" t="s">
         <v>6</v>
@@ -4855,7 +4849,7 @@
         <v>113</v>
       </c>
       <c r="G18" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H18" t="s">
         <v>6</v>
@@ -4874,7 +4868,7 @@
         <v>119</v>
       </c>
       <c r="G19" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H19" t="s">
         <v>6</v>
@@ -4893,7 +4887,7 @@
         <v>123</v>
       </c>
       <c r="G20" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H20" t="s">
         <v>6</v>
@@ -4912,7 +4906,7 @@
         <v>127</v>
       </c>
       <c r="G21" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H21" t="s">
         <v>6</v>
@@ -4931,7 +4925,7 @@
         <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H22" t="s">
         <v>6</v>
@@ -4950,7 +4944,7 @@
         <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H23" t="s">
         <v>6</v>
@@ -4966,10 +4960,10 @@
         <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G24" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H24" t="s">
         <v>7</v>
@@ -4985,10 +4979,10 @@
         <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G25" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H25" t="s">
         <v>7</v>
@@ -5007,7 +5001,7 @@
         <v>148</v>
       </c>
       <c r="G26" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H26" t="s">
         <v>5</v>
@@ -5026,7 +5020,7 @@
         <v>152</v>
       </c>
       <c r="G27" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H27" t="s">
         <v>7</v>
@@ -5045,7 +5039,7 @@
         <v>154</v>
       </c>
       <c r="G28" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H28" t="s">
         <v>7</v>
@@ -5058,16 +5052,16 @@
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D29" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G29" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H29" t="s">
         <v>7</v>
@@ -5086,7 +5080,7 @@
         <v>157</v>
       </c>
       <c r="G30" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H30" t="s">
         <v>6</v>
@@ -5105,7 +5099,7 @@
         <v>158</v>
       </c>
       <c r="G31" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H31" t="s">
         <v>6</v>
@@ -5124,7 +5118,7 @@
         <v>162</v>
       </c>
       <c r="G32" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H32" t="s">
         <v>7</v>
@@ -5143,7 +5137,7 @@
         <v>166</v>
       </c>
       <c r="G33" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H33" t="s">
         <v>5</v>
@@ -5162,7 +5156,7 @@
         <v>170</v>
       </c>
       <c r="G34" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H34" t="s">
         <v>5</v>
@@ -5181,7 +5175,7 @@
         <v>174</v>
       </c>
       <c r="G35" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H35" t="s">
         <v>6</v>
@@ -5200,7 +5194,7 @@
         <v>180</v>
       </c>
       <c r="G36" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H36" t="s">
         <v>7</v>
@@ -5219,7 +5213,7 @@
         <v>181</v>
       </c>
       <c r="G37" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H37" t="s">
         <v>7</v>
@@ -5238,7 +5232,7 @@
         <v>182</v>
       </c>
       <c r="G38" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H38" t="s">
         <v>7</v>
@@ -5257,7 +5251,7 @@
         <v>187</v>
       </c>
       <c r="G39" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H39" t="s">
         <v>6</v>
@@ -5276,7 +5270,7 @@
         <v>191</v>
       </c>
       <c r="G40" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H40" t="s">
         <v>6</v>
@@ -5295,7 +5289,7 @@
         <v>194</v>
       </c>
       <c r="G41" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H41" t="s">
         <v>6</v>
@@ -5314,7 +5308,7 @@
         <v>205</v>
       </c>
       <c r="G42" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H42" t="s">
         <v>7</v>
@@ -5333,7 +5327,7 @@
         <v>206</v>
       </c>
       <c r="G43" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H43" t="s">
         <v>7</v>
@@ -5346,13 +5340,13 @@
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" t="s">
-        <v>209</v>
+        <v>658</v>
       </c>
       <c r="D44" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G44" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H44" t="s">
         <v>5</v>
@@ -5365,16 +5359,16 @@
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" t="s">
         <v>210</v>
       </c>
-      <c r="D45" t="s">
-        <v>559</v>
-      </c>
       <c r="G45" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J45" t="s">
         <v>3</v>
@@ -5384,16 +5378,16 @@
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D46" t="s">
-        <v>560</v>
+        <v>214</v>
       </c>
       <c r="G46" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J46" t="s">
         <v>3</v>
@@ -5403,16 +5397,16 @@
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D47" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G47" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J47" t="s">
         <v>3</v>
@@ -5422,16 +5416,16 @@
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D48" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G48" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J48" t="s">
         <v>3</v>
@@ -5441,13 +5435,13 @@
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="D49" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="G49" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H49" t="s">
         <v>7</v>
@@ -5463,10 +5457,10 @@
         <v>224</v>
       </c>
       <c r="D50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G50" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="H50" t="s">
         <v>7</v>
@@ -5479,13 +5473,13 @@
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" t="s">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="D51" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="G51" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H51" t="s">
         <v>7</v>
@@ -5498,16 +5492,16 @@
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D52" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="G52" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J52" t="s">
         <v>3</v>
@@ -5517,16 +5511,16 @@
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D53" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="G53" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J53" t="s">
         <v>3</v>
@@ -5536,16 +5530,16 @@
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D54" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G54" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J54" t="s">
         <v>3</v>
@@ -5555,16 +5549,16 @@
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D55" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G55" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J55" t="s">
         <v>3</v>
@@ -5574,13 +5568,13 @@
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D56" t="s">
         <v>249</v>
       </c>
       <c r="G56" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H56" t="s">
         <v>7</v>
@@ -5593,13 +5587,13 @@
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D57" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G57" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H57" t="s">
         <v>7</v>
@@ -5612,16 +5606,16 @@
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D58" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G58" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="H58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J58" t="s">
         <v>3</v>
@@ -5631,13 +5625,13 @@
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D59" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G59" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H59" t="s">
         <v>7</v>
@@ -5650,16 +5644,16 @@
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D60" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G60" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J60" t="s">
         <v>3</v>
@@ -5669,16 +5663,16 @@
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D61" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G61" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="H61" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J61" t="s">
         <v>3</v>
@@ -5688,16 +5682,16 @@
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D62" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G62" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J62" t="s">
         <v>3</v>
@@ -5707,16 +5701,16 @@
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D63" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G63" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J63" t="s">
         <v>3</v>
@@ -5726,16 +5720,16 @@
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D64" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G64" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J64" t="s">
         <v>3</v>
@@ -5745,16 +5739,16 @@
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D65" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G65" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J65" t="s">
         <v>3</v>
@@ -5764,16 +5758,19 @@
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D66" t="s">
-        <v>272</v>
+        <v>282</v>
+      </c>
+      <c r="E66" t="s">
+        <v>283</v>
       </c>
       <c r="G66" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J66" t="s">
         <v>3</v>
@@ -5783,16 +5780,16 @@
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="D67" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="G67" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J67" t="s">
         <v>3</v>
@@ -5802,19 +5799,16 @@
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="D68" t="s">
-        <v>285</v>
-      </c>
-      <c r="E68" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="G68" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J68" t="s">
         <v>3</v>
@@ -5824,16 +5818,16 @@
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D69" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="G69" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J69" t="s">
         <v>3</v>
@@ -5843,13 +5837,13 @@
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D70" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G70" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H70" t="s">
         <v>5</v>
@@ -5862,13 +5856,13 @@
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D71" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G71" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H71" t="s">
         <v>5</v>
@@ -5881,13 +5875,13 @@
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D72" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G72" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="H72" t="s">
         <v>5</v>
@@ -5900,32 +5894,34 @@
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D73" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G73" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="H73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J73" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
+      <c r="A74" s="14" t="s">
+        <v>353</v>
+      </c>
       <c r="B74" s="14"/>
       <c r="C74" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="D74" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="G74" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H74" t="s">
         <v>5</v>
@@ -5938,37 +5934,35 @@
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" t="s">
-        <v>299</v>
+        <v>358</v>
       </c>
       <c r="D75" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="G75" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J75" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
-        <v>356</v>
-      </c>
+      <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" t="s">
-        <v>358</v>
+        <v>464</v>
       </c>
       <c r="D76" t="s">
-        <v>357</v>
+        <v>467</v>
       </c>
       <c r="G76" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H76" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J76" t="s">
         <v>3</v>
@@ -5978,13 +5972,13 @@
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" t="s">
-        <v>361</v>
+        <v>465</v>
       </c>
       <c r="D77" t="s">
-        <v>362</v>
+        <v>466</v>
       </c>
       <c r="G77" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H77" t="s">
         <v>5</v>
@@ -5997,13 +5991,13 @@
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" t="s">
-        <v>467</v>
+        <v>151</v>
       </c>
       <c r="D78" t="s">
-        <v>470</v>
+        <v>152</v>
       </c>
       <c r="G78" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="H78" t="s">
         <v>7</v>
@@ -6016,16 +6010,16 @@
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" t="s">
-        <v>468</v>
+        <v>153</v>
       </c>
       <c r="D79" t="s">
-        <v>469</v>
+        <v>154</v>
       </c>
       <c r="G79" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="H79" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J79" t="s">
         <v>3</v>
@@ -6035,79 +6029,79 @@
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" t="s">
-        <v>151</v>
+        <v>598</v>
       </c>
       <c r="D80" t="s">
-        <v>152</v>
-      </c>
-      <c r="G80" t="s">
-        <v>466</v>
-      </c>
-      <c r="H80" t="s">
-        <v>7</v>
-      </c>
-      <c r="J80" t="s">
-        <v>3</v>
+        <v>560</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
-      <c r="C81" t="s">
-        <v>153</v>
-      </c>
-      <c r="D81" t="s">
-        <v>154</v>
-      </c>
-      <c r="G81" t="s">
-        <v>466</v>
-      </c>
-      <c r="H81" t="s">
-        <v>7</v>
-      </c>
-      <c r="J81" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" t="s">
-        <v>601</v>
-      </c>
-      <c r="D82" t="s">
-        <v>563</v>
+    </row>
+    <row r="82" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
-    </row>
-    <row r="84" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>26</v>
+      <c r="B83" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" t="s">
+        <v>65</v>
+      </c>
+      <c r="G84" t="s">
+        <v>469</v>
+      </c>
+      <c r="H84" t="s">
+        <v>5</v>
+      </c>
+      <c r="J84" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
-      <c r="B85" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="B85" s="14"/>
       <c r="C85" t="s">
-        <v>45</v>
+        <v>61</v>
+      </c>
+      <c r="D85" t="s">
+        <v>66</v>
+      </c>
+      <c r="G85" t="s">
+        <v>469</v>
+      </c>
+      <c r="H85" t="s">
+        <v>5</v>
+      </c>
+      <c r="J85" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D86" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G86" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H86" t="s">
         <v>5</v>
@@ -6120,16 +6114,16 @@
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D87" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G87" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J87" t="s">
         <v>3</v>
@@ -6139,16 +6133,16 @@
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="D88" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="H88" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J88" t="s">
         <v>3</v>
@@ -6158,16 +6152,16 @@
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D89" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="G89" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J89" t="s">
         <v>3</v>
@@ -6177,16 +6171,16 @@
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D90" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G90" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J90" t="s">
         <v>3</v>
@@ -6196,13 +6190,13 @@
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G91" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H91" t="s">
         <v>6</v>
@@ -6215,13 +6209,13 @@
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D92" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G92" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H92" t="s">
         <v>6</v>
@@ -6234,13 +6228,13 @@
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D93" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G93" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H93" t="s">
         <v>6</v>
@@ -6253,13 +6247,13 @@
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D94" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G94" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H94" t="s">
         <v>6</v>
@@ -6272,13 +6266,13 @@
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D95" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G95" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H95" t="s">
         <v>6</v>
@@ -6291,16 +6285,16 @@
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D96" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G96" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J96" t="s">
         <v>3</v>
@@ -6310,16 +6304,16 @@
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="D97" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="G97" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J97" t="s">
         <v>3</v>
@@ -6329,16 +6323,16 @@
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="D98" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="G98" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J98" t="s">
         <v>3</v>
@@ -6348,16 +6342,16 @@
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" t="s">
-        <v>161</v>
+        <v>598</v>
       </c>
       <c r="D99" t="s">
-        <v>163</v>
+        <v>559</v>
       </c>
       <c r="G99" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J99" t="s">
         <v>3</v>
@@ -6366,65 +6360,65 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
-      <c r="C100" t="s">
-        <v>165</v>
-      </c>
-      <c r="D100" t="s">
-        <v>167</v>
-      </c>
-      <c r="G100" t="s">
-        <v>472</v>
-      </c>
-      <c r="H100" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
+      <c r="B101" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C101" t="s">
-        <v>601</v>
-      </c>
-      <c r="D101" t="s">
-        <v>562</v>
-      </c>
-      <c r="G101" t="s">
-        <v>472</v>
-      </c>
-      <c r="H101" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
+      <c r="C102" t="s">
+        <v>60</v>
+      </c>
+      <c r="D102" t="s">
+        <v>486</v>
+      </c>
+      <c r="G102" t="s">
+        <v>463</v>
+      </c>
+      <c r="H102" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
-      <c r="B103" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B103" s="14"/>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>52</v>
+      </c>
+      <c r="D103" t="s">
+        <v>54</v>
+      </c>
+      <c r="G103" t="s">
+        <v>463</v>
+      </c>
+      <c r="H103" t="s">
+        <v>5</v>
+      </c>
+      <c r="J103" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D104" t="s">
-        <v>489</v>
+        <v>72</v>
       </c>
       <c r="G104" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H104" t="s">
         <v>5</v>
@@ -6437,13 +6431,13 @@
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D105" t="s">
-        <v>54</v>
+        <v>488</v>
       </c>
       <c r="G105" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H105" t="s">
         <v>5</v>
@@ -6456,13 +6450,13 @@
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D106" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G106" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="H106" t="s">
         <v>5</v>
@@ -6475,16 +6469,16 @@
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="D107" t="s">
-        <v>491</v>
+        <v>96</v>
       </c>
       <c r="G107" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H107" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J107" t="s">
         <v>3</v>
@@ -6494,13 +6488,13 @@
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="D108" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="G108" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H108" t="s">
         <v>5</v>
@@ -6513,16 +6507,16 @@
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="D109" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="G109" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J109" t="s">
         <v>3</v>
@@ -6532,13 +6526,13 @@
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="D110" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="G110" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H110" t="s">
         <v>5</v>
@@ -6551,16 +6545,16 @@
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="D111" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="G111" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H111" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J111" t="s">
         <v>3</v>
@@ -6570,16 +6564,16 @@
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D112" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="G112" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H112" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J112" t="s">
         <v>3</v>
@@ -6589,13 +6583,13 @@
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D113" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G113" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H113" t="s">
         <v>7</v>
@@ -6608,16 +6602,16 @@
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D114" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G114" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="H114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J114" t="s">
         <v>3</v>
@@ -6627,16 +6621,16 @@
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D115" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G115" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="H115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J115" t="s">
         <v>3</v>
@@ -6646,13 +6640,13 @@
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D116" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G116" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H116" t="s">
         <v>6</v>
@@ -6665,16 +6659,19 @@
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D117" t="s">
-        <v>195</v>
+        <v>203</v>
+      </c>
+      <c r="E117" t="s">
+        <v>494</v>
       </c>
       <c r="G117" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H117" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J117" t="s">
         <v>3</v>
@@ -6684,16 +6681,19 @@
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D118" t="s">
-        <v>196</v>
+        <v>204</v>
+      </c>
+      <c r="E118" t="s">
+        <v>495</v>
       </c>
       <c r="G118" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H118" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J118" t="s">
         <v>3</v>
@@ -6703,19 +6703,16 @@
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D119" t="s">
-        <v>203</v>
-      </c>
-      <c r="E119" t="s">
-        <v>497</v>
+        <v>208</v>
       </c>
       <c r="G119" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H119" t="s">
-        <v>7</v>
+        <v>403</v>
       </c>
       <c r="J119" t="s">
         <v>3</v>
@@ -6725,19 +6722,16 @@
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D120" t="s">
-        <v>204</v>
-      </c>
-      <c r="E120" t="s">
-        <v>498</v>
+        <v>211</v>
       </c>
       <c r="G120" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="H120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J120" t="s">
         <v>3</v>
@@ -6747,16 +6741,16 @@
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D121" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G121" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H121" t="s">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="J121" t="s">
         <v>3</v>
@@ -6766,16 +6760,16 @@
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D122" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G122" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J122" t="s">
         <v>3</v>
@@ -6785,16 +6779,16 @@
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D123" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G123" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J123" t="s">
         <v>3</v>
@@ -6804,13 +6798,13 @@
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="D124" t="s">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="G124" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H124" t="s">
         <v>7</v>
@@ -6823,16 +6817,16 @@
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D125" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="G125" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="H125" t="s">
-        <v>7</v>
+        <v>403</v>
       </c>
       <c r="J125" t="s">
         <v>3</v>
@@ -6842,16 +6836,16 @@
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="D126" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="G126" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J126" t="s">
         <v>3</v>
@@ -6861,16 +6855,16 @@
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D127" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G127" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H127" t="s">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="J127" t="s">
         <v>3</v>
@@ -6880,16 +6874,16 @@
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="D128" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="G128" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H128" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J128" t="s">
         <v>3</v>
@@ -6899,16 +6893,16 @@
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="D129" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G129" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J129" t="s">
         <v>3</v>
@@ -6918,13 +6912,16 @@
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="D130" t="s">
-        <v>255</v>
+        <v>284</v>
+      </c>
+      <c r="E130" t="s">
+        <v>283</v>
       </c>
       <c r="G130" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H130" t="s">
         <v>7</v>
@@ -6937,13 +6934,13 @@
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="D131" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="G131" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H131" t="s">
         <v>6</v>
@@ -6955,71 +6952,71 @@
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
-      <c r="C132" t="s">
-        <v>279</v>
-      </c>
-      <c r="D132" t="s">
-        <v>287</v>
-      </c>
-      <c r="E132" t="s">
-        <v>286</v>
-      </c>
-      <c r="G132" t="s">
-        <v>472</v>
-      </c>
-      <c r="H132" t="s">
-        <v>7</v>
-      </c>
-      <c r="J132" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
-      <c r="B133" s="14"/>
+      <c r="B133" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C133" t="s">
-        <v>290</v>
-      </c>
-      <c r="D133" t="s">
-        <v>292</v>
-      </c>
-      <c r="G133" t="s">
-        <v>466</v>
-      </c>
-      <c r="H133" t="s">
-        <v>6</v>
-      </c>
-      <c r="J133" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
+      <c r="C134" t="s">
+        <v>153</v>
+      </c>
+      <c r="D134" t="s">
+        <v>496</v>
+      </c>
+      <c r="G134" t="s">
+        <v>463</v>
+      </c>
+      <c r="H134" t="s">
+        <v>7</v>
+      </c>
+      <c r="J134" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
-      <c r="B135" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B135" s="14"/>
       <c r="C135" t="s">
-        <v>43</v>
+        <v>366</v>
+      </c>
+      <c r="D135" t="s">
+        <v>369</v>
+      </c>
+      <c r="E135" t="s">
+        <v>367</v>
+      </c>
+      <c r="G135" t="s">
+        <v>463</v>
+      </c>
+      <c r="H135" t="s">
+        <v>7</v>
+      </c>
+      <c r="J135" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D136" t="s">
-        <v>499</v>
+        <v>159</v>
       </c>
       <c r="G136" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J136" t="s">
         <v>3</v>
@@ -7029,19 +7026,16 @@
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" t="s">
-        <v>369</v>
+        <v>156</v>
       </c>
       <c r="D137" t="s">
-        <v>372</v>
-      </c>
-      <c r="E137" t="s">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="G137" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J137" t="s">
         <v>3</v>
@@ -7051,13 +7045,13 @@
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D138" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="G138" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H138" t="s">
         <v>6</v>
@@ -7070,16 +7064,16 @@
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" t="s">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="D139" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="G139" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="H139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J139" t="s">
         <v>3</v>
@@ -7089,16 +7083,16 @@
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="D140" t="s">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="G140" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J140" t="s">
         <v>3</v>
@@ -7108,16 +7102,16 @@
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="D141" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="G141" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H141" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J141" t="s">
         <v>3</v>
@@ -7126,68 +7120,68 @@
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
-      <c r="C142" t="s">
-        <v>271</v>
-      </c>
-      <c r="D142" t="s">
-        <v>273</v>
-      </c>
-      <c r="G142" t="s">
-        <v>472</v>
-      </c>
-      <c r="H142" t="s">
-        <v>5</v>
-      </c>
-      <c r="J142" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
-      <c r="B143" s="14"/>
+      <c r="B143" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C143" t="s">
-        <v>275</v>
-      </c>
-      <c r="D143" t="s">
-        <v>277</v>
-      </c>
-      <c r="G143" t="s">
-        <v>466</v>
-      </c>
-      <c r="H143" t="s">
-        <v>5</v>
-      </c>
-      <c r="J143" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
+      <c r="C144" t="s">
+        <v>128</v>
+      </c>
+      <c r="D144" t="s">
+        <v>133</v>
+      </c>
+      <c r="G144" t="s">
+        <v>463</v>
+      </c>
+      <c r="H144" t="s">
+        <v>6</v>
+      </c>
+      <c r="J144" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
-      <c r="B145" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B145" s="14"/>
       <c r="C145" t="s">
-        <v>140</v>
+        <v>129</v>
+      </c>
+      <c r="D145" t="s">
+        <v>444</v>
+      </c>
+      <c r="G145" t="s">
+        <v>463</v>
+      </c>
+      <c r="H145" t="s">
+        <v>6</v>
+      </c>
+      <c r="J145" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D146" t="s">
-        <v>133</v>
+        <v>443</v>
       </c>
       <c r="G146" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H146" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J146" t="s">
         <v>3</v>
@@ -7197,16 +7191,16 @@
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" t="s">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c r="D147" t="s">
-        <v>447</v>
+        <v>231</v>
       </c>
       <c r="G147" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J147" t="s">
         <v>3</v>
@@ -7216,16 +7210,16 @@
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" t="s">
-        <v>130</v>
+        <v>358</v>
       </c>
       <c r="D148" t="s">
-        <v>446</v>
+        <v>360</v>
       </c>
       <c r="G148" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J148" t="s">
         <v>3</v>
@@ -7234,76 +7228,76 @@
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
-      <c r="C149" t="s">
-        <v>232</v>
-      </c>
-      <c r="D149" t="s">
-        <v>234</v>
-      </c>
-      <c r="G149" t="s">
-        <v>466</v>
-      </c>
-      <c r="H149" t="s">
-        <v>7</v>
-      </c>
-      <c r="J149" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="14"/>
-      <c r="B150" s="14"/>
-      <c r="C150" t="s">
-        <v>361</v>
-      </c>
-      <c r="D150" t="s">
-        <v>363</v>
-      </c>
-      <c r="G150" t="s">
-        <v>466</v>
-      </c>
-      <c r="H150" t="s">
-        <v>5</v>
-      </c>
-      <c r="J150" t="s">
-        <v>3</v>
+    </row>
+    <row r="150" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
-      <c r="B151" s="14"/>
-    </row>
-    <row r="152" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>39</v>
+      <c r="B151" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C151" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="14"/>
+      <c r="B152" s="14"/>
+      <c r="C152" t="s">
+        <v>56</v>
+      </c>
+      <c r="D152" t="s">
+        <v>68</v>
+      </c>
+      <c r="G152" t="s">
+        <v>470</v>
+      </c>
+      <c r="H152" t="s">
+        <v>5</v>
+      </c>
+      <c r="J152" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="14"/>
-      <c r="B153" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="B153" s="14"/>
       <c r="C153" t="s">
-        <v>47</v>
+        <v>76</v>
+      </c>
+      <c r="D153" t="s">
+        <v>78</v>
+      </c>
+      <c r="G153" t="s">
+        <v>470</v>
+      </c>
+      <c r="H153" t="s">
+        <v>7</v>
+      </c>
+      <c r="J153" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="D154" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G154" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="H154" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J154" t="s">
         <v>3</v>
@@ -7313,16 +7307,16 @@
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D155" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G155" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J155" t="s">
         <v>3</v>
@@ -7332,16 +7326,16 @@
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D156" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G156" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J156" t="s">
         <v>3</v>
@@ -7351,16 +7345,16 @@
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="D157" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="G157" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J157" t="s">
         <v>3</v>
@@ -7370,13 +7364,13 @@
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D158" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G158" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H158" t="s">
         <v>6</v>
@@ -7389,13 +7383,13 @@
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D159" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G159" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H159" t="s">
         <v>6</v>
@@ -7408,13 +7402,13 @@
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D160" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G160" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H160" t="s">
         <v>6</v>
@@ -7427,13 +7421,13 @@
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D161" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G161" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H161" t="s">
         <v>6</v>
@@ -7446,13 +7440,13 @@
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D162" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G162" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H162" t="s">
         <v>6</v>
@@ -7465,16 +7459,16 @@
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D163" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="G163" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H163" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J163" t="s">
         <v>3</v>
@@ -7484,16 +7478,16 @@
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="D164" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="G164" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J164" t="s">
         <v>3</v>
@@ -7503,16 +7497,16 @@
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="D165" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="G165" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J165" t="s">
         <v>3</v>
@@ -7522,16 +7516,16 @@
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" t="s">
-        <v>161</v>
+        <v>598</v>
       </c>
       <c r="D166" t="s">
-        <v>164</v>
+        <v>561</v>
       </c>
       <c r="G166" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J166" t="s">
         <v>3</v>
@@ -7540,65 +7534,65 @@
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
-      <c r="C167" t="s">
-        <v>165</v>
-      </c>
-      <c r="D167" t="s">
-        <v>168</v>
-      </c>
-      <c r="G167" t="s">
-        <v>472</v>
-      </c>
-      <c r="H167" t="s">
-        <v>5</v>
-      </c>
-      <c r="J167" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="14"/>
-      <c r="B168" s="14"/>
+      <c r="B168" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C168" t="s">
-        <v>601</v>
-      </c>
-      <c r="D168" t="s">
-        <v>564</v>
-      </c>
-      <c r="G168" t="s">
-        <v>472</v>
-      </c>
-      <c r="H168" t="s">
-        <v>5</v>
-      </c>
-      <c r="J168" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
+      <c r="C169" t="s">
+        <v>60</v>
+      </c>
+      <c r="D169" t="s">
+        <v>487</v>
+      </c>
+      <c r="G169" t="s">
+        <v>463</v>
+      </c>
+      <c r="H169" t="s">
+        <v>5</v>
+      </c>
+      <c r="J169" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
-      <c r="B170" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B170" s="14"/>
       <c r="C170" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D170" t="s">
+        <v>70</v>
+      </c>
+      <c r="G170" t="s">
+        <v>463</v>
+      </c>
+      <c r="H170" t="s">
+        <v>5</v>
+      </c>
+      <c r="J170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
       <c r="C171" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D171" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G171" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H171" t="s">
         <v>5</v>
@@ -7607,17 +7601,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
       <c r="C172" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D172" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G172" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H172" t="s">
         <v>5</v>
@@ -7630,13 +7624,13 @@
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D173" t="s">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="G173" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H173" t="s">
         <v>5</v>
@@ -7649,13 +7643,13 @@
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="D174" t="s">
-        <v>74</v>
+        <v>490</v>
       </c>
       <c r="G174" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="H174" t="s">
         <v>5</v>
@@ -7668,16 +7662,16 @@
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D175" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="G175" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J175" t="s">
         <v>3</v>
@@ -7687,13 +7681,13 @@
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D176" t="s">
-        <v>493</v>
+        <v>150</v>
       </c>
       <c r="G176" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H176" t="s">
         <v>5</v>
@@ -7706,16 +7700,16 @@
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="D177" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="G177" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J177" t="s">
         <v>3</v>
@@ -7725,16 +7719,16 @@
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="D178" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="G178" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J178" t="s">
         <v>3</v>
@@ -7744,16 +7738,16 @@
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="D179" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="G179" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H179" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J179" t="s">
         <v>3</v>
@@ -7763,13 +7757,13 @@
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D180" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G180" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H180" t="s">
         <v>6</v>
@@ -7782,16 +7776,16 @@
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D181" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G181" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H181" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J181" t="s">
         <v>3</v>
@@ -7801,16 +7795,16 @@
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D182" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G182" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J182" t="s">
         <v>3</v>
@@ -7820,16 +7814,16 @@
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D183" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="G183" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J183" t="s">
         <v>3</v>
@@ -7839,16 +7833,16 @@
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="D184" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="G184" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J184" t="s">
         <v>3</v>
@@ -7858,16 +7852,16 @@
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="D185" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="G185" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J185" t="s">
         <v>3</v>
@@ -7877,16 +7871,16 @@
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="D186" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="G186" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="H186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J186" t="s">
         <v>3</v>
@@ -7896,16 +7890,16 @@
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="D187" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="G187" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H187" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J187" t="s">
         <v>3</v>
@@ -7915,16 +7909,16 @@
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="D188" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="G188" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H188" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J188" t="s">
         <v>3</v>
@@ -7934,16 +7928,16 @@
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="D189" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="G189" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J189" t="s">
         <v>3</v>
@@ -7953,13 +7947,16 @@
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="D190" t="s">
-        <v>256</v>
+        <v>286</v>
+      </c>
+      <c r="E190" t="s">
+        <v>283</v>
       </c>
       <c r="G190" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H190" t="s">
         <v>7</v>
@@ -7972,13 +7969,13 @@
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="D191" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G191" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H191" t="s">
         <v>6</v>
@@ -7990,71 +7987,71 @@
     <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
-      <c r="C192" t="s">
-        <v>288</v>
-      </c>
-      <c r="D192" t="s">
-        <v>289</v>
-      </c>
-      <c r="E192" t="s">
-        <v>286</v>
-      </c>
-      <c r="G192" t="s">
-        <v>472</v>
-      </c>
-      <c r="H192" t="s">
-        <v>7</v>
-      </c>
-      <c r="J192" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="14"/>
-      <c r="B193" s="14"/>
+      <c r="B193" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C193" t="s">
-        <v>290</v>
-      </c>
-      <c r="D193" t="s">
-        <v>293</v>
-      </c>
-      <c r="G193" t="s">
-        <v>466</v>
-      </c>
-      <c r="H193" t="s">
-        <v>6</v>
-      </c>
-      <c r="J193" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
+      <c r="C194" t="s">
+        <v>497</v>
+      </c>
+      <c r="D194" t="s">
+        <v>498</v>
+      </c>
+      <c r="G194" t="s">
+        <v>463</v>
+      </c>
+      <c r="H194" t="s">
+        <v>7</v>
+      </c>
+      <c r="J194" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="14"/>
-      <c r="B195" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B195" s="14"/>
       <c r="C195" t="s">
-        <v>49</v>
+        <v>366</v>
+      </c>
+      <c r="D195" t="s">
+        <v>368</v>
+      </c>
+      <c r="E195" t="s">
+        <v>367</v>
+      </c>
+      <c r="G195" t="s">
+        <v>463</v>
+      </c>
+      <c r="H195" t="s">
+        <v>7</v>
+      </c>
+      <c r="J195" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" t="s">
-        <v>500</v>
+        <v>173</v>
       </c>
       <c r="D196" t="s">
-        <v>501</v>
+        <v>176</v>
       </c>
       <c r="G196" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J196" t="s">
         <v>3</v>
@@ -8064,16 +8061,13 @@
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" t="s">
-        <v>369</v>
+        <v>224</v>
       </c>
       <c r="D197" t="s">
-        <v>371</v>
-      </c>
-      <c r="E197" t="s">
-        <v>370</v>
+        <v>228</v>
       </c>
       <c r="G197" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H197" t="s">
         <v>7</v>
@@ -8086,16 +8080,16 @@
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="D198" t="s">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="G198" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H198" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J198" t="s">
         <v>3</v>
@@ -8105,16 +8099,16 @@
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="D199" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="G199" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H199" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J199" t="s">
         <v>3</v>
@@ -8122,37 +8116,24 @@
     </row>
     <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="14"/>
-      <c r="B200" s="14"/>
-      <c r="C200" t="s">
-        <v>271</v>
-      </c>
-      <c r="D200" t="s">
-        <v>274</v>
-      </c>
-      <c r="G200" t="s">
-        <v>472</v>
-      </c>
-      <c r="H200" t="s">
-        <v>5</v>
-      </c>
-      <c r="J200" t="s">
-        <v>3</v>
+      <c r="B200" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" t="s">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="D201" t="s">
-        <v>278</v>
+        <v>134</v>
       </c>
       <c r="G201" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J201" t="s">
         <v>3</v>
@@ -8160,24 +8141,37 @@
     </row>
     <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="14"/>
-      <c r="B202" s="7" t="s">
-        <v>57</v>
+      <c r="B202" s="14"/>
+      <c r="C202" t="s">
+        <v>129</v>
+      </c>
+      <c r="D202" t="s">
+        <v>135</v>
+      </c>
+      <c r="G202" t="s">
+        <v>463</v>
+      </c>
+      <c r="H202" t="s">
+        <v>6</v>
+      </c>
+      <c r="J202" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="14"/>
       <c r="B203" s="14"/>
       <c r="C203" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D203" t="s">
-        <v>134</v>
+        <v>492</v>
       </c>
       <c r="G203" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H203" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J203" t="s">
         <v>3</v>
@@ -8187,16 +8181,16 @@
       <c r="A204" s="14"/>
       <c r="B204" s="14"/>
       <c r="C204" t="s">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c r="D204" t="s">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="G204" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J204" t="s">
         <v>3</v>
@@ -8206,16 +8200,16 @@
       <c r="A205" s="14"/>
       <c r="B205" s="14"/>
       <c r="C205" t="s">
-        <v>130</v>
+        <v>358</v>
       </c>
       <c r="D205" t="s">
-        <v>495</v>
+        <v>361</v>
       </c>
       <c r="G205" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H205" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J205" t="s">
         <v>3</v>
@@ -8224,73 +8218,73 @@
     <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="14"/>
       <c r="B206" s="14"/>
-      <c r="C206" t="s">
-        <v>232</v>
-      </c>
-      <c r="D206" t="s">
-        <v>235</v>
-      </c>
-      <c r="G206" t="s">
-        <v>466</v>
-      </c>
-      <c r="H206" t="s">
-        <v>7</v>
-      </c>
-      <c r="J206" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="14"/>
-      <c r="B207" s="14"/>
-      <c r="C207" t="s">
-        <v>361</v>
-      </c>
-      <c r="D207" t="s">
-        <v>364</v>
-      </c>
-      <c r="G207" t="s">
-        <v>466</v>
-      </c>
-      <c r="H207" t="s">
-        <v>5</v>
-      </c>
-      <c r="J207" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="14"/>
-      <c r="B208" s="14"/>
-    </row>
-    <row r="209" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B209" s="9" t="s">
-        <v>35</v>
+      <c r="B208" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C208" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="14"/>
+      <c r="B209" s="14"/>
+      <c r="C209" t="s">
+        <v>129</v>
+      </c>
+      <c r="D209" t="s">
+        <v>136</v>
+      </c>
+      <c r="G209" t="s">
+        <v>463</v>
+      </c>
+      <c r="H209" t="s">
+        <v>6</v>
+      </c>
+      <c r="J209" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="14"/>
-      <c r="B210" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B210" s="14"/>
       <c r="C210" t="s">
-        <v>58</v>
+        <v>130</v>
+      </c>
+      <c r="D210" t="s">
+        <v>137</v>
+      </c>
+      <c r="G210" t="s">
+        <v>463</v>
+      </c>
+      <c r="H210" t="s">
+        <v>7</v>
+      </c>
+      <c r="J210" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="14"/>
       <c r="B211" s="14"/>
       <c r="C211" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D211" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G211" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H211" t="s">
         <v>6</v>
@@ -8303,35 +8297,32 @@
       <c r="A212" s="14"/>
       <c r="B212" s="14"/>
       <c r="C212" t="s">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="D212" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="G212" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H212" t="s">
         <v>7</v>
-      </c>
-      <c r="J212" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="14"/>
       <c r="B213" s="14"/>
       <c r="C213" t="s">
-        <v>128</v>
+        <v>358</v>
       </c>
       <c r="D213" t="s">
-        <v>138</v>
+        <v>362</v>
       </c>
       <c r="G213" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J213" t="s">
         <v>3</v>
@@ -8340,70 +8331,67 @@
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="14"/>
       <c r="B214" s="14"/>
-      <c r="C214" t="s">
-        <v>232</v>
-      </c>
-      <c r="D214" t="s">
-        <v>236</v>
-      </c>
-      <c r="G214" t="s">
-        <v>466</v>
-      </c>
-      <c r="H214" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A215" s="14"/>
-      <c r="B215" s="14"/>
-      <c r="C215" t="s">
-        <v>361</v>
-      </c>
-      <c r="D215" t="s">
-        <v>365</v>
-      </c>
-      <c r="G215" t="s">
-        <v>466</v>
-      </c>
-      <c r="H215" t="s">
-        <v>5</v>
-      </c>
-      <c r="J215" t="s">
-        <v>3</v>
+    </row>
+    <row r="215" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B215" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="14"/>
-      <c r="B216" s="14"/>
-    </row>
-    <row r="217" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B217" s="12" t="s">
-        <v>46</v>
+      <c r="B216" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C216" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="14"/>
+      <c r="B217" s="14"/>
+      <c r="C217" t="s">
+        <v>309</v>
+      </c>
+      <c r="D217" t="s">
+        <v>317</v>
+      </c>
+      <c r="G217" t="s">
+        <v>463</v>
+      </c>
+      <c r="H217" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="14"/>
-      <c r="B218" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B218" s="14"/>
       <c r="C218" t="s">
-        <v>139</v>
+        <v>310</v>
+      </c>
+      <c r="D218" t="s">
+        <v>318</v>
+      </c>
+      <c r="G218" t="s">
+        <v>463</v>
+      </c>
+      <c r="H218" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="14"/>
       <c r="B219" s="14"/>
       <c r="C219" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D219" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G219" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H219" t="s">
         <v>5</v>
@@ -8413,13 +8401,13 @@
       <c r="A220" s="14"/>
       <c r="B220" s="14"/>
       <c r="C220" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D220" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G220" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H220" t="s">
         <v>5</v>
@@ -8429,13 +8417,13 @@
       <c r="A221" s="14"/>
       <c r="B221" s="14"/>
       <c r="C221" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D221" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G221" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H221" t="s">
         <v>5</v>
@@ -8445,13 +8433,13 @@
       <c r="A222" s="14"/>
       <c r="B222" s="14"/>
       <c r="C222" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D222" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G222" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H222" t="s">
         <v>5</v>
@@ -8461,13 +8449,13 @@
       <c r="A223" s="14"/>
       <c r="B223" s="14"/>
       <c r="C223" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D223" t="s">
         <v>323</v>
       </c>
       <c r="G223" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H223" t="s">
         <v>5</v>
@@ -8477,13 +8465,13 @@
       <c r="A224" s="14"/>
       <c r="B224" s="14"/>
       <c r="C224" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D224" t="s">
         <v>324</v>
       </c>
       <c r="G224" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H224" t="s">
         <v>5</v>
@@ -8493,13 +8481,13 @@
       <c r="A225" s="14"/>
       <c r="B225" s="14"/>
       <c r="C225" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="D225" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="G225" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H225" t="s">
         <v>5</v>
@@ -8509,13 +8497,13 @@
       <c r="A226" s="14"/>
       <c r="B226" s="14"/>
       <c r="C226" t="s">
-        <v>319</v>
+        <v>638</v>
       </c>
       <c r="D226" t="s">
-        <v>327</v>
+        <v>639</v>
       </c>
       <c r="G226" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H226" t="s">
         <v>5</v>
@@ -8525,13 +8513,13 @@
       <c r="A227" s="14"/>
       <c r="B227" s="14"/>
       <c r="C227" t="s">
-        <v>354</v>
+        <v>640</v>
       </c>
       <c r="D227" t="s">
-        <v>355</v>
+        <v>641</v>
       </c>
       <c r="G227" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H227" t="s">
         <v>5</v>
@@ -8541,48 +8529,54 @@
       <c r="A228" s="14"/>
       <c r="B228" s="14"/>
       <c r="C228" t="s">
-        <v>641</v>
+        <v>325</v>
       </c>
       <c r="D228" t="s">
-        <v>642</v>
+        <v>328</v>
+      </c>
+      <c r="E228" t="s">
+        <v>499</v>
       </c>
       <c r="G228" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H228" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="14"/>
       <c r="B229" s="14"/>
       <c r="C229" t="s">
-        <v>643</v>
+        <v>326</v>
       </c>
       <c r="D229" t="s">
-        <v>644</v>
+        <v>329</v>
+      </c>
+      <c r="E229" t="s">
+        <v>500</v>
       </c>
       <c r="G229" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H229" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="14"/>
       <c r="B230" s="14"/>
       <c r="C230" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D230" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E230" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G230" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H230" t="s">
         <v>7</v>
@@ -8592,16 +8586,16 @@
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D231" t="s">
         <v>332</v>
       </c>
       <c r="E231" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G231" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H231" t="s">
         <v>7</v>
@@ -8611,16 +8605,16 @@
       <c r="A232" s="14"/>
       <c r="B232" s="14"/>
       <c r="C232" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D232" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E232" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G232" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H232" t="s">
         <v>7</v>
@@ -8633,13 +8627,13 @@
         <v>334</v>
       </c>
       <c r="D233" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E233" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G233" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H233" t="s">
         <v>7</v>
@@ -8649,16 +8643,16 @@
       <c r="A234" s="14"/>
       <c r="B234" s="14"/>
       <c r="C234" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D234" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E234" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G234" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H234" t="s">
         <v>7</v>
@@ -8668,16 +8662,16 @@
       <c r="A235" s="14"/>
       <c r="B235" s="14"/>
       <c r="C235" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D235" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E235" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G235" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H235" t="s">
         <v>7</v>
@@ -8687,16 +8681,16 @@
       <c r="A236" s="14"/>
       <c r="B236" s="14"/>
       <c r="C236" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D236" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E236" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G236" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H236" t="s">
         <v>7</v>
@@ -8706,16 +8700,16 @@
       <c r="A237" s="14"/>
       <c r="B237" s="14"/>
       <c r="C237" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D237" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E237" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G237" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H237" t="s">
         <v>7</v>
@@ -8725,16 +8719,16 @@
       <c r="A238" s="14"/>
       <c r="B238" s="14"/>
       <c r="C238" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D238" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E238" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G238" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H238" t="s">
         <v>7</v>
@@ -8744,16 +8738,16 @@
       <c r="A239" s="14"/>
       <c r="B239" s="14"/>
       <c r="C239" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D239" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E239" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G239" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H239" t="s">
         <v>7</v>
@@ -8763,16 +8757,16 @@
       <c r="A240" s="14"/>
       <c r="B240" s="14"/>
       <c r="C240" t="s">
+        <v>347</v>
+      </c>
+      <c r="D240" t="s">
         <v>348</v>
       </c>
-      <c r="D240" t="s">
-        <v>353</v>
-      </c>
       <c r="E240" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G240" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H240" t="s">
         <v>7</v>
@@ -8781,233 +8775,221 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="14"/>
       <c r="B241" s="14"/>
-      <c r="C241" t="s">
-        <v>349</v>
-      </c>
-      <c r="D241" t="s">
-        <v>352</v>
-      </c>
-      <c r="E241" t="s">
-        <v>503</v>
-      </c>
-      <c r="G241" t="s">
-        <v>466</v>
-      </c>
-      <c r="H241" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="14"/>
-      <c r="B242" s="14"/>
-      <c r="C242" t="s">
-        <v>350</v>
-      </c>
-      <c r="D242" t="s">
-        <v>351</v>
-      </c>
-      <c r="E242" t="s">
-        <v>504</v>
-      </c>
-      <c r="G242" t="s">
-        <v>466</v>
-      </c>
-      <c r="H242" t="s">
-        <v>7</v>
+    </row>
+    <row r="242" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="14"/>
-      <c r="B243" s="14"/>
-    </row>
-    <row r="244" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B244" s="10" t="s">
-        <v>36</v>
+      <c r="B243" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C243" t="s">
+        <v>404</v>
+      </c>
+      <c r="E243" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="14"/>
+      <c r="B244" s="14"/>
+      <c r="C244" t="s">
+        <v>405</v>
+      </c>
+      <c r="G244" t="s">
+        <v>463</v>
+      </c>
+      <c r="H244" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="14"/>
-      <c r="B245" s="7" t="s">
-        <v>407</v>
-      </c>
+      <c r="B245" s="14"/>
       <c r="C245" t="s">
-        <v>407</v>
-      </c>
-      <c r="E245" t="s">
-        <v>444</v>
+        <v>357</v>
+      </c>
+      <c r="G245" t="s">
+        <v>463</v>
+      </c>
+      <c r="H245" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="14"/>
       <c r="B246" s="14"/>
       <c r="C246" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G246" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H246" t="s">
-        <v>2</v>
+        <v>403</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="14"/>
       <c r="B247" s="14"/>
       <c r="C247" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="G247" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H247" t="s">
-        <v>2</v>
+        <v>403</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="14"/>
       <c r="B248" s="14"/>
       <c r="C248" t="s">
-        <v>409</v>
+        <v>504</v>
       </c>
       <c r="G248" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H248" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="14"/>
       <c r="B249" s="14"/>
       <c r="C249" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G249" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H249" t="s">
-        <v>406</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="14"/>
       <c r="B250" s="14"/>
       <c r="C250" t="s">
-        <v>507</v>
+        <v>409</v>
       </c>
       <c r="G250" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H250" t="s">
-        <v>406</v>
+        <v>503</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="14"/>
       <c r="B251" s="14"/>
       <c r="C251" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G251" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H251" t="s">
-        <v>2</v>
+        <v>503</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="14"/>
       <c r="B252" s="14"/>
       <c r="C252" t="s">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="G252" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="H252" t="s">
-        <v>506</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="14"/>
       <c r="B253" s="14"/>
-      <c r="C253" t="s">
-        <v>413</v>
-      </c>
-      <c r="G253" t="s">
-        <v>466</v>
-      </c>
-      <c r="H253" t="s">
-        <v>506</v>
-      </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="14"/>
-      <c r="B254" s="14"/>
+      <c r="B254" s="16" t="s">
+        <v>411</v>
+      </c>
       <c r="C254" t="s">
-        <v>359</v>
+        <v>645</v>
+      </c>
+      <c r="E254" t="s">
+        <v>442</v>
       </c>
       <c r="G254" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H254" t="s">
-        <v>2</v>
+        <v>403</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="14"/>
       <c r="B255" s="14"/>
+      <c r="C255" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="14"/>
-      <c r="B256" s="16" t="s">
-        <v>414</v>
-      </c>
+      <c r="B256" s="14"/>
       <c r="C256" t="s">
-        <v>648</v>
-      </c>
-      <c r="E256" t="s">
-        <v>445</v>
-      </c>
-      <c r="G256" t="s">
-        <v>466</v>
-      </c>
-      <c r="H256" t="s">
-        <v>406</v>
+        <v>647</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="14"/>
       <c r="B257" s="14"/>
       <c r="C257" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
       <c r="C258" t="s">
-        <v>650</v>
+        <v>412</v>
+      </c>
+      <c r="G258" t="s">
+        <v>463</v>
+      </c>
+      <c r="H258" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" t="s">
-        <v>651</v>
+        <v>413</v>
+      </c>
+      <c r="G259" t="s">
+        <v>469</v>
+      </c>
+      <c r="H259" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G260" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H260" t="s">
         <v>2</v>
@@ -9017,10 +8999,10 @@
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G261" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="H261" t="s">
         <v>2</v>
@@ -9030,62 +9012,62 @@
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
       <c r="C262" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G262" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="H262" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="14"/>
       <c r="B263" s="14"/>
       <c r="C263" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G263" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H263" t="s">
-        <v>2</v>
+        <v>403</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G264" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H264" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G265" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H265" t="s">
-        <v>406</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G266" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H266" t="s">
         <v>2</v>
@@ -9095,10 +9077,10 @@
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G267" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H267" t="s">
         <v>2</v>
@@ -9108,10 +9090,10 @@
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G268" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="H268" t="s">
         <v>2</v>
@@ -9121,10 +9103,10 @@
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G269" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H269" t="s">
         <v>2</v>
@@ -9134,10 +9116,10 @@
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G270" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H270" t="s">
         <v>2</v>
@@ -9147,92 +9129,92 @@
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G271" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="H271" t="s">
-        <v>2</v>
+        <v>403</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="G272" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H272" t="s">
-        <v>2</v>
+        <v>403</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="G273" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H273" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
       <c r="C274" t="s">
-        <v>442</v>
-      </c>
-      <c r="G274" t="s">
-        <v>466</v>
-      </c>
-      <c r="H274" t="s">
-        <v>406</v>
+        <v>644</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="14"/>
       <c r="B275" s="14"/>
-      <c r="C275" t="s">
-        <v>443</v>
-      </c>
-      <c r="G275" t="s">
-        <v>466</v>
-      </c>
-      <c r="H275" t="s">
-        <v>406</v>
-      </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
-      <c r="C276" t="s">
-        <v>647</v>
-      </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="14"/>
-      <c r="B277" s="14"/>
+      <c r="B277" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C277" t="s">
+        <v>471</v>
+      </c>
+      <c r="G277" t="s">
+        <v>463</v>
+      </c>
+      <c r="H277" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
+      <c r="C278" t="s">
+        <v>472</v>
+      </c>
+      <c r="G278" t="s">
+        <v>463</v>
+      </c>
+      <c r="H278" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="14"/>
-      <c r="B279" s="7" t="s">
-        <v>481</v>
-      </c>
+      <c r="B279" s="14"/>
       <c r="C279" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G279" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H279" t="s">
         <v>2</v>
@@ -9242,10 +9224,10 @@
       <c r="A280" s="14"/>
       <c r="B280" s="14"/>
       <c r="C280" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G280" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H280" t="s">
         <v>2</v>
@@ -9255,10 +9237,10 @@
       <c r="A281" s="14"/>
       <c r="B281" s="14"/>
       <c r="C281" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G281" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H281" t="s">
         <v>2</v>
@@ -9268,10 +9250,10 @@
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G282" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H282" t="s">
         <v>2</v>
@@ -9281,13 +9263,13 @@
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G283" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H283" t="s">
-        <v>2</v>
+        <v>403</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
@@ -9297,7 +9279,7 @@
         <v>479</v>
       </c>
       <c r="G284" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H284" t="s">
         <v>2</v>
@@ -9310,71 +9292,71 @@
         <v>480</v>
       </c>
       <c r="G285" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="H285" t="s">
-        <v>406</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="14"/>
       <c r="B286" s="14"/>
-      <c r="C286" t="s">
-        <v>482</v>
-      </c>
-      <c r="G286" t="s">
-        <v>466</v>
-      </c>
-      <c r="H286" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="14"/>
-      <c r="B287" s="14"/>
+      <c r="B287" s="16" t="s">
+        <v>424</v>
+      </c>
       <c r="C287" t="s">
-        <v>483</v>
+        <v>425</v>
+      </c>
+      <c r="E287" t="s">
+        <v>442</v>
       </c>
       <c r="G287" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H287" t="s">
-        <v>2</v>
+        <v>403</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="14"/>
       <c r="B288" s="14"/>
+      <c r="C288" t="s">
+        <v>426</v>
+      </c>
+      <c r="G288" t="s">
+        <v>469</v>
+      </c>
+      <c r="H288" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="14"/>
-      <c r="B289" s="16" t="s">
+      <c r="B289" s="14"/>
+      <c r="C289" t="s">
         <v>427</v>
       </c>
-      <c r="C289" t="s">
-        <v>428</v>
-      </c>
-      <c r="E289" t="s">
-        <v>445</v>
-      </c>
       <c r="G289" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H289" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="14"/>
       <c r="B290" s="14"/>
       <c r="C290" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G290" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="H290" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
@@ -9384,172 +9366,180 @@
         <v>430</v>
       </c>
       <c r="G291" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H291" t="s">
-        <v>406</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="14"/>
       <c r="B292" s="14"/>
       <c r="C292" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G292" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H292" t="s">
-        <v>7</v>
+        <v>635</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="14"/>
       <c r="B293" s="14"/>
       <c r="C293" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G293" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H293" t="s">
-        <v>5</v>
+        <v>403</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="14"/>
       <c r="B294" s="14"/>
       <c r="C294" t="s">
-        <v>434</v>
-      </c>
-      <c r="G294" t="s">
-        <v>472</v>
-      </c>
-      <c r="H294" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="14"/>
       <c r="B295" s="14"/>
       <c r="C295" t="s">
-        <v>435</v>
-      </c>
-      <c r="G295" t="s">
-        <v>466</v>
-      </c>
-      <c r="H295" t="s">
-        <v>406</v>
+        <v>650</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="14"/>
       <c r="B296" s="14"/>
       <c r="C296" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="14"/>
       <c r="B297" s="14"/>
-      <c r="C297" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="14"/>
       <c r="B298" s="14"/>
-      <c r="C298" t="s">
-        <v>654</v>
-      </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="14"/>
-      <c r="B299" s="14"/>
+      <c r="B299" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C299" t="s">
+        <v>435</v>
+      </c>
+      <c r="E299" t="s">
+        <v>441</v>
+      </c>
+      <c r="G299" t="s">
+        <v>469</v>
+      </c>
+      <c r="H299" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="14"/>
       <c r="B300" s="14"/>
+      <c r="C300" t="s">
+        <v>436</v>
+      </c>
+      <c r="G300" t="s">
+        <v>469</v>
+      </c>
+      <c r="H300" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="14"/>
-      <c r="B301" s="16" t="s">
+      <c r="B301" s="14"/>
+      <c r="C301" t="s">
         <v>437</v>
       </c>
-      <c r="C301" t="s">
-        <v>438</v>
-      </c>
-      <c r="E301" t="s">
-        <v>444</v>
-      </c>
       <c r="G301" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H301" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="14"/>
       <c r="B302" s="14"/>
       <c r="C302" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G302" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H302" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="14"/>
       <c r="B303" s="14"/>
-      <c r="C303" t="s">
-        <v>440</v>
-      </c>
-      <c r="G303" t="s">
-        <v>472</v>
-      </c>
-      <c r="H303" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" s="14"/>
-      <c r="B304" s="14"/>
-      <c r="C304" t="s">
-        <v>441</v>
-      </c>
-      <c r="G304" t="s">
-        <v>472</v>
-      </c>
-      <c r="H304" t="s">
-        <v>406</v>
+    </row>
+    <row r="304" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B304" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="14"/>
-      <c r="B305" s="14"/>
-    </row>
-    <row r="306" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B306" s="13" t="s">
-        <v>37</v>
+      <c r="B305" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C305" t="s">
+        <v>365</v>
+      </c>
+      <c r="G305" t="s">
+        <v>463</v>
+      </c>
+      <c r="H305" t="s">
+        <v>2</v>
+      </c>
+      <c r="J305" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306" s="14"/>
+      <c r="B306" s="14"/>
+      <c r="C306" t="s">
+        <v>400</v>
+      </c>
+      <c r="G306" t="s">
+        <v>463</v>
+      </c>
+      <c r="H306" t="s">
+        <v>2</v>
+      </c>
+      <c r="J306" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="14"/>
-      <c r="B307" s="7" t="s">
-        <v>400</v>
+      <c r="B307" s="14" t="s">
+        <v>398</v>
       </c>
       <c r="C307" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="G307" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H307" t="s">
         <v>2</v>
@@ -9558,14 +9548,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="14"/>
       <c r="B308" s="14"/>
       <c r="C308" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="G308" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H308" t="s">
         <v>2</v>
@@ -9574,16 +9564,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="14"/>
-      <c r="B309" s="14" t="s">
-        <v>401</v>
-      </c>
+      <c r="B309" s="14"/>
       <c r="C309" t="s">
         <v>385</v>
       </c>
       <c r="G309" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H309" t="s">
         <v>2</v>
@@ -9592,14 +9580,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="14"/>
       <c r="B310" s="14"/>
       <c r="C310" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="G310" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H310" t="s">
         <v>2</v>
@@ -9608,14 +9596,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="14"/>
-      <c r="B311" s="14"/>
-      <c r="C311" t="s">
+      <c r="B311" s="14" t="s">
         <v>388</v>
       </c>
+      <c r="C311" s="4" t="s">
+        <v>390</v>
+      </c>
       <c r="G311" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H311" t="s">
         <v>2</v>
@@ -9627,11 +9617,11 @@
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="14"/>
       <c r="B312" s="14"/>
-      <c r="C312" t="s">
-        <v>397</v>
+      <c r="C312" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="G312" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H312" t="s">
         <v>2</v>
@@ -9642,17 +9632,15 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="14"/>
-      <c r="B313" s="14" t="s">
-        <v>391</v>
-      </c>
+      <c r="B313" s="14"/>
       <c r="C313" s="4" t="s">
-        <v>393</v>
+        <v>631</v>
       </c>
       <c r="G313" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H313" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J313" t="s">
         <v>3</v>
@@ -9662,13 +9650,13 @@
       <c r="A314" s="14"/>
       <c r="B314" s="14"/>
       <c r="C314" s="4" t="s">
-        <v>404</v>
+        <v>632</v>
       </c>
       <c r="G314" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H314" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J314" t="s">
         <v>3</v>
@@ -9678,10 +9666,10 @@
       <c r="A315" s="14"/>
       <c r="B315" s="14"/>
       <c r="C315" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G315" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H315" t="s">
         <v>1</v>
@@ -9694,10 +9682,10 @@
       <c r="A316" s="14"/>
       <c r="B316" s="14"/>
       <c r="C316" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G316" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H316" t="s">
         <v>1</v>
@@ -9709,30 +9697,21 @@
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="14"/>
       <c r="B317" s="14"/>
-      <c r="C317" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="G317" t="s">
-        <v>466</v>
-      </c>
-      <c r="H317" t="s">
-        <v>1</v>
-      </c>
-      <c r="J317" t="s">
-        <v>3</v>
-      </c>
+      <c r="C317" s="4"/>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="14"/>
-      <c r="B318" s="14"/>
+      <c r="B318" s="7" t="s">
+        <v>398</v>
+      </c>
       <c r="C318" s="4" t="s">
-        <v>637</v>
+        <v>363</v>
       </c>
       <c r="G318" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H318" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J318" t="s">
         <v>3</v>
@@ -9741,18 +9720,27 @@
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="14"/>
       <c r="B319" s="14"/>
-      <c r="C319" s="4"/>
+      <c r="C319" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G319" t="s">
+        <v>463</v>
+      </c>
+      <c r="H319" t="s">
+        <v>2</v>
+      </c>
+      <c r="J319" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="14"/>
-      <c r="B320" s="7" t="s">
-        <v>401</v>
-      </c>
+      <c r="B320" s="14"/>
       <c r="C320" s="4" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="G320" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H320" t="s">
         <v>2</v>
@@ -9765,10 +9753,10 @@
       <c r="A321" s="14"/>
       <c r="B321" s="14"/>
       <c r="C321" s="4" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="G321" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H321" t="s">
         <v>2</v>
@@ -9781,13 +9769,13 @@
       <c r="A322" s="14"/>
       <c r="B322" s="14"/>
       <c r="C322" s="4" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="G322" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H322" t="s">
-        <v>2</v>
+        <v>403</v>
       </c>
       <c r="J322" t="s">
         <v>3</v>
@@ -9795,12 +9783,14 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="14"/>
-      <c r="B323" s="14"/>
+      <c r="B323" s="14" t="s">
+        <v>399</v>
+      </c>
       <c r="C323" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G323" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H323" t="s">
         <v>2</v>
@@ -9813,13 +9803,13 @@
       <c r="A324" s="14"/>
       <c r="B324" s="14"/>
       <c r="C324" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G324" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H324" t="s">
-        <v>406</v>
+        <v>2</v>
       </c>
       <c r="J324" t="s">
         <v>3</v>
@@ -9827,33 +9817,22 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="14"/>
-      <c r="B325" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="C325" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="G325" t="s">
-        <v>466</v>
-      </c>
-      <c r="H325" t="s">
-        <v>2</v>
-      </c>
-      <c r="J325" t="s">
-        <v>3</v>
-      </c>
+      <c r="B325" s="14"/>
+      <c r="C325" s="4"/>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="14"/>
-      <c r="B326" s="14"/>
+      <c r="B326" s="16" t="s">
+        <v>399</v>
+      </c>
       <c r="C326" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G326" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H326" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J326" t="s">
         <v>3</v>
@@ -9862,18 +9841,27 @@
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="14"/>
       <c r="B327" s="14"/>
-      <c r="C327" s="4"/>
+      <c r="C327" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="G327" t="s">
+        <v>463</v>
+      </c>
+      <c r="H327" t="s">
+        <v>1</v>
+      </c>
+      <c r="J327" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="14"/>
-      <c r="B328" s="16" t="s">
-        <v>402</v>
-      </c>
+      <c r="B328" s="14"/>
       <c r="C328" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G328" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H328" t="s">
         <v>1</v>
@@ -9886,10 +9874,10 @@
       <c r="A329" s="14"/>
       <c r="B329" s="14"/>
       <c r="C329" s="4" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G329" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H329" t="s">
         <v>1</v>
@@ -9900,31 +9888,24 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="14"/>
-      <c r="B330" s="14"/>
-      <c r="C330" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="G330" t="s">
-        <v>466</v>
-      </c>
-      <c r="H330" t="s">
-        <v>1</v>
-      </c>
-      <c r="J330" t="s">
-        <v>3</v>
-      </c>
+      <c r="B330" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C330" s="4"/>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="14"/>
-      <c r="B331" s="14"/>
+      <c r="B331" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="C331" s="4" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="G331" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H331" t="s">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="J331" t="s">
         <v>3</v>
@@ -9932,24 +9913,31 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="14"/>
-      <c r="B332" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C332" s="4"/>
+      <c r="B332" s="14"/>
+      <c r="C332" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G332" t="s">
+        <v>463</v>
+      </c>
+      <c r="H332" t="s">
+        <v>2</v>
+      </c>
+      <c r="J332" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="14"/>
-      <c r="B333" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="B333" s="14"/>
       <c r="C333" s="4" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="G333" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H333" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J333" t="s">
         <v>3</v>
@@ -9959,13 +9947,13 @@
       <c r="A334" s="14"/>
       <c r="B334" s="14"/>
       <c r="C334" s="4" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="G334" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H334" t="s">
-        <v>2</v>
+        <v>403</v>
       </c>
       <c r="J334" t="s">
         <v>3</v>
@@ -9975,13 +9963,13 @@
       <c r="A335" s="14"/>
       <c r="B335" s="14"/>
       <c r="C335" s="4" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G335" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H335" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J335" t="s">
         <v>3</v>
@@ -9991,13 +9979,13 @@
       <c r="A336" s="14"/>
       <c r="B336" s="14"/>
       <c r="C336" s="4" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="G336" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H336" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J336" t="s">
         <v>3</v>
@@ -10007,13 +9995,13 @@
       <c r="A337" s="14"/>
       <c r="B337" s="14"/>
       <c r="C337" s="4" t="s">
-        <v>394</v>
+        <v>493</v>
       </c>
       <c r="G337" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H337" t="s">
-        <v>406</v>
+        <v>2</v>
       </c>
       <c r="J337" t="s">
         <v>3</v>
@@ -10023,13 +10011,13 @@
       <c r="A338" s="14"/>
       <c r="B338" s="14"/>
       <c r="C338" s="4" t="s">
-        <v>395</v>
+        <v>519</v>
       </c>
       <c r="G338" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H338" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J338" t="s">
         <v>3</v>
@@ -10038,30 +10026,21 @@
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="14"/>
       <c r="B339" s="14"/>
-      <c r="C339" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="G339" t="s">
-        <v>466</v>
-      </c>
-      <c r="H339" t="s">
-        <v>2</v>
-      </c>
-      <c r="J339" t="s">
-        <v>3</v>
-      </c>
+      <c r="C339" s="4"/>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="14"/>
-      <c r="B340" s="14"/>
+      <c r="B340" s="18" t="s">
+        <v>388</v>
+      </c>
       <c r="C340" s="4" t="s">
-        <v>522</v>
+        <v>380</v>
       </c>
       <c r="G340" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H340" t="s">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="J340" t="s">
         <v>3</v>
@@ -10069,19 +10048,28 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="14"/>
-      <c r="B341" s="14"/>
-      <c r="C341" s="4"/>
+      <c r="B341" s="15"/>
+      <c r="C341" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="G341" t="s">
+        <v>463</v>
+      </c>
+      <c r="H341" t="s">
+        <v>0</v>
+      </c>
+      <c r="J341" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="14"/>
-      <c r="B342" s="18" t="s">
-        <v>391</v>
-      </c>
+      <c r="B342" s="15"/>
       <c r="C342" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G342" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H342" t="s">
         <v>0</v>
@@ -10094,10 +10082,10 @@
       <c r="A343" s="14"/>
       <c r="B343" s="15"/>
       <c r="C343" s="4" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="G343" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H343" t="s">
         <v>0</v>
@@ -10110,10 +10098,10 @@
       <c r="A344" s="14"/>
       <c r="B344" s="15"/>
       <c r="C344" s="4" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="G344" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H344" t="s">
         <v>0</v>
@@ -10126,10 +10114,10 @@
       <c r="A345" s="14"/>
       <c r="B345" s="15"/>
       <c r="C345" s="4" t="s">
-        <v>380</v>
+        <v>521</v>
       </c>
       <c r="G345" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H345" t="s">
         <v>0</v>
@@ -10138,315 +10126,283 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A346" s="14"/>
-      <c r="B346" s="15"/>
-      <c r="C346" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="G346" t="s">
-        <v>466</v>
-      </c>
-      <c r="H346" t="s">
-        <v>0</v>
-      </c>
-      <c r="J346" t="s">
-        <v>3</v>
+    <row r="346" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B346" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="14"/>
-      <c r="B347" s="15"/>
-      <c r="C347" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="G347" t="s">
-        <v>466</v>
-      </c>
-      <c r="H347" t="s">
-        <v>0</v>
-      </c>
-      <c r="J347" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="348" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B348" s="11" t="s">
-        <v>38</v>
+      <c r="B347" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C347" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" s="14"/>
+      <c r="B348" s="14"/>
+      <c r="C348" t="s">
+        <v>303</v>
+      </c>
+      <c r="D348" t="s">
+        <v>304</v>
+      </c>
+      <c r="E348" t="s">
+        <v>597</v>
+      </c>
+      <c r="G348" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="14"/>
-      <c r="B349" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B349" s="14"/>
       <c r="C349" t="s">
-        <v>50</v>
+        <v>305</v>
+      </c>
+      <c r="D349" t="s">
+        <v>306</v>
+      </c>
+      <c r="G349" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="14"/>
       <c r="B350" s="14"/>
       <c r="C350" t="s">
-        <v>306</v>
+        <v>583</v>
       </c>
       <c r="D350" t="s">
-        <v>307</v>
-      </c>
-      <c r="E350" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="G350" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="14"/>
       <c r="B351" s="14"/>
       <c r="C351" t="s">
-        <v>308</v>
+        <v>585</v>
       </c>
       <c r="D351" t="s">
-        <v>309</v>
+        <v>586</v>
       </c>
       <c r="G351" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="14"/>
       <c r="B352" s="14"/>
       <c r="C352" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D352" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G352" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="14"/>
       <c r="B353" s="14"/>
       <c r="C353" t="s">
-        <v>588</v>
+        <v>656</v>
       </c>
       <c r="D353" t="s">
-        <v>589</v>
-      </c>
-      <c r="G353" t="s">
-        <v>472</v>
+        <v>657</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="14"/>
       <c r="B354" s="14"/>
-      <c r="C354" t="s">
-        <v>590</v>
-      </c>
-      <c r="D354" t="s">
-        <v>591</v>
-      </c>
-      <c r="G354" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="14"/>
-      <c r="B355" s="14"/>
+      <c r="B355" s="7" t="s">
+        <v>398</v>
+      </c>
       <c r="C355" t="s">
-        <v>659</v>
-      </c>
-      <c r="D355" t="s">
-        <v>660</v>
+        <v>573</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="14"/>
       <c r="B356" s="14"/>
+      <c r="C356" t="s">
+        <v>589</v>
+      </c>
+      <c r="D356" t="s">
+        <v>593</v>
+      </c>
+      <c r="G356" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="14"/>
-      <c r="B357" s="7" t="s">
-        <v>401</v>
-      </c>
+      <c r="B357" s="14"/>
       <c r="C357" t="s">
-        <v>576</v>
+        <v>590</v>
+      </c>
+      <c r="D357" t="s">
+        <v>594</v>
+      </c>
+      <c r="G357" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="14"/>
       <c r="B358" s="14"/>
       <c r="C358" t="s">
-        <v>592</v>
+        <v>272</v>
       </c>
       <c r="D358" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G358" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="14"/>
       <c r="B359" s="14"/>
       <c r="C359" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D359" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G359" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="14"/>
       <c r="B360" s="14"/>
       <c r="C360" t="s">
-        <v>275</v>
+        <v>576</v>
       </c>
       <c r="D360" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G360" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="14"/>
       <c r="B361" s="14"/>
       <c r="C361" t="s">
-        <v>594</v>
+        <v>654</v>
       </c>
       <c r="D361" t="s">
-        <v>599</v>
-      </c>
-      <c r="G361" t="s">
-        <v>472</v>
+        <v>655</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="14"/>
       <c r="B362" s="14"/>
-      <c r="C362" t="s">
-        <v>579</v>
-      </c>
-      <c r="D362" t="s">
-        <v>595</v>
-      </c>
-      <c r="G362" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="14"/>
-      <c r="B363" s="14"/>
+      <c r="B363" t="s">
+        <v>574</v>
+      </c>
       <c r="C363" t="s">
-        <v>657</v>
-      </c>
-      <c r="D363" t="s">
-        <v>658</v>
+        <v>575</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="14"/>
       <c r="B364" s="14"/>
+      <c r="C364" t="s">
+        <v>576</v>
+      </c>
+      <c r="D364" t="s">
+        <v>578</v>
+      </c>
+      <c r="G364" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="14"/>
-      <c r="B365" t="s">
+      <c r="B365" s="14"/>
+      <c r="C365" t="s">
         <v>577</v>
       </c>
-      <c r="C365" t="s">
-        <v>578</v>
+      <c r="D365" t="s">
+        <v>579</v>
+      </c>
+      <c r="G365" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="14"/>
       <c r="B366" s="14"/>
       <c r="C366" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D366" t="s">
-        <v>581</v>
+        <v>582</v>
+      </c>
+      <c r="E366" t="s">
+        <v>580</v>
       </c>
       <c r="G366" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="14"/>
       <c r="B367" s="14"/>
-      <c r="C367" t="s">
-        <v>580</v>
-      </c>
-      <c r="D367" t="s">
-        <v>582</v>
-      </c>
-      <c r="G367" t="s">
-        <v>472</v>
-      </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="14"/>
-      <c r="B368" s="14"/>
+      <c r="B368" t="s">
+        <v>42</v>
+      </c>
       <c r="C368" t="s">
-        <v>584</v>
-      </c>
-      <c r="D368" t="s">
-        <v>585</v>
-      </c>
-      <c r="E368" t="s">
-        <v>583</v>
-      </c>
-      <c r="G368" t="s">
-        <v>472</v>
+        <v>51</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="14"/>
       <c r="B369" s="14"/>
+      <c r="C369" t="s">
+        <v>307</v>
+      </c>
+      <c r="D369" t="s">
+        <v>308</v>
+      </c>
+      <c r="G369" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="14"/>
-      <c r="B370" t="s">
-        <v>42</v>
-      </c>
+      <c r="B370" s="14"/>
       <c r="C370" t="s">
-        <v>51</v>
+        <v>652</v>
+      </c>
+      <c r="D370" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="14"/>
       <c r="B371" s="14"/>
-      <c r="C371" t="s">
-        <v>310</v>
-      </c>
-      <c r="D371" t="s">
-        <v>311</v>
-      </c>
-      <c r="G371" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A372" s="14"/>
-      <c r="B372" s="14"/>
-      <c r="C372" t="s">
-        <v>655</v>
-      </c>
-      <c r="D372" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A373" s="14"/>
-      <c r="B373" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10458,8 +10414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="F21" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10492,112 +10448,112 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F1" t="s">
         <v>451</v>
       </c>
-      <c r="C1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I1" t="s">
         <v>453</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>454</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>455</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="N1" t="s">
         <v>456</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>457</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>458</v>
       </c>
-      <c r="M1" s="23" t="s">
-        <v>570</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>459</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>460</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>461</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>462</v>
       </c>
-      <c r="T1" t="s">
-        <v>463</v>
-      </c>
-      <c r="U1" t="s">
-        <v>464</v>
-      </c>
-      <c r="W1" t="s">
-        <v>465</v>
-      </c>
       <c r="X1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="19" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="19" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="P2" s="19"/>
       <c r="Q2" s="19" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="S2" s="19"/>
       <c r="T2" s="19" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="V2" s="19"/>
       <c r="W2" s="19" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="X2" s="19" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -10605,31 +10561,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="25" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="20" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="20" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="M3" s="23"/>
       <c r="P3" s="14"/>
@@ -10640,21 +10596,21 @@
     <row r="4" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="20" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="25" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="20" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="J4" s="14"/>
       <c r="M4" s="23"/>
@@ -10666,17 +10622,17 @@
     <row r="5" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="20" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="25" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G5" s="14"/>
       <c r="J5" s="14"/>
@@ -10689,17 +10645,17 @@
     <row r="6" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="20" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="25" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G6" s="14"/>
       <c r="J6" s="14"/>
@@ -10750,31 +10706,31 @@
         <v>0</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="20" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="20" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="20" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M11" s="23"/>
       <c r="P11" s="14"/>
@@ -10785,11 +10741,11 @@
     <row r="12" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="20" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G12" s="14"/>
       <c r="J12" s="14"/>
@@ -10803,7 +10759,7 @@
       <c r="A13" s="7"/>
       <c r="D13" s="14"/>
       <c r="E13" s="20" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G13" s="14"/>
       <c r="J13" s="14"/>
@@ -10865,52 +10821,52 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>528</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>531</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="20" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="20" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="20" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M19" s="23"/>
       <c r="N19" s="20" t="s">
+        <v>611</v>
+      </c>
+      <c r="O19" s="20" t="s">
         <v>614</v>
-      </c>
-      <c r="O19" s="20" t="s">
-        <v>617</v>
       </c>
       <c r="P19" s="14"/>
       <c r="Q19" s="20" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="R19" s="20" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="S19" s="14"/>
       <c r="T19" s="20" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="U19" s="20" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="V19" s="14"/>
       <c r="Y19" s="14"/>
@@ -10918,52 +10874,52 @@
     <row r="20" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>530</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>533</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="20" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="20" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="O20" s="20" t="s">
         <v>615</v>
-      </c>
-      <c r="O20" s="20" t="s">
-        <v>618</v>
       </c>
       <c r="P20" s="14"/>
       <c r="Q20" s="20" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R20" s="20" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="S20" s="14"/>
       <c r="T20" s="20" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="U20" s="20" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="V20" s="14"/>
       <c r="Y20" s="14"/>
@@ -10971,30 +10927,30 @@
     <row r="21" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>529</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>532</v>
       </c>
       <c r="D21" s="14"/>
       <c r="F21" s="20" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="20" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M21" s="23"/>
       <c r="N21" s="20" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P21" s="14"/>
       <c r="Q21" s="20" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S21" s="14"/>
       <c r="V21" s="14"/>
@@ -11003,7 +10959,7 @@
     <row r="22" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="20" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D22" s="14"/>
       <c r="G22" s="14"/>
@@ -11017,7 +10973,7 @@
     <row r="23" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="20" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D23" s="14"/>
       <c r="G23" s="14"/>
@@ -11031,7 +10987,7 @@
     <row r="24" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="20" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D24" s="14"/>
       <c r="G24" s="14"/>
@@ -11045,10 +11001,10 @@
     <row r="25" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="20" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D25" s="14"/>
       <c r="G25" s="14"/>
@@ -11064,94 +11020,94 @@
     </row>
     <row r="27" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="20" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="20" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="20" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M27" s="23"/>
       <c r="N27" s="20" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="P27" s="14"/>
       <c r="Q27" s="20" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="R27" s="20" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="S27" s="14"/>
       <c r="T27" s="20" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="U27" s="20" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="V27" s="14"/>
       <c r="W27" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="X27" s="20" t="s">
         <v>554</v>
-      </c>
-      <c r="X27" s="20" t="s">
-        <v>557</v>
       </c>
       <c r="Y27" s="14"/>
     </row>
     <row r="28" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="20" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="20" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="20" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="M28" s="23"/>
       <c r="N28" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="O28" s="20" t="s">
         <v>616</v>
-      </c>
-      <c r="O28" s="20" t="s">
-        <v>619</v>
       </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="20" t="s">
@@ -11162,14 +11118,14 @@
       </c>
       <c r="S28" s="14"/>
       <c r="T28" s="20" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="U28" s="20" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="V28" s="14"/>
       <c r="W28" s="20" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="Y28" s="14"/>
     </row>
@@ -11179,45 +11135,45 @@
         <v>183</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="20" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="J29" s="14"/>
       <c r="K29" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M29" s="23"/>
       <c r="P29" s="14"/>
       <c r="R29" s="20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S29" s="14"/>
       <c r="V29" s="14"/>
       <c r="W29" s="20" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="Y29" s="14"/>
     </row>
     <row r="30" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D30" s="14"/>
       <c r="G30" s="14"/>
       <c r="J30" s="14"/>
       <c r="L30" s="20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M30" s="23"/>
       <c r="P30" s="14"/>
@@ -11231,7 +11187,7 @@
       <c r="G31" s="14"/>
       <c r="J31" s="14"/>
       <c r="L31" s="20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M31" s="23"/>
       <c r="P31" s="14"/>
@@ -11245,7 +11201,7 @@
       <c r="G32" s="14"/>
       <c r="J32" s="14"/>
       <c r="L32" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M32" s="23"/>
       <c r="P32" s="14"/>
@@ -11280,7 +11236,7 @@
         <v>208</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M33" s="23"/>
       <c r="N33" s="8" t="s">
@@ -11320,24 +11276,24 @@
         <v>7</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J35" s="14"/>
       <c r="K35" s="8" t="s">
@@ -11348,24 +11304,24 @@
       </c>
       <c r="M35" s="23"/>
       <c r="N35" s="8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P35" s="14"/>
       <c r="Q35" s="8" t="s">
         <v>79</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="S35" s="14"/>
       <c r="T35" s="8" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="U35" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="V35" s="14"/>
       <c r="Y35" s="14"/>
@@ -11373,24 +11329,24 @@
     <row r="36" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J36" s="14"/>
       <c r="K36" s="8" t="s">
@@ -11401,21 +11357,21 @@
       </c>
       <c r="M36" s="23"/>
       <c r="N36" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P36" s="14"/>
       <c r="Q36" s="8" t="s">
         <v>77</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="S36" s="14"/>
       <c r="U36" s="8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="V36" s="14"/>
       <c r="Y36" s="14"/>
@@ -11423,49 +11379,49 @@
     <row r="37" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="8" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J37" s="14"/>
       <c r="K37" s="8" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="L37" s="8" t="s">
         <v>69</v>
       </c>
       <c r="M37" s="23"/>
       <c r="N37" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="8" t="s">
         <v>78</v>
       </c>
       <c r="R37" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="S37" s="14"/>
       <c r="U37" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="V37" s="14"/>
       <c r="Y37" s="14"/>
@@ -11476,7 +11432,7 @@
         <v>201</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="8" t="s">
@@ -11487,10 +11443,10 @@
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J38" s="14"/>
       <c r="L38" s="8" t="s">
@@ -11501,18 +11457,18 @@
         <v>162</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="8" t="s">
         <v>182</v>
       </c>
       <c r="R38" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S38" s="14"/>
       <c r="U38" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="V38" s="14"/>
       <c r="Y38" s="14"/>
@@ -11520,10 +11476,10 @@
     <row r="39" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D39" s="14"/>
       <c r="G39" s="14"/>
@@ -11531,7 +11487,7 @@
         <v>157</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J39" s="14"/>
       <c r="L39" s="8" t="s">
@@ -11549,11 +11505,11 @@
         <v>206</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S39" s="14"/>
       <c r="U39" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="V39" s="14"/>
       <c r="Y39" s="14"/>
@@ -11561,10 +11517,10 @@
     <row r="40" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D40" s="14"/>
       <c r="G40" s="14"/>
@@ -11572,11 +11528,11 @@
         <v>159</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="J40" s="14"/>
       <c r="L40" s="8" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M40" s="23"/>
       <c r="N40" s="8" t="s">
@@ -11587,11 +11543,11 @@
         <v>204</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S40" s="14"/>
       <c r="U40" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="V40" s="14"/>
       <c r="Y40" s="14"/>
@@ -11599,23 +11555,23 @@
     <row r="41" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="8" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J41" s="14"/>
       <c r="M41" s="23"/>
       <c r="N41" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P41" s="14"/>
       <c r="Q41" s="8" t="s">
@@ -11623,7 +11579,7 @@
       </c>
       <c r="S41" s="14"/>
       <c r="U41" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="V41" s="14"/>
       <c r="Y41" s="14"/>
@@ -11631,10 +11587,10 @@
     <row r="42" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="8" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D42" s="14"/>
       <c r="G42" s="14"/>
@@ -11642,20 +11598,20 @@
         <v>136</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J42" s="14"/>
       <c r="M42" s="23"/>
       <c r="N42" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P42" s="14"/>
       <c r="Q42" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="S42" s="14"/>
       <c r="U42" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="V42" s="14"/>
       <c r="Y42" s="14"/>
@@ -11663,28 +11619,28 @@
     <row r="43" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="8" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D43" s="22"/>
       <c r="G43" s="14"/>
       <c r="H43" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J43" s="14"/>
       <c r="M43" s="23"/>
       <c r="N43" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P43" s="14"/>
       <c r="S43" s="14"/>
       <c r="U43" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="V43" s="14"/>
       <c r="Y43" s="14"/>
@@ -11692,13 +11648,13 @@
     <row r="44" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="22"/>
       <c r="G44" s="14"/>
       <c r="I44" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J44" s="14"/>
       <c r="M44" s="23"/>
@@ -11715,52 +11671,52 @@
         <v>5</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>54</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J46" s="14"/>
       <c r="K46" s="8" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M46" s="23"/>
       <c r="N46" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P46" s="14"/>
       <c r="Q46" s="8" t="s">
         <v>72</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="S46" s="14"/>
       <c r="T46" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U46" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="V46" s="14"/>
       <c r="Y46" s="14"/>
@@ -11768,52 +11724,52 @@
     <row r="47" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>53</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J47" s="14"/>
       <c r="K47" s="8" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M47" s="23"/>
       <c r="N47" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P47" s="14"/>
       <c r="Q47" s="8" t="s">
         <v>75</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="S47" s="14"/>
       <c r="T47" s="8" t="s">
-        <v>303</v>
+        <v>602</v>
       </c>
       <c r="U47" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="V47" s="14"/>
       <c r="Y47" s="14"/>
@@ -11821,79 +11777,76 @@
     <row r="48" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="C48" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>70</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J48" s="14"/>
       <c r="K48" s="8" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M48" s="23"/>
       <c r="N48" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P48" s="14"/>
       <c r="Q48" s="8" t="s">
         <v>74</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="S48" s="14"/>
-      <c r="T48" s="8" t="s">
-        <v>605</v>
-      </c>
       <c r="V48" s="14"/>
       <c r="Y48" s="14"/>
     </row>
     <row r="49" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="C49" s="8" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="8" t="s">
         <v>145</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J49" s="14"/>
       <c r="K49" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M49" s="23"/>
       <c r="N49" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P49" s="14"/>
       <c r="Q49" s="8" t="s">
@@ -11910,25 +11863,25 @@
       <c r="A50" s="7"/>
       <c r="D50" s="14"/>
       <c r="E50" s="8" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="8" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J50" s="14"/>
       <c r="K50" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="M50" s="23"/>
       <c r="O50" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P50" s="14"/>
       <c r="Q50" s="8" t="s">
@@ -11945,10 +11898,10 @@
       <c r="A51" s="7"/>
       <c r="D51" s="14"/>
       <c r="E51" s="8" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="8" t="s">
@@ -11956,11 +11909,11 @@
       </c>
       <c r="J51" s="14"/>
       <c r="L51" s="8" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="M51" s="23"/>
       <c r="O51" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P51" s="14"/>
       <c r="Q51" s="8" t="s">
@@ -11984,12 +11937,12 @@
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="8" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J52" s="14"/>
       <c r="M52" s="23"/>
       <c r="O52" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P52" s="14"/>
       <c r="S52" s="14"/>
@@ -12000,14 +11953,14 @@
       <c r="A53" s="7"/>
       <c r="D53" s="14"/>
       <c r="E53" s="8" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="8" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="J53" s="14"/>
       <c r="M53" s="23"/>
@@ -12065,21 +12018,21 @@
       </c>
       <c r="J56" s="14"/>
       <c r="K56" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M56" s="23"/>
       <c r="N56" s="8" t="s">
         <v>119</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P56" s="14"/>
       <c r="Q56" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="R56" s="8" t="s">
         <v>109</v>
@@ -12118,17 +12071,17 @@
       </c>
       <c r="J57" s="14"/>
       <c r="K57" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M57" s="23"/>
       <c r="N57" s="8" t="s">
         <v>115</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P57" s="14"/>
       <c r="Q57" s="8" t="s">
@@ -12157,7 +12110,7 @@
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>146</v>
@@ -12171,17 +12124,17 @@
       </c>
       <c r="J58" s="14"/>
       <c r="K58" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M58" s="23"/>
       <c r="N58" s="8" t="s">
         <v>117</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P58" s="14"/>
       <c r="Q58" s="8" t="s">
@@ -12207,7 +12160,7 @@
         <v>135</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="8" t="s">
@@ -12230,10 +12183,10 @@
       </c>
       <c r="S59" s="14"/>
       <c r="T59" s="8" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="U59" s="8" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="V59" s="14"/>
       <c r="Y59" s="14"/>
@@ -12245,7 +12198,7 @@
         <v>136</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="8" t="s">
@@ -12277,7 +12230,7 @@
       <c r="A61" s="7"/>
       <c r="D61" s="14"/>
       <c r="F61" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="8" t="s">
@@ -12300,7 +12253,7 @@
       </c>
       <c r="S61" s="14"/>
       <c r="T61" s="8" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="V61" s="14"/>
       <c r="Y61" s="14"/>
@@ -12309,7 +12262,7 @@
       <c r="A62" s="7"/>
       <c r="D62" s="14"/>
       <c r="F62" s="8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G62" s="14"/>
       <c r="J62" s="14"/>
@@ -12319,11 +12272,11 @@
         <v>103</v>
       </c>
       <c r="R62" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="S62" s="14"/>
       <c r="T62" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="V62" s="14"/>
       <c r="Y62" s="14"/>
@@ -12339,14 +12292,14 @@
       <c r="M63" s="23"/>
       <c r="P63" s="14"/>
       <c r="Q63" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="S63" s="14"/>
       <c r="T63" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="V63" s="14"/>
       <c r="Y63" s="14"/>
@@ -12355,18 +12308,18 @@
       <c r="A64" s="7"/>
       <c r="D64" s="14"/>
       <c r="F64" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G64" s="14"/>
       <c r="J64" s="14"/>
       <c r="M64" s="23"/>
       <c r="P64" s="14"/>
       <c r="R64" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S64" s="14"/>
       <c r="T64" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="V64" s="14"/>
       <c r="Y64" s="14"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -4516,7 +4516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J371"/>
   <sheetViews>
-    <sheetView topLeftCell="B36" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
@@ -10414,7 +10414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F21" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+    <sheetView topLeftCell="F21" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\OneDrive\Documenten\KappaSquad\Concept\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enra\Documents\KappaSquad\Concept\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="668">
   <si>
     <t>Arne</t>
   </si>
@@ -2003,12 +2003,39 @@
   </si>
   <si>
     <t>Background</t>
+  </si>
+  <si>
+    <t>Icon Slash</t>
+  </si>
+  <si>
+    <t>Icon Dash</t>
+  </si>
+  <si>
+    <t>Icon Shuriken</t>
+  </si>
+  <si>
+    <t>Icon SmokeBomb</t>
+  </si>
+  <si>
+    <t>Icon GrapplingHook</t>
+  </si>
+  <si>
+    <t>Icon Locked Ability</t>
+  </si>
+  <si>
+    <t>Half Heart Left Side</t>
+  </si>
+  <si>
+    <t>Half Heart Right Side</t>
+  </si>
+  <si>
+    <t>Heart Empty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2269,23 +2296,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2321,23 +2331,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -4514,10 +4507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J371"/>
+  <dimension ref="A1:J380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="B54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6038,206 +6031,98 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
-    </row>
-    <row r="82" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>26</v>
+      <c r="C81" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
-      <c r="B83" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="B83" s="14"/>
       <c r="C83" t="s">
-        <v>45</v>
+        <v>661</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" t="s">
-        <v>55</v>
-      </c>
-      <c r="D84" t="s">
-        <v>65</v>
-      </c>
-      <c r="G84" t="s">
-        <v>469</v>
-      </c>
-      <c r="H84" t="s">
-        <v>5</v>
-      </c>
-      <c r="J84" t="s">
-        <v>3</v>
+        <v>662</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" t="s">
-        <v>61</v>
-      </c>
-      <c r="D85" t="s">
-        <v>66</v>
-      </c>
-      <c r="G85" t="s">
-        <v>469</v>
-      </c>
-      <c r="H85" t="s">
-        <v>5</v>
-      </c>
-      <c r="J85" t="s">
-        <v>3</v>
+        <v>663</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" t="s">
-        <v>56</v>
-      </c>
-      <c r="D86" t="s">
-        <v>67</v>
-      </c>
-      <c r="G86" t="s">
-        <v>470</v>
-      </c>
-      <c r="H86" t="s">
-        <v>5</v>
-      </c>
-      <c r="J86" t="s">
-        <v>3</v>
+        <v>664</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" t="s">
-        <v>76</v>
-      </c>
-      <c r="D87" t="s">
-        <v>77</v>
-      </c>
-      <c r="G87" t="s">
-        <v>470</v>
-      </c>
-      <c r="H87" t="s">
-        <v>7</v>
-      </c>
-      <c r="J87" t="s">
-        <v>3</v>
+        <v>665</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" t="s">
-        <v>86</v>
-      </c>
-      <c r="D88" t="s">
-        <v>87</v>
-      </c>
-      <c r="G88" t="s">
-        <v>463</v>
-      </c>
-      <c r="H88" t="s">
-        <v>7</v>
-      </c>
-      <c r="J88" t="s">
-        <v>3</v>
+        <v>666</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" t="s">
-        <v>97</v>
-      </c>
-      <c r="D89" t="s">
-        <v>98</v>
-      </c>
-      <c r="G89" t="s">
-        <v>470</v>
-      </c>
-      <c r="H89" t="s">
-        <v>6</v>
-      </c>
-      <c r="J89" t="s">
-        <v>3</v>
+        <v>667</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
-      <c r="C90" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" t="s">
-        <v>102</v>
-      </c>
-      <c r="G90" t="s">
-        <v>470</v>
-      </c>
-      <c r="H90" t="s">
-        <v>6</v>
-      </c>
-      <c r="J90" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" s="14"/>
-      <c r="C91" t="s">
-        <v>105</v>
-      </c>
-      <c r="D91" t="s">
-        <v>106</v>
-      </c>
-      <c r="G91" t="s">
-        <v>470</v>
-      </c>
-      <c r="H91" t="s">
-        <v>6</v>
-      </c>
-      <c r="J91" t="s">
-        <v>3</v>
+    </row>
+    <row r="91" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
-      <c r="B92" s="14"/>
+      <c r="B92" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="C92" t="s">
-        <v>110</v>
-      </c>
-      <c r="D92" t="s">
-        <v>111</v>
-      </c>
-      <c r="G92" t="s">
-        <v>470</v>
-      </c>
-      <c r="H92" t="s">
-        <v>6</v>
-      </c>
-      <c r="J92" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="D93" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G93" t="s">
         <v>469</v>
       </c>
       <c r="H93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J93" t="s">
         <v>3</v>
@@ -6247,16 +6132,16 @@
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="D94" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="G94" t="s">
         <v>469</v>
       </c>
       <c r="H94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J94" t="s">
         <v>3</v>
@@ -6266,16 +6151,16 @@
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="D95" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="G95" t="s">
         <v>470</v>
       </c>
       <c r="H95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J95" t="s">
         <v>3</v>
@@ -6285,13 +6170,13 @@
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="D96" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="G96" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H96" t="s">
         <v>7</v>
@@ -6304,13 +6189,13 @@
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="D97" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="G97" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H97" t="s">
         <v>7</v>
@@ -6323,16 +6208,16 @@
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="G98" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H98" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J98" t="s">
         <v>3</v>
@@ -6342,16 +6227,16 @@
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" t="s">
-        <v>598</v>
+        <v>101</v>
       </c>
       <c r="D99" t="s">
-        <v>559</v>
+        <v>102</v>
       </c>
       <c r="G99" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H99" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J99" t="s">
         <v>3</v>
@@ -6360,30 +6245,55 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
+      <c r="C100" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" t="s">
+        <v>106</v>
+      </c>
+      <c r="G100" t="s">
+        <v>470</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="J100" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
-      <c r="B101" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B101" s="14"/>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>110</v>
+      </c>
+      <c r="D101" t="s">
+        <v>111</v>
+      </c>
+      <c r="G101" t="s">
+        <v>470</v>
+      </c>
+      <c r="H101" t="s">
+        <v>6</v>
+      </c>
+      <c r="J101" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="D102" t="s">
-        <v>486</v>
+        <v>115</v>
       </c>
       <c r="G102" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J102" t="s">
         <v>3</v>
@@ -6393,16 +6303,16 @@
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="D103" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="G103" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J103" t="s">
         <v>3</v>
@@ -6412,16 +6322,16 @@
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="D104" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="G104" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J104" t="s">
         <v>3</v>
@@ -6431,16 +6341,16 @@
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="D105" t="s">
-        <v>488</v>
+        <v>142</v>
       </c>
       <c r="G105" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H105" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J105" t="s">
         <v>3</v>
@@ -6450,16 +6360,16 @@
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="D106" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="G106" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H106" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J106" t="s">
         <v>3</v>
@@ -6469,16 +6379,16 @@
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="D107" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="G107" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J107" t="s">
         <v>3</v>
@@ -6488,13 +6398,13 @@
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" t="s">
-        <v>144</v>
+        <v>598</v>
       </c>
       <c r="D108" t="s">
-        <v>145</v>
+        <v>559</v>
       </c>
       <c r="G108" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H108" t="s">
         <v>5</v>
@@ -6506,55 +6416,30 @@
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
-      <c r="C109" t="s">
-        <v>147</v>
-      </c>
-      <c r="D109" t="s">
-        <v>149</v>
-      </c>
-      <c r="G109" t="s">
-        <v>463</v>
-      </c>
-      <c r="H109" t="s">
-        <v>5</v>
-      </c>
-      <c r="J109" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
-      <c r="B110" s="14"/>
+      <c r="B110" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C110" t="s">
-        <v>169</v>
-      </c>
-      <c r="D110" t="s">
-        <v>171</v>
-      </c>
-      <c r="G110" t="s">
-        <v>463</v>
-      </c>
-      <c r="H110" t="s">
-        <v>5</v>
-      </c>
-      <c r="J110" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" t="s">
-        <v>177</v>
+        <v>60</v>
       </c>
       <c r="D111" t="s">
-        <v>183</v>
+        <v>486</v>
       </c>
       <c r="G111" t="s">
         <v>463</v>
       </c>
       <c r="H111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J111" t="s">
         <v>3</v>
@@ -6564,16 +6449,16 @@
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="D112" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="G112" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J112" t="s">
         <v>3</v>
@@ -6583,16 +6468,16 @@
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="D113" t="s">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="G113" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J113" t="s">
         <v>3</v>
@@ -6602,16 +6487,16 @@
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" t="s">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c r="D114" t="s">
-        <v>189</v>
+        <v>488</v>
       </c>
       <c r="G114" t="s">
         <v>463</v>
       </c>
       <c r="H114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J114" t="s">
         <v>3</v>
@@ -6621,16 +6506,16 @@
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" t="s">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="D115" t="s">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="G115" t="s">
         <v>463</v>
       </c>
       <c r="H115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J115" t="s">
         <v>3</v>
@@ -6640,13 +6525,13 @@
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="D116" t="s">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="G116" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H116" t="s">
         <v>6</v>
@@ -6659,19 +6544,16 @@
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="D117" t="s">
-        <v>203</v>
-      </c>
-      <c r="E117" t="s">
-        <v>494</v>
+        <v>145</v>
       </c>
       <c r="G117" t="s">
         <v>463</v>
       </c>
       <c r="H117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J117" t="s">
         <v>3</v>
@@ -6681,19 +6563,16 @@
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="D118" t="s">
-        <v>204</v>
-      </c>
-      <c r="E118" t="s">
-        <v>495</v>
+        <v>149</v>
       </c>
       <c r="G118" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J118" t="s">
         <v>3</v>
@@ -6703,16 +6582,16 @@
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="D119" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="G119" t="s">
         <v>463</v>
       </c>
       <c r="H119" t="s">
-        <v>403</v>
+        <v>5</v>
       </c>
       <c r="J119" t="s">
         <v>3</v>
@@ -6722,16 +6601,16 @@
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="D120" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="G120" t="s">
         <v>463</v>
       </c>
       <c r="H120" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J120" t="s">
         <v>3</v>
@@ -6741,16 +6620,16 @@
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="D121" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="G121" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J121" t="s">
         <v>3</v>
@@ -6760,13 +6639,13 @@
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="D122" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="G122" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="H122" t="s">
         <v>7</v>
@@ -6779,16 +6658,16 @@
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="D123" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="G123" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J123" t="s">
         <v>3</v>
@@ -6798,16 +6677,16 @@
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" t="s">
-        <v>277</v>
+        <v>192</v>
       </c>
       <c r="D124" t="s">
-        <v>279</v>
+        <v>195</v>
       </c>
       <c r="G124" t="s">
         <v>463</v>
       </c>
       <c r="H124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J124" t="s">
         <v>3</v>
@@ -6817,16 +6696,16 @@
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D125" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="G125" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="H125" t="s">
-        <v>403</v>
+        <v>6</v>
       </c>
       <c r="J125" t="s">
         <v>3</v>
@@ -6836,16 +6715,19 @@
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="D126" t="s">
-        <v>238</v>
+        <v>203</v>
+      </c>
+      <c r="E126" t="s">
+        <v>494</v>
       </c>
       <c r="G126" t="s">
         <v>463</v>
       </c>
       <c r="H126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J126" t="s">
         <v>3</v>
@@ -6855,16 +6737,19 @@
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="D127" t="s">
-        <v>242</v>
+        <v>204</v>
+      </c>
+      <c r="E127" t="s">
+        <v>495</v>
       </c>
       <c r="G127" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="H127" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J127" t="s">
         <v>3</v>
@@ -6874,16 +6759,16 @@
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="D128" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="G128" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H128" t="s">
-        <v>7</v>
+        <v>403</v>
       </c>
       <c r="J128" t="s">
         <v>3</v>
@@ -6893,10 +6778,10 @@
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="D129" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="G129" t="s">
         <v>463</v>
@@ -6912,19 +6797,16 @@
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="D130" t="s">
-        <v>284</v>
-      </c>
-      <c r="E130" t="s">
-        <v>283</v>
+        <v>215</v>
       </c>
       <c r="G130" t="s">
         <v>469</v>
       </c>
       <c r="H130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J130" t="s">
         <v>3</v>
@@ -6934,16 +6816,16 @@
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" t="s">
-        <v>287</v>
+        <v>219</v>
       </c>
       <c r="D131" t="s">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="G131" t="s">
         <v>463</v>
       </c>
       <c r="H131" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J131" t="s">
         <v>3</v>
@@ -6952,30 +6834,55 @@
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
+      <c r="C132" t="s">
+        <v>221</v>
+      </c>
+      <c r="D132" t="s">
+        <v>222</v>
+      </c>
+      <c r="G132" t="s">
+        <v>470</v>
+      </c>
+      <c r="H132" t="s">
+        <v>7</v>
+      </c>
+      <c r="J132" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
-      <c r="B133" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B133" s="14"/>
       <c r="C133" t="s">
-        <v>43</v>
+        <v>277</v>
+      </c>
+      <c r="D133" t="s">
+        <v>279</v>
+      </c>
+      <c r="G133" t="s">
+        <v>463</v>
+      </c>
+      <c r="H133" t="s">
+        <v>7</v>
+      </c>
+      <c r="J133" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" t="s">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="D134" t="s">
-        <v>496</v>
+        <v>235</v>
       </c>
       <c r="G134" t="s">
         <v>463</v>
       </c>
       <c r="H134" t="s">
-        <v>7</v>
+        <v>403</v>
       </c>
       <c r="J134" t="s">
         <v>3</v>
@@ -6985,19 +6892,16 @@
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" t="s">
-        <v>366</v>
+        <v>236</v>
       </c>
       <c r="D135" t="s">
-        <v>369</v>
-      </c>
-      <c r="E135" t="s">
-        <v>367</v>
+        <v>238</v>
       </c>
       <c r="G135" t="s">
         <v>463</v>
       </c>
       <c r="H135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J135" t="s">
         <v>3</v>
@@ -7007,16 +6911,16 @@
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" t="s">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="D136" t="s">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="G136" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H136" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J136" t="s">
         <v>3</v>
@@ -7026,16 +6930,16 @@
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="D137" t="s">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="G137" t="s">
         <v>470</v>
       </c>
       <c r="H137" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J137" t="s">
         <v>3</v>
@@ -7045,13 +6949,13 @@
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" t="s">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="D138" t="s">
-        <v>175</v>
+        <v>266</v>
       </c>
       <c r="G138" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H138" t="s">
         <v>6</v>
@@ -7064,13 +6968,16 @@
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="D139" t="s">
-        <v>227</v>
+        <v>284</v>
+      </c>
+      <c r="E139" t="s">
+        <v>283</v>
       </c>
       <c r="G139" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H139" t="s">
         <v>7</v>
@@ -7083,16 +6990,16 @@
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="D140" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="G140" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H140" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J140" t="s">
         <v>3</v>
@@ -7101,49 +7008,52 @@
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
-      <c r="C141" t="s">
-        <v>272</v>
-      </c>
-      <c r="D141" t="s">
-        <v>274</v>
-      </c>
-      <c r="G141" t="s">
-        <v>463</v>
-      </c>
-      <c r="H141" t="s">
-        <v>5</v>
-      </c>
-      <c r="J141" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
-      <c r="B142" s="14"/>
+      <c r="B142" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C142" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
-      <c r="B143" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="B143" s="14"/>
       <c r="C143" t="s">
-        <v>140</v>
+        <v>153</v>
+      </c>
+      <c r="D143" t="s">
+        <v>496</v>
+      </c>
+      <c r="G143" t="s">
+        <v>463</v>
+      </c>
+      <c r="H143" t="s">
+        <v>7</v>
+      </c>
+      <c r="J143" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" t="s">
-        <v>128</v>
+        <v>366</v>
       </c>
       <c r="D144" t="s">
-        <v>133</v>
+        <v>369</v>
+      </c>
+      <c r="E144" t="s">
+        <v>367</v>
       </c>
       <c r="G144" t="s">
         <v>463</v>
       </c>
       <c r="H144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J144" t="s">
         <v>3</v>
@@ -7153,13 +7063,13 @@
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="D145" t="s">
-        <v>444</v>
+        <v>159</v>
       </c>
       <c r="G145" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H145" t="s">
         <v>6</v>
@@ -7172,16 +7082,16 @@
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="D146" t="s">
-        <v>443</v>
+        <v>160</v>
       </c>
       <c r="G146" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="H146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J146" t="s">
         <v>3</v>
@@ -7191,16 +7101,16 @@
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="D147" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="G147" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J147" t="s">
         <v>3</v>
@@ -7210,16 +7120,16 @@
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" t="s">
-        <v>358</v>
+        <v>226</v>
       </c>
       <c r="D148" t="s">
-        <v>360</v>
+        <v>227</v>
       </c>
       <c r="G148" t="s">
         <v>463</v>
       </c>
       <c r="H148" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J148" t="s">
         <v>3</v>
@@ -7228,57 +7138,68 @@
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
-    </row>
-    <row r="150" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>39</v>
+      <c r="C149" t="s">
+        <v>268</v>
+      </c>
+      <c r="D149" t="s">
+        <v>270</v>
+      </c>
+      <c r="G149" t="s">
+        <v>469</v>
+      </c>
+      <c r="H149" t="s">
+        <v>5</v>
+      </c>
+      <c r="J149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="14"/>
+      <c r="B150" s="14"/>
+      <c r="C150" t="s">
+        <v>272</v>
+      </c>
+      <c r="D150" t="s">
+        <v>274</v>
+      </c>
+      <c r="G150" t="s">
+        <v>463</v>
+      </c>
+      <c r="H150" t="s">
+        <v>5</v>
+      </c>
+      <c r="J150" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
-      <c r="B151" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C151" t="s">
-        <v>47</v>
-      </c>
+      <c r="B151" s="14"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
-      <c r="B152" s="14"/>
+      <c r="B152" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C152" t="s">
-        <v>56</v>
-      </c>
-      <c r="D152" t="s">
-        <v>68</v>
-      </c>
-      <c r="G152" t="s">
-        <v>470</v>
-      </c>
-      <c r="H152" t="s">
-        <v>5</v>
-      </c>
-      <c r="J152" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
       <c r="C153" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="D153" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="G153" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J153" t="s">
         <v>3</v>
@@ -7288,16 +7209,16 @@
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="D154" t="s">
-        <v>93</v>
+        <v>444</v>
       </c>
       <c r="G154" t="s">
         <v>463</v>
       </c>
       <c r="H154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J154" t="s">
         <v>3</v>
@@ -7307,16 +7228,16 @@
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="D155" t="s">
-        <v>69</v>
+        <v>443</v>
       </c>
       <c r="G155" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J155" t="s">
         <v>3</v>
@@ -7326,16 +7247,16 @@
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" t="s">
-        <v>97</v>
+        <v>229</v>
       </c>
       <c r="D156" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="G156" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J156" t="s">
         <v>3</v>
@@ -7345,16 +7266,16 @@
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" t="s">
-        <v>101</v>
+        <v>358</v>
       </c>
       <c r="D157" t="s">
-        <v>103</v>
+        <v>360</v>
       </c>
       <c r="G157" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J157" t="s">
         <v>3</v>
@@ -7363,74 +7284,38 @@
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
-      <c r="C158" t="s">
-        <v>105</v>
-      </c>
-      <c r="D158" t="s">
-        <v>107</v>
-      </c>
-      <c r="G158" t="s">
-        <v>470</v>
-      </c>
-      <c r="H158" t="s">
-        <v>6</v>
-      </c>
-      <c r="J158" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="14"/>
-      <c r="B159" s="14"/>
-      <c r="C159" t="s">
-        <v>110</v>
-      </c>
-      <c r="D159" t="s">
-        <v>112</v>
-      </c>
-      <c r="G159" t="s">
-        <v>470</v>
-      </c>
-      <c r="H159" t="s">
-        <v>6</v>
-      </c>
-      <c r="J159" t="s">
-        <v>3</v>
+    </row>
+    <row r="159" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
-      <c r="B160" s="14"/>
+      <c r="B160" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="C160" t="s">
-        <v>116</v>
-      </c>
-      <c r="D160" t="s">
-        <v>117</v>
-      </c>
-      <c r="G160" t="s">
-        <v>469</v>
-      </c>
-      <c r="H160" t="s">
-        <v>6</v>
-      </c>
-      <c r="J160" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="D161" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="G161" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J161" t="s">
         <v>3</v>
@@ -7440,16 +7325,16 @@
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="D162" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="G162" t="s">
         <v>470</v>
       </c>
       <c r="H162" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J162" t="s">
         <v>3</v>
@@ -7459,13 +7344,13 @@
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="D163" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="G163" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H163" t="s">
         <v>7</v>
@@ -7478,16 +7363,16 @@
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" t="s">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="D164" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="G164" t="s">
         <v>469</v>
       </c>
       <c r="H164" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J164" t="s">
         <v>3</v>
@@ -7497,16 +7382,16 @@
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="D165" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="G165" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H165" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J165" t="s">
         <v>3</v>
@@ -7516,16 +7401,16 @@
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" t="s">
-        <v>598</v>
+        <v>101</v>
       </c>
       <c r="D166" t="s">
-        <v>561</v>
+        <v>103</v>
       </c>
       <c r="G166" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J166" t="s">
         <v>3</v>
@@ -7534,30 +7419,55 @@
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
+      <c r="C167" t="s">
+        <v>105</v>
+      </c>
+      <c r="D167" t="s">
+        <v>107</v>
+      </c>
+      <c r="G167" t="s">
+        <v>470</v>
+      </c>
+      <c r="H167" t="s">
+        <v>6</v>
+      </c>
+      <c r="J167" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="14"/>
-      <c r="B168" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B168" s="14"/>
       <c r="C168" t="s">
-        <v>48</v>
+        <v>110</v>
+      </c>
+      <c r="D168" t="s">
+        <v>112</v>
+      </c>
+      <c r="G168" t="s">
+        <v>470</v>
+      </c>
+      <c r="H168" t="s">
+        <v>6</v>
+      </c>
+      <c r="J168" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="D169" t="s">
-        <v>487</v>
+        <v>117</v>
       </c>
       <c r="G169" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H169" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J169" t="s">
         <v>3</v>
@@ -7567,89 +7477,89 @@
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
       <c r="C170" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="D170" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="G170" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H170" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J170" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
       <c r="C171" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="D171" t="s">
-        <v>489</v>
+        <v>126</v>
       </c>
       <c r="G171" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="H171" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J171" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
       <c r="C172" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="D172" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="G172" t="s">
         <v>469</v>
       </c>
       <c r="H172" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J172" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="D173" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="G173" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H173" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J173" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D174" t="s">
-        <v>490</v>
+        <v>168</v>
       </c>
       <c r="G174" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H174" t="s">
         <v>5</v>
@@ -7658,96 +7568,71 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" t="s">
-        <v>94</v>
+        <v>598</v>
       </c>
       <c r="D175" t="s">
-        <v>146</v>
+        <v>561</v>
       </c>
       <c r="G175" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J175" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
-      <c r="C176" t="s">
-        <v>147</v>
-      </c>
-      <c r="D176" t="s">
-        <v>150</v>
-      </c>
-      <c r="G176" t="s">
-        <v>463</v>
-      </c>
-      <c r="H176" t="s">
-        <v>5</v>
-      </c>
-      <c r="J176" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="14"/>
-      <c r="B177" s="14"/>
+      <c r="B177" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C177" t="s">
-        <v>169</v>
-      </c>
-      <c r="D177" t="s">
-        <v>172</v>
-      </c>
-      <c r="G177" t="s">
-        <v>463</v>
-      </c>
-      <c r="H177" t="s">
-        <v>5</v>
-      </c>
-      <c r="J177" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="D178" t="s">
-        <v>190</v>
+        <v>487</v>
       </c>
       <c r="G178" t="s">
         <v>463</v>
       </c>
       <c r="H178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J178" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="D179" t="s">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="G179" t="s">
         <v>463</v>
       </c>
       <c r="H179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J179" t="s">
         <v>3</v>
@@ -7757,16 +7642,16 @@
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="D180" t="s">
-        <v>197</v>
+        <v>489</v>
       </c>
       <c r="G180" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J180" t="s">
         <v>3</v>
@@ -7776,16 +7661,16 @@
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" t="s">
-        <v>199</v>
+        <v>73</v>
       </c>
       <c r="D181" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="G181" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H181" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J181" t="s">
         <v>3</v>
@@ -7795,16 +7680,16 @@
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" t="s">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="D182" t="s">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="G182" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J182" t="s">
         <v>3</v>
@@ -7814,16 +7699,16 @@
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="D183" t="s">
-        <v>212</v>
+        <v>490</v>
       </c>
       <c r="G183" t="s">
         <v>463</v>
       </c>
       <c r="H183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J183" t="s">
         <v>3</v>
@@ -7833,13 +7718,13 @@
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" t="s">
-        <v>213</v>
+        <v>94</v>
       </c>
       <c r="D184" t="s">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="G184" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H184" t="s">
         <v>6</v>
@@ -7852,16 +7737,16 @@
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" t="s">
-        <v>280</v>
+        <v>147</v>
       </c>
       <c r="D185" t="s">
-        <v>281</v>
+        <v>150</v>
       </c>
       <c r="G185" t="s">
         <v>463</v>
       </c>
       <c r="H185" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J185" t="s">
         <v>3</v>
@@ -7871,10 +7756,10 @@
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="D186" t="s">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="G186" t="s">
         <v>463</v>
@@ -7890,16 +7775,16 @@
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="D187" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="G187" t="s">
         <v>463</v>
       </c>
       <c r="H187" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J187" t="s">
         <v>3</v>
@@ -7909,16 +7794,16 @@
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="D188" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="G188" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J188" t="s">
         <v>3</v>
@@ -7928,13 +7813,13 @@
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="D189" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="G189" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="H189" t="s">
         <v>6</v>
@@ -7947,16 +7832,13 @@
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" t="s">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="D190" t="s">
-        <v>286</v>
-      </c>
-      <c r="E190" t="s">
-        <v>283</v>
+        <v>201</v>
       </c>
       <c r="G190" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H190" t="s">
         <v>7</v>
@@ -7969,16 +7851,16 @@
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" t="s">
-        <v>287</v>
+        <v>200</v>
       </c>
       <c r="D191" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
       <c r="G191" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="H191" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J191" t="s">
         <v>3</v>
@@ -7987,24 +7869,49 @@
     <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
+      <c r="C192" t="s">
+        <v>209</v>
+      </c>
+      <c r="D192" t="s">
+        <v>212</v>
+      </c>
+      <c r="G192" t="s">
+        <v>463</v>
+      </c>
+      <c r="H192" t="s">
+        <v>6</v>
+      </c>
+      <c r="J192" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="14"/>
-      <c r="B193" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B193" s="14"/>
       <c r="C193" t="s">
-        <v>49</v>
+        <v>213</v>
+      </c>
+      <c r="D193" t="s">
+        <v>216</v>
+      </c>
+      <c r="G193" t="s">
+        <v>469</v>
+      </c>
+      <c r="H193" t="s">
+        <v>6</v>
+      </c>
+      <c r="J193" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" t="s">
-        <v>497</v>
+        <v>280</v>
       </c>
       <c r="D194" t="s">
-        <v>498</v>
+        <v>281</v>
       </c>
       <c r="G194" t="s">
         <v>463</v>
@@ -8020,19 +7927,16 @@
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" t="s">
-        <v>366</v>
+        <v>236</v>
       </c>
       <c r="D195" t="s">
-        <v>368</v>
-      </c>
-      <c r="E195" t="s">
-        <v>367</v>
+        <v>239</v>
       </c>
       <c r="G195" t="s">
         <v>463</v>
       </c>
       <c r="H195" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J195" t="s">
         <v>3</v>
@@ -8042,16 +7946,16 @@
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="D196" t="s">
-        <v>176</v>
+        <v>241</v>
       </c>
       <c r="G196" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J196" t="s">
         <v>3</v>
@@ -8061,13 +7965,13 @@
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="D197" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="G197" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="H197" t="s">
         <v>7</v>
@@ -8080,16 +7984,16 @@
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D198" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G198" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H198" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J198" t="s">
         <v>3</v>
@@ -8099,16 +8003,19 @@
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D199" t="s">
-        <v>275</v>
+        <v>286</v>
+      </c>
+      <c r="E199" t="s">
+        <v>283</v>
       </c>
       <c r="G199" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H199" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J199" t="s">
         <v>3</v>
@@ -8116,56 +8023,44 @@
     </row>
     <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="14"/>
-      <c r="B200" s="7" t="s">
-        <v>57</v>
+      <c r="B200" s="14"/>
+      <c r="C200" t="s">
+        <v>287</v>
+      </c>
+      <c r="D200" t="s">
+        <v>290</v>
+      </c>
+      <c r="G200" t="s">
+        <v>463</v>
+      </c>
+      <c r="H200" t="s">
+        <v>6</v>
+      </c>
+      <c r="J200" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
-      <c r="C201" t="s">
-        <v>128</v>
-      </c>
-      <c r="D201" t="s">
-        <v>134</v>
-      </c>
-      <c r="G201" t="s">
-        <v>463</v>
-      </c>
-      <c r="H201" t="s">
-        <v>6</v>
-      </c>
-      <c r="J201" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="14"/>
-      <c r="B202" s="14"/>
+      <c r="B202" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C202" t="s">
-        <v>129</v>
-      </c>
-      <c r="D202" t="s">
-        <v>135</v>
-      </c>
-      <c r="G202" t="s">
-        <v>463</v>
-      </c>
-      <c r="H202" t="s">
-        <v>6</v>
-      </c>
-      <c r="J202" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="14"/>
       <c r="B203" s="14"/>
       <c r="C203" t="s">
-        <v>130</v>
+        <v>497</v>
       </c>
       <c r="D203" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="G203" t="s">
         <v>463</v>
@@ -8181,10 +8076,13 @@
       <c r="A204" s="14"/>
       <c r="B204" s="14"/>
       <c r="C204" t="s">
-        <v>229</v>
+        <v>366</v>
       </c>
       <c r="D204" t="s">
-        <v>232</v>
+        <v>368</v>
+      </c>
+      <c r="E204" t="s">
+        <v>367</v>
       </c>
       <c r="G204" t="s">
         <v>463</v>
@@ -8200,16 +8098,16 @@
       <c r="A205" s="14"/>
       <c r="B205" s="14"/>
       <c r="C205" t="s">
-        <v>358</v>
+        <v>173</v>
       </c>
       <c r="D205" t="s">
-        <v>361</v>
+        <v>176</v>
       </c>
       <c r="G205" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J205" t="s">
         <v>3</v>
@@ -8218,70 +8116,93 @@
     <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="14"/>
       <c r="B206" s="14"/>
-    </row>
-    <row r="207" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B207" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C206" t="s">
+        <v>224</v>
+      </c>
+      <c r="D206" t="s">
+        <v>228</v>
+      </c>
+      <c r="G206" t="s">
+        <v>463</v>
+      </c>
+      <c r="H206" t="s">
+        <v>7</v>
+      </c>
+      <c r="J206" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="14"/>
+      <c r="B207" s="14"/>
+      <c r="C207" t="s">
+        <v>268</v>
+      </c>
+      <c r="D207" t="s">
+        <v>271</v>
+      </c>
+      <c r="G207" t="s">
+        <v>469</v>
+      </c>
+      <c r="H207" t="s">
+        <v>5</v>
+      </c>
+      <c r="J207" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="14"/>
-      <c r="B208" s="7" t="s">
+      <c r="B208" s="14"/>
+      <c r="C208" t="s">
+        <v>272</v>
+      </c>
+      <c r="D208" t="s">
+        <v>275</v>
+      </c>
+      <c r="G208" t="s">
+        <v>463</v>
+      </c>
+      <c r="H208" t="s">
+        <v>5</v>
+      </c>
+      <c r="J208" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="14"/>
+      <c r="B209" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C208" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A209" s="14"/>
-      <c r="B209" s="14"/>
-      <c r="C209" t="s">
-        <v>129</v>
-      </c>
-      <c r="D209" t="s">
-        <v>136</v>
-      </c>
-      <c r="G209" t="s">
-        <v>463</v>
-      </c>
-      <c r="H209" t="s">
-        <v>6</v>
-      </c>
-      <c r="J209" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="14"/>
       <c r="B210" s="14"/>
       <c r="C210" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D210" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G210" t="s">
         <v>463</v>
       </c>
       <c r="H210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J210" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="14"/>
       <c r="B211" s="14"/>
       <c r="C211" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D211" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G211" t="s">
         <v>463</v>
@@ -8293,14 +8214,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="14"/>
       <c r="B212" s="14"/>
       <c r="C212" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="D212" t="s">
-        <v>233</v>
+        <v>492</v>
       </c>
       <c r="G212" t="s">
         <v>463</v>
@@ -8308,199 +8229,190 @@
       <c r="H212" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J212" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="14"/>
       <c r="B213" s="14"/>
       <c r="C213" t="s">
-        <v>358</v>
+        <v>229</v>
       </c>
       <c r="D213" t="s">
-        <v>362</v>
+        <v>232</v>
       </c>
       <c r="G213" t="s">
         <v>463</v>
       </c>
       <c r="H213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J213" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="14"/>
       <c r="B214" s="14"/>
-    </row>
-    <row r="215" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B215" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A216" s="14"/>
-      <c r="B216" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C216" t="s">
-        <v>139</v>
+      <c r="C214" t="s">
+        <v>358</v>
+      </c>
+      <c r="D214" t="s">
+        <v>361</v>
+      </c>
+      <c r="G214" t="s">
+        <v>463</v>
+      </c>
+      <c r="H214" t="s">
+        <v>5</v>
+      </c>
+      <c r="J214" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="14"/>
+      <c r="B215" s="14"/>
+    </row>
+    <row r="216" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="14"/>
-      <c r="B217" s="14"/>
+      <c r="B217" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C217" t="s">
-        <v>309</v>
-      </c>
-      <c r="D217" t="s">
-        <v>317</v>
-      </c>
-      <c r="G217" t="s">
-        <v>463</v>
-      </c>
-      <c r="H217" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="14"/>
       <c r="B218" s="14"/>
       <c r="C218" t="s">
-        <v>310</v>
+        <v>129</v>
       </c>
       <c r="D218" t="s">
-        <v>318</v>
+        <v>136</v>
       </c>
       <c r="G218" t="s">
         <v>463</v>
       </c>
       <c r="H218" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J218" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="14"/>
       <c r="B219" s="14"/>
       <c r="C219" t="s">
-        <v>311</v>
+        <v>130</v>
       </c>
       <c r="D219" t="s">
-        <v>322</v>
+        <v>137</v>
       </c>
       <c r="G219" t="s">
         <v>463</v>
       </c>
       <c r="H219" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="J219" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="14"/>
       <c r="B220" s="14"/>
       <c r="C220" t="s">
-        <v>312</v>
+        <v>128</v>
       </c>
       <c r="D220" t="s">
-        <v>319</v>
+        <v>138</v>
       </c>
       <c r="G220" t="s">
         <v>463</v>
       </c>
       <c r="H220" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J220" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="14"/>
       <c r="B221" s="14"/>
       <c r="C221" t="s">
-        <v>313</v>
+        <v>229</v>
       </c>
       <c r="D221" t="s">
-        <v>320</v>
+        <v>233</v>
       </c>
       <c r="G221" t="s">
         <v>463</v>
       </c>
       <c r="H221" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="14"/>
       <c r="B222" s="14"/>
       <c r="C222" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="D222" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="G222" t="s">
         <v>463</v>
       </c>
       <c r="H222" t="s">
         <v>5</v>
+      </c>
+      <c r="J222" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="14"/>
       <c r="B223" s="14"/>
-      <c r="C223" t="s">
-        <v>315</v>
-      </c>
-      <c r="D223" t="s">
-        <v>323</v>
-      </c>
-      <c r="G223" t="s">
-        <v>463</v>
-      </c>
-      <c r="H223" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A224" s="14"/>
-      <c r="B224" s="14"/>
-      <c r="C224" t="s">
-        <v>316</v>
-      </c>
-      <c r="D224" t="s">
-        <v>324</v>
-      </c>
-      <c r="G224" t="s">
-        <v>463</v>
-      </c>
-      <c r="H224" t="s">
-        <v>5</v>
+    </row>
+    <row r="224" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="14"/>
-      <c r="B225" s="14"/>
+      <c r="B225" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C225" t="s">
-        <v>351</v>
-      </c>
-      <c r="D225" t="s">
-        <v>352</v>
-      </c>
-      <c r="G225" t="s">
-        <v>463</v>
-      </c>
-      <c r="H225" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="14"/>
       <c r="B226" s="14"/>
       <c r="C226" t="s">
-        <v>638</v>
+        <v>309</v>
       </c>
       <c r="D226" t="s">
-        <v>639</v>
+        <v>317</v>
       </c>
       <c r="G226" t="s">
         <v>463</v>
@@ -8513,10 +8425,10 @@
       <c r="A227" s="14"/>
       <c r="B227" s="14"/>
       <c r="C227" t="s">
-        <v>640</v>
+        <v>310</v>
       </c>
       <c r="D227" t="s">
-        <v>641</v>
+        <v>318</v>
       </c>
       <c r="G227" t="s">
         <v>463</v>
@@ -8529,184 +8441,157 @@
       <c r="A228" s="14"/>
       <c r="B228" s="14"/>
       <c r="C228" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="D228" t="s">
-        <v>328</v>
-      </c>
-      <c r="E228" t="s">
-        <v>499</v>
+        <v>322</v>
       </c>
       <c r="G228" t="s">
         <v>463</v>
       </c>
       <c r="H228" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="14"/>
       <c r="B229" s="14"/>
       <c r="C229" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="D229" t="s">
-        <v>329</v>
-      </c>
-      <c r="E229" t="s">
-        <v>500</v>
+        <v>319</v>
       </c>
       <c r="G229" t="s">
         <v>463</v>
       </c>
       <c r="H229" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="14"/>
       <c r="B230" s="14"/>
       <c r="C230" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="D230" t="s">
-        <v>330</v>
-      </c>
-      <c r="E230" t="s">
-        <v>501</v>
+        <v>320</v>
       </c>
       <c r="G230" t="s">
         <v>463</v>
       </c>
       <c r="H230" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="D231" t="s">
-        <v>332</v>
-      </c>
-      <c r="E231" t="s">
-        <v>502</v>
+        <v>321</v>
       </c>
       <c r="G231" t="s">
         <v>463</v>
       </c>
       <c r="H231" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="14"/>
       <c r="B232" s="14"/>
       <c r="C232" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="D232" t="s">
-        <v>336</v>
-      </c>
-      <c r="E232" t="s">
-        <v>499</v>
+        <v>323</v>
       </c>
       <c r="G232" t="s">
         <v>463</v>
       </c>
       <c r="H232" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="14"/>
       <c r="B233" s="14"/>
       <c r="C233" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="D233" t="s">
-        <v>337</v>
-      </c>
-      <c r="E233" t="s">
-        <v>500</v>
+        <v>324</v>
       </c>
       <c r="G233" t="s">
         <v>463</v>
       </c>
       <c r="H233" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="14"/>
       <c r="B234" s="14"/>
       <c r="C234" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D234" t="s">
-        <v>338</v>
-      </c>
-      <c r="E234" t="s">
-        <v>501</v>
+        <v>352</v>
       </c>
       <c r="G234" t="s">
         <v>463</v>
       </c>
       <c r="H234" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="14"/>
       <c r="B235" s="14"/>
       <c r="C235" t="s">
-        <v>339</v>
+        <v>638</v>
       </c>
       <c r="D235" t="s">
-        <v>342</v>
-      </c>
-      <c r="E235" t="s">
-        <v>499</v>
+        <v>639</v>
       </c>
       <c r="G235" t="s">
         <v>463</v>
       </c>
       <c r="H235" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="14"/>
       <c r="B236" s="14"/>
       <c r="C236" t="s">
-        <v>340</v>
+        <v>640</v>
       </c>
       <c r="D236" t="s">
-        <v>343</v>
-      </c>
-      <c r="E236" t="s">
-        <v>500</v>
+        <v>641</v>
       </c>
       <c r="G236" t="s">
         <v>463</v>
       </c>
       <c r="H236" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="14"/>
       <c r="B237" s="14"/>
       <c r="C237" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="D237" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="E237" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G237" t="s">
         <v>463</v>
@@ -8719,13 +8604,13 @@
       <c r="A238" s="14"/>
       <c r="B238" s="14"/>
       <c r="C238" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="D238" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="E238" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G238" t="s">
         <v>463</v>
@@ -8738,13 +8623,13 @@
       <c r="A239" s="14"/>
       <c r="B239" s="14"/>
       <c r="C239" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D239" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E239" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G239" t="s">
         <v>463</v>
@@ -8757,13 +8642,13 @@
       <c r="A240" s="14"/>
       <c r="B240" s="14"/>
       <c r="C240" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D240" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="E240" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G240" t="s">
         <v>463</v>
@@ -8775,192 +8660,268 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="14"/>
       <c r="B241" s="14"/>
-    </row>
-    <row r="242" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B242" s="10" t="s">
-        <v>36</v>
+      <c r="C241" t="s">
+        <v>333</v>
+      </c>
+      <c r="D241" t="s">
+        <v>336</v>
+      </c>
+      <c r="E241" t="s">
+        <v>499</v>
+      </c>
+      <c r="G241" t="s">
+        <v>463</v>
+      </c>
+      <c r="H241" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="14"/>
+      <c r="B242" s="14"/>
+      <c r="C242" t="s">
+        <v>334</v>
+      </c>
+      <c r="D242" t="s">
+        <v>337</v>
+      </c>
+      <c r="E242" t="s">
+        <v>500</v>
+      </c>
+      <c r="G242" t="s">
+        <v>463</v>
+      </c>
+      <c r="H242" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="14"/>
-      <c r="B243" s="7" t="s">
-        <v>404</v>
-      </c>
+      <c r="B243" s="14"/>
       <c r="C243" t="s">
-        <v>404</v>
+        <v>335</v>
+      </c>
+      <c r="D243" t="s">
+        <v>338</v>
       </c>
       <c r="E243" t="s">
-        <v>441</v>
+        <v>501</v>
+      </c>
+      <c r="G243" t="s">
+        <v>463</v>
+      </c>
+      <c r="H243" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="14"/>
       <c r="B244" s="14"/>
       <c r="C244" t="s">
-        <v>405</v>
+        <v>339</v>
+      </c>
+      <c r="D244" t="s">
+        <v>342</v>
+      </c>
+      <c r="E244" t="s">
+        <v>499</v>
       </c>
       <c r="G244" t="s">
         <v>463</v>
       </c>
       <c r="H244" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="14"/>
       <c r="B245" s="14"/>
       <c r="C245" t="s">
-        <v>357</v>
+        <v>340</v>
+      </c>
+      <c r="D245" t="s">
+        <v>343</v>
+      </c>
+      <c r="E245" t="s">
+        <v>500</v>
       </c>
       <c r="G245" t="s">
         <v>463</v>
       </c>
       <c r="H245" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="14"/>
       <c r="B246" s="14"/>
       <c r="C246" t="s">
-        <v>406</v>
+        <v>341</v>
+      </c>
+      <c r="D246" t="s">
+        <v>344</v>
+      </c>
+      <c r="E246" t="s">
+        <v>501</v>
       </c>
       <c r="G246" t="s">
         <v>463</v>
       </c>
       <c r="H246" t="s">
-        <v>403</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="14"/>
       <c r="B247" s="14"/>
       <c r="C247" t="s">
-        <v>407</v>
+        <v>345</v>
+      </c>
+      <c r="D247" t="s">
+        <v>350</v>
+      </c>
+      <c r="E247" t="s">
+        <v>499</v>
       </c>
       <c r="G247" t="s">
         <v>463</v>
       </c>
       <c r="H247" t="s">
-        <v>403</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="14"/>
       <c r="B248" s="14"/>
       <c r="C248" t="s">
-        <v>504</v>
+        <v>346</v>
+      </c>
+      <c r="D248" t="s">
+        <v>349</v>
+      </c>
+      <c r="E248" t="s">
+        <v>500</v>
       </c>
       <c r="G248" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H248" t="s">
-        <v>403</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="14"/>
       <c r="B249" s="14"/>
       <c r="C249" t="s">
-        <v>408</v>
+        <v>347</v>
+      </c>
+      <c r="D249" t="s">
+        <v>348</v>
+      </c>
+      <c r="E249" t="s">
+        <v>501</v>
       </c>
       <c r="G249" t="s">
         <v>463</v>
       </c>
       <c r="H249" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="14"/>
       <c r="B250" s="14"/>
-      <c r="C250" t="s">
-        <v>409</v>
-      </c>
-      <c r="G250" t="s">
-        <v>469</v>
-      </c>
-      <c r="H250" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="14"/>
-      <c r="B251" s="14"/>
-      <c r="C251" t="s">
-        <v>410</v>
-      </c>
-      <c r="G251" t="s">
-        <v>463</v>
-      </c>
-      <c r="H251" t="s">
-        <v>503</v>
+    </row>
+    <row r="251" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="14"/>
-      <c r="B252" s="14"/>
+      <c r="B252" s="7" t="s">
+        <v>404</v>
+      </c>
       <c r="C252" t="s">
-        <v>356</v>
-      </c>
-      <c r="G252" t="s">
-        <v>463</v>
-      </c>
-      <c r="H252" t="s">
-        <v>2</v>
+        <v>404</v>
+      </c>
+      <c r="E252" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="14"/>
       <c r="B253" s="14"/>
+      <c r="C253" t="s">
+        <v>405</v>
+      </c>
+      <c r="G253" t="s">
+        <v>463</v>
+      </c>
+      <c r="H253" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="14"/>
-      <c r="B254" s="16" t="s">
-        <v>411</v>
-      </c>
+      <c r="B254" s="14"/>
       <c r="C254" t="s">
-        <v>645</v>
-      </c>
-      <c r="E254" t="s">
-        <v>442</v>
+        <v>357</v>
       </c>
       <c r="G254" t="s">
         <v>463</v>
       </c>
       <c r="H254" t="s">
-        <v>403</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="14"/>
       <c r="B255" s="14"/>
       <c r="C255" t="s">
-        <v>646</v>
+        <v>406</v>
+      </c>
+      <c r="G255" t="s">
+        <v>463</v>
+      </c>
+      <c r="H255" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="14"/>
       <c r="B256" s="14"/>
       <c r="C256" t="s">
-        <v>647</v>
+        <v>407</v>
+      </c>
+      <c r="G256" t="s">
+        <v>463</v>
+      </c>
+      <c r="H256" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="14"/>
       <c r="B257" s="14"/>
       <c r="C257" t="s">
-        <v>648</v>
+        <v>504</v>
+      </c>
+      <c r="G257" t="s">
+        <v>469</v>
+      </c>
+      <c r="H257" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
       <c r="C258" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G258" t="s">
         <v>463</v>
@@ -8973,33 +8934,33 @@
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G259" t="s">
         <v>469</v>
       </c>
       <c r="H259" t="s">
-        <v>2</v>
+        <v>503</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G260" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H260" t="s">
-        <v>2</v>
+        <v>503</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" t="s">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="G261" t="s">
         <v>463</v>
@@ -9011,21 +8972,17 @@
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
-      <c r="C262" t="s">
-        <v>416</v>
-      </c>
-      <c r="G262" t="s">
-        <v>463</v>
-      </c>
-      <c r="H262" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="14"/>
-      <c r="B263" s="14"/>
+      <c r="B263" s="16" t="s">
+        <v>411</v>
+      </c>
       <c r="C263" t="s">
-        <v>417</v>
+        <v>645</v>
+      </c>
+      <c r="E263" t="s">
+        <v>442</v>
       </c>
       <c r="G263" t="s">
         <v>463</v>
@@ -9038,46 +8995,28 @@
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" t="s">
-        <v>418</v>
-      </c>
-      <c r="G264" t="s">
-        <v>463</v>
-      </c>
-      <c r="H264" t="s">
-        <v>2</v>
+        <v>646</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" t="s">
-        <v>419</v>
-      </c>
-      <c r="G265" t="s">
-        <v>463</v>
-      </c>
-      <c r="H265" t="s">
-        <v>2</v>
+        <v>647</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" t="s">
-        <v>420</v>
-      </c>
-      <c r="G266" t="s">
-        <v>469</v>
-      </c>
-      <c r="H266" t="s">
-        <v>2</v>
+        <v>648</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="G267" t="s">
         <v>463</v>
@@ -9090,10 +9029,10 @@
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G268" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H268" t="s">
         <v>2</v>
@@ -9103,7 +9042,7 @@
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="G269" t="s">
         <v>469</v>
@@ -9116,7 +9055,7 @@
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="G270" t="s">
         <v>463</v>
@@ -9129,20 +9068,20 @@
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G271" t="s">
         <v>463</v>
       </c>
       <c r="H271" t="s">
-        <v>403</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="G272" t="s">
         <v>463</v>
@@ -9155,37 +9094,59 @@
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="G273" t="s">
         <v>463</v>
       </c>
       <c r="H273" t="s">
-        <v>403</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
       <c r="C274" t="s">
-        <v>644</v>
+        <v>419</v>
+      </c>
+      <c r="G274" t="s">
+        <v>463</v>
+      </c>
+      <c r="H274" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="14"/>
       <c r="B275" s="14"/>
+      <c r="C275" t="s">
+        <v>420</v>
+      </c>
+      <c r="G275" t="s">
+        <v>469</v>
+      </c>
+      <c r="H275" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
+      <c r="C276" t="s">
+        <v>421</v>
+      </c>
+      <c r="G276" t="s">
+        <v>463</v>
+      </c>
+      <c r="H276" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="14"/>
-      <c r="B277" s="7" t="s">
-        <v>478</v>
-      </c>
+      <c r="B277" s="14"/>
       <c r="C277" t="s">
-        <v>471</v>
+        <v>422</v>
       </c>
       <c r="G277" t="s">
         <v>463</v>
@@ -9198,10 +9159,10 @@
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
       <c r="C278" t="s">
-        <v>472</v>
+        <v>423</v>
       </c>
       <c r="G278" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H278" t="s">
         <v>2</v>
@@ -9211,7 +9172,7 @@
       <c r="A279" s="14"/>
       <c r="B279" s="14"/>
       <c r="C279" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="G279" t="s">
         <v>463</v>
@@ -9224,261 +9185,270 @@
       <c r="A280" s="14"/>
       <c r="B280" s="14"/>
       <c r="C280" t="s">
-        <v>474</v>
+        <v>428</v>
       </c>
       <c r="G280" t="s">
         <v>463</v>
       </c>
       <c r="H280" t="s">
-        <v>2</v>
+        <v>403</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="14"/>
       <c r="B281" s="14"/>
       <c r="C281" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="G281" t="s">
         <v>463</v>
       </c>
       <c r="H281" t="s">
-        <v>2</v>
+        <v>403</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="G282" t="s">
         <v>463</v>
       </c>
       <c r="H282" t="s">
-        <v>2</v>
+        <v>403</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" t="s">
-        <v>477</v>
-      </c>
-      <c r="G283" t="s">
-        <v>470</v>
-      </c>
-      <c r="H283" t="s">
-        <v>403</v>
+        <v>644</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="14"/>
       <c r="B284" s="14"/>
-      <c r="C284" t="s">
-        <v>479</v>
-      </c>
-      <c r="G284" t="s">
-        <v>463</v>
-      </c>
-      <c r="H284" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="14"/>
       <c r="B285" s="14"/>
-      <c r="C285" t="s">
-        <v>480</v>
-      </c>
-      <c r="G285" t="s">
-        <v>463</v>
-      </c>
-      <c r="H285" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="14"/>
-      <c r="B286" s="14"/>
+      <c r="B286" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C286" t="s">
+        <v>471</v>
+      </c>
+      <c r="G286" t="s">
+        <v>463</v>
+      </c>
+      <c r="H286" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="14"/>
-      <c r="B287" s="16" t="s">
-        <v>424</v>
-      </c>
+      <c r="B287" s="14"/>
       <c r="C287" t="s">
-        <v>425</v>
-      </c>
-      <c r="E287" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="G287" t="s">
         <v>463</v>
       </c>
       <c r="H287" t="s">
-        <v>403</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="14"/>
       <c r="B288" s="14"/>
       <c r="C288" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="G288" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H288" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="14"/>
       <c r="B289" s="14"/>
       <c r="C289" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="G289" t="s">
         <v>463</v>
       </c>
       <c r="H289" t="s">
-        <v>403</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="14"/>
       <c r="B290" s="14"/>
       <c r="C290" t="s">
-        <v>433</v>
+        <v>475</v>
       </c>
       <c r="G290" t="s">
         <v>463</v>
       </c>
       <c r="H290" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="14"/>
       <c r="B291" s="14"/>
       <c r="C291" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="G291" t="s">
         <v>463</v>
       </c>
       <c r="H291" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="14"/>
       <c r="B292" s="14"/>
       <c r="C292" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="G292" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H292" t="s">
-        <v>635</v>
+        <v>403</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="14"/>
       <c r="B293" s="14"/>
       <c r="C293" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="G293" t="s">
         <v>463</v>
       </c>
       <c r="H293" t="s">
-        <v>403</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="14"/>
       <c r="B294" s="14"/>
       <c r="C294" t="s">
-        <v>649</v>
+        <v>480</v>
+      </c>
+      <c r="G294" t="s">
+        <v>463</v>
+      </c>
+      <c r="H294" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="14"/>
       <c r="B295" s="14"/>
-      <c r="C295" t="s">
-        <v>650</v>
-      </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="14"/>
-      <c r="B296" s="14"/>
+      <c r="B296" s="16" t="s">
+        <v>424</v>
+      </c>
       <c r="C296" t="s">
-        <v>651</v>
+        <v>425</v>
+      </c>
+      <c r="E296" t="s">
+        <v>442</v>
+      </c>
+      <c r="G296" t="s">
+        <v>463</v>
+      </c>
+      <c r="H296" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="14"/>
       <c r="B297" s="14"/>
+      <c r="C297" t="s">
+        <v>426</v>
+      </c>
+      <c r="G297" t="s">
+        <v>469</v>
+      </c>
+      <c r="H297" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="14"/>
       <c r="B298" s="14"/>
+      <c r="C298" t="s">
+        <v>427</v>
+      </c>
+      <c r="G298" t="s">
+        <v>463</v>
+      </c>
+      <c r="H298" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="14"/>
-      <c r="B299" s="16" t="s">
-        <v>434</v>
-      </c>
+      <c r="B299" s="14"/>
       <c r="C299" t="s">
-        <v>435</v>
-      </c>
-      <c r="E299" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G299" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H299" t="s">
-        <v>403</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="14"/>
       <c r="B300" s="14"/>
       <c r="C300" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G300" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H300" t="s">
-        <v>403</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="14"/>
       <c r="B301" s="14"/>
       <c r="C301" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="G301" t="s">
         <v>469</v>
       </c>
       <c r="H301" t="s">
-        <v>403</v>
+        <v>635</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="14"/>
       <c r="B302" s="14"/>
       <c r="C302" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G302" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H302" t="s">
         <v>403</v>
@@ -9487,176 +9457,114 @@
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="14"/>
       <c r="B303" s="14"/>
-    </row>
-    <row r="304" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B304" s="13" t="s">
-        <v>37</v>
+      <c r="C303" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" s="14"/>
+      <c r="B304" s="14"/>
+      <c r="C304" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="14"/>
-      <c r="B305" s="7" t="s">
-        <v>397</v>
-      </c>
+      <c r="B305" s="14"/>
       <c r="C305" t="s">
-        <v>365</v>
-      </c>
-      <c r="G305" t="s">
-        <v>463</v>
-      </c>
-      <c r="H305" t="s">
-        <v>2</v>
-      </c>
-      <c r="J305" t="s">
-        <v>3</v>
+        <v>651</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="14"/>
       <c r="B306" s="14"/>
-      <c r="C306" t="s">
-        <v>400</v>
-      </c>
-      <c r="G306" t="s">
-        <v>463</v>
-      </c>
-      <c r="H306" t="s">
-        <v>2</v>
-      </c>
-      <c r="J306" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="14"/>
-      <c r="B307" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="C307" t="s">
-        <v>382</v>
-      </c>
-      <c r="G307" t="s">
-        <v>463</v>
-      </c>
-      <c r="H307" t="s">
-        <v>2</v>
-      </c>
-      <c r="J307" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B307" s="14"/>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="14"/>
-      <c r="B308" s="14"/>
+      <c r="B308" s="16" t="s">
+        <v>434</v>
+      </c>
       <c r="C308" t="s">
-        <v>383</v>
+        <v>435</v>
+      </c>
+      <c r="E308" t="s">
+        <v>441</v>
       </c>
       <c r="G308" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H308" t="s">
-        <v>2</v>
-      </c>
-      <c r="J308" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="14"/>
       <c r="B309" s="14"/>
       <c r="C309" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="G309" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H309" t="s">
-        <v>2</v>
-      </c>
-      <c r="J309" t="s">
-        <v>3</v>
+        <v>403</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="14"/>
       <c r="B310" s="14"/>
       <c r="C310" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="G310" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H310" t="s">
-        <v>2</v>
-      </c>
-      <c r="J310" t="s">
-        <v>3</v>
+        <v>403</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="14"/>
-      <c r="B311" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="C311" s="4" t="s">
-        <v>390</v>
+      <c r="B311" s="14"/>
+      <c r="C311" t="s">
+        <v>438</v>
       </c>
       <c r="G311" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H311" t="s">
-        <v>2</v>
-      </c>
-      <c r="J311" t="s">
-        <v>3</v>
+        <v>403</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="14"/>
       <c r="B312" s="14"/>
-      <c r="C312" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="G312" t="s">
-        <v>463</v>
-      </c>
-      <c r="H312" t="s">
-        <v>2</v>
-      </c>
-      <c r="J312" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A313" s="14"/>
-      <c r="B313" s="14"/>
-      <c r="C313" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="G313" t="s">
-        <v>463</v>
-      </c>
-      <c r="H313" t="s">
-        <v>1</v>
-      </c>
-      <c r="J313" t="s">
-        <v>3</v>
+    </row>
+    <row r="313" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B313" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="14"/>
-      <c r="B314" s="14"/>
-      <c r="C314" s="4" t="s">
-        <v>632</v>
+      <c r="B314" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C314" t="s">
+        <v>365</v>
       </c>
       <c r="G314" t="s">
         <v>463</v>
       </c>
       <c r="H314" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J314" t="s">
         <v>3</v>
@@ -9665,14 +9573,14 @@
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="14"/>
       <c r="B315" s="14"/>
-      <c r="C315" s="4" t="s">
-        <v>633</v>
+      <c r="C315" t="s">
+        <v>400</v>
       </c>
       <c r="G315" t="s">
         <v>463</v>
       </c>
       <c r="H315" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J315" t="s">
         <v>3</v>
@@ -9680,32 +9588,43 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="14"/>
-      <c r="B316" s="14"/>
-      <c r="C316" s="4" t="s">
-        <v>634</v>
+      <c r="B316" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C316" t="s">
+        <v>382</v>
       </c>
       <c r="G316" t="s">
         <v>463</v>
       </c>
       <c r="H316" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J316" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="14"/>
       <c r="B317" s="14"/>
-      <c r="C317" s="4"/>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C317" t="s">
+        <v>383</v>
+      </c>
+      <c r="G317" t="s">
+        <v>463</v>
+      </c>
+      <c r="H317" t="s">
+        <v>2</v>
+      </c>
+      <c r="J317" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="14"/>
-      <c r="B318" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C318" s="4" t="s">
-        <v>363</v>
+      <c r="B318" s="14"/>
+      <c r="C318" t="s">
+        <v>385</v>
       </c>
       <c r="G318" t="s">
         <v>463</v>
@@ -9720,8 +9639,8 @@
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="14"/>
       <c r="B319" s="14"/>
-      <c r="C319" s="4" t="s">
-        <v>364</v>
+      <c r="C319" t="s">
+        <v>394</v>
       </c>
       <c r="G319" t="s">
         <v>463</v>
@@ -9735,9 +9654,11 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="14"/>
-      <c r="B320" s="14"/>
+      <c r="B320" s="14" t="s">
+        <v>388</v>
+      </c>
       <c r="C320" s="4" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="G320" t="s">
         <v>463</v>
@@ -9753,7 +9674,7 @@
       <c r="A321" s="14"/>
       <c r="B321" s="14"/>
       <c r="C321" s="4" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="G321" t="s">
         <v>463</v>
@@ -9769,13 +9690,13 @@
       <c r="A322" s="14"/>
       <c r="B322" s="14"/>
       <c r="C322" s="4" t="s">
-        <v>372</v>
+        <v>631</v>
       </c>
       <c r="G322" t="s">
         <v>463</v>
       </c>
       <c r="H322" t="s">
-        <v>403</v>
+        <v>1</v>
       </c>
       <c r="J322" t="s">
         <v>3</v>
@@ -9783,17 +9704,15 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="14"/>
-      <c r="B323" s="14" t="s">
-        <v>399</v>
-      </c>
+      <c r="B323" s="14"/>
       <c r="C323" s="4" t="s">
-        <v>371</v>
+        <v>632</v>
       </c>
       <c r="G323" t="s">
         <v>463</v>
       </c>
       <c r="H323" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J323" t="s">
         <v>3</v>
@@ -9803,13 +9722,13 @@
       <c r="A324" s="14"/>
       <c r="B324" s="14"/>
       <c r="C324" s="4" t="s">
-        <v>374</v>
+        <v>633</v>
       </c>
       <c r="G324" t="s">
         <v>463</v>
       </c>
       <c r="H324" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J324" t="s">
         <v>3</v>
@@ -9818,37 +9737,37 @@
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="14"/>
       <c r="B325" s="14"/>
-      <c r="C325" s="4"/>
+      <c r="C325" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="G325" t="s">
+        <v>463</v>
+      </c>
+      <c r="H325" t="s">
+        <v>1</v>
+      </c>
+      <c r="J325" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="14"/>
-      <c r="B326" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="C326" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="G326" t="s">
-        <v>463</v>
-      </c>
-      <c r="H326" t="s">
-        <v>1</v>
-      </c>
-      <c r="J326" t="s">
-        <v>3</v>
-      </c>
+      <c r="B326" s="14"/>
+      <c r="C326" s="4"/>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="14"/>
-      <c r="B327" s="14"/>
+      <c r="B327" s="7" t="s">
+        <v>398</v>
+      </c>
       <c r="C327" s="4" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="G327" t="s">
         <v>463</v>
       </c>
       <c r="H327" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J327" t="s">
         <v>3</v>
@@ -9858,13 +9777,13 @@
       <c r="A328" s="14"/>
       <c r="B328" s="14"/>
       <c r="C328" s="4" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="G328" t="s">
         <v>463</v>
       </c>
       <c r="H328" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J328" t="s">
         <v>3</v>
@@ -9874,13 +9793,13 @@
       <c r="A329" s="14"/>
       <c r="B329" s="14"/>
       <c r="C329" s="4" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="G329" t="s">
         <v>463</v>
       </c>
       <c r="H329" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J329" t="s">
         <v>3</v>
@@ -9888,18 +9807,25 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="14"/>
-      <c r="B330" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C330" s="4"/>
+      <c r="B330" s="14"/>
+      <c r="C330" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G330" t="s">
+        <v>463</v>
+      </c>
+      <c r="H330" t="s">
+        <v>2</v>
+      </c>
+      <c r="J330" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="14"/>
-      <c r="B331" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="B331" s="14"/>
       <c r="C331" s="4" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="G331" t="s">
         <v>463</v>
@@ -9913,9 +9839,11 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="14"/>
-      <c r="B332" s="14"/>
+      <c r="B332" s="14" t="s">
+        <v>399</v>
+      </c>
       <c r="C332" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G332" t="s">
         <v>463</v>
@@ -9931,13 +9859,13 @@
       <c r="A333" s="14"/>
       <c r="B333" s="14"/>
       <c r="C333" s="4" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="G333" t="s">
         <v>463</v>
       </c>
       <c r="H333" t="s">
-        <v>403</v>
+        <v>2</v>
       </c>
       <c r="J333" t="s">
         <v>3</v>
@@ -9946,30 +9874,21 @@
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="14"/>
       <c r="B334" s="14"/>
-      <c r="C334" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="G334" t="s">
-        <v>463</v>
-      </c>
-      <c r="H334" t="s">
-        <v>403</v>
-      </c>
-      <c r="J334" t="s">
-        <v>3</v>
-      </c>
+      <c r="C334" s="4"/>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="14"/>
-      <c r="B335" s="14"/>
+      <c r="B335" s="16" t="s">
+        <v>399</v>
+      </c>
       <c r="C335" s="4" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="G335" t="s">
         <v>463</v>
       </c>
       <c r="H335" t="s">
-        <v>403</v>
+        <v>1</v>
       </c>
       <c r="J335" t="s">
         <v>3</v>
@@ -9979,13 +9898,13 @@
       <c r="A336" s="14"/>
       <c r="B336" s="14"/>
       <c r="C336" s="4" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G336" t="s">
         <v>463</v>
       </c>
       <c r="H336" t="s">
-        <v>403</v>
+        <v>1</v>
       </c>
       <c r="J336" t="s">
         <v>3</v>
@@ -9995,13 +9914,13 @@
       <c r="A337" s="14"/>
       <c r="B337" s="14"/>
       <c r="C337" s="4" t="s">
-        <v>493</v>
+        <v>379</v>
       </c>
       <c r="G337" t="s">
         <v>463</v>
       </c>
       <c r="H337" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J337" t="s">
         <v>3</v>
@@ -10011,13 +9930,13 @@
       <c r="A338" s="14"/>
       <c r="B338" s="14"/>
       <c r="C338" s="4" t="s">
-        <v>519</v>
+        <v>393</v>
       </c>
       <c r="G338" t="s">
         <v>463</v>
       </c>
       <c r="H338" t="s">
-        <v>403</v>
+        <v>1</v>
       </c>
       <c r="J338" t="s">
         <v>3</v>
@@ -10025,22 +9944,24 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="14"/>
-      <c r="B339" s="14"/>
+      <c r="B339" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="C339" s="4"/>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="14"/>
-      <c r="B340" s="18" t="s">
-        <v>388</v>
+      <c r="B340" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G340" t="s">
         <v>463</v>
       </c>
       <c r="H340" t="s">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="J340" t="s">
         <v>3</v>
@@ -10048,15 +9969,15 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="14"/>
-      <c r="B341" s="15"/>
+      <c r="B341" s="14"/>
       <c r="C341" s="4" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G341" t="s">
         <v>463</v>
       </c>
       <c r="H341" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J341" t="s">
         <v>3</v>
@@ -10064,15 +9985,15 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="14"/>
-      <c r="B342" s="15"/>
+      <c r="B342" s="14"/>
       <c r="C342" s="4" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="G342" t="s">
         <v>463</v>
       </c>
       <c r="H342" t="s">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="J342" t="s">
         <v>3</v>
@@ -10080,15 +10001,15 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="14"/>
-      <c r="B343" s="15"/>
+      <c r="B343" s="14"/>
       <c r="C343" s="4" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="G343" t="s">
         <v>463</v>
       </c>
       <c r="H343" t="s">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="J343" t="s">
         <v>3</v>
@@ -10096,15 +10017,15 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="14"/>
-      <c r="B344" s="15"/>
+      <c r="B344" s="14"/>
       <c r="C344" s="4" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="G344" t="s">
         <v>463</v>
       </c>
       <c r="H344" t="s">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="J344" t="s">
         <v>3</v>
@@ -10112,279 +10033,323 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="14"/>
-      <c r="B345" s="15"/>
+      <c r="B345" s="14"/>
       <c r="C345" s="4" t="s">
-        <v>521</v>
+        <v>392</v>
       </c>
       <c r="G345" t="s">
         <v>463</v>
       </c>
       <c r="H345" t="s">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="J345" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B346" s="11" t="s">
-        <v>38</v>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" s="14"/>
+      <c r="B346" s="14"/>
+      <c r="C346" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="G346" t="s">
+        <v>463</v>
+      </c>
+      <c r="H346" t="s">
+        <v>2</v>
+      </c>
+      <c r="J346" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="14"/>
-      <c r="B347" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C347" t="s">
-        <v>50</v>
+      <c r="B347" s="14"/>
+      <c r="C347" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G347" t="s">
+        <v>463</v>
+      </c>
+      <c r="H347" t="s">
+        <v>403</v>
+      </c>
+      <c r="J347" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="14"/>
       <c r="B348" s="14"/>
-      <c r="C348" t="s">
-        <v>303</v>
-      </c>
-      <c r="D348" t="s">
-        <v>304</v>
-      </c>
-      <c r="E348" t="s">
-        <v>597</v>
-      </c>
-      <c r="G348" t="s">
-        <v>469</v>
-      </c>
+      <c r="C348" s="4"/>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="14"/>
-      <c r="B349" s="14"/>
-      <c r="C349" t="s">
-        <v>305</v>
-      </c>
-      <c r="D349" t="s">
-        <v>306</v>
+      <c r="B349" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="G349" t="s">
-        <v>469</v>
+        <v>463</v>
+      </c>
+      <c r="H349" t="s">
+        <v>0</v>
+      </c>
+      <c r="J349" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="14"/>
-      <c r="B350" s="14"/>
-      <c r="C350" t="s">
-        <v>583</v>
-      </c>
-      <c r="D350" t="s">
-        <v>584</v>
+      <c r="B350" s="15"/>
+      <c r="C350" s="4" t="s">
+        <v>387</v>
       </c>
       <c r="G350" t="s">
-        <v>469</v>
+        <v>463</v>
+      </c>
+      <c r="H350" t="s">
+        <v>0</v>
+      </c>
+      <c r="J350" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="14"/>
-      <c r="B351" s="14"/>
-      <c r="C351" t="s">
-        <v>585</v>
-      </c>
-      <c r="D351" t="s">
-        <v>586</v>
+      <c r="B351" s="15"/>
+      <c r="C351" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="G351" t="s">
-        <v>469</v>
+        <v>463</v>
+      </c>
+      <c r="H351" t="s">
+        <v>0</v>
+      </c>
+      <c r="J351" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="14"/>
-      <c r="B352" s="14"/>
-      <c r="C352" t="s">
-        <v>587</v>
-      </c>
-      <c r="D352" t="s">
-        <v>588</v>
+      <c r="B352" s="15"/>
+      <c r="C352" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="G352" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="H352" t="s">
+        <v>0</v>
+      </c>
+      <c r="J352" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="14"/>
-      <c r="B353" s="14"/>
-      <c r="C353" t="s">
-        <v>656</v>
-      </c>
-      <c r="D353" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B353" s="15"/>
+      <c r="C353" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G353" t="s">
+        <v>463</v>
+      </c>
+      <c r="H353" t="s">
+        <v>0</v>
+      </c>
+      <c r="J353" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="14"/>
-      <c r="B354" s="14"/>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A355" s="14"/>
-      <c r="B355" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C355" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B354" s="15"/>
+      <c r="C354" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="G354" t="s">
+        <v>463</v>
+      </c>
+      <c r="H354" t="s">
+        <v>0</v>
+      </c>
+      <c r="J354" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B355" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="14"/>
-      <c r="B356" s="14"/>
+      <c r="B356" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="C356" t="s">
-        <v>589</v>
-      </c>
-      <c r="D356" t="s">
-        <v>593</v>
-      </c>
-      <c r="G356" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="14"/>
       <c r="B357" s="14"/>
       <c r="C357" t="s">
-        <v>590</v>
+        <v>303</v>
       </c>
       <c r="D357" t="s">
-        <v>594</v>
+        <v>304</v>
+      </c>
+      <c r="E357" t="s">
+        <v>597</v>
       </c>
       <c r="G357" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="14"/>
       <c r="B358" s="14"/>
       <c r="C358" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="D358" t="s">
-        <v>595</v>
+        <v>306</v>
       </c>
       <c r="G358" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="14"/>
       <c r="B359" s="14"/>
       <c r="C359" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="D359" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="G359" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="14"/>
       <c r="B360" s="14"/>
       <c r="C360" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="D360" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G360" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="14"/>
       <c r="B361" s="14"/>
       <c r="C361" t="s">
-        <v>654</v>
+        <v>587</v>
       </c>
       <c r="D361" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+      <c r="G361" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="14"/>
       <c r="B362" s="14"/>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C362" t="s">
+        <v>656</v>
+      </c>
+      <c r="D362" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="14"/>
-      <c r="B363" t="s">
-        <v>574</v>
-      </c>
-      <c r="C363" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B363" s="14"/>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="14"/>
-      <c r="B364" s="14"/>
+      <c r="B364" s="7" t="s">
+        <v>398</v>
+      </c>
       <c r="C364" t="s">
-        <v>576</v>
-      </c>
-      <c r="D364" t="s">
-        <v>578</v>
-      </c>
-      <c r="G364" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="14"/>
       <c r="B365" s="14"/>
       <c r="C365" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="D365" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="G365" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="14"/>
       <c r="B366" s="14"/>
       <c r="C366" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="D366" t="s">
-        <v>582</v>
-      </c>
-      <c r="E366" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="G366" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="14"/>
       <c r="B367" s="14"/>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C367" t="s">
+        <v>272</v>
+      </c>
+      <c r="D367" t="s">
+        <v>595</v>
+      </c>
+      <c r="G367" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="14"/>
-      <c r="B368" t="s">
-        <v>42</v>
-      </c>
+      <c r="B368" s="14"/>
       <c r="C368" t="s">
-        <v>51</v>
+        <v>591</v>
+      </c>
+      <c r="D368" t="s">
+        <v>596</v>
+      </c>
+      <c r="G368" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="14"/>
       <c r="B369" s="14"/>
       <c r="C369" t="s">
-        <v>307</v>
+        <v>576</v>
       </c>
       <c r="D369" t="s">
-        <v>308</v>
+        <v>592</v>
       </c>
       <c r="G369" t="s">
         <v>469</v>
@@ -10394,15 +10359,106 @@
       <c r="A370" s="14"/>
       <c r="B370" s="14"/>
       <c r="C370" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D370" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="14"/>
       <c r="B371" s="14"/>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" s="14"/>
+      <c r="B372" t="s">
+        <v>574</v>
+      </c>
+      <c r="C372" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373" s="14"/>
+      <c r="B373" s="14"/>
+      <c r="C373" t="s">
+        <v>576</v>
+      </c>
+      <c r="D373" t="s">
+        <v>578</v>
+      </c>
+      <c r="G373" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A374" s="14"/>
+      <c r="B374" s="14"/>
+      <c r="C374" t="s">
+        <v>577</v>
+      </c>
+      <c r="D374" t="s">
+        <v>579</v>
+      </c>
+      <c r="G374" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375" s="14"/>
+      <c r="B375" s="14"/>
+      <c r="C375" t="s">
+        <v>581</v>
+      </c>
+      <c r="D375" t="s">
+        <v>582</v>
+      </c>
+      <c r="E375" t="s">
+        <v>580</v>
+      </c>
+      <c r="G375" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376" s="14"/>
+      <c r="B376" s="14"/>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377" s="14"/>
+      <c r="B377" t="s">
+        <v>42</v>
+      </c>
+      <c r="C377" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" s="14"/>
+      <c r="B378" s="14"/>
+      <c r="C378" t="s">
+        <v>307</v>
+      </c>
+      <c r="D378" t="s">
+        <v>308</v>
+      </c>
+      <c r="G378" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" s="14"/>
+      <c r="B379" s="14"/>
+      <c r="C379" t="s">
+        <v>652</v>
+      </c>
+      <c r="D379" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380" s="14"/>
+      <c r="B380" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
+++ b/Concept/Documentation/Groep Alieke - Hanzaki Assetlist & Planning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="674">
   <si>
     <t>Arne</t>
   </si>
@@ -2030,6 +2030,24 @@
   </si>
   <si>
     <t>Heart Empty</t>
+  </si>
+  <si>
+    <t>2D_TXT_SLASH</t>
+  </si>
+  <si>
+    <t>2D_TXT_DASH</t>
+  </si>
+  <si>
+    <t>2D_TXT_LOCKABILITY</t>
+  </si>
+  <si>
+    <t>2D_TXT_HHEARTLSIDE</t>
+  </si>
+  <si>
+    <t>2D_TXT_HHEARTRSIDE</t>
+  </si>
+  <si>
+    <t>2D_TXT_HEARTEMPTY</t>
   </si>
 </sst>
 </file>
@@ -4510,7 +4528,7 @@
   <dimension ref="A1:J380"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6034,6 +6052,9 @@
       <c r="C81" t="s">
         <v>659</v>
       </c>
+      <c r="D81" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
@@ -6041,6 +6062,9 @@
       <c r="C82" t="s">
         <v>660</v>
       </c>
+      <c r="D82" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
@@ -6048,6 +6072,9 @@
       <c r="C83" t="s">
         <v>661</v>
       </c>
+      <c r="D83" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
@@ -6055,6 +6082,9 @@
       <c r="C84" t="s">
         <v>662</v>
       </c>
+      <c r="D84" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
@@ -6062,6 +6092,9 @@
       <c r="C85" t="s">
         <v>663</v>
       </c>
+      <c r="D85" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
@@ -6069,6 +6102,9 @@
       <c r="C86" t="s">
         <v>664</v>
       </c>
+      <c r="D86" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
@@ -6076,6 +6112,9 @@
       <c r="C87" t="s">
         <v>665</v>
       </c>
+      <c r="D87" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
@@ -6083,12 +6122,18 @@
       <c r="C88" t="s">
         <v>666</v>
       </c>
+      <c r="D88" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" t="s">
         <v>667</v>
+      </c>
+      <c r="D89" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
